--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FEF606-B6B2-472F-88CF-2CEDAFA2AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF8FBB-62A2-4938-AAEF-036F94085387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>ANN</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Vector Features</t>
+  </si>
+  <si>
+    <t>DenseNet</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>EMODB: Mel-Spectrogram</t>
+  </si>
+  <si>
+    <t>EMODB: MFCC</t>
   </si>
 </sst>
 </file>
@@ -11951,20 +11966,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="10" width="18.5703125" customWidth="1"/>
+    <col min="6" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="19" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
@@ -11977,8 +11994,19 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="5"/>
+      <c r="K1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -11988,8 +12016,17 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12000,8 +12037,17 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -12011,8 +12057,17 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
@@ -12026,8 +12081,21 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
+      <c r="K5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -12049,8 +12117,29 @@
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -12076,8 +12165,21 @@
       <c r="I7" s="9">
         <v>0.43</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -12103,8 +12205,21 @@
       <c r="I8" s="9">
         <v>0.42</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -12131,8 +12246,21 @@
         <v>0.44</v>
       </c>
       <c r="J9" s="1"/>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -12158,8 +12286,21 @@
       <c r="I10" s="9">
         <v>0.4</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -12185,8 +12326,21 @@
       <c r="I11" s="9">
         <v>0.39</v>
       </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -12212,8 +12366,17 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -12239,8 +12402,17 @@
       <c r="I13" s="9">
         <v>0.21</v>
       </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -12266,8 +12438,17 @@
       <c r="I14" s="9">
         <v>0.35</v>
       </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -12293,8 +12474,17 @@
       <c r="I15" s="9">
         <v>0.42</v>
       </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -12320,8 +12510,17 @@
       <c r="I16" s="9">
         <v>0.41</v>
       </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -12331,8 +12530,17 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -12342,8 +12550,17 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -12353,8 +12570,17 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12364,8 +12590,17 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>13</v>
       </c>
@@ -12379,8 +12614,21 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="20"/>
+      <c r="K21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -12402,8 +12650,29 @@
       <c r="I22" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -12429,8 +12698,21 @@
       <c r="I23" s="9">
         <v>0.68</v>
       </c>
+      <c r="K23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -12456,8 +12738,21 @@
       <c r="I24" s="9">
         <v>0.67</v>
       </c>
+      <c r="K24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -12483,8 +12778,21 @@
       <c r="I25" s="9">
         <v>0.64</v>
       </c>
+      <c r="K25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -12510,8 +12818,21 @@
       <c r="I26" s="9">
         <v>0.54</v>
       </c>
+      <c r="K26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -12537,8 +12858,21 @@
       <c r="I27" s="9">
         <v>0.54</v>
       </c>
+      <c r="K27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -12564,8 +12898,17 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -12591,8 +12934,17 @@
       <c r="I29" s="9">
         <v>0.18</v>
       </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -12618,8 +12970,17 @@
       <c r="I30" s="9">
         <v>0.57999999999999996</v>
       </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -12645,8 +13006,17 @@
       <c r="I31" s="9">
         <v>0.64</v>
       </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -12672,8 +13042,17 @@
       <c r="I32" s="9">
         <v>0.64</v>
       </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12683,8 +13062,17 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -12694,8 +13082,17 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12705,8 +13102,17 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -12716,8 +13122,17 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>15</v>
       </c>
@@ -12731,8 +13146,21 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="20"/>
+      <c r="K37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -12754,8 +13182,29 @@
       <c r="I38" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -12781,8 +13230,21 @@
       <c r="I39" s="9">
         <v>0.57999999999999996</v>
       </c>
+      <c r="K39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -12808,8 +13270,21 @@
       <c r="I40" s="9">
         <v>0.53</v>
       </c>
+      <c r="K40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -12835,8 +13310,21 @@
       <c r="I41" s="9">
         <v>0.56000000000000005</v>
       </c>
+      <c r="K41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -12862,8 +13350,21 @@
       <c r="I42" s="9">
         <v>0.56999999999999995</v>
       </c>
+      <c r="K42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -12889,8 +13390,21 @@
       <c r="I43" s="9">
         <v>0.4</v>
       </c>
+      <c r="K43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -12916,8 +13430,17 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -12943,8 +13466,17 @@
       <c r="I45" s="9">
         <v>0.09</v>
       </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -12970,8 +13502,17 @@
       <c r="I46" s="9">
         <v>0.56000000000000005</v>
       </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="15"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -12997,8 +13538,17 @@
       <c r="I47" s="9">
         <v>0.56999999999999995</v>
       </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="15"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -13024,8 +13574,17 @@
       <c r="I48" s="9">
         <v>0.42</v>
       </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="15"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -13035,8 +13594,17 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="15"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -13046,8 +13614,17 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="15"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -13057,8 +13634,17 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="15"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -13068,8 +13654,17 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>17</v>
       </c>
@@ -13083,8 +13678,21 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
+      <c r="K53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -13106,8 +13714,29 @@
       <c r="I54" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -13133,8 +13762,21 @@
       <c r="I55" s="9">
         <v>0.56999999999999995</v>
       </c>
+      <c r="K55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
@@ -13160,8 +13802,21 @@
       <c r="I56" s="9">
         <v>0.6</v>
       </c>
+      <c r="K56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
@@ -13187,8 +13842,21 @@
       <c r="I57" s="9">
         <v>0.56999999999999995</v>
       </c>
+      <c r="K57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -13214,8 +13882,21 @@
       <c r="I58" s="9">
         <v>0.44</v>
       </c>
+      <c r="K58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -13241,8 +13922,21 @@
       <c r="I59" s="9">
         <v>0.36</v>
       </c>
+      <c r="K59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -13268,8 +13962,17 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -13295,8 +13998,17 @@
       <c r="I61" s="9">
         <v>0.17</v>
       </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -13322,8 +14034,17 @@
       <c r="I62" s="9">
         <v>0.41</v>
       </c>
+      <c r="K62" s="13"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="15"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -13349,8 +14070,17 @@
       <c r="I63" s="9">
         <v>0.55000000000000004</v>
       </c>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="15"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -13376,9 +14106,27 @@
       <c r="I64" s="9">
         <v>0.52</v>
       </c>
+      <c r="K64" s="13"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K1:S2"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F37:I37"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57339BE2-AE7B-4B93-85C8-7457E5C8B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45271BD-C4EB-4306-B182-0D0791E2908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -514,15 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,12 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +539,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,11 +1906,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> DATASETS</a:t>
+              <a:t> DATASETS - VECTOR FEATURES</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>: Mel-Spectrogram vs MFCC</a:t>
+              <a:t>:    Mel-Spectrogram vs MFCC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2866,7 +2866,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>MACHINE LEARNING - ALL DATASETS : Mel-Spectrogram vs MFCC</a:t>
+              <a:t>MACHINE LEARNING - ALL DATASETS - VECTOR FEATURES: Mel-Spectrogram vs MFCC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -31030,8 +31030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB62" activeCellId="1" sqref="Z62:Z66 AB62:AB66"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z66" sqref="Z5:AC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31044,69 +31044,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="29"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31170,46 +31170,46 @@
       <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="19" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31694,33 +31694,33 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="24"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="22" t="s">
+      <c r="U12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="21"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="22" t="s">
+      <c r="Z12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -32211,46 +32211,46 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="19" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="21"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="19" t="s">
+      <c r="Z21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="21"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="30"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -32734,33 +32734,33 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="24"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="22" t="s">
+      <c r="U28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="24"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="21"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="22" t="s">
+      <c r="Z28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -33251,46 +33251,46 @@
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="K37" s="19" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="K37" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="19" t="s">
+      <c r="P37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="21"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="19" t="s">
+      <c r="U37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="30"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="19" t="s">
+      <c r="Z37" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="21"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="30"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -33774,33 +33774,33 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="24"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="24"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="21"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="22" t="s">
+      <c r="U44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="24"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="21"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="22" t="s">
+      <c r="Z44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="24"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="21"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -34291,46 +34291,46 @@
       <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="K53" s="19" t="s">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+      <c r="K53" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="21"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="19" t="s">
+      <c r="U53" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="21"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="30"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="19" t="s">
+      <c r="Z53" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="21"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="30"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -34814,33 +34814,33 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="24"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="22" t="s">
+      <c r="P60" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="24"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="21"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="22" t="s">
+      <c r="U60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="24"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="21"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="22" t="s">
+      <c r="Z60" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="21"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -35332,6 +35332,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="P28:S28"/>
     <mergeCell ref="K1:AC2"/>
@@ -35348,32 +35374,6 @@
     <mergeCell ref="P60:S60"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35384,8 +35384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FD7A86-73DA-44B2-B0E2-52543668D857}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35399,8 +35399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122FAC1-14A9-4631-87C8-BC63A01CE8FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CY36" sqref="CY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45271BD-C4EB-4306-B182-0D0791E2908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E00D15-977C-4946-AF20-964B2823C771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -514,6 +514,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +530,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,21 +554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31030,8 +31030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z66" sqref="Z5:AC66"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AL105" sqref="AL105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31044,69 +31044,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="29"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31170,46 +31170,46 @@
       <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="28" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="K5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="28" t="s">
+      <c r="Z5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="30"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31694,33 +31694,33 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="21"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="24"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -32211,46 +32211,46 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="28" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="K21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="30"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -32734,33 +32734,33 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="19" t="s">
+      <c r="U28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="24"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="19" t="s">
+      <c r="Z28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="21"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="24"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -33251,46 +33251,46 @@
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
-      <c r="K37" s="28" t="s">
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="K37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="28" t="s">
+      <c r="P37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="30"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="28" t="s">
+      <c r="U37" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="30"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="21"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="28" t="s">
+      <c r="Z37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="30"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="21"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -33774,33 +33774,33 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="19" t="s">
+      <c r="P44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="21"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="19" t="s">
+      <c r="U44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="21"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="24"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="19" t="s">
+      <c r="Z44" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="21"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="24"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -34291,46 +34291,46 @@
       <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="K53" s="28" t="s">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="24"/>
+      <c r="K53" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="30"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="28" t="s">
+      <c r="P53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="30"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="28" t="s">
+      <c r="U53" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="30"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="21"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="28" t="s">
+      <c r="Z53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="30"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="21"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -34814,33 +34814,33 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="24"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="19" t="s">
+      <c r="P60" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="21"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="24"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="19" t="s">
+      <c r="U60" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="21"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="24"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="19" t="s">
+      <c r="Z60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="21"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="24"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -35332,16 +35332,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="K1:AC2"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
     <mergeCell ref="U53:X53"/>
     <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="U60:X60"/>
@@ -35358,22 +35364,16 @@
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="P37:S37"/>
     <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="K1:AC2"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35399,7 +35399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122FAC1-14A9-4631-87C8-BC63A01CE8FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="BV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CY36" sqref="CY36"/>
     </sheetView>
   </sheetViews>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E00D15-977C-4946-AF20-964B2823C771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26EE43-642A-4C29-89CA-1125ADD888F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="66">
   <si>
     <t>ANN</t>
   </si>
@@ -213,6 +213,30 @@
   <si>
     <t>SAVEE: MFCC  256X256</t>
   </si>
+  <si>
+    <t>3 Channel Feature EMODB Dataset</t>
+  </si>
+  <si>
+    <t>Vector Features - Gen Alg Optimisation</t>
+  </si>
+  <si>
+    <t>CH_ME_MF</t>
+  </si>
+  <si>
+    <t>CH_MF_ME</t>
+  </si>
+  <si>
+    <t>MF_CH_ME</t>
+  </si>
+  <si>
+    <t>MF_ME_CH</t>
+  </si>
+  <si>
+    <t>ME_CH_MF</t>
+  </si>
+  <si>
+    <t>ME_MF_CH</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +346,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5757"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,15 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,12 +569,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +589,48 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,16 +639,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5757"/>
+      <color rgb="FFFF9393"/>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFFD3D3"/>
+      <color rgb="FFFF7979"/>
       <color rgb="FFEC7014"/>
       <color rgb="FFCB181D"/>
       <color rgb="FF238B45"/>
       <color rgb="FF2171B5"/>
       <color rgb="FFFD9351"/>
-      <color rgb="FFFB6A4A"/>
-      <color rgb="FF74C476"/>
-      <color rgb="FF6BAED6"/>
-      <color rgb="FFFF7979"/>
-      <color rgb="FFFEC49F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -31028,10 +31103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AL105" sqref="AL105"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31041,74 +31116,96 @@
     <col min="6" max="14" width="18.5703125" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
     <col min="16" max="29" width="18.5703125" customWidth="1"/>
+    <col min="30" max="30" width="25.5703125" customWidth="1"/>
+    <col min="31" max="34" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="29"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="27"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -31139,7 +31236,7 @@
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -31169,49 +31266,55 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="19" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="30"/>
+      <c r="AE5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -31276,8 +31379,18 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -31354,8 +31467,20 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
+      <c r="AE7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF7" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>0.73</v>
+      </c>
+      <c r="AH7" s="34">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -31432,8 +31557,20 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
+      <c r="AE8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="AH8" s="34">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -31511,8 +31648,20 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
+      <c r="AE9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>0.81</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="AH9" s="34">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -31589,8 +31738,20 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
+      <c r="AE10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>0.69</v>
+      </c>
+      <c r="AH10" s="34">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -31667,8 +31828,20 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
+      <c r="AE11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="AG11" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="AH11" s="34">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -31694,35 +31867,41 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="24"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="22" t="s">
+      <c r="U12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="21"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="22" t="s">
+      <c r="Z12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+      <c r="AE12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -31791,8 +31970,12 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -31869,8 +32052,12 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -31947,8 +32134,12 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -32025,6 +32216,10 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -32211,46 +32406,46 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="19" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="21"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="19" t="s">
+      <c r="Z21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="21"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="30"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -32734,33 +32929,33 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="24"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="22" t="s">
+      <c r="U28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="24"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="21"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="22" t="s">
+      <c r="Z28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -33251,46 +33446,46 @@
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="K37" s="19" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="K37" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="19" t="s">
+      <c r="P37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="21"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="19" t="s">
+      <c r="U37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="30"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="19" t="s">
+      <c r="Z37" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="21"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="30"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -33774,33 +33969,33 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="24"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="24"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="21"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="22" t="s">
+      <c r="U44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="24"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="21"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="22" t="s">
+      <c r="Z44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="24"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="21"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -34291,46 +34486,46 @@
       <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="K53" s="19" t="s">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+      <c r="K53" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="21"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="19" t="s">
+      <c r="U53" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="21"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="30"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="19" t="s">
+      <c r="Z53" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="21"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="30"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -34814,33 +35009,33 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="24"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="22" t="s">
+      <c r="P60" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="24"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="21"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="22" t="s">
+      <c r="U60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="24"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="21"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="22" t="s">
+      <c r="Z60" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="21"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -35331,7 +35526,35 @@
       <c r="AC68" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="P28:S28"/>
     <mergeCell ref="K1:AC2"/>
@@ -35348,32 +35571,6 @@
     <mergeCell ref="P60:S60"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26EE43-642A-4C29-89CA-1125ADD888F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BE333-A801-4512-9584-EEDC9C03A0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
+    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11835" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -562,6 +562,45 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,6 +608,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,48 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31105,8 +31105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31121,89 +31121,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="31" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AE1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="27"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31267,52 +31267,52 @@
       <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="28" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="28" t="s">
+      <c r="Z5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="30"/>
-      <c r="AE5" s="41" t="s">
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="31"/>
+      <c r="AE5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31379,14 +31379,14 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="38" t="s">
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="38" t="s">
+      <c r="AG6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="38" t="s">
+      <c r="AH6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -31467,16 +31467,16 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
-      <c r="AE7" s="37" t="s">
+      <c r="AE7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="20">
         <v>0.79</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG7" s="21">
         <v>0.73</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="20">
         <v>0.79</v>
       </c>
     </row>
@@ -31557,16 +31557,16 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="37" t="s">
+      <c r="AE8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="20">
         <v>0.78</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AG8" s="21">
         <v>0.7</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="20">
         <v>0.77</v>
       </c>
     </row>
@@ -31648,16 +31648,16 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="37" t="s">
+      <c r="AE9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="20">
         <v>0.81</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="21">
         <v>0.75</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AH9" s="20">
         <v>0.81</v>
       </c>
     </row>
@@ -31738,16 +31738,16 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE10" s="37" t="s">
+      <c r="AE10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AF10" s="34">
+      <c r="AF10" s="20">
         <v>0.79</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="21">
         <v>0.69</v>
       </c>
-      <c r="AH10" s="34">
+      <c r="AH10" s="20">
         <v>0.77</v>
       </c>
     </row>
@@ -31828,16 +31828,16 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE11" s="37" t="s">
+      <c r="AE11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11" s="20">
         <v>0.74</v>
       </c>
-      <c r="AG11" s="35">
+      <c r="AG11" s="21">
         <v>0.66</v>
       </c>
-      <c r="AH11" s="34">
+      <c r="AH11" s="20">
         <v>0.73</v>
       </c>
     </row>
@@ -31867,39 +31867,45 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="21"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="34"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
-      <c r="AE12" s="37" t="s">
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="34"/>
+      <c r="AE12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="34"/>
+      <c r="AF12" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="AH12" s="20">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -31970,10 +31976,10 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
     </row>
     <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -32052,10 +32058,10 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -32134,10 +32140,10 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
     </row>
     <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -32216,10 +32222,10 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -32406,46 +32412,46 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="28" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="K21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="31"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="31"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -32929,33 +32935,33 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="34"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="19" t="s">
+      <c r="U28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="34"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="19" t="s">
+      <c r="Z28" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="21"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="34"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -33446,46 +33452,46 @@
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
-      <c r="K37" s="28" t="s">
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="K37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="28" t="s">
+      <c r="P37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="31"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="28" t="s">
+      <c r="U37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="31"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="28" t="s">
+      <c r="Z37" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="31"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -33969,33 +33975,33 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="19" t="s">
+      <c r="P44" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="21"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="19" t="s">
+      <c r="U44" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="21"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="34"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="19" t="s">
+      <c r="Z44" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="21"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="34"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -34486,46 +34492,46 @@
       <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="K53" s="28" t="s">
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="K53" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="31"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="28" t="s">
+      <c r="P53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="31"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="28" t="s">
+      <c r="U53" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="31"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="28" t="s">
+      <c r="Z53" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="31"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -35009,33 +35015,33 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="19" t="s">
+      <c r="P60" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="21"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="34"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="19" t="s">
+      <c r="U60" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="21"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="34"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="19" t="s">
+      <c r="Z60" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="21"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="34"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -35527,20 +35533,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Z21:AC21"/>
     <mergeCell ref="U60:X60"/>
     <mergeCell ref="Z60:AC60"/>
     <mergeCell ref="A1:I2"/>
@@ -35557,20 +35561,22 @@
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="P28:S28"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="K1:AC2"/>
     <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BE333-A801-4512-9584-EEDC9C03A0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E7D7F-4B78-4D31-B8F3-91413B4897A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11835" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="76">
   <si>
     <t>ANN</t>
   </si>
@@ -214,12 +214,6 @@
     <t>SAVEE: MFCC  256X256</t>
   </si>
   <si>
-    <t>3 Channel Feature EMODB Dataset</t>
-  </si>
-  <si>
-    <t>Vector Features - Gen Alg Optimisation</t>
-  </si>
-  <si>
     <t>CH_ME_MF</t>
   </si>
   <si>
@@ -237,12 +231,48 @@
   <si>
     <t>ME_MF_CH</t>
   </si>
+  <si>
+    <t>3 Channel Feature EMODB Dataset 512x512</t>
+  </si>
+  <si>
+    <t>3 Channel Feature RAVDESS Dataset 512x512</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg Optimisation - 128x128</t>
+  </si>
+  <si>
+    <t>CNN - EMODB</t>
+  </si>
+  <si>
+    <t>CNN - RAVDESS</t>
+  </si>
+  <si>
+    <t>RESNET - EMODB</t>
+  </si>
+  <si>
+    <t>RESNET - RAVDESS</t>
+  </si>
+  <si>
+    <t>DENSENET - EMODB</t>
+  </si>
+  <si>
+    <t>DENSENET - RAVDESS</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg Optimisation - 128x128 - 4 CLASSES ONLY</t>
+  </si>
+  <si>
+    <t>VGG - EMODB</t>
+  </si>
+  <si>
+    <t>VGG - RAVDESS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +311,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +408,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5757"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC7014"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB547"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCA7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -562,9 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,10 +645,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,18 +702,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,13 +711,13 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,16 +728,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFDDAB"/>
+      <color rgb="FFFFCA7D"/>
+      <color rgb="FFFFBD5B"/>
+      <color rgb="FFFFB547"/>
+      <color rgb="FFEC7014"/>
       <color rgb="FFFF5757"/>
       <color rgb="FFFF9393"/>
       <color rgb="FFFF8989"/>
       <color rgb="FFFFD3D3"/>
       <color rgb="FFFF7979"/>
-      <color rgb="FFEC7014"/>
-      <color rgb="FFCB181D"/>
-      <color rgb="FF238B45"/>
-      <color rgb="FF2171B5"/>
-      <color rgb="FFFD9351"/>
     </mruColors>
   </colors>
   <extLst>
@@ -31103,10 +31192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:BF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW39" sqref="AW39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31117,95 +31206,119 @@
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
     <col min="16" max="29" width="18.5703125" customWidth="1"/>
     <col min="30" max="30" width="25.5703125" customWidth="1"/>
-    <col min="31" max="34" width="18.5703125" customWidth="1"/>
+    <col min="31" max="51" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AE1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AE1" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AP1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
+    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="48"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -31235,8 +31348,32 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
+      <c r="AE3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AK3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AP3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AV3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -31265,56 +31402,88 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="K5" s="29" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="K5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="44"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="29" t="s">
+      <c r="Z5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="31"/>
-      <c r="AE5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="BC5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -31379,18 +31548,58 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="24" t="s">
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="24" t="s">
+      <c r="AG6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="24" t="s">
+      <c r="AH6" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF6" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -31467,20 +31676,44 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
-      <c r="AE7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF7" s="20">
+      <c r="AE7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="19"/>
+      <c r="AK7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="19"/>
+      <c r="AP7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="19"/>
+      <c r="AV7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="19"/>
+      <c r="BC7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD7" s="19">
         <v>0.79</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="BE7" s="20">
         <v>0.73</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="BF7" s="19">
         <v>0.79</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -31557,20 +31790,44 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF8" s="20">
+      <c r="AE8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="19"/>
+      <c r="AK8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="19"/>
+      <c r="AP8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="19"/>
+      <c r="AV8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="19"/>
+      <c r="BC8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD8" s="19">
         <v>0.78</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="BE8" s="20">
         <v>0.7</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="BF8" s="19">
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -31648,20 +31905,44 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF9" s="20">
+      <c r="AE9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="19"/>
+      <c r="AK9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="19"/>
+      <c r="AP9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="19"/>
+      <c r="AV9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="19"/>
+      <c r="BC9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD9" s="19">
         <v>0.81</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="BE9" s="20">
         <v>0.75</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="BF9" s="19">
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -31738,20 +32019,44 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE10" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF10" s="20">
+      <c r="AE10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="19"/>
+      <c r="AK10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="19"/>
+      <c r="AP10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="19"/>
+      <c r="AV10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="19"/>
+      <c r="BC10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD10" s="19">
         <v>0.79</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="BE10" s="20">
         <v>0.69</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="BF10" s="19">
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -31828,20 +32133,44 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF11" s="20">
+      <c r="AE11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="19"/>
+      <c r="AK11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="19"/>
+      <c r="AP11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="19"/>
+      <c r="AV11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="19"/>
+      <c r="BC11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD11" s="19">
         <v>0.74</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="BE11" s="20">
         <v>0.66</v>
       </c>
-      <c r="AH11" s="20">
+      <c r="BF11" s="19">
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -31867,47 +32196,71 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
-      <c r="AE12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF12" s="20">
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AE12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="19"/>
+      <c r="AK12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="19"/>
+      <c r="AP12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="19"/>
+      <c r="AV12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="19"/>
+      <c r="BC12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD12" s="19">
         <v>0.81</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="BE12" s="20">
         <v>0.74</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="BF12" s="19">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -31976,12 +32329,36 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
+      <c r="AE13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AK13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AP13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33"/>
+      <c r="AV13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -32058,12 +32435,28 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -32140,12 +32533,30 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
+      <c r="AX15" s="35"/>
+      <c r="AY15" s="35"/>
+      <c r="BC15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
     </row>
-    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -32222,12 +32633,58 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF16" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -32288,8 +32745,44 @@
       <c r="AC17" s="9">
         <v>0.48</v>
       </c>
+      <c r="AE17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
+      <c r="AK17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="30"/>
+      <c r="AP17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="30"/>
+      <c r="AV17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW17" s="30"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="30"/>
+      <c r="BC17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD17" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BE17" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="BF17" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -32350,8 +32843,44 @@
       <c r="AC18" s="9">
         <v>0.44</v>
       </c>
+      <c r="AE18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="30"/>
+      <c r="AK18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="30"/>
+      <c r="AP18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="30"/>
+      <c r="AV18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="30"/>
+      <c r="BC18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD18" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="BE18" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BF18" s="19">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -32380,8 +32909,44 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
+      <c r="AE19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
+      <c r="AK19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="30"/>
+      <c r="AP19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="30"/>
+      <c r="AV19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="30"/>
+      <c r="BC19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD19" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BE19" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="BF19" s="19">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -32410,50 +32975,116 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
+      <c r="AE20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
+      <c r="AK20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="30"/>
+      <c r="AP20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="30"/>
+      <c r="AV20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="30"/>
+      <c r="BC20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="19"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="K21" s="29" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="29" t="s">
+      <c r="P21" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="29" t="s">
+      <c r="U21" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="31"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="44"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="29" t="s">
+      <c r="Z21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="31"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="44"/>
+      <c r="AE21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
+      <c r="AK21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="30"/>
+      <c r="AP21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="30"/>
+      <c r="AV21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="30"/>
+      <c r="BC21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD21" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BE21" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="BF21" s="19">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -32518,8 +33149,44 @@
       <c r="AC22" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="AE22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
+      <c r="AK22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="30"/>
+      <c r="AP22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="30"/>
+      <c r="AV22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="30"/>
+      <c r="BC22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD22" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="BE22" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="BF22" s="19">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -32596,8 +33263,32 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
+      <c r="AE23" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AK23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AP23" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AV23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -32674,8 +33365,24 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -32752,8 +33459,24 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -32830,8 +33553,48 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY26" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -32908,8 +33671,32 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
+      <c r="AE27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="19"/>
+      <c r="AK27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="19"/>
+      <c r="AP27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="19"/>
+      <c r="AV27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="19"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -32935,35 +33722,59 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="32" t="s">
+      <c r="U28" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="32" t="s">
+      <c r="Z28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="34"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AE28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19"/>
+      <c r="AK28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="19"/>
+      <c r="AP28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="19"/>
+      <c r="AV28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="19"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -33032,8 +33843,32 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="19"/>
+      <c r="AK29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="19"/>
+      <c r="AP29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="19"/>
+      <c r="AV29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="19"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -33110,8 +33945,32 @@
       <c r="AC30" s="9">
         <v>0.43</v>
       </c>
+      <c r="AE30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="19"/>
+      <c r="AK30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="19"/>
+      <c r="AP30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="19"/>
+      <c r="AV30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="20"/>
+      <c r="AY30" s="19"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -33188,8 +34047,32 @@
       <c r="AC31" s="9">
         <v>0.74</v>
       </c>
+      <c r="AE31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="19"/>
+      <c r="AK31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="19"/>
+      <c r="AP31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="19"/>
+      <c r="AV31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="20"/>
+      <c r="AY31" s="19"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -33266,8 +34149,32 @@
       <c r="AC32" s="9">
         <v>0.6</v>
       </c>
+      <c r="AE32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="19"/>
+      <c r="AK32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="19"/>
+      <c r="AP32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="19"/>
+      <c r="AV32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="20"/>
+      <c r="AY32" s="19"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -33328,8 +34235,32 @@
       <c r="AC33" s="9">
         <v>0.61</v>
       </c>
+      <c r="AE33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AK33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
+      <c r="AP33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33"/>
+      <c r="AV33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW33" s="33"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="33"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -33390,8 +34321,24 @@
       <c r="AC34" s="9">
         <v>0.69</v>
       </c>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AY34" s="34"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -33420,8 +34367,24 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="14"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -33450,50 +34413,114 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="14"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY36" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="29" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="K37" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="44"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="29" t="s">
+      <c r="P37" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="31"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="44"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="29" t="s">
+      <c r="U37" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="31"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="44"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="29" t="s">
+      <c r="Z37" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="31"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="44"/>
+      <c r="AE37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
+      <c r="AK37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="30"/>
+      <c r="AP37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="30"/>
+      <c r="AV37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW37" s="30"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="30"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -33558,8 +34585,32 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="AE38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
+      <c r="AK38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="30"/>
+      <c r="AP38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="30"/>
+      <c r="AV38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="30"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -33636,8 +34687,32 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
+      <c r="AE39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="30"/>
+      <c r="AK39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="30"/>
+      <c r="AP39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="30"/>
+      <c r="AV39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW39" s="30"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="30"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -33714,8 +34789,32 @@
       <c r="AC40" s="10">
         <v>0.6</v>
       </c>
+      <c r="AE40" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="30"/>
+      <c r="AK40" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="30"/>
+      <c r="AP40" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="29"/>
+      <c r="AS40" s="30"/>
+      <c r="AV40" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="29"/>
+      <c r="AY40" s="30"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -33792,8 +34891,32 @@
       <c r="AC41" s="10">
         <v>0.54</v>
       </c>
+      <c r="AE41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="30"/>
+      <c r="AK41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="30"/>
+      <c r="AP41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="30"/>
+      <c r="AV41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="30"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -33870,8 +34993,32 @@
       <c r="AC42" s="10">
         <v>0.66</v>
       </c>
+      <c r="AE42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="30"/>
+      <c r="AK42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="30"/>
+      <c r="AP42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="30"/>
+      <c r="AV42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="30"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -33949,7 +35096,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -33975,35 +35122,35 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K44" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="34"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="32" t="s">
+      <c r="P44" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="34"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="40"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="32" t="s">
+      <c r="U44" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="34"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="32" t="s">
+      <c r="Z44" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="34"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="40"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -34073,7 +35220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -34151,7 +35298,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -34229,7 +35376,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -34492,46 +35639,46 @@
       <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="K53" s="29" t="s">
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+      <c r="K53" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="31"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="44"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="29" t="s">
+      <c r="P53" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="31"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="44"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="29" t="s">
+      <c r="U53" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="31"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="44"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="29" t="s">
+      <c r="Z53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="31"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="44"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -35015,33 +36162,33 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="32" t="s">
+      <c r="K60" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="32" t="s">
+      <c r="P60" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="34"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="32" t="s">
+      <c r="U60" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="34"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="40"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="32" t="s">
+      <c r="Z60" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="34"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="40"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -35532,21 +36679,7 @@
       <c r="AC68" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="Z60:AC60"/>
+  <mergeCells count="62">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F37:I37"/>
@@ -35561,22 +36694,54 @@
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="P28:S28"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="P60:S60"/>
     <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="BC15:BF15"/>
+    <mergeCell ref="BC5:BF5"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="AK33:AN35"/>
+    <mergeCell ref="AE23:AH25"/>
+    <mergeCell ref="AE33:AH35"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="K1:AC2"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="K1:AC2"/>
+    <mergeCell ref="Z21:AC21"/>
     <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AE13:AH15"/>
+    <mergeCell ref="AK3:AN5"/>
+    <mergeCell ref="AK13:AN15"/>
+    <mergeCell ref="AK23:AN25"/>
+    <mergeCell ref="AP23:AS25"/>
+    <mergeCell ref="AV23:AY25"/>
+    <mergeCell ref="AP33:AS35"/>
+    <mergeCell ref="AV33:AY35"/>
+    <mergeCell ref="AP1:AY2"/>
+    <mergeCell ref="AP3:AS5"/>
+    <mergeCell ref="AV3:AY5"/>
+    <mergeCell ref="AP13:AS15"/>
+    <mergeCell ref="AV13:AY15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E7D7F-4B78-4D31-B8F3-91413B4897A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5509D-0D1F-4739-85D2-C26F8B1D0DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="78">
   <si>
     <t>ANN</t>
   </si>
@@ -238,13 +238,7 @@
     <t>3 Channel Feature RAVDESS Dataset 512x512</t>
   </si>
   <si>
-    <t>3 Features Channel Images - Gen Alg Optimisation - 128x128</t>
-  </si>
-  <si>
     <t>CNN - EMODB</t>
-  </si>
-  <si>
-    <t>CNN - RAVDESS</t>
   </si>
   <si>
     <t>RESNET - EMODB</t>
@@ -259,13 +253,25 @@
     <t>DENSENET - RAVDESS</t>
   </si>
   <si>
-    <t>3 Features Channel Images - Gen Alg Optimisation - 128x128 - 4 CLASSES ONLY</t>
-  </si>
-  <si>
     <t>VGG - EMODB</t>
   </si>
   <si>
     <t>VGG - RAVDESS</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256</t>
+  </si>
+  <si>
+    <t>EFFICIENTNET - EMODB</t>
+  </si>
+  <si>
+    <t>EFFICIENTNET - RAVDESS</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256 - 4 CLASSES</t>
   </si>
 </sst>
 </file>
@@ -320,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +441,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -576,11 +612,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -660,25 +707,112 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,9 +824,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,16 +833,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31192,10 +31317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:BF68"/>
+  <dimension ref="A1:BF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW39" sqref="AW39"/>
+    <sheetView tabSelected="1" topLeftCell="T79" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31210,113 +31335,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="47"/>
-      <c r="AE1" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AP1" s="36" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="54"/>
+      <c r="AE1" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="54"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="48"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="57"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="57"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31348,30 +31475,31 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AK3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AP3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AV3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="42"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -31402,86 +31530,96 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="42"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="K5" s="42" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="K5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="BC5" s="41" t="s">
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="42"/>
+      <c r="BC5" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31548,46 +31686,39 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="23" t="s">
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="23" t="s">
+      <c r="AJ6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="23" t="s">
+      <c r="AK6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="23" t="s">
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="23" t="s">
+      <c r="AU6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AN6" s="23" t="s">
+      <c r="AV6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY6" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="42"/>
       <c r="BC6" s="21"/>
       <c r="BD6" s="23" t="s">
         <v>10</v>
@@ -31676,30 +31807,31 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="19"/>
-      <c r="AK7" s="22" t="s">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="19"/>
-      <c r="AP7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="19"/>
-      <c r="AV7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="19"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="42"/>
       <c r="BC7" s="22" t="s">
         <v>58</v>
       </c>
@@ -31790,30 +31922,31 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="19"/>
-      <c r="AK8" s="22" t="s">
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="19"/>
-      <c r="AP8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="19"/>
-      <c r="AV8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="19"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="42"/>
       <c r="BC8" s="22" t="s">
         <v>59</v>
       </c>
@@ -31905,30 +32038,31 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="19"/>
-      <c r="AK9" s="22" t="s">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="19"/>
-      <c r="AP9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="19"/>
-      <c r="AV9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="19"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="42"/>
       <c r="BC9" s="22" t="s">
         <v>60</v>
       </c>
@@ -32019,30 +32153,31 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="19"/>
-      <c r="AK10" s="22" t="s">
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="19"/>
-      <c r="AP10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="19"/>
-      <c r="AV10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="19"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="42"/>
       <c r="BC10" s="22" t="s">
         <v>61</v>
       </c>
@@ -32133,30 +32268,31 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE11" s="22" t="s">
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="19"/>
-      <c r="AK11" s="22" t="s">
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="19"/>
-      <c r="AP11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="19"/>
-      <c r="AV11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="19"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="42"/>
       <c r="BC11" s="22" t="s">
         <v>62</v>
       </c>
@@ -32196,57 +32332,58 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="69"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="38" t="s">
+      <c r="Z12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="40"/>
-      <c r="AE12" s="22" t="s">
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="19"/>
-      <c r="AK12" s="22" t="s">
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="19"/>
-      <c r="AP12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="19"/>
-      <c r="AV12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="19"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="42"/>
       <c r="BC12" s="22" t="s">
         <v>63</v>
       </c>
@@ -32329,30 +32466,35 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AK13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AP13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AV13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
+      <c r="AE13" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="62"/>
       <c r="BC13" s="24"/>
       <c r="BD13" s="25"/>
       <c r="BE13" s="25"/>
@@ -32435,28 +32577,33 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="62"/>
       <c r="BC14" s="24"/>
       <c r="BD14" s="25"/>
       <c r="BE14" s="25"/>
       <c r="BF14" s="25"/>
     </row>
-    <row r="15" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -32533,28 +32680,33 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="35"/>
-      <c r="AX15" s="35"/>
-      <c r="AY15" s="35"/>
-      <c r="BC15" s="41" t="s">
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="63"/>
+      <c r="BC15" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="73"/>
     </row>
     <row r="16" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -32633,44 +32785,49 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="28" t="s">
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG16" s="28" t="s">
+      <c r="AG16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH16" s="28" t="s">
+      <c r="AH16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="28" t="s">
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM16" s="28" t="s">
+      <c r="AM16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AN16" s="28" t="s">
+      <c r="AN16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="28" t="s">
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AR16" s="28" t="s">
+      <c r="AR16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AS16" s="28" t="s">
+      <c r="AS16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="28" t="s">
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AX16" s="28" t="s">
+      <c r="AX16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AY16" s="28" t="s">
+      <c r="AY16" s="23" t="s">
         <v>12</v>
       </c>
       <c r="BC16" s="21"/>
@@ -32745,30 +32902,35 @@
       <c r="AC17" s="9">
         <v>0.48</v>
       </c>
-      <c r="AE17" s="27" t="s">
+      <c r="AE17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="30"/>
-      <c r="AK17" s="27" t="s">
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="30"/>
-      <c r="AP17" s="27" t="s">
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="30"/>
-      <c r="AV17" s="27" t="s">
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="30"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="19"/>
       <c r="BC17" s="22" t="s">
         <v>58</v>
       </c>
@@ -32843,30 +33005,35 @@
       <c r="AC18" s="9">
         <v>0.44</v>
       </c>
-      <c r="AE18" s="27" t="s">
+      <c r="AE18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
-      <c r="AK18" s="27" t="s">
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="30"/>
-      <c r="AP18" s="27" t="s">
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="30"/>
-      <c r="AV18" s="27" t="s">
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="30"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="19"/>
       <c r="BC18" s="22" t="s">
         <v>59</v>
       </c>
@@ -32909,30 +33076,35 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
-      <c r="AE19" s="27" t="s">
+      <c r="AE19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
-      <c r="AK19" s="27" t="s">
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="30"/>
-      <c r="AP19" s="27" t="s">
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="30"/>
-      <c r="AV19" s="27" t="s">
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="30"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="19"/>
       <c r="BC19" s="22" t="s">
         <v>60</v>
       </c>
@@ -32975,30 +33147,35 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
-      <c r="AE20" s="27" t="s">
+      <c r="AE20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
-      <c r="AK20" s="27" t="s">
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="30"/>
-      <c r="AP20" s="27" t="s">
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="30"/>
-      <c r="AV20" s="27" t="s">
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="30"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="19"/>
       <c r="BC20" s="22" t="s">
         <v>61</v>
       </c>
@@ -33007,70 +33184,75 @@
       <c r="BF20" s="19"/>
     </row>
     <row r="21" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="42" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="K21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="42" t="s">
+      <c r="U21" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="72"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="42" t="s">
+      <c r="Z21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="44"/>
-      <c r="AE21" s="27" t="s">
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="72"/>
+      <c r="AE21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
-      <c r="AK21" s="27" t="s">
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="30"/>
-      <c r="AP21" s="27" t="s">
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="30"/>
-      <c r="AV21" s="27" t="s">
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="30"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="19"/>
       <c r="BC21" s="22" t="s">
         <v>62</v>
       </c>
@@ -33149,30 +33331,35 @@
       <c r="AC22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE22" s="27" t="s">
+      <c r="AE22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="30"/>
-      <c r="AK22" s="27" t="s">
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="30"/>
-      <c r="AP22" s="27" t="s">
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="30"/>
-      <c r="AV22" s="27" t="s">
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="30"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="19"/>
       <c r="BC22" s="22" t="s">
         <v>63</v>
       </c>
@@ -33186,7 +33373,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -33263,32 +33450,37 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AK23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AP23" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AV23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
+      <c r="AE23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="49"/>
     </row>
-    <row r="24" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -33365,24 +33557,29 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="50"/>
     </row>
-    <row r="25" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -33459,22 +33656,27 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="32"/>
-      <c r="AY25" s="32"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="51"/>
     </row>
     <row r="26" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -33553,44 +33755,49 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="23" t="s">
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AG26" s="23" t="s">
+      <c r="AG26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AH26" s="23" t="s">
+      <c r="AH26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="23" t="s">
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AM26" s="23" t="s">
+      <c r="AM26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AN26" s="23" t="s">
+      <c r="AN26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AP26" s="21"/>
-      <c r="AQ26" s="23" t="s">
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AR26" s="23" t="s">
+      <c r="AR26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AS26" s="23" t="s">
+      <c r="AS26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="23" t="s">
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AX26" s="23" t="s">
+      <c r="AX26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AY26" s="23" t="s">
+      <c r="AY26" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -33671,30 +33878,35 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="22" t="s">
+      <c r="AE27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="19"/>
-      <c r="AK27" s="22" t="s">
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="19"/>
-      <c r="AP27" s="22" t="s">
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="19"/>
-      <c r="AV27" s="22" t="s">
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="19"/>
+      <c r="AW27" s="30"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="30"/>
     </row>
     <row r="28" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -33722,57 +33934,62 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="38" t="s">
+      <c r="U28" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="38" t="s">
+      <c r="Z28" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="40"/>
-      <c r="AE28" s="22" t="s">
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="69"/>
+      <c r="AE28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19"/>
-      <c r="AK28" s="22" t="s">
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="19"/>
-      <c r="AP28" s="22" t="s">
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="19"/>
-      <c r="AV28" s="22" t="s">
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="19"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="30"/>
     </row>
     <row r="29" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -33843,30 +34060,35 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="22" t="s">
+      <c r="AE29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="19"/>
-      <c r="AK29" s="22" t="s">
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="19"/>
-      <c r="AP29" s="22" t="s">
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="19"/>
-      <c r="AV29" s="22" t="s">
+      <c r="AQ29" s="30"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="19"/>
+      <c r="AW29" s="30"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="30"/>
     </row>
     <row r="30" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -33945,30 +34167,35 @@
       <c r="AC30" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE30" s="22" t="s">
+      <c r="AE30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="19"/>
-      <c r="AK30" s="22" t="s">
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="19"/>
-      <c r="AP30" s="22" t="s">
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="19"/>
-      <c r="AV30" s="22" t="s">
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="20"/>
-      <c r="AY30" s="19"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="30"/>
     </row>
     <row r="31" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -34047,30 +34274,35 @@
       <c r="AC31" s="9">
         <v>0.74</v>
       </c>
-      <c r="AE31" s="22" t="s">
+      <c r="AE31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="19"/>
-      <c r="AK31" s="22" t="s">
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="19"/>
-      <c r="AP31" s="22" t="s">
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="19"/>
-      <c r="AV31" s="22" t="s">
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="20"/>
-      <c r="AY31" s="19"/>
+      <c r="AW31" s="30"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="30"/>
     </row>
     <row r="32" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -34149,32 +34381,37 @@
       <c r="AC32" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE32" s="22" t="s">
+      <c r="AE32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="19"/>
-      <c r="AK32" s="22" t="s">
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="19"/>
-      <c r="AP32" s="22" t="s">
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="19"/>
-      <c r="AV32" s="22" t="s">
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="19"/>
+      <c r="AW32" s="30"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="30"/>
     </row>
-    <row r="33" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -34235,32 +34472,37 @@
       <c r="AC33" s="9">
         <v>0.61</v>
       </c>
-      <c r="AE33" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AK33" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AP33" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AV33" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
+      <c r="AE33" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="39"/>
+      <c r="AU33" s="39"/>
+      <c r="AV33" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="66"/>
     </row>
-    <row r="34" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -34321,24 +34563,29 @@
       <c r="AC34" s="9">
         <v>0.69</v>
       </c>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="62"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -34367,22 +34614,27 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="14"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="63"/>
     </row>
     <row r="36" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -34413,114 +34665,124 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="14"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="28" t="s">
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG36" s="28" t="s">
+      <c r="AG36" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH36" s="28" t="s">
+      <c r="AH36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="28" t="s">
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM36" s="28" t="s">
+      <c r="AM36" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AN36" s="28" t="s">
+      <c r="AN36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="28" t="s">
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AR36" s="28" t="s">
+      <c r="AR36" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AS36" s="28" t="s">
+      <c r="AS36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="28" t="s">
+      <c r="AT36" s="39"/>
+      <c r="AU36" s="39"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AX36" s="28" t="s">
+      <c r="AX36" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AY36" s="28" t="s">
+      <c r="AY36" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="K37" s="42" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="K37" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="44"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="42" t="s">
+      <c r="P37" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="44"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="72"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="42" t="s">
+      <c r="U37" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="44"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="72"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="42" t="s">
+      <c r="Z37" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="44"/>
-      <c r="AE37" s="27" t="s">
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="72"/>
+      <c r="AE37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="30"/>
-      <c r="AK37" s="27" t="s">
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="30"/>
-      <c r="AP37" s="27" t="s">
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="30"/>
-      <c r="AV37" s="27" t="s">
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="29"/>
-      <c r="AY37" s="30"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="20"/>
+      <c r="AY37" s="19"/>
     </row>
-    <row r="38" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -34585,32 +34847,37 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="27" t="s">
+      <c r="AE38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="30"/>
-      <c r="AK38" s="27" t="s">
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="30"/>
-      <c r="AP38" s="27" t="s">
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="30"/>
-      <c r="AV38" s="27" t="s">
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AW38" s="30"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="30"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="19"/>
     </row>
-    <row r="39" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -34687,32 +34954,37 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="27" t="s">
+      <c r="AE39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="30"/>
-      <c r="AK39" s="27" t="s">
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="30"/>
-      <c r="AP39" s="27" t="s">
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AQ39" s="30"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="30"/>
-      <c r="AV39" s="27" t="s">
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AW39" s="30"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="30"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="19"/>
     </row>
-    <row r="40" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -34789,32 +35061,37 @@
       <c r="AC40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AE40" s="27" t="s">
+      <c r="AE40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="30"/>
-      <c r="AK40" s="27" t="s">
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="30"/>
-      <c r="AP40" s="27" t="s">
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AQ40" s="30"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="30"/>
-      <c r="AV40" s="27" t="s">
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="39"/>
+      <c r="AU40" s="39"/>
+      <c r="AV40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AW40" s="30"/>
-      <c r="AX40" s="29"/>
-      <c r="AY40" s="30"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="20"/>
+      <c r="AY40" s="19"/>
     </row>
-    <row r="41" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -34891,32 +35168,37 @@
       <c r="AC41" s="10">
         <v>0.54</v>
       </c>
-      <c r="AE41" s="27" t="s">
+      <c r="AE41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="30"/>
-      <c r="AK41" s="27" t="s">
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AL41" s="30"/>
-      <c r="AM41" s="29"/>
-      <c r="AN41" s="30"/>
-      <c r="AP41" s="27" t="s">
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="29"/>
-      <c r="AS41" s="30"/>
-      <c r="AV41" s="27" t="s">
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AW41" s="30"/>
-      <c r="AX41" s="29"/>
-      <c r="AY41" s="30"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="20"/>
+      <c r="AY41" s="19"/>
     </row>
-    <row r="42" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -34993,32 +35275,37 @@
       <c r="AC42" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE42" s="27" t="s">
+      <c r="AE42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="30"/>
-      <c r="AK42" s="27" t="s">
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AL42" s="30"/>
-      <c r="AM42" s="29"/>
-      <c r="AN42" s="30"/>
-      <c r="AP42" s="27" t="s">
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="29"/>
-      <c r="AS42" s="30"/>
-      <c r="AV42" s="27" t="s">
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="20"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="39"/>
+      <c r="AU42" s="39"/>
+      <c r="AV42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AW42" s="30"/>
-      <c r="AX42" s="29"/>
-      <c r="AY42" s="30"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="20"/>
+      <c r="AY42" s="19"/>
     </row>
-    <row r="43" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -35095,8 +35382,37 @@
       <c r="AC43" s="10">
         <v>0.56000000000000005</v>
       </c>
+      <c r="AE43" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="76"/>
+      <c r="AP43" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="39"/>
+      <c r="AU43" s="39"/>
+      <c r="AV43" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW43" s="44"/>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="49"/>
     </row>
-    <row r="44" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -35122,35 +35438,56 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="K44" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="69"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="38" t="s">
+      <c r="P44" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="69"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="38" t="s">
+      <c r="U44" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="69"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="38" t="s">
+      <c r="Z44" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="40"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="69"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="46"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="39"/>
+      <c r="AU44" s="39"/>
+      <c r="AV44" s="46"/>
+      <c r="AW44" s="46"/>
+      <c r="AX44" s="46"/>
+      <c r="AY44" s="50"/>
     </row>
-    <row r="45" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -35219,8 +35556,29 @@
       <c r="AC45" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="48"/>
+      <c r="AH45" s="48"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="48"/>
+      <c r="AL45" s="48"/>
+      <c r="AM45" s="48"/>
+      <c r="AN45" s="51"/>
+      <c r="AO45" s="76"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="48"/>
+      <c r="AR45" s="48"/>
+      <c r="AS45" s="48"/>
+      <c r="AT45" s="39"/>
+      <c r="AU45" s="39"/>
+      <c r="AV45" s="48"/>
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="48"/>
+      <c r="AY45" s="51"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -35297,8 +35655,53 @@
       <c r="AC46" s="9">
         <v>0.46</v>
       </c>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH46" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN46" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS46" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT46" s="39"/>
+      <c r="AU46" s="39"/>
+      <c r="AV46" s="26"/>
+      <c r="AW46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY46" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="47" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -35375,8 +35778,37 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
+      <c r="AE47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="76"/>
+      <c r="AP47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW47" s="30"/>
+      <c r="AX47" s="29"/>
+      <c r="AY47" s="30"/>
     </row>
-    <row r="48" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -35453,8 +35885,37 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
+      <c r="AE48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="76"/>
+      <c r="AP48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="30"/>
+      <c r="AT48" s="39"/>
+      <c r="AU48" s="39"/>
+      <c r="AV48" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW48" s="30"/>
+      <c r="AX48" s="29"/>
+      <c r="AY48" s="30"/>
     </row>
-    <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -35515,8 +35976,37 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
+      <c r="AE49" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="76"/>
+      <c r="AP49" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="29"/>
+      <c r="AY49" s="30"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -35577,8 +36067,37 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
+      <c r="AE50" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL50" s="30"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="30"/>
+      <c r="AO50" s="76"/>
+      <c r="AP50" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="39"/>
+      <c r="AU50" s="39"/>
+      <c r="AV50" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW50" s="30"/>
+      <c r="AX50" s="29"/>
+      <c r="AY50" s="30"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -35607,8 +36126,37 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
+      <c r="AE51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="76"/>
+      <c r="AP51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="39"/>
+      <c r="AU51" s="39"/>
+      <c r="AV51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="29"/>
+      <c r="AY51" s="30"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -35637,50 +36185,104 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="14"/>
+      <c r="AE52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="40"/>
+      <c r="AK52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL52" s="30"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="30"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ52" s="30"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="30"/>
+      <c r="AT52" s="40"/>
+      <c r="AU52" s="40"/>
+      <c r="AV52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW52" s="30"/>
+      <c r="AX52" s="29"/>
+      <c r="AY52" s="30"/>
     </row>
-    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
-      <c r="K53" s="42" t="s">
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="69"/>
+      <c r="K53" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="44"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="42" t="s">
+      <c r="P53" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="44"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="72"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="42" t="s">
+      <c r="U53" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="44"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="72"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="42" t="s">
+      <c r="Z53" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="44"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="72"/>
+      <c r="AE53" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF53" s="53"/>
+      <c r="AG53" s="53"/>
+      <c r="AH53" s="53"/>
+      <c r="AI53" s="53"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="53"/>
+      <c r="AL53" s="53"/>
+      <c r="AM53" s="53"/>
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="76"/>
+      <c r="AP53" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ53" s="53"/>
+      <c r="AR53" s="53"/>
+      <c r="AS53" s="53"/>
+      <c r="AT53" s="53"/>
+      <c r="AU53" s="53"/>
+      <c r="AV53" s="53"/>
+      <c r="AW53" s="53"/>
+      <c r="AX53" s="53"/>
+      <c r="AY53" s="54"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -35745,8 +36347,29 @@
       <c r="AC54" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="57"/>
+      <c r="AO54" s="76"/>
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="56"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
+      <c r="AU54" s="56"/>
+      <c r="AV54" s="56"/>
+      <c r="AW54" s="56"/>
+      <c r="AX54" s="56"/>
+      <c r="AY54" s="57"/>
     </row>
-    <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -35823,8 +36446,33 @@
       <c r="AC55" s="10">
         <v>0.49</v>
       </c>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI55" s="36"/>
+      <c r="AJ55" s="36"/>
+      <c r="AK55" s="36"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="42"/>
+      <c r="AO55" s="76"/>
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT55" s="36"/>
+      <c r="AU55" s="36"/>
+      <c r="AV55" s="36"/>
+      <c r="AW55" s="39"/>
+      <c r="AX55" s="39"/>
+      <c r="AY55" s="42"/>
     </row>
-    <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
@@ -35901,8 +36549,29 @@
       <c r="AC56" s="10">
         <v>0.5</v>
       </c>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="36"/>
+      <c r="AK56" s="36"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="42"/>
+      <c r="AO56" s="76"/>
+      <c r="AP56" s="41"/>
+      <c r="AQ56" s="39"/>
+      <c r="AR56" s="39"/>
+      <c r="AS56" s="36"/>
+      <c r="AT56" s="36"/>
+      <c r="AU56" s="36"/>
+      <c r="AV56" s="36"/>
+      <c r="AW56" s="39"/>
+      <c r="AX56" s="39"/>
+      <c r="AY56" s="42"/>
     </row>
-    <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
@@ -35979,8 +36648,29 @@
       <c r="AC57" s="10">
         <v>0.43</v>
       </c>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
+      <c r="AK57" s="37"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="39"/>
+      <c r="AN57" s="42"/>
+      <c r="AO57" s="76"/>
+      <c r="AP57" s="41"/>
+      <c r="AQ57" s="39"/>
+      <c r="AR57" s="39"/>
+      <c r="AS57" s="37"/>
+      <c r="AT57" s="37"/>
+      <c r="AU57" s="37"/>
+      <c r="AV57" s="37"/>
+      <c r="AW57" s="39"/>
+      <c r="AX57" s="39"/>
+      <c r="AY57" s="42"/>
     </row>
-    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -36057,8 +36747,41 @@
       <c r="AC58" s="10">
         <v>0.53</v>
       </c>
+      <c r="AE58" s="41"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="42"/>
+      <c r="AO58" s="76"/>
+      <c r="AP58" s="41"/>
+      <c r="AQ58" s="39"/>
+      <c r="AR58" s="39"/>
+      <c r="AS58" s="31"/>
+      <c r="AT58" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW58" s="39"/>
+      <c r="AX58" s="39"/>
+      <c r="AY58" s="42"/>
     </row>
-    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -36135,8 +36858,33 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="34"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="42"/>
+      <c r="AO59" s="76"/>
+      <c r="AP59" s="41"/>
+      <c r="AQ59" s="39"/>
+      <c r="AR59" s="39"/>
+      <c r="AS59" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT59" s="34"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="34"/>
+      <c r="AW59" s="39"/>
+      <c r="AX59" s="39"/>
+      <c r="AY59" s="42"/>
     </row>
-    <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -36162,35 +36910,60 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="40"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="69"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="38" t="s">
+      <c r="P60" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="40"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="69"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="38" t="s">
+      <c r="U60" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="69"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="38" t="s">
+      <c r="Z60" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="40"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="69"/>
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI60" s="34"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="34"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="42"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="41"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="39"/>
+      <c r="AS60" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT60" s="34"/>
+      <c r="AU60" s="35"/>
+      <c r="AV60" s="34"/>
+      <c r="AW60" s="39"/>
+      <c r="AX60" s="39"/>
+      <c r="AY60" s="42"/>
     </row>
-    <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -36259,8 +37032,33 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AE61" s="41"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="39"/>
+      <c r="AH61" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI61" s="34"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="39"/>
+      <c r="AM61" s="39"/>
+      <c r="AN61" s="42"/>
+      <c r="AO61" s="76"/>
+      <c r="AP61" s="41"/>
+      <c r="AQ61" s="39"/>
+      <c r="AR61" s="39"/>
+      <c r="AS61" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT61" s="34"/>
+      <c r="AU61" s="35"/>
+      <c r="AV61" s="34"/>
+      <c r="AW61" s="39"/>
+      <c r="AX61" s="39"/>
+      <c r="AY61" s="42"/>
     </row>
-    <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -36337,8 +37135,33 @@
       <c r="AC62" s="9">
         <v>0.46</v>
       </c>
+      <c r="AE62" s="41"/>
+      <c r="AF62" s="39"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI62" s="34"/>
+      <c r="AJ62" s="35"/>
+      <c r="AK62" s="34"/>
+      <c r="AL62" s="39"/>
+      <c r="AM62" s="39"/>
+      <c r="AN62" s="42"/>
+      <c r="AO62" s="76"/>
+      <c r="AP62" s="41"/>
+      <c r="AQ62" s="39"/>
+      <c r="AR62" s="39"/>
+      <c r="AS62" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT62" s="34"/>
+      <c r="AU62" s="35"/>
+      <c r="AV62" s="34"/>
+      <c r="AW62" s="39"/>
+      <c r="AX62" s="39"/>
+      <c r="AY62" s="42"/>
     </row>
-    <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -36415,8 +37238,33 @@
       <c r="AC63" s="9">
         <v>0.46</v>
       </c>
+      <c r="AE63" s="41"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI63" s="34"/>
+      <c r="AJ63" s="35"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="39"/>
+      <c r="AM63" s="39"/>
+      <c r="AN63" s="42"/>
+      <c r="AO63" s="76"/>
+      <c r="AP63" s="41"/>
+      <c r="AQ63" s="39"/>
+      <c r="AR63" s="39"/>
+      <c r="AS63" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT63" s="34"/>
+      <c r="AU63" s="35"/>
+      <c r="AV63" s="34"/>
+      <c r="AW63" s="39"/>
+      <c r="AX63" s="39"/>
+      <c r="AY63" s="42"/>
     </row>
-    <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -36493,8 +37341,33 @@
       <c r="AC64" s="9">
         <v>0.39</v>
       </c>
+      <c r="AE64" s="41"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI64" s="34"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="42"/>
+      <c r="AO64" s="76"/>
+      <c r="AP64" s="41"/>
+      <c r="AQ64" s="39"/>
+      <c r="AR64" s="39"/>
+      <c r="AS64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT64" s="34"/>
+      <c r="AU64" s="35"/>
+      <c r="AV64" s="34"/>
+      <c r="AW64" s="39"/>
+      <c r="AX64" s="39"/>
+      <c r="AY64" s="42"/>
     </row>
-    <row r="65" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -36555,8 +37428,37 @@
       <c r="AC65" s="9">
         <v>0.39</v>
       </c>
+      <c r="AE65" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="59"/>
+      <c r="AH65" s="59"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL65" s="59"/>
+      <c r="AM65" s="59"/>
+      <c r="AN65" s="62"/>
+      <c r="AO65" s="76"/>
+      <c r="AP65" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ65" s="59"/>
+      <c r="AR65" s="59"/>
+      <c r="AS65" s="59"/>
+      <c r="AT65" s="38"/>
+      <c r="AU65" s="38"/>
+      <c r="AV65" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW65" s="59"/>
+      <c r="AX65" s="59"/>
+      <c r="AY65" s="62"/>
     </row>
-    <row r="66" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -36617,8 +37519,29 @@
       <c r="AC66" s="9">
         <v>0.41</v>
       </c>
+      <c r="AE66" s="58"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="59"/>
+      <c r="AH66" s="59"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="59"/>
+      <c r="AL66" s="59"/>
+      <c r="AM66" s="59"/>
+      <c r="AN66" s="62"/>
+      <c r="AO66" s="76"/>
+      <c r="AP66" s="58"/>
+      <c r="AQ66" s="59"/>
+      <c r="AR66" s="59"/>
+      <c r="AS66" s="59"/>
+      <c r="AT66" s="39"/>
+      <c r="AU66" s="39"/>
+      <c r="AV66" s="59"/>
+      <c r="AW66" s="59"/>
+      <c r="AX66" s="59"/>
+      <c r="AY66" s="62"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -36647,8 +37570,29 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="14"/>
+      <c r="AE67" s="60"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="39"/>
+      <c r="AJ67" s="39"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="61"/>
+      <c r="AM67" s="61"/>
+      <c r="AN67" s="63"/>
+      <c r="AO67" s="76"/>
+      <c r="AP67" s="60"/>
+      <c r="AQ67" s="61"/>
+      <c r="AR67" s="61"/>
+      <c r="AS67" s="61"/>
+      <c r="AT67" s="39"/>
+      <c r="AU67" s="39"/>
+      <c r="AV67" s="61"/>
+      <c r="AW67" s="61"/>
+      <c r="AX67" s="61"/>
+      <c r="AY67" s="63"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -36677,9 +37621,1197 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="18"/>
+      <c r="AE68" s="21"/>
+      <c r="AF68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO68" s="76"/>
+      <c r="AP68" s="21"/>
+      <c r="AQ68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT68" s="39"/>
+      <c r="AU68" s="39"/>
+      <c r="AV68" s="21"/>
+      <c r="AW68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY68" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE69" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL69" s="19"/>
+      <c r="AM69" s="20"/>
+      <c r="AN69" s="19"/>
+      <c r="AO69" s="76"/>
+      <c r="AP69" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="20"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="39"/>
+      <c r="AU69" s="39"/>
+      <c r="AV69" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW69" s="19"/>
+      <c r="AX69" s="20"/>
+      <c r="AY69" s="19"/>
+    </row>
+    <row r="70" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE70" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL70" s="19"/>
+      <c r="AM70" s="20"/>
+      <c r="AN70" s="19"/>
+      <c r="AO70" s="76"/>
+      <c r="AP70" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ70" s="19"/>
+      <c r="AR70" s="20"/>
+      <c r="AS70" s="19"/>
+      <c r="AT70" s="39"/>
+      <c r="AU70" s="39"/>
+      <c r="AV70" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW70" s="19"/>
+      <c r="AX70" s="20"/>
+      <c r="AY70" s="19"/>
+    </row>
+    <row r="71" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE71" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="39"/>
+      <c r="AJ71" s="39"/>
+      <c r="AK71" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL71" s="19"/>
+      <c r="AM71" s="20"/>
+      <c r="AN71" s="19"/>
+      <c r="AO71" s="76"/>
+      <c r="AP71" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ71" s="19"/>
+      <c r="AR71" s="20"/>
+      <c r="AS71" s="19"/>
+      <c r="AT71" s="39"/>
+      <c r="AU71" s="39"/>
+      <c r="AV71" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW71" s="19"/>
+      <c r="AX71" s="20"/>
+      <c r="AY71" s="19"/>
+    </row>
+    <row r="72" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE72" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="19"/>
+      <c r="AI72" s="39"/>
+      <c r="AJ72" s="39"/>
+      <c r="AK72" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL72" s="19"/>
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="76"/>
+      <c r="AP72" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="20"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="39"/>
+      <c r="AU72" s="39"/>
+      <c r="AV72" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="20"/>
+      <c r="AY72" s="19"/>
+    </row>
+    <row r="73" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="39"/>
+      <c r="AJ73" s="39"/>
+      <c r="AK73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL73" s="19"/>
+      <c r="AM73" s="20"/>
+      <c r="AN73" s="19"/>
+      <c r="AO73" s="76"/>
+      <c r="AP73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="20"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="39"/>
+      <c r="AU73" s="39"/>
+      <c r="AV73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW73" s="19"/>
+      <c r="AX73" s="20"/>
+      <c r="AY73" s="19"/>
+    </row>
+    <row r="74" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE74" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="39"/>
+      <c r="AJ74" s="39"/>
+      <c r="AK74" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL74" s="19"/>
+      <c r="AM74" s="20"/>
+      <c r="AN74" s="19"/>
+      <c r="AO74" s="76"/>
+      <c r="AP74" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ74" s="19"/>
+      <c r="AR74" s="20"/>
+      <c r="AS74" s="19"/>
+      <c r="AT74" s="39"/>
+      <c r="AU74" s="39"/>
+      <c r="AV74" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW74" s="19"/>
+      <c r="AX74" s="20"/>
+      <c r="AY74" s="19"/>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AE75" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF75" s="44"/>
+      <c r="AG75" s="44"/>
+      <c r="AH75" s="44"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL75" s="44"/>
+      <c r="AM75" s="44"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="76"/>
+      <c r="AP75" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ75" s="44"/>
+      <c r="AR75" s="44"/>
+      <c r="AS75" s="44"/>
+      <c r="AT75" s="39"/>
+      <c r="AU75" s="39"/>
+      <c r="AV75" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW75" s="44"/>
+      <c r="AX75" s="44"/>
+      <c r="AY75" s="49"/>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AE76" s="45"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="46"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+      <c r="AN76" s="50"/>
+      <c r="AO76" s="76"/>
+      <c r="AP76" s="45"/>
+      <c r="AQ76" s="46"/>
+      <c r="AR76" s="46"/>
+      <c r="AS76" s="46"/>
+      <c r="AT76" s="39"/>
+      <c r="AU76" s="39"/>
+      <c r="AV76" s="46"/>
+      <c r="AW76" s="46"/>
+      <c r="AX76" s="46"/>
+      <c r="AY76" s="50"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="48"/>
+      <c r="AG77" s="48"/>
+      <c r="AH77" s="48"/>
+      <c r="AI77" s="39"/>
+      <c r="AJ77" s="39"/>
+      <c r="AK77" s="48"/>
+      <c r="AL77" s="48"/>
+      <c r="AM77" s="48"/>
+      <c r="AN77" s="51"/>
+      <c r="AO77" s="76"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="48"/>
+      <c r="AR77" s="48"/>
+      <c r="AS77" s="48"/>
+      <c r="AT77" s="39"/>
+      <c r="AU77" s="39"/>
+      <c r="AV77" s="48"/>
+      <c r="AW77" s="48"/>
+      <c r="AX77" s="48"/>
+      <c r="AY77" s="51"/>
+    </row>
+    <row r="78" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE78" s="26"/>
+      <c r="AF78" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH78" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI78" s="39"/>
+      <c r="AJ78" s="39"/>
+      <c r="AK78" s="26"/>
+      <c r="AL78" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN78" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO78" s="76"/>
+      <c r="AP78" s="26"/>
+      <c r="AQ78" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS78" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT78" s="39"/>
+      <c r="AU78" s="39"/>
+      <c r="AV78" s="26"/>
+      <c r="AW78" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY78" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF79" s="30"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="30"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL79" s="30"/>
+      <c r="AM79" s="29"/>
+      <c r="AN79" s="30"/>
+      <c r="AO79" s="76"/>
+      <c r="AP79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ79" s="30"/>
+      <c r="AR79" s="29"/>
+      <c r="AS79" s="30"/>
+      <c r="AT79" s="39"/>
+      <c r="AU79" s="39"/>
+      <c r="AV79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW79" s="30"/>
+      <c r="AX79" s="29"/>
+      <c r="AY79" s="30"/>
+    </row>
+    <row r="80" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE80" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF80" s="30"/>
+      <c r="AG80" s="29"/>
+      <c r="AH80" s="30"/>
+      <c r="AI80" s="39"/>
+      <c r="AJ80" s="39"/>
+      <c r="AK80" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL80" s="30"/>
+      <c r="AM80" s="29"/>
+      <c r="AN80" s="30"/>
+      <c r="AO80" s="76"/>
+      <c r="AP80" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ80" s="30"/>
+      <c r="AR80" s="29"/>
+      <c r="AS80" s="30"/>
+      <c r="AT80" s="39"/>
+      <c r="AU80" s="39"/>
+      <c r="AV80" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW80" s="30"/>
+      <c r="AX80" s="29"/>
+      <c r="AY80" s="30"/>
+    </row>
+    <row r="81" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE81" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF81" s="30"/>
+      <c r="AG81" s="29"/>
+      <c r="AH81" s="30"/>
+      <c r="AI81" s="39"/>
+      <c r="AJ81" s="39"/>
+      <c r="AK81" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL81" s="30"/>
+      <c r="AM81" s="29"/>
+      <c r="AN81" s="30"/>
+      <c r="AO81" s="76"/>
+      <c r="AP81" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ81" s="30"/>
+      <c r="AR81" s="29"/>
+      <c r="AS81" s="30"/>
+      <c r="AT81" s="39"/>
+      <c r="AU81" s="39"/>
+      <c r="AV81" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW81" s="30"/>
+      <c r="AX81" s="29"/>
+      <c r="AY81" s="30"/>
+    </row>
+    <row r="82" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE82" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF82" s="30"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="30"/>
+      <c r="AI82" s="39"/>
+      <c r="AJ82" s="39"/>
+      <c r="AK82" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL82" s="30"/>
+      <c r="AM82" s="29"/>
+      <c r="AN82" s="30"/>
+      <c r="AO82" s="76"/>
+      <c r="AP82" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ82" s="30"/>
+      <c r="AR82" s="29"/>
+      <c r="AS82" s="30"/>
+      <c r="AT82" s="39"/>
+      <c r="AU82" s="39"/>
+      <c r="AV82" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW82" s="30"/>
+      <c r="AX82" s="29"/>
+      <c r="AY82" s="30"/>
+    </row>
+    <row r="83" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE83" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF83" s="30"/>
+      <c r="AG83" s="29"/>
+      <c r="AH83" s="30"/>
+      <c r="AI83" s="39"/>
+      <c r="AJ83" s="39"/>
+      <c r="AK83" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL83" s="30"/>
+      <c r="AM83" s="29"/>
+      <c r="AN83" s="30"/>
+      <c r="AO83" s="76"/>
+      <c r="AP83" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ83" s="30"/>
+      <c r="AR83" s="29"/>
+      <c r="AS83" s="30"/>
+      <c r="AT83" s="39"/>
+      <c r="AU83" s="39"/>
+      <c r="AV83" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW83" s="30"/>
+      <c r="AX83" s="29"/>
+      <c r="AY83" s="30"/>
+    </row>
+    <row r="84" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE84" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF84" s="30"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="30"/>
+      <c r="AI84" s="39"/>
+      <c r="AJ84" s="39"/>
+      <c r="AK84" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL84" s="30"/>
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="30"/>
+      <c r="AO84" s="76"/>
+      <c r="AP84" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="30"/>
+      <c r="AT84" s="39"/>
+      <c r="AU84" s="39"/>
+      <c r="AV84" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW84" s="30"/>
+      <c r="AX84" s="29"/>
+      <c r="AY84" s="30"/>
+    </row>
+    <row r="85" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE85" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF85" s="65"/>
+      <c r="AG85" s="65"/>
+      <c r="AH85" s="65"/>
+      <c r="AI85" s="39"/>
+      <c r="AJ85" s="39"/>
+      <c r="AK85" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL85" s="65"/>
+      <c r="AM85" s="65"/>
+      <c r="AN85" s="66"/>
+      <c r="AO85" s="76"/>
+      <c r="AP85" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ85" s="65"/>
+      <c r="AR85" s="65"/>
+      <c r="AS85" s="65"/>
+      <c r="AT85" s="39"/>
+      <c r="AU85" s="39"/>
+      <c r="AV85" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW85" s="65"/>
+      <c r="AX85" s="65"/>
+      <c r="AY85" s="66"/>
+    </row>
+    <row r="86" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="59"/>
+      <c r="AG86" s="59"/>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="39"/>
+      <c r="AJ86" s="39"/>
+      <c r="AK86" s="59"/>
+      <c r="AL86" s="59"/>
+      <c r="AM86" s="59"/>
+      <c r="AN86" s="62"/>
+      <c r="AO86" s="76"/>
+      <c r="AP86" s="58"/>
+      <c r="AQ86" s="59"/>
+      <c r="AR86" s="59"/>
+      <c r="AS86" s="59"/>
+      <c r="AT86" s="39"/>
+      <c r="AU86" s="39"/>
+      <c r="AV86" s="59"/>
+      <c r="AW86" s="59"/>
+      <c r="AX86" s="59"/>
+      <c r="AY86" s="62"/>
+    </row>
+    <row r="87" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="61"/>
+      <c r="AG87" s="61"/>
+      <c r="AH87" s="61"/>
+      <c r="AI87" s="39"/>
+      <c r="AJ87" s="39"/>
+      <c r="AK87" s="61"/>
+      <c r="AL87" s="61"/>
+      <c r="AM87" s="61"/>
+      <c r="AN87" s="63"/>
+      <c r="AO87" s="76"/>
+      <c r="AP87" s="60"/>
+      <c r="AQ87" s="61"/>
+      <c r="AR87" s="61"/>
+      <c r="AS87" s="61"/>
+      <c r="AT87" s="39"/>
+      <c r="AU87" s="39"/>
+      <c r="AV87" s="61"/>
+      <c r="AW87" s="61"/>
+      <c r="AX87" s="61"/>
+      <c r="AY87" s="63"/>
+    </row>
+    <row r="88" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH88" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN88" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO88" s="76"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS88" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT88" s="39"/>
+      <c r="AU88" s="39"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY88" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="39"/>
+      <c r="AJ89" s="39"/>
+      <c r="AK89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL89" s="19"/>
+      <c r="AM89" s="20"/>
+      <c r="AN89" s="19"/>
+      <c r="AO89" s="76"/>
+      <c r="AP89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ89" s="19"/>
+      <c r="AR89" s="20"/>
+      <c r="AS89" s="19"/>
+      <c r="AT89" s="39"/>
+      <c r="AU89" s="39"/>
+      <c r="AV89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW89" s="19"/>
+      <c r="AX89" s="20"/>
+      <c r="AY89" s="19"/>
+    </row>
+    <row r="90" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="39"/>
+      <c r="AJ90" s="39"/>
+      <c r="AK90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL90" s="19"/>
+      <c r="AM90" s="20"/>
+      <c r="AN90" s="19"/>
+      <c r="AO90" s="76"/>
+      <c r="AP90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ90" s="19"/>
+      <c r="AR90" s="20"/>
+      <c r="AS90" s="19"/>
+      <c r="AT90" s="39"/>
+      <c r="AU90" s="39"/>
+      <c r="AV90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW90" s="19"/>
+      <c r="AX90" s="20"/>
+      <c r="AY90" s="19"/>
+    </row>
+    <row r="91" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL91" s="19"/>
+      <c r="AM91" s="20"/>
+      <c r="AN91" s="19"/>
+      <c r="AO91" s="76"/>
+      <c r="AP91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ91" s="19"/>
+      <c r="AR91" s="20"/>
+      <c r="AS91" s="19"/>
+      <c r="AT91" s="39"/>
+      <c r="AU91" s="39"/>
+      <c r="AV91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW91" s="19"/>
+      <c r="AX91" s="20"/>
+      <c r="AY91" s="19"/>
+    </row>
+    <row r="92" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="39"/>
+      <c r="AJ92" s="39"/>
+      <c r="AK92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL92" s="19"/>
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="19"/>
+      <c r="AO92" s="76"/>
+      <c r="AP92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ92" s="19"/>
+      <c r="AR92" s="20"/>
+      <c r="AS92" s="19"/>
+      <c r="AT92" s="39"/>
+      <c r="AU92" s="39"/>
+      <c r="AV92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW92" s="19"/>
+      <c r="AX92" s="20"/>
+      <c r="AY92" s="19"/>
+    </row>
+    <row r="93" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="39"/>
+      <c r="AJ93" s="39"/>
+      <c r="AK93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL93" s="19"/>
+      <c r="AM93" s="20"/>
+      <c r="AN93" s="19"/>
+      <c r="AO93" s="76"/>
+      <c r="AP93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ93" s="19"/>
+      <c r="AR93" s="20"/>
+      <c r="AS93" s="19"/>
+      <c r="AT93" s="39"/>
+      <c r="AU93" s="39"/>
+      <c r="AV93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW93" s="19"/>
+      <c r="AX93" s="20"/>
+      <c r="AY93" s="19"/>
+    </row>
+    <row r="94" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE94" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="19"/>
+      <c r="AI94" s="39"/>
+      <c r="AJ94" s="39"/>
+      <c r="AK94" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL94" s="19"/>
+      <c r="AM94" s="20"/>
+      <c r="AN94" s="19"/>
+      <c r="AO94" s="76"/>
+      <c r="AP94" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ94" s="19"/>
+      <c r="AR94" s="20"/>
+      <c r="AS94" s="19"/>
+      <c r="AT94" s="39"/>
+      <c r="AU94" s="39"/>
+      <c r="AV94" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW94" s="19"/>
+      <c r="AX94" s="20"/>
+      <c r="AY94" s="19"/>
+    </row>
+    <row r="95" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE95" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF95" s="44"/>
+      <c r="AG95" s="44"/>
+      <c r="AH95" s="44"/>
+      <c r="AI95" s="39"/>
+      <c r="AJ95" s="39"/>
+      <c r="AK95" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL95" s="44"/>
+      <c r="AM95" s="44"/>
+      <c r="AN95" s="49"/>
+      <c r="AO95" s="76"/>
+      <c r="AP95" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ95" s="44"/>
+      <c r="AR95" s="44"/>
+      <c r="AS95" s="44"/>
+      <c r="AT95" s="39"/>
+      <c r="AU95" s="39"/>
+      <c r="AV95" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW95" s="44"/>
+      <c r="AX95" s="44"/>
+      <c r="AY95" s="49"/>
+    </row>
+    <row r="96" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE96" s="45"/>
+      <c r="AF96" s="46"/>
+      <c r="AG96" s="46"/>
+      <c r="AH96" s="46"/>
+      <c r="AI96" s="39"/>
+      <c r="AJ96" s="39"/>
+      <c r="AK96" s="46"/>
+      <c r="AL96" s="46"/>
+      <c r="AM96" s="46"/>
+      <c r="AN96" s="50"/>
+      <c r="AO96" s="76"/>
+      <c r="AP96" s="45"/>
+      <c r="AQ96" s="46"/>
+      <c r="AR96" s="46"/>
+      <c r="AS96" s="46"/>
+      <c r="AT96" s="39"/>
+      <c r="AU96" s="39"/>
+      <c r="AV96" s="46"/>
+      <c r="AW96" s="46"/>
+      <c r="AX96" s="46"/>
+      <c r="AY96" s="50"/>
+    </row>
+    <row r="97" spans="31:51" x14ac:dyDescent="0.25">
+      <c r="AE97" s="47"/>
+      <c r="AF97" s="48"/>
+      <c r="AG97" s="48"/>
+      <c r="AH97" s="48"/>
+      <c r="AI97" s="39"/>
+      <c r="AJ97" s="39"/>
+      <c r="AK97" s="48"/>
+      <c r="AL97" s="48"/>
+      <c r="AM97" s="48"/>
+      <c r="AN97" s="51"/>
+      <c r="AO97" s="76"/>
+      <c r="AP97" s="47"/>
+      <c r="AQ97" s="48"/>
+      <c r="AR97" s="48"/>
+      <c r="AS97" s="48"/>
+      <c r="AT97" s="39"/>
+      <c r="AU97" s="39"/>
+      <c r="AV97" s="48"/>
+      <c r="AW97" s="48"/>
+      <c r="AX97" s="48"/>
+      <c r="AY97" s="51"/>
+    </row>
+    <row r="98" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE98" s="26"/>
+      <c r="AF98" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG98" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH98" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI98" s="39"/>
+      <c r="AJ98" s="39"/>
+      <c r="AK98" s="26"/>
+      <c r="AL98" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM98" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN98" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO98" s="76"/>
+      <c r="AP98" s="26"/>
+      <c r="AQ98" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR98" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS98" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT98" s="39"/>
+      <c r="AU98" s="39"/>
+      <c r="AV98" s="26"/>
+      <c r="AW98" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX98" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY98" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE99" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF99" s="30"/>
+      <c r="AG99" s="29"/>
+      <c r="AH99" s="30"/>
+      <c r="AI99" s="39"/>
+      <c r="AJ99" s="39"/>
+      <c r="AK99" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL99" s="30"/>
+      <c r="AM99" s="29"/>
+      <c r="AN99" s="30"/>
+      <c r="AO99" s="76"/>
+      <c r="AP99" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ99" s="30"/>
+      <c r="AR99" s="29"/>
+      <c r="AS99" s="30"/>
+      <c r="AT99" s="39"/>
+      <c r="AU99" s="39"/>
+      <c r="AV99" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW99" s="30"/>
+      <c r="AX99" s="29"/>
+      <c r="AY99" s="30"/>
+    </row>
+    <row r="100" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE100" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF100" s="30"/>
+      <c r="AG100" s="29"/>
+      <c r="AH100" s="30"/>
+      <c r="AI100" s="39"/>
+      <c r="AJ100" s="39"/>
+      <c r="AK100" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL100" s="30"/>
+      <c r="AM100" s="29"/>
+      <c r="AN100" s="30"/>
+      <c r="AO100" s="76"/>
+      <c r="AP100" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ100" s="30"/>
+      <c r="AR100" s="29"/>
+      <c r="AS100" s="30"/>
+      <c r="AT100" s="39"/>
+      <c r="AU100" s="39"/>
+      <c r="AV100" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW100" s="30"/>
+      <c r="AX100" s="29"/>
+      <c r="AY100" s="30"/>
+    </row>
+    <row r="101" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE101" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF101" s="30"/>
+      <c r="AG101" s="29"/>
+      <c r="AH101" s="30"/>
+      <c r="AI101" s="39"/>
+      <c r="AJ101" s="39"/>
+      <c r="AK101" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL101" s="30"/>
+      <c r="AM101" s="29"/>
+      <c r="AN101" s="30"/>
+      <c r="AO101" s="76"/>
+      <c r="AP101" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ101" s="30"/>
+      <c r="AR101" s="29"/>
+      <c r="AS101" s="30"/>
+      <c r="AT101" s="39"/>
+      <c r="AU101" s="39"/>
+      <c r="AV101" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW101" s="30"/>
+      <c r="AX101" s="29"/>
+      <c r="AY101" s="30"/>
+    </row>
+    <row r="102" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE102" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF102" s="30"/>
+      <c r="AG102" s="29"/>
+      <c r="AH102" s="30"/>
+      <c r="AI102" s="39"/>
+      <c r="AJ102" s="39"/>
+      <c r="AK102" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL102" s="30"/>
+      <c r="AM102" s="29"/>
+      <c r="AN102" s="30"/>
+      <c r="AO102" s="76"/>
+      <c r="AP102" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ102" s="30"/>
+      <c r="AR102" s="29"/>
+      <c r="AS102" s="30"/>
+      <c r="AT102" s="39"/>
+      <c r="AU102" s="39"/>
+      <c r="AV102" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW102" s="30"/>
+      <c r="AX102" s="29"/>
+      <c r="AY102" s="30"/>
+    </row>
+    <row r="103" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE103" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="30"/>
+      <c r="AI103" s="39"/>
+      <c r="AJ103" s="39"/>
+      <c r="AK103" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL103" s="30"/>
+      <c r="AM103" s="29"/>
+      <c r="AN103" s="30"/>
+      <c r="AO103" s="76"/>
+      <c r="AP103" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ103" s="30"/>
+      <c r="AR103" s="29"/>
+      <c r="AS103" s="30"/>
+      <c r="AT103" s="39"/>
+      <c r="AU103" s="39"/>
+      <c r="AV103" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW103" s="30"/>
+      <c r="AX103" s="29"/>
+      <c r="AY103" s="30"/>
+    </row>
+    <row r="104" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE104" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF104" s="30"/>
+      <c r="AG104" s="29"/>
+      <c r="AH104" s="30"/>
+      <c r="AI104" s="40"/>
+      <c r="AJ104" s="40"/>
+      <c r="AK104" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL104" s="30"/>
+      <c r="AM104" s="29"/>
+      <c r="AN104" s="30"/>
+      <c r="AO104" s="76"/>
+      <c r="AP104" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ104" s="30"/>
+      <c r="AR104" s="29"/>
+      <c r="AS104" s="30"/>
+      <c r="AT104" s="40"/>
+      <c r="AU104" s="40"/>
+      <c r="AV104" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW104" s="30"/>
+      <c r="AX104" s="29"/>
+      <c r="AY104" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="97">
+    <mergeCell ref="AO1:AO104"/>
+    <mergeCell ref="AP53:AY54"/>
+    <mergeCell ref="AP55:AR64"/>
+    <mergeCell ref="AS55:AV57"/>
+    <mergeCell ref="AW55:AY64"/>
+    <mergeCell ref="AP65:AS67"/>
+    <mergeCell ref="AT65:AU104"/>
+    <mergeCell ref="AV65:AY67"/>
+    <mergeCell ref="AP75:AS77"/>
+    <mergeCell ref="AV75:AY77"/>
+    <mergeCell ref="AP85:AS87"/>
+    <mergeCell ref="AV85:AY87"/>
+    <mergeCell ref="AP95:AS97"/>
+    <mergeCell ref="AV95:AY97"/>
+    <mergeCell ref="AE53:AN54"/>
+    <mergeCell ref="AE55:AG64"/>
+    <mergeCell ref="AH55:AK57"/>
+    <mergeCell ref="AL55:AN64"/>
+    <mergeCell ref="AE65:AH67"/>
+    <mergeCell ref="AI65:AJ104"/>
+    <mergeCell ref="AK65:AN67"/>
+    <mergeCell ref="AE75:AH77"/>
+    <mergeCell ref="AK75:AN77"/>
+    <mergeCell ref="AE85:AH87"/>
+    <mergeCell ref="AK85:AN87"/>
+    <mergeCell ref="AE95:AH97"/>
+    <mergeCell ref="AK95:AN97"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F37:I37"/>
@@ -36715,33 +38847,41 @@
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Z12:AC12"/>
     <mergeCell ref="U21:X21"/>
-    <mergeCell ref="AK33:AN35"/>
-    <mergeCell ref="AE23:AH25"/>
-    <mergeCell ref="AE33:AH35"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="AE1:AN2"/>
     <mergeCell ref="K1:AC2"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AE3:AH5"/>
-    <mergeCell ref="AE13:AH15"/>
-    <mergeCell ref="AK3:AN5"/>
-    <mergeCell ref="AK13:AN15"/>
-    <mergeCell ref="AK23:AN25"/>
+    <mergeCell ref="AP1:AY2"/>
+    <mergeCell ref="AP13:AS15"/>
+    <mergeCell ref="AV13:AY15"/>
+    <mergeCell ref="AP3:AR12"/>
+    <mergeCell ref="AS3:AV5"/>
+    <mergeCell ref="AW3:AY12"/>
+    <mergeCell ref="AT13:AU52"/>
+    <mergeCell ref="AP43:AS45"/>
+    <mergeCell ref="AV43:AY45"/>
     <mergeCell ref="AP23:AS25"/>
     <mergeCell ref="AV23:AY25"/>
     <mergeCell ref="AP33:AS35"/>
     <mergeCell ref="AV33:AY35"/>
-    <mergeCell ref="AP1:AY2"/>
-    <mergeCell ref="AP3:AS5"/>
-    <mergeCell ref="AV3:AY5"/>
-    <mergeCell ref="AP13:AS15"/>
-    <mergeCell ref="AV13:AY15"/>
+    <mergeCell ref="AH3:AK5"/>
+    <mergeCell ref="AI13:AJ52"/>
+    <mergeCell ref="AE3:AG12"/>
+    <mergeCell ref="AL3:AN12"/>
+    <mergeCell ref="AE43:AH45"/>
+    <mergeCell ref="AK43:AN45"/>
+    <mergeCell ref="AK23:AN25"/>
+    <mergeCell ref="AK33:AN35"/>
+    <mergeCell ref="AE23:AH25"/>
+    <mergeCell ref="AE33:AH35"/>
+    <mergeCell ref="AE13:AH15"/>
+    <mergeCell ref="AK13:AN15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5509D-0D1F-4739-85D2-C26F8B1D0DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482D19B-9DDB-4E4A-A33A-F1CB55C6AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="88">
   <si>
     <t>ANN</t>
   </si>
@@ -241,22 +241,13 @@
     <t>CNN - EMODB</t>
   </si>
   <si>
-    <t>RESNET - EMODB</t>
-  </si>
-  <si>
-    <t>RESNET - RAVDESS</t>
-  </si>
-  <si>
-    <t>DENSENET - EMODB</t>
-  </si>
-  <si>
-    <t>DENSENET - RAVDESS</t>
-  </si>
-  <si>
     <t>VGG - EMODB</t>
   </si>
   <si>
-    <t>VGG - RAVDESS</t>
+    <t>Temp Test for 512x512 images</t>
+  </si>
+  <si>
+    <t>3CF_RANDOM</t>
   </si>
   <si>
     <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256</t>
@@ -265,20 +256,59 @@
     <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256</t>
   </si>
   <si>
+    <t>3 Features Channel Images - Gen Alg  NONE WEIGHTS Optimisation - 256x256</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256 - 4 CLASSES</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256 - 4 CLASSES</t>
+  </si>
+  <si>
+    <t>CNN -RAVDESS</t>
+  </si>
+  <si>
+    <t>DENSENET - EMODB</t>
+  </si>
+  <si>
+    <t>DENSENET-RAVDESS</t>
+  </si>
+  <si>
+    <t>RESNET - EMODB</t>
+  </si>
+  <si>
     <t>EFFICIENTNET - EMODB</t>
   </si>
   <si>
-    <t>EFFICIENTNET - RAVDESS</t>
+    <t>EFFICIENTNET -RAVDESS</t>
   </si>
   <si>
-    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256 - 4 CLASSES</t>
+    <t>RESNET-RAVDESS</t>
+  </si>
+  <si>
+    <t>VGG -RAVDESS</t>
+  </si>
+  <si>
+    <t>EFFICIENTNET-RAVDESS</t>
+  </si>
+  <si>
+    <t>VGG-RAVDESS</t>
+  </si>
+  <si>
+    <t>CNN COMPARISON</t>
+  </si>
+  <si>
+    <t>CNN COMPARISON - 4 CLASSES</t>
+  </si>
+  <si>
+    <t>3 Features Channel Images - Gen Alg  NONE WEIGHTS Optimisation - 256x256 - 4 CLASSES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +355,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,30 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEC7014"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB547"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCA7D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDDAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,8 +491,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -619,15 +651,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -686,19 +733,13 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,67 +748,37 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,31 +799,13 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,26 +817,59 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31317,10 +31343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:BF104"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T79" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AO104"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31331,121 +31357,141 @@
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
     <col min="16" max="29" width="18.5703125" customWidth="1"/>
     <col min="30" max="30" width="25.5703125" customWidth="1"/>
-    <col min="31" max="51" width="18.5703125" customWidth="1"/>
+    <col min="31" max="54" width="18.5703125" customWidth="1"/>
+    <col min="55" max="58" width="9.140625" customWidth="1"/>
+    <col min="60" max="63" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="54"/>
-      <c r="AE1" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="54"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="42"/>
+      <c r="AE1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BH1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
     </row>
-    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="57"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="57"/>
+    <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="45"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
     </row>
-    <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -31475,33 +31521,46 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AE3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="42"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
     </row>
-    <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -31530,98 +31589,108 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="42"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BH4" s="30"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="30"/>
+      <c r="BK4" s="30"/>
     </row>
-    <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="K5" s="70" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="K5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="72"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="48"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="70" t="s">
+      <c r="Z5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="72"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="42"/>
-      <c r="BC5" s="73" t="s">
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="48"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BH5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52"/>
     </row>
-    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -31686,51 +31755,72 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="33" t="s">
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ6" s="33" t="s">
+      <c r="AG6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AH6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="33" t="s">
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AU6" s="33" t="s">
+      <c r="AL6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AV6" s="33" t="s">
+      <c r="AM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="42"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="23" t="s">
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BE6" s="23" t="s">
+      <c r="AQ6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="BF6" s="23" t="s">
+      <c r="AR6" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK6" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -31807,45 +31897,66 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="32" t="s">
+      <c r="AE7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="32" t="s">
+      <c r="AF7" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>0.76</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="42"/>
-      <c r="BC7" s="22" t="s">
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BD7" s="19">
+      <c r="AP7" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="AQ7" s="28">
+        <v>0.59</v>
+      </c>
+      <c r="AR7" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="27"/>
+      <c r="BH7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI7" s="19">
         <v>0.79</v>
       </c>
-      <c r="BE7" s="20">
+      <c r="BJ7" s="20">
         <v>0.73</v>
       </c>
-      <c r="BF7" s="19">
+      <c r="BK7" s="19">
         <v>0.79</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -31922,45 +32033,66 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AE8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="32" t="s">
+      <c r="AF8" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="AH8" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="42"/>
-      <c r="BC8" s="22" t="s">
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="BD8" s="19">
+      <c r="AP8" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="AQ8" s="28">
+        <v>0.62</v>
+      </c>
+      <c r="AR8" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="27"/>
+      <c r="BH8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI8" s="19">
         <v>0.78</v>
       </c>
-      <c r="BE8" s="20">
+      <c r="BJ8" s="20">
         <v>0.7</v>
       </c>
-      <c r="BF8" s="19">
+      <c r="BK8" s="19">
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -32038,45 +32170,66 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="32" t="s">
+      <c r="AE9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="32" t="s">
+      <c r="AF9" s="27">
+        <v>0.78</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>0.69</v>
+      </c>
+      <c r="AH9" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="42"/>
-      <c r="BC9" s="22" t="s">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="BD9" s="19">
+      <c r="AP9" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="AQ9" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR9" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="27"/>
+      <c r="BH9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI9" s="19">
         <v>0.81</v>
       </c>
-      <c r="BE9" s="20">
+      <c r="BJ9" s="20">
         <v>0.75</v>
       </c>
-      <c r="BF9" s="19">
+      <c r="BK9" s="19">
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -32153,45 +32306,66 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="32" t="s">
+      <c r="AE10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="32" t="s">
+      <c r="AF10" s="27">
+        <v>0.78</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="42"/>
-      <c r="BC10" s="22" t="s">
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BD10" s="19">
+      <c r="AP10" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="AQ10" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR10" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ10" s="27"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="27"/>
+      <c r="BH10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI10" s="19">
         <v>0.79</v>
       </c>
-      <c r="BE10" s="20">
+      <c r="BJ10" s="20">
         <v>0.69</v>
       </c>
-      <c r="BF10" s="19">
+      <c r="BK10" s="19">
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -32268,45 +32442,66 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="32" t="s">
+      <c r="AE11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="32" t="s">
+      <c r="AF11" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AH11" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="42"/>
-      <c r="BC11" s="22" t="s">
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BD11" s="19">
+      <c r="AP11" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="AQ11" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="AR11" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="27"/>
+      <c r="BH11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI11" s="19">
         <v>0.74</v>
       </c>
-      <c r="BE11" s="20">
+      <c r="BJ11" s="20">
         <v>0.66</v>
       </c>
-      <c r="BF11" s="19">
+      <c r="BK11" s="19">
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -32332,72 +32527,87 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="67" t="s">
+      <c r="Z12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="69"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="32" t="s">
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="51"/>
+      <c r="AE12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="32" t="s">
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="42"/>
-      <c r="BC12" s="22" t="s">
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BD12" s="19">
+      <c r="AP12" s="27">
+        <v>0.62</v>
+      </c>
+      <c r="AQ12" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="AR12" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="27"/>
+      <c r="BH12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI12" s="19">
         <v>0.81</v>
       </c>
-      <c r="BE12" s="20">
+      <c r="BJ12" s="20">
         <v>0.74</v>
       </c>
-      <c r="BF12" s="19">
+      <c r="BK12" s="19">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -32466,41 +32676,52 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="62"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
+      <c r="AE13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP13" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AQ13" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="AR13" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="27"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
     </row>
-    <row r="14" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -32577,33 +32798,46 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="62"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
+      <c r="AE14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
     </row>
-    <row r="15" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -32680,35 +32914,38 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="61"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="63"/>
-      <c r="BC15" s="73" t="s">
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BH15" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="73"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52"/>
     </row>
-    <row r="16" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -32785,63 +33022,42 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="23" t="s">
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="BJ16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH16" s="23" t="s">
+      <c r="BK16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF16" s="23" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="17" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -32902,49 +33118,74 @@
       <c r="AC17" s="9">
         <v>0.48</v>
       </c>
-      <c r="AE17" s="22" t="s">
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ17" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR17" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="19"/>
-      <c r="BC17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD17" s="19">
+      <c r="BI17" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BE17" s="20">
+      <c r="BJ17" s="20">
         <v>0.54</v>
       </c>
-      <c r="BF17" s="19">
+      <c r="BK17" s="19">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -33005,49 +33246,54 @@
       <c r="AC18" s="9">
         <v>0.44</v>
       </c>
-      <c r="AE18" s="22" t="s">
+      <c r="AE18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="27"/>
+      <c r="BH18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="19"/>
-      <c r="BC18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD18" s="19">
+      <c r="BI18" s="19">
         <v>0.59</v>
       </c>
-      <c r="BE18" s="20">
+      <c r="BJ18" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BF18" s="19">
+      <c r="BK18" s="19">
         <v>0.59</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -33076,49 +33322,54 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
-      <c r="AE19" s="22" t="s">
+      <c r="AE19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="27"/>
+      <c r="BH19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="19"/>
-      <c r="BC19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD19" s="19">
+      <c r="BI19" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BE19" s="20">
+      <c r="BJ19" s="20">
         <v>0.54</v>
       </c>
-      <c r="BF19" s="19">
+      <c r="BK19" s="19">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -33147,126 +33398,136 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
-      <c r="AE20" s="22" t="s">
+      <c r="AE20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="64"/>
+      <c r="AY20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="27"/>
+      <c r="BH20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="22" t="s">
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="19"/>
+    </row>
+    <row r="21" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="K21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="48"/>
+      <c r="AE21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="22" t="s">
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="22" t="s">
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="19"/>
-      <c r="BC20" s="22" t="s">
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="19"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="27"/>
+      <c r="BH21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI21" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BJ21" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="BK21" s="19">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="21" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="K21" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="72"/>
-      <c r="AE21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="19"/>
-      <c r="BC21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD21" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BE21" s="20">
-        <v>0.53</v>
-      </c>
-      <c r="BF21" s="19">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -33331,49 +33592,54 @@
       <c r="AC22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE22" s="22" t="s">
+      <c r="AE22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="27"/>
+      <c r="BH22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="19"/>
-      <c r="BC22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD22" s="19">
+      <c r="BI22" s="19">
         <v>0.62</v>
       </c>
-      <c r="BE22" s="20">
+      <c r="BJ22" s="20">
         <v>0.62</v>
       </c>
-      <c r="BF22" s="19">
+      <c r="BK22" s="19">
         <v>0.62</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -33450,37 +33716,42 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE23" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="49"/>
+      <c r="AE23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="64"/>
+      <c r="AY23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="27"/>
     </row>
-    <row r="24" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -33557,29 +33828,42 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="50"/>
+      <c r="AE24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="27"/>
     </row>
-    <row r="25" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -33656,29 +33940,32 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="51"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="54"/>
+      <c r="AU25" s="54"/>
+      <c r="AV25" s="54"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="35"/>
     </row>
-    <row r="26" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -33755,53 +34042,32 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY26" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="35"/>
     </row>
-    <row r="27" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -33878,37 +34144,40 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="76"/>
-      <c r="AP27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="30"/>
+      <c r="AE27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
     </row>
-    <row r="28" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -33934,64 +34203,59 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="67" t="s">
+      <c r="P28" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="69"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="67" t="s">
+      <c r="U28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="51"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="67" t="s">
+      <c r="Z28" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="69"/>
-      <c r="AE28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="30"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="51"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
+      <c r="BB28" s="32"/>
     </row>
-    <row r="29" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -34060,37 +34324,32 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="76"/>
-      <c r="AP29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW29" s="30"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="30"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="32"/>
     </row>
-    <row r="30" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -34167,37 +34426,56 @@
       <c r="AC30" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="76"/>
-      <c r="AP30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW30" s="30"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="30"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX30" s="64"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB30" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -34274,37 +34552,40 @@
       <c r="AC31" s="9">
         <v>0.74</v>
       </c>
-      <c r="AE31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="76"/>
-      <c r="AP31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="29"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW31" s="30"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="30"/>
+      <c r="AE31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="28"/>
+      <c r="BB31" s="27"/>
     </row>
-    <row r="32" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -34381,37 +34662,40 @@
       <c r="AC32" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="76"/>
-      <c r="AP32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW32" s="30"/>
-      <c r="AX32" s="29"/>
-      <c r="AY32" s="30"/>
+      <c r="AE32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="28"/>
+      <c r="BB32" s="27"/>
     </row>
-    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -34472,37 +34756,40 @@
       <c r="AC33" s="9">
         <v>0.61</v>
       </c>
-      <c r="AE33" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="76"/>
-      <c r="AP33" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="39"/>
-      <c r="AU33" s="39"/>
-      <c r="AV33" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="66"/>
+      <c r="AE33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ33" s="27"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="27"/>
     </row>
-    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -34563,29 +34850,40 @@
       <c r="AC34" s="9">
         <v>0.69</v>
       </c>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="76"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="39"/>
-      <c r="AU34" s="39"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="62"/>
+      <c r="AE34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="27"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="27"/>
     </row>
-    <row r="35" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -34614,29 +34912,40 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="14"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="61"/>
-      <c r="AG35" s="61"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="61"/>
-      <c r="AN35" s="63"/>
-      <c r="AO35" s="76"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="61"/>
-      <c r="AR35" s="61"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="61"/>
-      <c r="AW35" s="61"/>
-      <c r="AX35" s="61"/>
-      <c r="AY35" s="63"/>
+      <c r="AE35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="28"/>
+      <c r="BB35" s="27"/>
     </row>
-    <row r="36" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -34665,124 +34974,114 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="14"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY36" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="54"/>
+      <c r="AT36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="28"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="28"/>
+      <c r="BB36" s="27"/>
     </row>
-    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
-      <c r="K37" s="70" t="s">
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="K37" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="70" t="s">
+      <c r="P37" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="72"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="48"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="70" t="s">
+      <c r="U37" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="72"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="48"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="70" t="s">
+      <c r="Z37" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="72"/>
-      <c r="AE37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="19"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="48"/>
+      <c r="AE37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="28"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="27"/>
     </row>
-    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -34847,37 +35146,40 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="76"/>
-      <c r="AP38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="39"/>
-      <c r="AU38" s="39"/>
-      <c r="AV38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="20"/>
-      <c r="AY38" s="19"/>
+      <c r="AE38" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="54"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="64"/>
+      <c r="AY38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ38" s="32"/>
+      <c r="BA38" s="32"/>
+      <c r="BB38" s="32"/>
     </row>
-    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -34954,37 +35256,32 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="76"/>
-      <c r="AP39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="20"/>
-      <c r="AY39" s="19"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="32"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="32"/>
     </row>
-    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -35061,37 +35358,32 @@
       <c r="AC40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AE40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="76"/>
-      <c r="AP40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="39"/>
-      <c r="AU40" s="39"/>
-      <c r="AV40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="20"/>
-      <c r="AY40" s="19"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
     </row>
-    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -35168,37 +35460,56 @@
       <c r="AC41" s="10">
         <v>0.54</v>
       </c>
-      <c r="AE41" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="76"/>
-      <c r="AP41" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="19"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH41" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM41" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW41" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB41" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -35275,37 +35586,40 @@
       <c r="AC42" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="39"/>
-      <c r="AU42" s="39"/>
-      <c r="AV42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="19"/>
+      <c r="AE42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU42" s="27"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="27"/>
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ42" s="27"/>
+      <c r="BA42" s="28"/>
+      <c r="BB42" s="27"/>
     </row>
-    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -35382,37 +35696,40 @@
       <c r="AC43" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
-      <c r="AK43" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="76"/>
-      <c r="AP43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="39"/>
-      <c r="AU43" s="39"/>
-      <c r="AV43" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW43" s="44"/>
-      <c r="AX43" s="44"/>
-      <c r="AY43" s="49"/>
+      <c r="AE43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="54"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="54"/>
+      <c r="AT43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="64"/>
+      <c r="AY43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ43" s="27"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="27"/>
     </row>
-    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -35438,56 +35755,67 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="67" t="s">
+      <c r="K44" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="69"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="67" t="s">
+      <c r="P44" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="69"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="67" t="s">
+      <c r="U44" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="69"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="51"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="67" t="s">
+      <c r="Z44" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="69"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="39"/>
-      <c r="AK44" s="46"/>
-      <c r="AL44" s="46"/>
-      <c r="AM44" s="46"/>
-      <c r="AN44" s="50"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="46"/>
-      <c r="AR44" s="46"/>
-      <c r="AS44" s="46"/>
-      <c r="AT44" s="39"/>
-      <c r="AU44" s="39"/>
-      <c r="AV44" s="46"/>
-      <c r="AW44" s="46"/>
-      <c r="AX44" s="46"/>
-      <c r="AY44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="51"/>
+      <c r="AE44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="54"/>
+      <c r="AO44" s="54"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="54"/>
+      <c r="AT44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU44" s="27"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="27"/>
+      <c r="AX44" s="64"/>
+      <c r="AY44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ44" s="27"/>
+      <c r="BA44" s="28"/>
+      <c r="BB44" s="27"/>
     </row>
-    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -35556,29 +35884,40 @@
       <c r="AC45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="48"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="48"/>
-      <c r="AL45" s="48"/>
-      <c r="AM45" s="48"/>
-      <c r="AN45" s="51"/>
-      <c r="AO45" s="76"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="48"/>
-      <c r="AT45" s="39"/>
-      <c r="AU45" s="39"/>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="48"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="51"/>
+      <c r="AE45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="54"/>
+      <c r="AT45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU45" s="27"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="27"/>
+      <c r="AX45" s="64"/>
+      <c r="AY45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ45" s="27"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="27"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -35655,53 +35994,40 @@
       <c r="AC46" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH46" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN46" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO46" s="76"/>
-      <c r="AP46" s="26"/>
-      <c r="AQ46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS46" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT46" s="39"/>
-      <c r="AU46" s="39"/>
-      <c r="AV46" s="26"/>
-      <c r="AW46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY46" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="54"/>
+      <c r="AR46" s="54"/>
+      <c r="AS46" s="54"/>
+      <c r="AT46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU46" s="27"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="27"/>
+      <c r="AX46" s="64"/>
+      <c r="AY46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ46" s="27"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="27"/>
     </row>
-    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -35778,37 +36104,40 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="76"/>
-      <c r="AP47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="39"/>
-      <c r="AU47" s="39"/>
-      <c r="AV47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="29"/>
-      <c r="AY47" s="30"/>
+      <c r="AE47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="54"/>
+      <c r="AS47" s="54"/>
+      <c r="AT47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="27"/>
+      <c r="AX47" s="64"/>
+      <c r="AY47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ47" s="27"/>
+      <c r="BA47" s="28"/>
+      <c r="BB47" s="27"/>
     </row>
-    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -35885,37 +36214,40 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="29"/>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="76"/>
-      <c r="AP48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ48" s="30"/>
-      <c r="AR48" s="29"/>
-      <c r="AS48" s="30"/>
-      <c r="AT48" s="39"/>
-      <c r="AU48" s="39"/>
-      <c r="AV48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW48" s="30"/>
-      <c r="AX48" s="29"/>
-      <c r="AY48" s="30"/>
+      <c r="AE48" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="64"/>
+      <c r="AJ48" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="27"/>
+      <c r="AN48" s="54"/>
+      <c r="AO48" s="54"/>
+      <c r="AP48" s="54"/>
+      <c r="AQ48" s="54"/>
+      <c r="AR48" s="54"/>
+      <c r="AS48" s="54"/>
+      <c r="AT48" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU48" s="27"/>
+      <c r="AV48" s="28"/>
+      <c r="AW48" s="27"/>
+      <c r="AX48" s="64"/>
+      <c r="AY48" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ48" s="27"/>
+      <c r="BA48" s="28"/>
+      <c r="BB48" s="27"/>
     </row>
-    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -35976,37 +36308,34 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
-      <c r="AE49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL49" s="30"/>
-      <c r="AM49" s="29"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="76"/>
-      <c r="AP49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="29"/>
-      <c r="AS49" s="30"/>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="29"/>
-      <c r="AY49" s="30"/>
+      <c r="AE49" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF49" s="63"/>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="63"/>
+      <c r="AI49" s="63"/>
+      <c r="AJ49" s="63"/>
+      <c r="AK49" s="63"/>
+      <c r="AL49" s="63"/>
+      <c r="AM49" s="63"/>
+      <c r="AN49" s="63"/>
+      <c r="AO49" s="63"/>
+      <c r="AP49" s="63"/>
+      <c r="AQ49" s="63"/>
+      <c r="AR49" s="63"/>
+      <c r="AS49" s="63"/>
+      <c r="AT49" s="63"/>
+      <c r="AU49" s="63"/>
+      <c r="AV49" s="63"/>
+      <c r="AW49" s="63"/>
+      <c r="AX49" s="63"/>
+      <c r="AY49" s="63"/>
+      <c r="AZ49" s="63"/>
+      <c r="BA49" s="63"/>
+      <c r="BB49" s="63"/>
     </row>
-    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -36067,37 +36396,32 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
-      <c r="AE50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="30"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL50" s="30"/>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="30"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="29"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="39"/>
-      <c r="AU50" s="39"/>
-      <c r="AV50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW50" s="30"/>
-      <c r="AX50" s="29"/>
-      <c r="AY50" s="30"/>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="62"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="62"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="62"/>
+      <c r="AM50" s="62"/>
+      <c r="AN50" s="62"/>
+      <c r="AO50" s="62"/>
+      <c r="AP50" s="62"/>
+      <c r="AQ50" s="62"/>
+      <c r="AR50" s="62"/>
+      <c r="AS50" s="62"/>
+      <c r="AT50" s="62"/>
+      <c r="AU50" s="62"/>
+      <c r="AV50" s="62"/>
+      <c r="AW50" s="62"/>
+      <c r="AX50" s="62"/>
+      <c r="AY50" s="62"/>
+      <c r="AZ50" s="62"/>
+      <c r="BA50" s="62"/>
+      <c r="BB50" s="62"/>
     </row>
-    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -36126,37 +36450,40 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
-      <c r="AE51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL51" s="30"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="76"/>
-      <c r="AP51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="29"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="29"/>
-      <c r="AY51" s="30"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="54"/>
+      <c r="AK51" s="54"/>
+      <c r="AL51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="54"/>
+      <c r="AQ51" s="54"/>
+      <c r="AR51" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS51" s="32"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="54"/>
+      <c r="AW51" s="54"/>
+      <c r="AX51" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="32"/>
+      <c r="BB51" s="35"/>
     </row>
-    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -36185,104 +36512,98 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="14"/>
-      <c r="AE52" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF52" s="30"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="30"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL52" s="30"/>
-      <c r="AM52" s="29"/>
-      <c r="AN52" s="30"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="29"/>
-      <c r="AS52" s="30"/>
-      <c r="AT52" s="40"/>
-      <c r="AU52" s="40"/>
-      <c r="AV52" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW52" s="30"/>
-      <c r="AX52" s="29"/>
-      <c r="AY52" s="30"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="32"/>
+      <c r="AP52" s="54"/>
+      <c r="AQ52" s="54"/>
+      <c r="AR52" s="32"/>
+      <c r="AS52" s="32"/>
+      <c r="AT52" s="32"/>
+      <c r="AU52" s="32"/>
+      <c r="AV52" s="54"/>
+      <c r="AW52" s="54"/>
+      <c r="AX52" s="32"/>
+      <c r="AY52" s="32"/>
+      <c r="AZ52" s="32"/>
+      <c r="BA52" s="32"/>
+      <c r="BB52" s="35"/>
     </row>
-    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
+    <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="69"/>
-      <c r="K53" s="70" t="s">
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
+      <c r="K53" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="72"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="48"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="70" t="s">
+      <c r="P53" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="72"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="48"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="70" t="s">
+      <c r="U53" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="72"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="48"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="70" t="s">
+      <c r="Z53" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="72"/>
-      <c r="AE53" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF53" s="53"/>
-      <c r="AG53" s="53"/>
-      <c r="AH53" s="53"/>
-      <c r="AI53" s="53"/>
-      <c r="AJ53" s="53"/>
-      <c r="AK53" s="53"/>
-      <c r="AL53" s="53"/>
-      <c r="AM53" s="53"/>
-      <c r="AN53" s="54"/>
-      <c r="AO53" s="76"/>
-      <c r="AP53" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ53" s="53"/>
-      <c r="AR53" s="53"/>
-      <c r="AS53" s="53"/>
-      <c r="AT53" s="53"/>
-      <c r="AU53" s="53"/>
-      <c r="AV53" s="53"/>
-      <c r="AW53" s="53"/>
-      <c r="AX53" s="53"/>
-      <c r="AY53" s="54"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="48"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="32"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="54"/>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="32"/>
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="54"/>
+      <c r="AQ53" s="54"/>
+      <c r="AR53" s="32"/>
+      <c r="AS53" s="32"/>
+      <c r="AT53" s="32"/>
+      <c r="AU53" s="32"/>
+      <c r="AV53" s="54"/>
+      <c r="AW53" s="54"/>
+      <c r="AX53" s="32"/>
+      <c r="AY53" s="32"/>
+      <c r="AZ53" s="32"/>
+      <c r="BA53" s="32"/>
+      <c r="BB53" s="35"/>
     </row>
-    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -36347,29 +36668,56 @@
       <c r="AC54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="57"/>
-      <c r="AO54" s="76"/>
-      <c r="AP54" s="55"/>
-      <c r="AQ54" s="56"/>
-      <c r="AR54" s="56"/>
-      <c r="AS54" s="56"/>
-      <c r="AT54" s="56"/>
-      <c r="AU54" s="56"/>
-      <c r="AV54" s="56"/>
-      <c r="AW54" s="56"/>
-      <c r="AX54" s="56"/>
-      <c r="AY54" s="57"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI54" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ54" s="54"/>
+      <c r="AK54" s="54"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO54" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP54" s="54"/>
+      <c r="AQ54" s="54"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU54" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV54" s="54"/>
+      <c r="AW54" s="54"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA54" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB54" s="35"/>
     </row>
-    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -36446,33 +36794,40 @@
       <c r="AC55" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="42"/>
-      <c r="AO55" s="76"/>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT55" s="36"/>
-      <c r="AU55" s="36"/>
-      <c r="AV55" s="36"/>
-      <c r="AW55" s="39"/>
-      <c r="AX55" s="39"/>
-      <c r="AY55" s="42"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="27"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM55" s="27"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="27"/>
+      <c r="AP55" s="54"/>
+      <c r="AQ55" s="54"/>
+      <c r="AR55" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="27"/>
+      <c r="AT55" s="28"/>
+      <c r="AU55" s="27"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="54"/>
+      <c r="AX55" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY55" s="27"/>
+      <c r="AZ55" s="28"/>
+      <c r="BA55" s="27"/>
+      <c r="BB55" s="35"/>
     </row>
-    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>1</v>
       </c>
@@ -36549,29 +36904,40 @@
       <c r="AC56" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="36"/>
-      <c r="AK56" s="36"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="76"/>
-      <c r="AP56" s="41"/>
-      <c r="AQ56" s="39"/>
-      <c r="AR56" s="39"/>
-      <c r="AS56" s="36"/>
-      <c r="AT56" s="36"/>
-      <c r="AU56" s="36"/>
-      <c r="AV56" s="36"/>
-      <c r="AW56" s="39"/>
-      <c r="AX56" s="39"/>
-      <c r="AY56" s="42"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="27"/>
+      <c r="AJ56" s="54"/>
+      <c r="AK56" s="54"/>
+      <c r="AL56" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM56" s="27"/>
+      <c r="AN56" s="28"/>
+      <c r="AO56" s="27"/>
+      <c r="AP56" s="54"/>
+      <c r="AQ56" s="54"/>
+      <c r="AR56" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS56" s="27"/>
+      <c r="AT56" s="28"/>
+      <c r="AU56" s="27"/>
+      <c r="AV56" s="54"/>
+      <c r="AW56" s="54"/>
+      <c r="AX56" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY56" s="27"/>
+      <c r="AZ56" s="28"/>
+      <c r="BA56" s="27"/>
+      <c r="BB56" s="35"/>
     </row>
-    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
@@ -36648,29 +37014,40 @@
       <c r="AC57" s="10">
         <v>0.43</v>
       </c>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="37"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="76"/>
-      <c r="AP57" s="41"/>
-      <c r="AQ57" s="39"/>
-      <c r="AR57" s="39"/>
-      <c r="AS57" s="37"/>
-      <c r="AT57" s="37"/>
-      <c r="AU57" s="37"/>
-      <c r="AV57" s="37"/>
-      <c r="AW57" s="39"/>
-      <c r="AX57" s="39"/>
-      <c r="AY57" s="42"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="27"/>
+      <c r="AJ57" s="54"/>
+      <c r="AK57" s="54"/>
+      <c r="AL57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM57" s="27"/>
+      <c r="AN57" s="28"/>
+      <c r="AO57" s="27"/>
+      <c r="AP57" s="54"/>
+      <c r="AQ57" s="54"/>
+      <c r="AR57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS57" s="27"/>
+      <c r="AT57" s="28"/>
+      <c r="AU57" s="27"/>
+      <c r="AV57" s="54"/>
+      <c r="AW57" s="54"/>
+      <c r="AX57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY57" s="27"/>
+      <c r="AZ57" s="28"/>
+      <c r="BA57" s="27"/>
+      <c r="BB57" s="35"/>
     </row>
-    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -36747,41 +37124,40 @@
       <c r="AC58" s="10">
         <v>0.53</v>
       </c>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="31"/>
-      <c r="AI58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ58" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK58" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="76"/>
-      <c r="AP58" s="41"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="31"/>
-      <c r="AT58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU58" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV58" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW58" s="39"/>
-      <c r="AX58" s="39"/>
-      <c r="AY58" s="42"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="54"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="28"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="54"/>
+      <c r="AQ58" s="54"/>
+      <c r="AR58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS58" s="27"/>
+      <c r="AT58" s="28"/>
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="54"/>
+      <c r="AW58" s="54"/>
+      <c r="AX58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="28"/>
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="35"/>
     </row>
-    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -36858,33 +37234,40 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="34"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="76"/>
-      <c r="AP59" s="41"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT59" s="34"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="34"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="42"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="54"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="28"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="54"/>
+      <c r="AQ59" s="54"/>
+      <c r="AR59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="28"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="54"/>
+      <c r="AW59" s="54"/>
+      <c r="AX59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="28"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="35"/>
     </row>
-    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -36910,60 +37293,67 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="67" t="s">
+      <c r="K60" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="69"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="51"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="67" t="s">
+      <c r="P60" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="69"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="51"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="67" t="s">
+      <c r="U60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="69"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="51"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="67" t="s">
+      <c r="Z60" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="69"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="34"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="41"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT60" s="34"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="34"/>
-      <c r="AW60" s="39"/>
-      <c r="AX60" s="39"/>
-      <c r="AY60" s="42"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="51"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="54"/>
+      <c r="AK60" s="54"/>
+      <c r="AL60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM60" s="27"/>
+      <c r="AN60" s="28"/>
+      <c r="AO60" s="27"/>
+      <c r="AP60" s="54"/>
+      <c r="AQ60" s="54"/>
+      <c r="AR60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS60" s="27"/>
+      <c r="AT60" s="28"/>
+      <c r="AU60" s="27"/>
+      <c r="AV60" s="54"/>
+      <c r="AW60" s="54"/>
+      <c r="AX60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY60" s="27"/>
+      <c r="AZ60" s="28"/>
+      <c r="BA60" s="27"/>
+      <c r="BB60" s="35"/>
     </row>
-    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -37032,33 +37422,40 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="34"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="76"/>
-      <c r="AP61" s="41"/>
-      <c r="AQ61" s="39"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT61" s="34"/>
-      <c r="AU61" s="35"/>
-      <c r="AV61" s="34"/>
-      <c r="AW61" s="39"/>
-      <c r="AX61" s="39"/>
-      <c r="AY61" s="42"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG61" s="27"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="27"/>
+      <c r="AJ61" s="54"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM61" s="27"/>
+      <c r="AN61" s="28"/>
+      <c r="AO61" s="27"/>
+      <c r="AP61" s="54"/>
+      <c r="AQ61" s="54"/>
+      <c r="AR61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS61" s="27"/>
+      <c r="AT61" s="28"/>
+      <c r="AU61" s="27"/>
+      <c r="AV61" s="54"/>
+      <c r="AW61" s="54"/>
+      <c r="AX61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY61" s="27"/>
+      <c r="AZ61" s="28"/>
+      <c r="BA61" s="27"/>
+      <c r="BB61" s="35"/>
     </row>
-    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -37135,33 +37532,40 @@
       <c r="AC62" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE62" s="41"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="35"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="76"/>
-      <c r="AP62" s="41"/>
-      <c r="AQ62" s="39"/>
-      <c r="AR62" s="39"/>
-      <c r="AS62" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT62" s="34"/>
-      <c r="AU62" s="35"/>
-      <c r="AV62" s="34"/>
-      <c r="AW62" s="39"/>
-      <c r="AX62" s="39"/>
-      <c r="AY62" s="42"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="54"/>
+      <c r="AK62" s="54"/>
+      <c r="AL62" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="32"/>
+      <c r="AP62" s="54"/>
+      <c r="AQ62" s="54"/>
+      <c r="AR62" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS62" s="32"/>
+      <c r="AT62" s="32"/>
+      <c r="AU62" s="32"/>
+      <c r="AV62" s="54"/>
+      <c r="AW62" s="54"/>
+      <c r="AX62" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY62" s="32"/>
+      <c r="AZ62" s="32"/>
+      <c r="BA62" s="32"/>
+      <c r="BB62" s="35"/>
     </row>
-    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -37238,33 +37642,32 @@
       <c r="AC63" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE63" s="41"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI63" s="34"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="34"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="76"/>
-      <c r="AP63" s="41"/>
-      <c r="AQ63" s="39"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT63" s="34"/>
-      <c r="AU63" s="35"/>
-      <c r="AV63" s="34"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="39"/>
-      <c r="AY63" s="42"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="54"/>
+      <c r="AK63" s="54"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="32"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="54"/>
+      <c r="AR63" s="32"/>
+      <c r="AS63" s="32"/>
+      <c r="AT63" s="32"/>
+      <c r="AU63" s="32"/>
+      <c r="AV63" s="54"/>
+      <c r="AW63" s="54"/>
+      <c r="AX63" s="32"/>
+      <c r="AY63" s="32"/>
+      <c r="AZ63" s="32"/>
+      <c r="BA63" s="32"/>
+      <c r="BB63" s="35"/>
     </row>
-    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -37341,33 +37744,32 @@
       <c r="AC64" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE64" s="41"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI64" s="34"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="34"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="76"/>
-      <c r="AP64" s="41"/>
-      <c r="AQ64" s="39"/>
-      <c r="AR64" s="39"/>
-      <c r="AS64" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT64" s="34"/>
-      <c r="AU64" s="35"/>
-      <c r="AV64" s="34"/>
-      <c r="AW64" s="39"/>
-      <c r="AX64" s="39"/>
-      <c r="AY64" s="42"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="54"/>
+      <c r="AK64" s="54"/>
+      <c r="AL64" s="32"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="32"/>
+      <c r="AO64" s="32"/>
+      <c r="AP64" s="54"/>
+      <c r="AQ64" s="54"/>
+      <c r="AR64" s="32"/>
+      <c r="AS64" s="32"/>
+      <c r="AT64" s="32"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="54"/>
+      <c r="AW64" s="54"/>
+      <c r="AX64" s="32"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="32"/>
+      <c r="BA64" s="32"/>
+      <c r="BB64" s="35"/>
     </row>
-    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -37428,37 +37830,56 @@
       <c r="AC65" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE65" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF65" s="59"/>
-      <c r="AG65" s="59"/>
-      <c r="AH65" s="59"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL65" s="59"/>
-      <c r="AM65" s="59"/>
-      <c r="AN65" s="62"/>
-      <c r="AO65" s="76"/>
-      <c r="AP65" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ65" s="59"/>
-      <c r="AR65" s="59"/>
-      <c r="AS65" s="59"/>
-      <c r="AT65" s="38"/>
-      <c r="AU65" s="38"/>
-      <c r="AV65" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW65" s="59"/>
-      <c r="AX65" s="59"/>
-      <c r="AY65" s="62"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH65" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ65" s="54"/>
+      <c r="AK65" s="54"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN65" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP65" s="54"/>
+      <c r="AQ65" s="54"/>
+      <c r="AR65" s="24"/>
+      <c r="AS65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT65" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV65" s="54"/>
+      <c r="AW65" s="54"/>
+      <c r="AX65" s="24"/>
+      <c r="AY65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ65" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB65" s="35"/>
     </row>
-    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -37519,29 +37940,40 @@
       <c r="AC66" s="9">
         <v>0.41</v>
       </c>
-      <c r="AE66" s="58"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="59"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="39"/>
-      <c r="AK66" s="59"/>
-      <c r="AL66" s="59"/>
-      <c r="AM66" s="59"/>
-      <c r="AN66" s="62"/>
-      <c r="AO66" s="76"/>
-      <c r="AP66" s="58"/>
-      <c r="AQ66" s="59"/>
-      <c r="AR66" s="59"/>
-      <c r="AS66" s="59"/>
-      <c r="AT66" s="39"/>
-      <c r="AU66" s="39"/>
-      <c r="AV66" s="59"/>
-      <c r="AW66" s="59"/>
-      <c r="AX66" s="59"/>
-      <c r="AY66" s="62"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="28"/>
+      <c r="AI66" s="27"/>
+      <c r="AJ66" s="54"/>
+      <c r="AK66" s="54"/>
+      <c r="AL66" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM66" s="27"/>
+      <c r="AN66" s="28"/>
+      <c r="AO66" s="27"/>
+      <c r="AP66" s="54"/>
+      <c r="AQ66" s="54"/>
+      <c r="AR66" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="27"/>
+      <c r="AT66" s="28"/>
+      <c r="AU66" s="27"/>
+      <c r="AV66" s="54"/>
+      <c r="AW66" s="54"/>
+      <c r="AX66" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY66" s="27"/>
+      <c r="AZ66" s="28"/>
+      <c r="BA66" s="27"/>
+      <c r="BB66" s="35"/>
     </row>
-    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -37570,29 +38002,40 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="14"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="61"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="39"/>
-      <c r="AK67" s="61"/>
-      <c r="AL67" s="61"/>
-      <c r="AM67" s="61"/>
-      <c r="AN67" s="63"/>
-      <c r="AO67" s="76"/>
-      <c r="AP67" s="60"/>
-      <c r="AQ67" s="61"/>
-      <c r="AR67" s="61"/>
-      <c r="AS67" s="61"/>
-      <c r="AT67" s="39"/>
-      <c r="AU67" s="39"/>
-      <c r="AV67" s="61"/>
-      <c r="AW67" s="61"/>
-      <c r="AX67" s="61"/>
-      <c r="AY67" s="63"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG67" s="27"/>
+      <c r="AH67" s="28"/>
+      <c r="AI67" s="27"/>
+      <c r="AJ67" s="54"/>
+      <c r="AK67" s="54"/>
+      <c r="AL67" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM67" s="27"/>
+      <c r="AN67" s="28"/>
+      <c r="AO67" s="27"/>
+      <c r="AP67" s="54"/>
+      <c r="AQ67" s="54"/>
+      <c r="AR67" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS67" s="27"/>
+      <c r="AT67" s="28"/>
+      <c r="AU67" s="27"/>
+      <c r="AV67" s="54"/>
+      <c r="AW67" s="54"/>
+      <c r="AX67" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY67" s="27"/>
+      <c r="AZ67" s="28"/>
+      <c r="BA67" s="27"/>
+      <c r="BB67" s="35"/>
     </row>
-    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -37621,1197 +38064,2752 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="18"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="23" t="s">
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="28"/>
+      <c r="AI68" s="27"/>
+      <c r="AJ68" s="54"/>
+      <c r="AK68" s="54"/>
+      <c r="AL68" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM68" s="27"/>
+      <c r="AN68" s="28"/>
+      <c r="AO68" s="27"/>
+      <c r="AP68" s="54"/>
+      <c r="AQ68" s="54"/>
+      <c r="AR68" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS68" s="27"/>
+      <c r="AT68" s="28"/>
+      <c r="AU68" s="27"/>
+      <c r="AV68" s="54"/>
+      <c r="AW68" s="54"/>
+      <c r="AX68" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY68" s="27"/>
+      <c r="AZ68" s="28"/>
+      <c r="BA68" s="27"/>
+      <c r="BB68" s="35"/>
+    </row>
+    <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="28"/>
+      <c r="AI69" s="27"/>
+      <c r="AJ69" s="54"/>
+      <c r="AK69" s="54"/>
+      <c r="AL69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM69" s="27"/>
+      <c r="AN69" s="28"/>
+      <c r="AO69" s="27"/>
+      <c r="AP69" s="54"/>
+      <c r="AQ69" s="54"/>
+      <c r="AR69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS69" s="27"/>
+      <c r="AT69" s="28"/>
+      <c r="AU69" s="27"/>
+      <c r="AV69" s="54"/>
+      <c r="AW69" s="54"/>
+      <c r="AX69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY69" s="27"/>
+      <c r="AZ69" s="28"/>
+      <c r="BA69" s="27"/>
+      <c r="BB69" s="35"/>
+    </row>
+    <row r="70" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG70" s="27"/>
+      <c r="AH70" s="28"/>
+      <c r="AI70" s="27"/>
+      <c r="AJ70" s="54"/>
+      <c r="AK70" s="54"/>
+      <c r="AL70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM70" s="27"/>
+      <c r="AN70" s="28"/>
+      <c r="AO70" s="27"/>
+      <c r="AP70" s="54"/>
+      <c r="AQ70" s="54"/>
+      <c r="AR70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS70" s="27"/>
+      <c r="AT70" s="28"/>
+      <c r="AU70" s="27"/>
+      <c r="AV70" s="54"/>
+      <c r="AW70" s="54"/>
+      <c r="AX70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY70" s="27"/>
+      <c r="AZ70" s="28"/>
+      <c r="BA70" s="27"/>
+      <c r="BB70" s="35"/>
+    </row>
+    <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="28"/>
+      <c r="AI71" s="27"/>
+      <c r="AJ71" s="54"/>
+      <c r="AK71" s="54"/>
+      <c r="AL71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM71" s="27"/>
+      <c r="AN71" s="28"/>
+      <c r="AO71" s="27"/>
+      <c r="AP71" s="54"/>
+      <c r="AQ71" s="54"/>
+      <c r="AR71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS71" s="27"/>
+      <c r="AT71" s="28"/>
+      <c r="AU71" s="27"/>
+      <c r="AV71" s="54"/>
+      <c r="AW71" s="54"/>
+      <c r="AX71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY71" s="27"/>
+      <c r="AZ71" s="28"/>
+      <c r="BA71" s="27"/>
+      <c r="BB71" s="35"/>
+    </row>
+    <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE72" s="33"/>
+      <c r="AF72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG72" s="27"/>
+      <c r="AH72" s="28"/>
+      <c r="AI72" s="27"/>
+      <c r="AJ72" s="54"/>
+      <c r="AK72" s="54"/>
+      <c r="AL72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM72" s="27"/>
+      <c r="AN72" s="28"/>
+      <c r="AO72" s="27"/>
+      <c r="AP72" s="54"/>
+      <c r="AQ72" s="54"/>
+      <c r="AR72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS72" s="27"/>
+      <c r="AT72" s="28"/>
+      <c r="AU72" s="27"/>
+      <c r="AV72" s="54"/>
+      <c r="AW72" s="54"/>
+      <c r="AX72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY72" s="27"/>
+      <c r="AZ72" s="28"/>
+      <c r="BA72" s="27"/>
+      <c r="BB72" s="35"/>
+    </row>
+    <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="59"/>
+      <c r="AG73" s="59"/>
+      <c r="AH73" s="59"/>
+      <c r="AI73" s="59"/>
+      <c r="AJ73" s="59"/>
+      <c r="AK73" s="59"/>
+      <c r="AL73" s="59"/>
+      <c r="AM73" s="59"/>
+      <c r="AN73" s="59"/>
+      <c r="AO73" s="59"/>
+      <c r="AP73" s="59"/>
+      <c r="AQ73" s="59"/>
+      <c r="AR73" s="59"/>
+      <c r="AS73" s="59"/>
+      <c r="AT73" s="59"/>
+      <c r="AU73" s="59"/>
+      <c r="AV73" s="59"/>
+      <c r="AW73" s="59"/>
+      <c r="AX73" s="59"/>
+      <c r="AY73" s="59"/>
+      <c r="AZ73" s="59"/>
+      <c r="BA73" s="59"/>
+      <c r="BB73" s="67"/>
+    </row>
+    <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="60"/>
+      <c r="AG74" s="60"/>
+      <c r="AH74" s="60"/>
+      <c r="AI74" s="60"/>
+      <c r="AJ74" s="60"/>
+      <c r="AK74" s="60"/>
+      <c r="AL74" s="60"/>
+      <c r="AM74" s="60"/>
+      <c r="AN74" s="60"/>
+      <c r="AO74" s="60"/>
+      <c r="AP74" s="60"/>
+      <c r="AQ74" s="60"/>
+      <c r="AR74" s="60"/>
+      <c r="AS74" s="60"/>
+      <c r="AT74" s="60"/>
+      <c r="AU74" s="60"/>
+      <c r="AV74" s="60"/>
+      <c r="AW74" s="60"/>
+      <c r="AX74" s="60"/>
+      <c r="AY74" s="60"/>
+      <c r="AZ74" s="60"/>
+      <c r="BA74" s="60"/>
+      <c r="BB74" s="69"/>
+    </row>
+    <row r="75" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE75" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF75" s="36"/>
+      <c r="AG75" s="36"/>
+      <c r="AH75" s="36"/>
+      <c r="AI75" s="36"/>
+      <c r="AJ75" s="36"/>
+      <c r="AK75" s="36"/>
+      <c r="AL75" s="36"/>
+      <c r="AM75" s="36"/>
+      <c r="AN75" s="36"/>
+      <c r="AO75" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP75" s="58"/>
+      <c r="AQ75" s="58"/>
+      <c r="AR75" s="58"/>
+      <c r="AS75" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT75" s="36"/>
+      <c r="AU75" s="36"/>
+      <c r="AV75" s="36"/>
+      <c r="AW75" s="36"/>
+      <c r="AX75" s="36"/>
+      <c r="AY75" s="36"/>
+      <c r="AZ75" s="36"/>
+      <c r="BA75" s="36"/>
+      <c r="BB75" s="36"/>
+    </row>
+    <row r="76" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE76" s="61"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="61"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="61"/>
+      <c r="AJ76" s="61"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="61"/>
+      <c r="AM76" s="61"/>
+      <c r="AN76" s="61"/>
+      <c r="AO76" s="65"/>
+      <c r="AP76" s="65"/>
+      <c r="AQ76" s="65"/>
+      <c r="AR76" s="65"/>
+      <c r="AS76" s="61"/>
+      <c r="AT76" s="61"/>
+      <c r="AU76" s="61"/>
+      <c r="AV76" s="61"/>
+      <c r="AW76" s="61"/>
+      <c r="AX76" s="61"/>
+      <c r="AY76" s="61"/>
+      <c r="AZ76" s="61"/>
+      <c r="BA76" s="61"/>
+      <c r="BB76" s="61"/>
+    </row>
+    <row r="77" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE77" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF77" s="32"/>
+      <c r="AG77" s="32"/>
+      <c r="AH77" s="32"/>
+      <c r="AI77" s="64"/>
+      <c r="AJ77" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK77" s="32"/>
+      <c r="AL77" s="32"/>
+      <c r="AM77" s="32"/>
+      <c r="AN77" s="54"/>
+      <c r="AO77" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP77" s="32"/>
+      <c r="AQ77" s="32"/>
+      <c r="AR77" s="32"/>
+      <c r="AS77" s="64"/>
+      <c r="AT77" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU77" s="32"/>
+      <c r="AV77" s="32"/>
+      <c r="AW77" s="32"/>
+      <c r="AX77" s="64"/>
+      <c r="AY77" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ77" s="32"/>
+      <c r="BA77" s="32"/>
+      <c r="BB77" s="32"/>
+    </row>
+    <row r="78" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE78" s="32"/>
+      <c r="AF78" s="32"/>
+      <c r="AG78" s="32"/>
+      <c r="AH78" s="32"/>
+      <c r="AI78" s="64"/>
+      <c r="AJ78" s="32"/>
+      <c r="AK78" s="32"/>
+      <c r="AL78" s="32"/>
+      <c r="AM78" s="32"/>
+      <c r="AN78" s="54"/>
+      <c r="AO78" s="32"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="32"/>
+      <c r="AR78" s="32"/>
+      <c r="AS78" s="64"/>
+      <c r="AT78" s="32"/>
+      <c r="AU78" s="32"/>
+      <c r="AV78" s="32"/>
+      <c r="AW78" s="32"/>
+      <c r="AX78" s="64"/>
+      <c r="AY78" s="32"/>
+      <c r="AZ78" s="32"/>
+      <c r="BA78" s="32"/>
+      <c r="BB78" s="32"/>
+    </row>
+    <row r="79" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE79" s="32"/>
+      <c r="AF79" s="32"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="64"/>
+      <c r="AJ79" s="32"/>
+      <c r="AK79" s="32"/>
+      <c r="AL79" s="32"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="54"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="32"/>
+      <c r="AQ79" s="32"/>
+      <c r="AR79" s="32"/>
+      <c r="AS79" s="64"/>
+      <c r="AT79" s="32"/>
+      <c r="AU79" s="32"/>
+      <c r="AV79" s="32"/>
+      <c r="AW79" s="32"/>
+      <c r="AX79" s="64"/>
+      <c r="AY79" s="32"/>
+      <c r="AZ79" s="32"/>
+      <c r="BA79" s="32"/>
+      <c r="BB79" s="32"/>
+    </row>
+    <row r="80" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AG68" s="23" t="s">
+      <c r="AG80" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AH68" s="23" t="s">
+      <c r="AH80" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="23" t="s">
+      <c r="AI80" s="64"/>
+      <c r="AJ80" s="24"/>
+      <c r="AK80" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AM68" s="23" t="s">
+      <c r="AL80" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AN68" s="23" t="s">
+      <c r="AM80" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AO68" s="76"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="23" t="s">
+      <c r="AN80" s="54"/>
+      <c r="AO80" s="24"/>
+      <c r="AP80" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AR68" s="23" t="s">
+      <c r="AQ80" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AS68" s="23" t="s">
+      <c r="AR80" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AT68" s="39"/>
-      <c r="AU68" s="39"/>
-      <c r="AV68" s="21"/>
-      <c r="AW68" s="23" t="s">
+      <c r="AS80" s="64"/>
+      <c r="AT80" s="24"/>
+      <c r="AU80" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AX68" s="23" t="s">
+      <c r="AV80" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AY68" s="23" t="s">
+      <c r="AW80" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="AX80" s="64"/>
+      <c r="AY80" s="24"/>
+      <c r="AZ80" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA80" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB80" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE69" s="22" t="s">
+    <row r="81" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE81" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="20"/>
-      <c r="AH69" s="19"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="22" t="s">
+      <c r="AF81" s="27"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="27"/>
+      <c r="AI81" s="64"/>
+      <c r="AJ81" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AL69" s="19"/>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="19"/>
-      <c r="AO69" s="76"/>
-      <c r="AP69" s="22" t="s">
+      <c r="AK81" s="27"/>
+      <c r="AL81" s="28"/>
+      <c r="AM81" s="27"/>
+      <c r="AN81" s="54"/>
+      <c r="AO81" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AQ69" s="19"/>
-      <c r="AR69" s="20"/>
-      <c r="AS69" s="19"/>
-      <c r="AT69" s="39"/>
-      <c r="AU69" s="39"/>
-      <c r="AV69" s="22" t="s">
+      <c r="AP81" s="27"/>
+      <c r="AQ81" s="28"/>
+      <c r="AR81" s="27"/>
+      <c r="AS81" s="64"/>
+      <c r="AT81" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW69" s="19"/>
-      <c r="AX69" s="20"/>
-      <c r="AY69" s="19"/>
+      <c r="AU81" s="27"/>
+      <c r="AV81" s="28"/>
+      <c r="AW81" s="27"/>
+      <c r="AX81" s="64"/>
+      <c r="AY81" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ81" s="27"/>
+      <c r="BA81" s="28"/>
+      <c r="BB81" s="27"/>
     </row>
-    <row r="70" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE70" s="22" t="s">
+    <row r="82" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE82" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="20"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
-      <c r="AK70" s="22" t="s">
+      <c r="AF82" s="27"/>
+      <c r="AG82" s="28"/>
+      <c r="AH82" s="27"/>
+      <c r="AI82" s="64"/>
+      <c r="AJ82" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AL70" s="19"/>
-      <c r="AM70" s="20"/>
-      <c r="AN70" s="19"/>
-      <c r="AO70" s="76"/>
-      <c r="AP70" s="22" t="s">
+      <c r="AK82" s="27"/>
+      <c r="AL82" s="28"/>
+      <c r="AM82" s="27"/>
+      <c r="AN82" s="54"/>
+      <c r="AO82" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AQ70" s="19"/>
-      <c r="AR70" s="20"/>
-      <c r="AS70" s="19"/>
-      <c r="AT70" s="39"/>
-      <c r="AU70" s="39"/>
-      <c r="AV70" s="22" t="s">
+      <c r="AP82" s="27"/>
+      <c r="AQ82" s="28"/>
+      <c r="AR82" s="27"/>
+      <c r="AS82" s="64"/>
+      <c r="AT82" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AW70" s="19"/>
-      <c r="AX70" s="20"/>
-      <c r="AY70" s="19"/>
+      <c r="AU82" s="27"/>
+      <c r="AV82" s="28"/>
+      <c r="AW82" s="27"/>
+      <c r="AX82" s="64"/>
+      <c r="AY82" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ82" s="27"/>
+      <c r="BA82" s="28"/>
+      <c r="BB82" s="27"/>
     </row>
-    <row r="71" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE71" s="22" t="s">
+    <row r="83" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE83" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="20"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="39"/>
-      <c r="AK71" s="22" t="s">
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="28"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="64"/>
+      <c r="AJ83" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AL71" s="19"/>
-      <c r="AM71" s="20"/>
-      <c r="AN71" s="19"/>
-      <c r="AO71" s="76"/>
-      <c r="AP71" s="22" t="s">
+      <c r="AK83" s="27"/>
+      <c r="AL83" s="28"/>
+      <c r="AM83" s="27"/>
+      <c r="AN83" s="54"/>
+      <c r="AO83" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AQ71" s="19"/>
-      <c r="AR71" s="20"/>
-      <c r="AS71" s="19"/>
-      <c r="AT71" s="39"/>
-      <c r="AU71" s="39"/>
-      <c r="AV71" s="22" t="s">
+      <c r="AP83" s="27"/>
+      <c r="AQ83" s="28"/>
+      <c r="AR83" s="27"/>
+      <c r="AS83" s="64"/>
+      <c r="AT83" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AW71" s="19"/>
-      <c r="AX71" s="20"/>
-      <c r="AY71" s="19"/>
+      <c r="AU83" s="27"/>
+      <c r="AV83" s="28"/>
+      <c r="AW83" s="27"/>
+      <c r="AX83" s="64"/>
+      <c r="AY83" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ83" s="27"/>
+      <c r="BA83" s="28"/>
+      <c r="BB83" s="27"/>
     </row>
-    <row r="72" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE72" s="22" t="s">
+    <row r="84" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE84" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="20"/>
-      <c r="AH72" s="19"/>
-      <c r="AI72" s="39"/>
-      <c r="AJ72" s="39"/>
-      <c r="AK72" s="22" t="s">
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="27"/>
+      <c r="AI84" s="64"/>
+      <c r="AJ84" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AL72" s="19"/>
-      <c r="AM72" s="20"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="76"/>
-      <c r="AP72" s="22" t="s">
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="28"/>
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="54"/>
+      <c r="AO84" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AQ72" s="19"/>
-      <c r="AR72" s="20"/>
-      <c r="AS72" s="19"/>
-      <c r="AT72" s="39"/>
-      <c r="AU72" s="39"/>
-      <c r="AV72" s="22" t="s">
+      <c r="AP84" s="27"/>
+      <c r="AQ84" s="28"/>
+      <c r="AR84" s="27"/>
+      <c r="AS84" s="64"/>
+      <c r="AT84" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AW72" s="19"/>
-      <c r="AX72" s="20"/>
-      <c r="AY72" s="19"/>
+      <c r="AU84" s="27"/>
+      <c r="AV84" s="28"/>
+      <c r="AW84" s="27"/>
+      <c r="AX84" s="64"/>
+      <c r="AY84" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ84" s="27"/>
+      <c r="BA84" s="28"/>
+      <c r="BB84" s="27"/>
     </row>
-    <row r="73" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE73" s="22" t="s">
+    <row r="85" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE85" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="20"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="39"/>
-      <c r="AJ73" s="39"/>
-      <c r="AK73" s="22" t="s">
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="28"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="64"/>
+      <c r="AJ85" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AL73" s="19"/>
-      <c r="AM73" s="20"/>
-      <c r="AN73" s="19"/>
-      <c r="AO73" s="76"/>
-      <c r="AP73" s="22" t="s">
+      <c r="AK85" s="27"/>
+      <c r="AL85" s="28"/>
+      <c r="AM85" s="27"/>
+      <c r="AN85" s="54"/>
+      <c r="AO85" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AQ73" s="19"/>
-      <c r="AR73" s="20"/>
-      <c r="AS73" s="19"/>
-      <c r="AT73" s="39"/>
-      <c r="AU73" s="39"/>
-      <c r="AV73" s="22" t="s">
+      <c r="AP85" s="27"/>
+      <c r="AQ85" s="28"/>
+      <c r="AR85" s="27"/>
+      <c r="AS85" s="64"/>
+      <c r="AT85" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AW73" s="19"/>
-      <c r="AX73" s="20"/>
-      <c r="AY73" s="19"/>
+      <c r="AU85" s="27"/>
+      <c r="AV85" s="28"/>
+      <c r="AW85" s="27"/>
+      <c r="AX85" s="64"/>
+      <c r="AY85" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ85" s="27"/>
+      <c r="BA85" s="28"/>
+      <c r="BB85" s="27"/>
     </row>
-    <row r="74" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE74" s="22" t="s">
+    <row r="86" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE86" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="20"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="39"/>
-      <c r="AJ74" s="39"/>
-      <c r="AK74" s="22" t="s">
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="27"/>
+      <c r="AI86" s="64"/>
+      <c r="AJ86" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AL74" s="19"/>
-      <c r="AM74" s="20"/>
-      <c r="AN74" s="19"/>
-      <c r="AO74" s="76"/>
-      <c r="AP74" s="22" t="s">
+      <c r="AK86" s="27"/>
+      <c r="AL86" s="28"/>
+      <c r="AM86" s="27"/>
+      <c r="AN86" s="54"/>
+      <c r="AO86" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AQ74" s="19"/>
-      <c r="AR74" s="20"/>
-      <c r="AS74" s="19"/>
-      <c r="AT74" s="39"/>
-      <c r="AU74" s="39"/>
-      <c r="AV74" s="22" t="s">
+      <c r="AP86" s="27"/>
+      <c r="AQ86" s="28"/>
+      <c r="AR86" s="27"/>
+      <c r="AS86" s="64"/>
+      <c r="AT86" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AW74" s="19"/>
-      <c r="AX74" s="20"/>
-      <c r="AY74" s="19"/>
+      <c r="AU86" s="27"/>
+      <c r="AV86" s="28"/>
+      <c r="AW86" s="27"/>
+      <c r="AX86" s="64"/>
+      <c r="AY86" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ86" s="27"/>
+      <c r="BA86" s="28"/>
+      <c r="BB86" s="27"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AE75" s="43" t="s">
+    <row r="87" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="27"/>
+      <c r="AI87" s="64"/>
+      <c r="AJ87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK87" s="27"/>
+      <c r="AL87" s="28"/>
+      <c r="AM87" s="27"/>
+      <c r="AN87" s="54"/>
+      <c r="AO87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP87" s="27"/>
+      <c r="AQ87" s="28"/>
+      <c r="AR87" s="27"/>
+      <c r="AS87" s="64"/>
+      <c r="AT87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU87" s="27"/>
+      <c r="AV87" s="28"/>
+      <c r="AW87" s="27"/>
+      <c r="AX87" s="64"/>
+      <c r="AY87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ87" s="27"/>
+      <c r="BA87" s="28"/>
+      <c r="BB87" s="27"/>
+    </row>
+    <row r="88" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="32"/>
+      <c r="AI88" s="64"/>
+      <c r="AJ88" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK88" s="32"/>
+      <c r="AL88" s="32"/>
+      <c r="AM88" s="32"/>
+      <c r="AN88" s="54"/>
+      <c r="AO88" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP88" s="32"/>
+      <c r="AQ88" s="32"/>
+      <c r="AR88" s="32"/>
+      <c r="AS88" s="64"/>
+      <c r="AT88" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU88" s="32"/>
+      <c r="AV88" s="32"/>
+      <c r="AW88" s="32"/>
+      <c r="AX88" s="64"/>
+      <c r="AY88" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ88" s="32"/>
+      <c r="BA88" s="32"/>
+      <c r="BB88" s="32"/>
+    </row>
+    <row r="89" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE89" s="32"/>
+      <c r="AF89" s="32"/>
+      <c r="AG89" s="32"/>
+      <c r="AH89" s="32"/>
+      <c r="AI89" s="64"/>
+      <c r="AJ89" s="32"/>
+      <c r="AK89" s="32"/>
+      <c r="AL89" s="32"/>
+      <c r="AM89" s="32"/>
+      <c r="AN89" s="54"/>
+      <c r="AO89" s="32"/>
+      <c r="AP89" s="32"/>
+      <c r="AQ89" s="32"/>
+      <c r="AR89" s="32"/>
+      <c r="AS89" s="64"/>
+      <c r="AT89" s="32"/>
+      <c r="AU89" s="32"/>
+      <c r="AV89" s="32"/>
+      <c r="AW89" s="32"/>
+      <c r="AX89" s="64"/>
+      <c r="AY89" s="32"/>
+      <c r="AZ89" s="32"/>
+      <c r="BA89" s="32"/>
+      <c r="BB89" s="32"/>
+    </row>
+    <row r="90" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="32"/>
+      <c r="AI90" s="64"/>
+      <c r="AJ90" s="32"/>
+      <c r="AK90" s="32"/>
+      <c r="AL90" s="32"/>
+      <c r="AM90" s="32"/>
+      <c r="AN90" s="54"/>
+      <c r="AO90" s="32"/>
+      <c r="AP90" s="32"/>
+      <c r="AQ90" s="32"/>
+      <c r="AR90" s="32"/>
+      <c r="AS90" s="64"/>
+      <c r="AT90" s="32"/>
+      <c r="AU90" s="32"/>
+      <c r="AV90" s="32"/>
+      <c r="AW90" s="32"/>
+      <c r="AX90" s="64"/>
+      <c r="AY90" s="32"/>
+      <c r="AZ90" s="32"/>
+      <c r="BA90" s="32"/>
+      <c r="BB90" s="32"/>
+    </row>
+    <row r="91" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE91" s="24"/>
+      <c r="AF91" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH91" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI91" s="64"/>
+      <c r="AJ91" s="24"/>
+      <c r="AK91" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM91" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN91" s="54"/>
+      <c r="AO91" s="24"/>
+      <c r="AP91" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ91" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR91" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS91" s="64"/>
+      <c r="AT91" s="24"/>
+      <c r="AU91" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW91" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX91" s="64"/>
+      <c r="AY91" s="24"/>
+      <c r="AZ91" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB91" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE92" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF92" s="27"/>
+      <c r="AG92" s="28"/>
+      <c r="AH92" s="27"/>
+      <c r="AI92" s="64"/>
+      <c r="AJ92" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK92" s="27"/>
+      <c r="AL92" s="28"/>
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="54"/>
+      <c r="AO92" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP92" s="56"/>
+      <c r="AQ92" s="57"/>
+      <c r="AR92" s="56"/>
+      <c r="AS92" s="64"/>
+      <c r="AT92" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU92" s="27"/>
+      <c r="AV92" s="28"/>
+      <c r="AW92" s="27"/>
+      <c r="AX92" s="64"/>
+      <c r="AY92" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ92" s="27"/>
+      <c r="BA92" s="28"/>
+      <c r="BB92" s="27"/>
+    </row>
+    <row r="93" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE93" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF93" s="27"/>
+      <c r="AG93" s="28"/>
+      <c r="AH93" s="27"/>
+      <c r="AI93" s="64"/>
+      <c r="AJ93" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK93" s="27"/>
+      <c r="AL93" s="28"/>
+      <c r="AM93" s="27"/>
+      <c r="AN93" s="54"/>
+      <c r="AO93" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP93" s="56"/>
+      <c r="AQ93" s="57"/>
+      <c r="AR93" s="56"/>
+      <c r="AS93" s="64"/>
+      <c r="AT93" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU93" s="27"/>
+      <c r="AV93" s="28"/>
+      <c r="AW93" s="27"/>
+      <c r="AX93" s="64"/>
+      <c r="AY93" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ93" s="27"/>
+      <c r="BA93" s="28"/>
+      <c r="BB93" s="27"/>
+    </row>
+    <row r="94" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF94" s="27"/>
+      <c r="AG94" s="28"/>
+      <c r="AH94" s="27"/>
+      <c r="AI94" s="64"/>
+      <c r="AJ94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK94" s="27"/>
+      <c r="AL94" s="28"/>
+      <c r="AM94" s="27"/>
+      <c r="AN94" s="54"/>
+      <c r="AO94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP94" s="27"/>
+      <c r="AQ94" s="28"/>
+      <c r="AR94" s="27"/>
+      <c r="AS94" s="64"/>
+      <c r="AT94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU94" s="27"/>
+      <c r="AV94" s="28"/>
+      <c r="AW94" s="27"/>
+      <c r="AX94" s="64"/>
+      <c r="AY94" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ94" s="27"/>
+      <c r="BA94" s="28"/>
+      <c r="BB94" s="27"/>
+    </row>
+    <row r="95" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE95" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF95" s="27"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="27"/>
+      <c r="AI95" s="64"/>
+      <c r="AJ95" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK95" s="27"/>
+      <c r="AL95" s="28"/>
+      <c r="AM95" s="27"/>
+      <c r="AN95" s="54"/>
+      <c r="AO95" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP95" s="27"/>
+      <c r="AQ95" s="28"/>
+      <c r="AR95" s="27"/>
+      <c r="AS95" s="64"/>
+      <c r="AT95" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU95" s="27"/>
+      <c r="AV95" s="28"/>
+      <c r="AW95" s="27"/>
+      <c r="AX95" s="64"/>
+      <c r="AY95" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ95" s="27"/>
+      <c r="BA95" s="28"/>
+      <c r="BB95" s="27"/>
+    </row>
+    <row r="96" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE96" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="28"/>
+      <c r="AH96" s="27"/>
+      <c r="AI96" s="64"/>
+      <c r="AJ96" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK96" s="27"/>
+      <c r="AL96" s="28"/>
+      <c r="AM96" s="27"/>
+      <c r="AN96" s="54"/>
+      <c r="AO96" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP96" s="27"/>
+      <c r="AQ96" s="28"/>
+      <c r="AR96" s="27"/>
+      <c r="AS96" s="64"/>
+      <c r="AT96" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU96" s="27"/>
+      <c r="AV96" s="28"/>
+      <c r="AW96" s="27"/>
+      <c r="AX96" s="64"/>
+      <c r="AY96" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ96" s="27"/>
+      <c r="BA96" s="28"/>
+      <c r="BB96" s="27"/>
+    </row>
+    <row r="97" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF97" s="27"/>
+      <c r="AG97" s="28"/>
+      <c r="AH97" s="27"/>
+      <c r="AI97" s="64"/>
+      <c r="AJ97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK97" s="27"/>
+      <c r="AL97" s="28"/>
+      <c r="AM97" s="27"/>
+      <c r="AN97" s="54"/>
+      <c r="AO97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP97" s="27"/>
+      <c r="AQ97" s="28"/>
+      <c r="AR97" s="27"/>
+      <c r="AS97" s="64"/>
+      <c r="AT97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU97" s="27"/>
+      <c r="AV97" s="28"/>
+      <c r="AW97" s="27"/>
+      <c r="AX97" s="64"/>
+      <c r="AY97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ97" s="27"/>
+      <c r="BA97" s="28"/>
+      <c r="BB97" s="27"/>
+    </row>
+    <row r="98" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF98" s="27"/>
+      <c r="AG98" s="28"/>
+      <c r="AH98" s="27"/>
+      <c r="AI98" s="64"/>
+      <c r="AJ98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK98" s="27"/>
+      <c r="AL98" s="28"/>
+      <c r="AM98" s="27"/>
+      <c r="AN98" s="54"/>
+      <c r="AO98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP98" s="27"/>
+      <c r="AQ98" s="28"/>
+      <c r="AR98" s="27"/>
+      <c r="AS98" s="64"/>
+      <c r="AT98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU98" s="27"/>
+      <c r="AV98" s="28"/>
+      <c r="AW98" s="27"/>
+      <c r="AX98" s="64"/>
+      <c r="AY98" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ98" s="27"/>
+      <c r="BA98" s="28"/>
+      <c r="BB98" s="27"/>
+    </row>
+    <row r="99" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+      <c r="AH99" s="54"/>
+      <c r="AI99" s="54"/>
+      <c r="AJ99" s="54"/>
+      <c r="AK99" s="54"/>
+      <c r="AL99" s="54"/>
+      <c r="AM99" s="54"/>
+      <c r="AN99" s="54"/>
+      <c r="AO99" s="54"/>
+      <c r="AP99" s="54"/>
+      <c r="AQ99" s="54"/>
+      <c r="AR99" s="54"/>
+      <c r="AS99" s="54"/>
+      <c r="AT99" s="54"/>
+      <c r="AU99" s="54"/>
+      <c r="AV99" s="54"/>
+      <c r="AW99" s="54"/>
+      <c r="AX99" s="54"/>
+      <c r="AY99" s="54"/>
+      <c r="AZ99" s="54"/>
+      <c r="BA99" s="54"/>
+      <c r="BB99" s="35"/>
+    </row>
+    <row r="100" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="54"/>
+      <c r="AH100" s="54"/>
+      <c r="AI100" s="54"/>
+      <c r="AJ100" s="54"/>
+      <c r="AK100" s="54"/>
+      <c r="AL100" s="54"/>
+      <c r="AM100" s="54"/>
+      <c r="AN100" s="54"/>
+      <c r="AO100" s="54"/>
+      <c r="AP100" s="54"/>
+      <c r="AQ100" s="54"/>
+      <c r="AR100" s="54"/>
+      <c r="AS100" s="54"/>
+      <c r="AT100" s="54"/>
+      <c r="AU100" s="54"/>
+      <c r="AV100" s="54"/>
+      <c r="AW100" s="54"/>
+      <c r="AX100" s="54"/>
+      <c r="AY100" s="54"/>
+      <c r="AZ100" s="54"/>
+      <c r="BA100" s="54"/>
+      <c r="BB100" s="35"/>
+    </row>
+    <row r="101" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE101" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF101" s="32"/>
+      <c r="AG101" s="32"/>
+      <c r="AH101" s="32"/>
+      <c r="AI101" s="64"/>
+      <c r="AJ101" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK101" s="32"/>
+      <c r="AL101" s="32"/>
+      <c r="AM101" s="32"/>
+      <c r="AN101" s="54"/>
+      <c r="AO101" s="54"/>
+      <c r="AP101" s="54"/>
+      <c r="AQ101" s="54"/>
+      <c r="AR101" s="54"/>
+      <c r="AS101" s="54"/>
+      <c r="AT101" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU101" s="32"/>
+      <c r="AV101" s="32"/>
+      <c r="AW101" s="32"/>
+      <c r="AX101" s="64"/>
+      <c r="AY101" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ101" s="32"/>
+      <c r="BA101" s="32"/>
+      <c r="BB101" s="32"/>
+    </row>
+    <row r="102" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE102" s="32"/>
+      <c r="AF102" s="32"/>
+      <c r="AG102" s="32"/>
+      <c r="AH102" s="32"/>
+      <c r="AI102" s="64"/>
+      <c r="AJ102" s="32"/>
+      <c r="AK102" s="32"/>
+      <c r="AL102" s="32"/>
+      <c r="AM102" s="32"/>
+      <c r="AN102" s="54"/>
+      <c r="AO102" s="54"/>
+      <c r="AP102" s="54"/>
+      <c r="AQ102" s="54"/>
+      <c r="AR102" s="54"/>
+      <c r="AS102" s="54"/>
+      <c r="AT102" s="32"/>
+      <c r="AU102" s="32"/>
+      <c r="AV102" s="32"/>
+      <c r="AW102" s="32"/>
+      <c r="AX102" s="64"/>
+      <c r="AY102" s="32"/>
+      <c r="AZ102" s="32"/>
+      <c r="BA102" s="32"/>
+      <c r="BB102" s="32"/>
+    </row>
+    <row r="103" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+      <c r="AI103" s="64"/>
+      <c r="AJ103" s="32"/>
+      <c r="AK103" s="32"/>
+      <c r="AL103" s="32"/>
+      <c r="AM103" s="32"/>
+      <c r="AN103" s="54"/>
+      <c r="AO103" s="54"/>
+      <c r="AP103" s="54"/>
+      <c r="AQ103" s="54"/>
+      <c r="AR103" s="54"/>
+      <c r="AS103" s="54"/>
+      <c r="AT103" s="32"/>
+      <c r="AU103" s="32"/>
+      <c r="AV103" s="32"/>
+      <c r="AW103" s="32"/>
+      <c r="AX103" s="64"/>
+      <c r="AY103" s="32"/>
+      <c r="AZ103" s="32"/>
+      <c r="BA103" s="32"/>
+      <c r="BB103" s="32"/>
+    </row>
+    <row r="104" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG104" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI104" s="64"/>
+      <c r="AJ104" s="24"/>
+      <c r="AK104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL104" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN104" s="54"/>
+      <c r="AO104" s="54"/>
+      <c r="AP104" s="54"/>
+      <c r="AQ104" s="54"/>
+      <c r="AR104" s="54"/>
+      <c r="AS104" s="54"/>
+      <c r="AT104" s="24"/>
+      <c r="AU104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV104" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX104" s="64"/>
+      <c r="AY104" s="24"/>
+      <c r="AZ104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA104" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB104" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE105" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF105" s="27"/>
+      <c r="AG105" s="28"/>
+      <c r="AH105" s="27"/>
+      <c r="AI105" s="64"/>
+      <c r="AJ105" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK105" s="27"/>
+      <c r="AL105" s="28"/>
+      <c r="AM105" s="27"/>
+      <c r="AN105" s="54"/>
+      <c r="AO105" s="54"/>
+      <c r="AP105" s="54"/>
+      <c r="AQ105" s="54"/>
+      <c r="AR105" s="54"/>
+      <c r="AS105" s="54"/>
+      <c r="AT105" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU105" s="27"/>
+      <c r="AV105" s="28"/>
+      <c r="AW105" s="27"/>
+      <c r="AX105" s="64"/>
+      <c r="AY105" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ105" s="27"/>
+      <c r="BA105" s="28"/>
+      <c r="BB105" s="27"/>
+    </row>
+    <row r="106" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE106" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF106" s="27"/>
+      <c r="AG106" s="28"/>
+      <c r="AH106" s="27"/>
+      <c r="AI106" s="64"/>
+      <c r="AJ106" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK106" s="27"/>
+      <c r="AL106" s="28"/>
+      <c r="AM106" s="27"/>
+      <c r="AN106" s="54"/>
+      <c r="AO106" s="54"/>
+      <c r="AP106" s="54"/>
+      <c r="AQ106" s="54"/>
+      <c r="AR106" s="54"/>
+      <c r="AS106" s="54"/>
+      <c r="AT106" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU106" s="27"/>
+      <c r="AV106" s="28"/>
+      <c r="AW106" s="27"/>
+      <c r="AX106" s="64"/>
+      <c r="AY106" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ106" s="27"/>
+      <c r="BA106" s="28"/>
+      <c r="BB106" s="27"/>
+    </row>
+    <row r="107" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE107" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF107" s="27"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="27"/>
+      <c r="AI107" s="64"/>
+      <c r="AJ107" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK107" s="27"/>
+      <c r="AL107" s="28"/>
+      <c r="AM107" s="27"/>
+      <c r="AN107" s="54"/>
+      <c r="AO107" s="54"/>
+      <c r="AP107" s="54"/>
+      <c r="AQ107" s="54"/>
+      <c r="AR107" s="54"/>
+      <c r="AS107" s="54"/>
+      <c r="AT107" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU107" s="27"/>
+      <c r="AV107" s="28"/>
+      <c r="AW107" s="27"/>
+      <c r="AX107" s="64"/>
+      <c r="AY107" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ107" s="27"/>
+      <c r="BA107" s="28"/>
+      <c r="BB107" s="27"/>
+    </row>
+    <row r="108" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE108" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="27"/>
+      <c r="AI108" s="64"/>
+      <c r="AJ108" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="28"/>
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="54"/>
+      <c r="AO108" s="54"/>
+      <c r="AP108" s="54"/>
+      <c r="AQ108" s="54"/>
+      <c r="AR108" s="54"/>
+      <c r="AS108" s="54"/>
+      <c r="AT108" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="28"/>
+      <c r="AW108" s="27"/>
+      <c r="AX108" s="64"/>
+      <c r="AY108" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ108" s="27"/>
+      <c r="BA108" s="28"/>
+      <c r="BB108" s="27"/>
+    </row>
+    <row r="109" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE109" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF109" s="27"/>
+      <c r="AG109" s="28"/>
+      <c r="AH109" s="27"/>
+      <c r="AI109" s="64"/>
+      <c r="AJ109" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK109" s="27"/>
+      <c r="AL109" s="28"/>
+      <c r="AM109" s="27"/>
+      <c r="AN109" s="54"/>
+      <c r="AO109" s="54"/>
+      <c r="AP109" s="54"/>
+      <c r="AQ109" s="54"/>
+      <c r="AR109" s="54"/>
+      <c r="AS109" s="54"/>
+      <c r="AT109" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU109" s="27"/>
+      <c r="AV109" s="28"/>
+      <c r="AW109" s="27"/>
+      <c r="AX109" s="64"/>
+      <c r="AY109" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ109" s="27"/>
+      <c r="BA109" s="28"/>
+      <c r="BB109" s="27"/>
+    </row>
+    <row r="110" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF110" s="27"/>
+      <c r="AG110" s="28"/>
+      <c r="AH110" s="27"/>
+      <c r="AI110" s="64"/>
+      <c r="AJ110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK110" s="27"/>
+      <c r="AL110" s="28"/>
+      <c r="AM110" s="27"/>
+      <c r="AN110" s="54"/>
+      <c r="AO110" s="54"/>
+      <c r="AP110" s="54"/>
+      <c r="AQ110" s="54"/>
+      <c r="AR110" s="54"/>
+      <c r="AS110" s="54"/>
+      <c r="AT110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU110" s="27"/>
+      <c r="AV110" s="28"/>
+      <c r="AW110" s="27"/>
+      <c r="AX110" s="64"/>
+      <c r="AY110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ110" s="27"/>
+      <c r="BA110" s="28"/>
+      <c r="BB110" s="27"/>
+    </row>
+    <row r="111" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE111" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF111" s="27"/>
+      <c r="AG111" s="28"/>
+      <c r="AH111" s="27"/>
+      <c r="AI111" s="64"/>
+      <c r="AJ111" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK111" s="27"/>
+      <c r="AL111" s="28"/>
+      <c r="AM111" s="27"/>
+      <c r="AN111" s="54"/>
+      <c r="AO111" s="54"/>
+      <c r="AP111" s="54"/>
+      <c r="AQ111" s="54"/>
+      <c r="AR111" s="54"/>
+      <c r="AS111" s="54"/>
+      <c r="AT111" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU111" s="27"/>
+      <c r="AV111" s="28"/>
+      <c r="AW111" s="27"/>
+      <c r="AX111" s="64"/>
+      <c r="AY111" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ111" s="27"/>
+      <c r="BA111" s="28"/>
+      <c r="BB111" s="27"/>
+    </row>
+    <row r="112" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE112" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF112" s="32"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="64"/>
+      <c r="AJ112" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK112" s="32"/>
+      <c r="AL112" s="32"/>
+      <c r="AM112" s="32"/>
+      <c r="AN112" s="54"/>
+      <c r="AO112" s="54"/>
+      <c r="AP112" s="54"/>
+      <c r="AQ112" s="54"/>
+      <c r="AR112" s="54"/>
+      <c r="AS112" s="54"/>
+      <c r="AT112" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU112" s="32"/>
+      <c r="AV112" s="32"/>
+      <c r="AW112" s="32"/>
+      <c r="AX112" s="64"/>
+      <c r="AY112" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ112" s="32"/>
+      <c r="BA112" s="32"/>
+      <c r="BB112" s="32"/>
+    </row>
+    <row r="113" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="64"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="32"/>
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="54"/>
+      <c r="AO113" s="54"/>
+      <c r="AP113" s="54"/>
+      <c r="AQ113" s="54"/>
+      <c r="AR113" s="54"/>
+      <c r="AS113" s="54"/>
+      <c r="AT113" s="32"/>
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="64"/>
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="32"/>
+    </row>
+    <row r="114" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE114" s="32"/>
+      <c r="AF114" s="32"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+      <c r="AI114" s="64"/>
+      <c r="AJ114" s="32"/>
+      <c r="AK114" s="32"/>
+      <c r="AL114" s="32"/>
+      <c r="AM114" s="32"/>
+      <c r="AN114" s="54"/>
+      <c r="AO114" s="54"/>
+      <c r="AP114" s="54"/>
+      <c r="AQ114" s="54"/>
+      <c r="AR114" s="54"/>
+      <c r="AS114" s="54"/>
+      <c r="AT114" s="32"/>
+      <c r="AU114" s="32"/>
+      <c r="AV114" s="32"/>
+      <c r="AW114" s="32"/>
+      <c r="AX114" s="64"/>
+      <c r="AY114" s="32"/>
+      <c r="AZ114" s="32"/>
+      <c r="BA114" s="32"/>
+      <c r="BB114" s="32"/>
+    </row>
+    <row r="115" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE115" s="24"/>
+      <c r="AF115" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG115" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH115" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI115" s="64"/>
+      <c r="AJ115" s="24"/>
+      <c r="AK115" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL115" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM115" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN115" s="54"/>
+      <c r="AO115" s="54"/>
+      <c r="AP115" s="54"/>
+      <c r="AQ115" s="54"/>
+      <c r="AR115" s="54"/>
+      <c r="AS115" s="54"/>
+      <c r="AT115" s="24"/>
+      <c r="AU115" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV115" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW115" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX115" s="64"/>
+      <c r="AY115" s="24"/>
+      <c r="AZ115" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA115" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB115" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE116" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF116" s="27"/>
+      <c r="AG116" s="28"/>
+      <c r="AH116" s="27"/>
+      <c r="AI116" s="64"/>
+      <c r="AJ116" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK116" s="27"/>
+      <c r="AL116" s="28"/>
+      <c r="AM116" s="27"/>
+      <c r="AN116" s="54"/>
+      <c r="AO116" s="54"/>
+      <c r="AP116" s="54"/>
+      <c r="AQ116" s="54"/>
+      <c r="AR116" s="54"/>
+      <c r="AS116" s="54"/>
+      <c r="AT116" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU116" s="27"/>
+      <c r="AV116" s="28"/>
+      <c r="AW116" s="27"/>
+      <c r="AX116" s="64"/>
+      <c r="AY116" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ116" s="27"/>
+      <c r="BA116" s="28"/>
+      <c r="BB116" s="27"/>
+    </row>
+    <row r="117" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE117" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF117" s="27"/>
+      <c r="AG117" s="28"/>
+      <c r="AH117" s="27"/>
+      <c r="AI117" s="64"/>
+      <c r="AJ117" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK117" s="27"/>
+      <c r="AL117" s="28"/>
+      <c r="AM117" s="27"/>
+      <c r="AN117" s="54"/>
+      <c r="AO117" s="54"/>
+      <c r="AP117" s="54"/>
+      <c r="AQ117" s="54"/>
+      <c r="AR117" s="54"/>
+      <c r="AS117" s="54"/>
+      <c r="AT117" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU117" s="27"/>
+      <c r="AV117" s="28"/>
+      <c r="AW117" s="27"/>
+      <c r="AX117" s="64"/>
+      <c r="AY117" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ117" s="27"/>
+      <c r="BA117" s="28"/>
+      <c r="BB117" s="27"/>
+    </row>
+    <row r="118" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF118" s="27"/>
+      <c r="AG118" s="28"/>
+      <c r="AH118" s="27"/>
+      <c r="AI118" s="64"/>
+      <c r="AJ118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK118" s="27"/>
+      <c r="AL118" s="28"/>
+      <c r="AM118" s="27"/>
+      <c r="AN118" s="54"/>
+      <c r="AO118" s="54"/>
+      <c r="AP118" s="54"/>
+      <c r="AQ118" s="54"/>
+      <c r="AR118" s="54"/>
+      <c r="AS118" s="54"/>
+      <c r="AT118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU118" s="27"/>
+      <c r="AV118" s="28"/>
+      <c r="AW118" s="27"/>
+      <c r="AX118" s="64"/>
+      <c r="AY118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ118" s="27"/>
+      <c r="BA118" s="28"/>
+      <c r="BB118" s="27"/>
+    </row>
+    <row r="119" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE119" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="28"/>
+      <c r="AH119" s="27"/>
+      <c r="AI119" s="64"/>
+      <c r="AJ119" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK119" s="27"/>
+      <c r="AL119" s="28"/>
+      <c r="AM119" s="27"/>
+      <c r="AN119" s="54"/>
+      <c r="AO119" s="54"/>
+      <c r="AP119" s="54"/>
+      <c r="AQ119" s="54"/>
+      <c r="AR119" s="54"/>
+      <c r="AS119" s="54"/>
+      <c r="AT119" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU119" s="27"/>
+      <c r="AV119" s="28"/>
+      <c r="AW119" s="27"/>
+      <c r="AX119" s="64"/>
+      <c r="AY119" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ119" s="27"/>
+      <c r="BA119" s="28"/>
+      <c r="BB119" s="27"/>
+    </row>
+    <row r="120" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE120" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF120" s="27"/>
+      <c r="AG120" s="28"/>
+      <c r="AH120" s="27"/>
+      <c r="AI120" s="64"/>
+      <c r="AJ120" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK120" s="27"/>
+      <c r="AL120" s="28"/>
+      <c r="AM120" s="27"/>
+      <c r="AN120" s="54"/>
+      <c r="AO120" s="54"/>
+      <c r="AP120" s="54"/>
+      <c r="AQ120" s="54"/>
+      <c r="AR120" s="54"/>
+      <c r="AS120" s="54"/>
+      <c r="AT120" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU120" s="27"/>
+      <c r="AV120" s="28"/>
+      <c r="AW120" s="27"/>
+      <c r="AX120" s="64"/>
+      <c r="AY120" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ120" s="27"/>
+      <c r="BA120" s="28"/>
+      <c r="BB120" s="27"/>
+    </row>
+    <row r="121" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE121" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF121" s="27"/>
+      <c r="AG121" s="28"/>
+      <c r="AH121" s="27"/>
+      <c r="AI121" s="64"/>
+      <c r="AJ121" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK121" s="27"/>
+      <c r="AL121" s="28"/>
+      <c r="AM121" s="27"/>
+      <c r="AN121" s="54"/>
+      <c r="AO121" s="54"/>
+      <c r="AP121" s="54"/>
+      <c r="AQ121" s="54"/>
+      <c r="AR121" s="54"/>
+      <c r="AS121" s="54"/>
+      <c r="AT121" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU121" s="27"/>
+      <c r="AV121" s="28"/>
+      <c r="AW121" s="27"/>
+      <c r="AX121" s="64"/>
+      <c r="AY121" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ121" s="27"/>
+      <c r="BA121" s="28"/>
+      <c r="BB121" s="27"/>
+    </row>
+    <row r="122" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE122" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF122" s="27"/>
+      <c r="AG122" s="28"/>
+      <c r="AH122" s="27"/>
+      <c r="AI122" s="64"/>
+      <c r="AJ122" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK122" s="27"/>
+      <c r="AL122" s="28"/>
+      <c r="AM122" s="27"/>
+      <c r="AN122" s="54"/>
+      <c r="AO122" s="54"/>
+      <c r="AP122" s="54"/>
+      <c r="AQ122" s="54"/>
+      <c r="AR122" s="54"/>
+      <c r="AS122" s="54"/>
+      <c r="AT122" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU122" s="27"/>
+      <c r="AV122" s="28"/>
+      <c r="AW122" s="27"/>
+      <c r="AX122" s="64"/>
+      <c r="AY122" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ122" s="27"/>
+      <c r="BA122" s="28"/>
+      <c r="BB122" s="27"/>
+    </row>
+    <row r="123" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE123" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF123" s="63"/>
+      <c r="AG123" s="63"/>
+      <c r="AH123" s="63"/>
+      <c r="AI123" s="63"/>
+      <c r="AJ123" s="63"/>
+      <c r="AK123" s="63"/>
+      <c r="AL123" s="63"/>
+      <c r="AM123" s="63"/>
+      <c r="AN123" s="63"/>
+      <c r="AO123" s="63"/>
+      <c r="AP123" s="63"/>
+      <c r="AQ123" s="63"/>
+      <c r="AR123" s="63"/>
+      <c r="AS123" s="63"/>
+      <c r="AT123" s="63"/>
+      <c r="AU123" s="63"/>
+      <c r="AV123" s="63"/>
+      <c r="AW123" s="63"/>
+      <c r="AX123" s="63"/>
+      <c r="AY123" s="63"/>
+      <c r="AZ123" s="63"/>
+      <c r="BA123" s="63"/>
+      <c r="BB123" s="63"/>
+    </row>
+    <row r="124" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE124" s="62"/>
+      <c r="AF124" s="62"/>
+      <c r="AG124" s="62"/>
+      <c r="AH124" s="62"/>
+      <c r="AI124" s="62"/>
+      <c r="AJ124" s="62"/>
+      <c r="AK124" s="62"/>
+      <c r="AL124" s="62"/>
+      <c r="AM124" s="62"/>
+      <c r="AN124" s="62"/>
+      <c r="AO124" s="62"/>
+      <c r="AP124" s="62"/>
+      <c r="AQ124" s="62"/>
+      <c r="AR124" s="62"/>
+      <c r="AS124" s="62"/>
+      <c r="AT124" s="62"/>
+      <c r="AU124" s="62"/>
+      <c r="AV124" s="62"/>
+      <c r="AW124" s="62"/>
+      <c r="AX124" s="62"/>
+      <c r="AY124" s="62"/>
+      <c r="AZ124" s="62"/>
+      <c r="BA124" s="62"/>
+      <c r="BB124" s="62"/>
+    </row>
+    <row r="125" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE125" s="33"/>
+      <c r="AF125" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-      <c r="AH75" s="44"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL75" s="44"/>
-      <c r="AM75" s="44"/>
-      <c r="AN75" s="49"/>
-      <c r="AO75" s="76"/>
-      <c r="AP75" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ75" s="44"/>
-      <c r="AR75" s="44"/>
-      <c r="AS75" s="44"/>
-      <c r="AT75" s="39"/>
-      <c r="AU75" s="39"/>
-      <c r="AV75" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW75" s="44"/>
-      <c r="AX75" s="44"/>
-      <c r="AY75" s="49"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
+      <c r="AI125" s="32"/>
+      <c r="AJ125" s="54"/>
+      <c r="AK125" s="54"/>
+      <c r="AL125" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM125" s="32"/>
+      <c r="AN125" s="32"/>
+      <c r="AO125" s="32"/>
+      <c r="AP125" s="54"/>
+      <c r="AQ125" s="54"/>
+      <c r="AR125" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS125" s="32"/>
+      <c r="AT125" s="32"/>
+      <c r="AU125" s="32"/>
+      <c r="AV125" s="54"/>
+      <c r="AW125" s="54"/>
+      <c r="AX125" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY125" s="32"/>
+      <c r="AZ125" s="32"/>
+      <c r="BA125" s="32"/>
+      <c r="BB125" s="35"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AE76" s="45"/>
-      <c r="AF76" s="46"/>
-      <c r="AG76" s="46"/>
-      <c r="AH76" s="46"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="46"/>
-      <c r="AL76" s="46"/>
-      <c r="AM76" s="46"/>
-      <c r="AN76" s="50"/>
-      <c r="AO76" s="76"/>
-      <c r="AP76" s="45"/>
-      <c r="AQ76" s="46"/>
-      <c r="AR76" s="46"/>
-      <c r="AS76" s="46"/>
-      <c r="AT76" s="39"/>
-      <c r="AU76" s="39"/>
-      <c r="AV76" s="46"/>
-      <c r="AW76" s="46"/>
-      <c r="AX76" s="46"/>
-      <c r="AY76" s="50"/>
+    <row r="126" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE126" s="33"/>
+      <c r="AF126" s="32"/>
+      <c r="AG126" s="32"/>
+      <c r="AH126" s="32"/>
+      <c r="AI126" s="32"/>
+      <c r="AJ126" s="54"/>
+      <c r="AK126" s="54"/>
+      <c r="AL126" s="32"/>
+      <c r="AM126" s="32"/>
+      <c r="AN126" s="32"/>
+      <c r="AO126" s="32"/>
+      <c r="AP126" s="54"/>
+      <c r="AQ126" s="54"/>
+      <c r="AR126" s="32"/>
+      <c r="AS126" s="32"/>
+      <c r="AT126" s="32"/>
+      <c r="AU126" s="32"/>
+      <c r="AV126" s="54"/>
+      <c r="AW126" s="54"/>
+      <c r="AX126" s="32"/>
+      <c r="AY126" s="32"/>
+      <c r="AZ126" s="32"/>
+      <c r="BA126" s="32"/>
+      <c r="BB126" s="35"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AE77" s="47"/>
-      <c r="AF77" s="48"/>
-      <c r="AG77" s="48"/>
-      <c r="AH77" s="48"/>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="39"/>
-      <c r="AK77" s="48"/>
-      <c r="AL77" s="48"/>
-      <c r="AM77" s="48"/>
-      <c r="AN77" s="51"/>
-      <c r="AO77" s="76"/>
-      <c r="AP77" s="47"/>
-      <c r="AQ77" s="48"/>
-      <c r="AR77" s="48"/>
-      <c r="AS77" s="48"/>
-      <c r="AT77" s="39"/>
-      <c r="AU77" s="39"/>
-      <c r="AV77" s="48"/>
-      <c r="AW77" s="48"/>
-      <c r="AX77" s="48"/>
-      <c r="AY77" s="51"/>
+    <row r="127" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE127" s="33"/>
+      <c r="AF127" s="32"/>
+      <c r="AG127" s="32"/>
+      <c r="AH127" s="32"/>
+      <c r="AI127" s="32"/>
+      <c r="AJ127" s="54"/>
+      <c r="AK127" s="54"/>
+      <c r="AL127" s="32"/>
+      <c r="AM127" s="32"/>
+      <c r="AN127" s="32"/>
+      <c r="AO127" s="32"/>
+      <c r="AP127" s="54"/>
+      <c r="AQ127" s="54"/>
+      <c r="AR127" s="32"/>
+      <c r="AS127" s="32"/>
+      <c r="AT127" s="32"/>
+      <c r="AU127" s="32"/>
+      <c r="AV127" s="54"/>
+      <c r="AW127" s="54"/>
+      <c r="AX127" s="32"/>
+      <c r="AY127" s="32"/>
+      <c r="AZ127" s="32"/>
+      <c r="BA127" s="32"/>
+      <c r="BB127" s="35"/>
     </row>
-    <row r="78" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE78" s="26"/>
-      <c r="AF78" s="28" t="s">
+    <row r="128" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE128" s="33"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AG78" s="28" t="s">
+      <c r="AH128" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AH78" s="28" t="s">
+      <c r="AI128" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="39"/>
-      <c r="AK78" s="26"/>
-      <c r="AL78" s="28" t="s">
+      <c r="AJ128" s="54"/>
+      <c r="AK128" s="54"/>
+      <c r="AL128" s="24"/>
+      <c r="AM128" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AM78" s="28" t="s">
+      <c r="AN128" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AN78" s="28" t="s">
+      <c r="AO128" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AO78" s="76"/>
-      <c r="AP78" s="26"/>
-      <c r="AQ78" s="28" t="s">
+      <c r="AP128" s="54"/>
+      <c r="AQ128" s="54"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AR78" s="28" t="s">
+      <c r="AT128" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AS78" s="28" t="s">
+      <c r="AU128" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AT78" s="39"/>
-      <c r="AU78" s="39"/>
-      <c r="AV78" s="26"/>
-      <c r="AW78" s="28" t="s">
+      <c r="AV128" s="54"/>
+      <c r="AW128" s="54"/>
+      <c r="AX128" s="24"/>
+      <c r="AY128" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AX78" s="28" t="s">
+      <c r="AZ128" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AY78" s="28" t="s">
+      <c r="BA128" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="BB128" s="35"/>
     </row>
-    <row r="79" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE79" s="27" t="s">
+    <row r="129" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE129" s="33"/>
+      <c r="AF129" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="30"/>
-      <c r="AG79" s="29"/>
-      <c r="AH79" s="30"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="27" t="s">
+      <c r="AG129" s="27"/>
+      <c r="AH129" s="28"/>
+      <c r="AI129" s="27"/>
+      <c r="AJ129" s="54"/>
+      <c r="AK129" s="54"/>
+      <c r="AL129" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AL79" s="30"/>
-      <c r="AM79" s="29"/>
-      <c r="AN79" s="30"/>
-      <c r="AO79" s="76"/>
-      <c r="AP79" s="27" t="s">
+      <c r="AM129" s="27"/>
+      <c r="AN129" s="28"/>
+      <c r="AO129" s="27"/>
+      <c r="AP129" s="54"/>
+      <c r="AQ129" s="54"/>
+      <c r="AR129" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AQ79" s="30"/>
-      <c r="AR79" s="29"/>
-      <c r="AS79" s="30"/>
-      <c r="AT79" s="39"/>
-      <c r="AU79" s="39"/>
-      <c r="AV79" s="27" t="s">
+      <c r="AS129" s="27"/>
+      <c r="AT129" s="28"/>
+      <c r="AU129" s="27"/>
+      <c r="AV129" s="54"/>
+      <c r="AW129" s="54"/>
+      <c r="AX129" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW79" s="30"/>
-      <c r="AX79" s="29"/>
-      <c r="AY79" s="30"/>
+      <c r="AY129" s="27"/>
+      <c r="AZ129" s="28"/>
+      <c r="BA129" s="27"/>
+      <c r="BB129" s="35"/>
     </row>
-    <row r="80" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE80" s="27" t="s">
+    <row r="130" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE130" s="33"/>
+      <c r="AF130" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF80" s="30"/>
-      <c r="AG80" s="29"/>
-      <c r="AH80" s="30"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="39"/>
-      <c r="AK80" s="27" t="s">
+      <c r="AG130" s="27"/>
+      <c r="AH130" s="28"/>
+      <c r="AI130" s="27"/>
+      <c r="AJ130" s="54"/>
+      <c r="AK130" s="54"/>
+      <c r="AL130" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AL80" s="30"/>
-      <c r="AM80" s="29"/>
-      <c r="AN80" s="30"/>
-      <c r="AO80" s="76"/>
-      <c r="AP80" s="27" t="s">
+      <c r="AM130" s="27"/>
+      <c r="AN130" s="28"/>
+      <c r="AO130" s="27"/>
+      <c r="AP130" s="54"/>
+      <c r="AQ130" s="54"/>
+      <c r="AR130" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AQ80" s="30"/>
-      <c r="AR80" s="29"/>
-      <c r="AS80" s="30"/>
-      <c r="AT80" s="39"/>
-      <c r="AU80" s="39"/>
-      <c r="AV80" s="27" t="s">
+      <c r="AS130" s="27"/>
+      <c r="AT130" s="28"/>
+      <c r="AU130" s="27"/>
+      <c r="AV130" s="54"/>
+      <c r="AW130" s="54"/>
+      <c r="AX130" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AW80" s="30"/>
-      <c r="AX80" s="29"/>
-      <c r="AY80" s="30"/>
+      <c r="AY130" s="27"/>
+      <c r="AZ130" s="28"/>
+      <c r="BA130" s="27"/>
+      <c r="BB130" s="35"/>
     </row>
-    <row r="81" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE81" s="27" t="s">
+    <row r="131" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE131" s="33"/>
+      <c r="AF131" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF81" s="30"/>
-      <c r="AG81" s="29"/>
-      <c r="AH81" s="30"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="39"/>
-      <c r="AK81" s="27" t="s">
+      <c r="AG131" s="27"/>
+      <c r="AH131" s="28"/>
+      <c r="AI131" s="27"/>
+      <c r="AJ131" s="54"/>
+      <c r="AK131" s="54"/>
+      <c r="AL131" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AL81" s="30"/>
-      <c r="AM81" s="29"/>
-      <c r="AN81" s="30"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="27" t="s">
+      <c r="AM131" s="27"/>
+      <c r="AN131" s="28"/>
+      <c r="AO131" s="27"/>
+      <c r="AP131" s="54"/>
+      <c r="AQ131" s="54"/>
+      <c r="AR131" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AQ81" s="30"/>
-      <c r="AR81" s="29"/>
-      <c r="AS81" s="30"/>
-      <c r="AT81" s="39"/>
-      <c r="AU81" s="39"/>
-      <c r="AV81" s="27" t="s">
+      <c r="AS131" s="27"/>
+      <c r="AT131" s="28"/>
+      <c r="AU131" s="27"/>
+      <c r="AV131" s="54"/>
+      <c r="AW131" s="54"/>
+      <c r="AX131" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AW81" s="30"/>
-      <c r="AX81" s="29"/>
-      <c r="AY81" s="30"/>
+      <c r="AY131" s="27"/>
+      <c r="AZ131" s="28"/>
+      <c r="BA131" s="27"/>
+      <c r="BB131" s="35"/>
     </row>
-    <row r="82" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE82" s="27" t="s">
+    <row r="132" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE132" s="33"/>
+      <c r="AF132" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AF82" s="30"/>
-      <c r="AG82" s="29"/>
-      <c r="AH82" s="30"/>
-      <c r="AI82" s="39"/>
-      <c r="AJ82" s="39"/>
-      <c r="AK82" s="27" t="s">
+      <c r="AG132" s="27"/>
+      <c r="AH132" s="28"/>
+      <c r="AI132" s="27"/>
+      <c r="AJ132" s="54"/>
+      <c r="AK132" s="54"/>
+      <c r="AL132" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AL82" s="30"/>
-      <c r="AM82" s="29"/>
-      <c r="AN82" s="30"/>
-      <c r="AO82" s="76"/>
-      <c r="AP82" s="27" t="s">
+      <c r="AM132" s="27"/>
+      <c r="AN132" s="28"/>
+      <c r="AO132" s="27"/>
+      <c r="AP132" s="54"/>
+      <c r="AQ132" s="54"/>
+      <c r="AR132" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AQ82" s="30"/>
-      <c r="AR82" s="29"/>
-      <c r="AS82" s="30"/>
-      <c r="AT82" s="39"/>
-      <c r="AU82" s="39"/>
-      <c r="AV82" s="27" t="s">
+      <c r="AS132" s="27"/>
+      <c r="AT132" s="28"/>
+      <c r="AU132" s="27"/>
+      <c r="AV132" s="54"/>
+      <c r="AW132" s="54"/>
+      <c r="AX132" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AW82" s="30"/>
-      <c r="AX82" s="29"/>
-      <c r="AY82" s="30"/>
+      <c r="AY132" s="27"/>
+      <c r="AZ132" s="28"/>
+      <c r="BA132" s="27"/>
+      <c r="BB132" s="35"/>
     </row>
-    <row r="83" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE83" s="27" t="s">
+    <row r="133" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AF83" s="30"/>
-      <c r="AG83" s="29"/>
-      <c r="AH83" s="30"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="39"/>
-      <c r="AK83" s="27" t="s">
+      <c r="AG133" s="27"/>
+      <c r="AH133" s="28"/>
+      <c r="AI133" s="27"/>
+      <c r="AJ133" s="54"/>
+      <c r="AK133" s="54"/>
+      <c r="AL133" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AL83" s="30"/>
-      <c r="AM83" s="29"/>
-      <c r="AN83" s="30"/>
-      <c r="AO83" s="76"/>
-      <c r="AP83" s="27" t="s">
+      <c r="AM133" s="27"/>
+      <c r="AN133" s="28"/>
+      <c r="AO133" s="27"/>
+      <c r="AP133" s="54"/>
+      <c r="AQ133" s="54"/>
+      <c r="AR133" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AQ83" s="30"/>
-      <c r="AR83" s="29"/>
-      <c r="AS83" s="30"/>
-      <c r="AT83" s="39"/>
-      <c r="AU83" s="39"/>
-      <c r="AV83" s="27" t="s">
+      <c r="AS133" s="27"/>
+      <c r="AT133" s="28"/>
+      <c r="AU133" s="27"/>
+      <c r="AV133" s="54"/>
+      <c r="AW133" s="54"/>
+      <c r="AX133" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AW83" s="30"/>
-      <c r="AX83" s="29"/>
-      <c r="AY83" s="30"/>
+      <c r="AY133" s="27"/>
+      <c r="AZ133" s="28"/>
+      <c r="BA133" s="27"/>
+      <c r="BB133" s="35"/>
     </row>
-    <row r="84" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE84" s="27" t="s">
+    <row r="134" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE134" s="33"/>
+      <c r="AF134" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="30"/>
-      <c r="AI84" s="39"/>
-      <c r="AJ84" s="39"/>
-      <c r="AK84" s="27" t="s">
+      <c r="AG134" s="27"/>
+      <c r="AH134" s="28"/>
+      <c r="AI134" s="27"/>
+      <c r="AJ134" s="54"/>
+      <c r="AK134" s="54"/>
+      <c r="AL134" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AL84" s="30"/>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="76"/>
-      <c r="AP84" s="27" t="s">
+      <c r="AM134" s="27"/>
+      <c r="AN134" s="28"/>
+      <c r="AO134" s="27"/>
+      <c r="AP134" s="54"/>
+      <c r="AQ134" s="54"/>
+      <c r="AR134" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AQ84" s="30"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="30"/>
-      <c r="AT84" s="39"/>
-      <c r="AU84" s="39"/>
-      <c r="AV84" s="27" t="s">
+      <c r="AS134" s="27"/>
+      <c r="AT134" s="28"/>
+      <c r="AU134" s="27"/>
+      <c r="AV134" s="54"/>
+      <c r="AW134" s="54"/>
+      <c r="AX134" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AW84" s="30"/>
-      <c r="AX84" s="29"/>
-      <c r="AY84" s="30"/>
+      <c r="AY134" s="27"/>
+      <c r="AZ134" s="28"/>
+      <c r="BA134" s="27"/>
+      <c r="BB134" s="35"/>
     </row>
-    <row r="85" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE85" s="64" t="s">
+    <row r="135" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE135" s="33"/>
+      <c r="AF135" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AF85" s="65"/>
-      <c r="AG85" s="65"/>
-      <c r="AH85" s="65"/>
-      <c r="AI85" s="39"/>
-      <c r="AJ85" s="39"/>
-      <c r="AK85" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL85" s="65"/>
-      <c r="AM85" s="65"/>
-      <c r="AN85" s="66"/>
-      <c r="AO85" s="76"/>
-      <c r="AP85" s="64" t="s">
+      <c r="AG135" s="27"/>
+      <c r="AH135" s="28"/>
+      <c r="AI135" s="27"/>
+      <c r="AJ135" s="54"/>
+      <c r="AK135" s="54"/>
+      <c r="AL135" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AQ85" s="65"/>
-      <c r="AR85" s="65"/>
-      <c r="AS85" s="65"/>
-      <c r="AT85" s="39"/>
-      <c r="AU85" s="39"/>
-      <c r="AV85" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW85" s="65"/>
-      <c r="AX85" s="65"/>
-      <c r="AY85" s="66"/>
+      <c r="AM135" s="27"/>
+      <c r="AN135" s="28"/>
+      <c r="AO135" s="27"/>
+      <c r="AP135" s="54"/>
+      <c r="AQ135" s="54"/>
+      <c r="AR135" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS135" s="27"/>
+      <c r="AT135" s="28"/>
+      <c r="AU135" s="27"/>
+      <c r="AV135" s="54"/>
+      <c r="AW135" s="54"/>
+      <c r="AX135" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY135" s="27"/>
+      <c r="AZ135" s="28"/>
+      <c r="BA135" s="27"/>
+      <c r="BB135" s="35"/>
     </row>
-    <row r="86" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE86" s="58"/>
-      <c r="AF86" s="59"/>
-      <c r="AG86" s="59"/>
-      <c r="AH86" s="59"/>
-      <c r="AI86" s="39"/>
-      <c r="AJ86" s="39"/>
-      <c r="AK86" s="59"/>
-      <c r="AL86" s="59"/>
-      <c r="AM86" s="59"/>
-      <c r="AN86" s="62"/>
-      <c r="AO86" s="76"/>
-      <c r="AP86" s="58"/>
-      <c r="AQ86" s="59"/>
-      <c r="AR86" s="59"/>
-      <c r="AS86" s="59"/>
-      <c r="AT86" s="39"/>
-      <c r="AU86" s="39"/>
-      <c r="AV86" s="59"/>
-      <c r="AW86" s="59"/>
-      <c r="AX86" s="59"/>
-      <c r="AY86" s="62"/>
+    <row r="136" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE136" s="33"/>
+      <c r="AF136" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG136" s="32"/>
+      <c r="AH136" s="32"/>
+      <c r="AI136" s="32"/>
+      <c r="AJ136" s="54"/>
+      <c r="AK136" s="54"/>
+      <c r="AL136" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM136" s="32"/>
+      <c r="AN136" s="32"/>
+      <c r="AO136" s="32"/>
+      <c r="AP136" s="54"/>
+      <c r="AQ136" s="54"/>
+      <c r="AR136" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS136" s="32"/>
+      <c r="AT136" s="32"/>
+      <c r="AU136" s="32"/>
+      <c r="AV136" s="54"/>
+      <c r="AW136" s="54"/>
+      <c r="AX136" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY136" s="32"/>
+      <c r="AZ136" s="32"/>
+      <c r="BA136" s="32"/>
+      <c r="BB136" s="35"/>
     </row>
-    <row r="87" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="61"/>
-      <c r="AG87" s="61"/>
-      <c r="AH87" s="61"/>
-      <c r="AI87" s="39"/>
-      <c r="AJ87" s="39"/>
-      <c r="AK87" s="61"/>
-      <c r="AL87" s="61"/>
-      <c r="AM87" s="61"/>
-      <c r="AN87" s="63"/>
-      <c r="AO87" s="76"/>
-      <c r="AP87" s="60"/>
-      <c r="AQ87" s="61"/>
-      <c r="AR87" s="61"/>
-      <c r="AS87" s="61"/>
-      <c r="AT87" s="39"/>
-      <c r="AU87" s="39"/>
-      <c r="AV87" s="61"/>
-      <c r="AW87" s="61"/>
-      <c r="AX87" s="61"/>
-      <c r="AY87" s="63"/>
+    <row r="137" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE137" s="33"/>
+      <c r="AF137" s="32"/>
+      <c r="AG137" s="32"/>
+      <c r="AH137" s="32"/>
+      <c r="AI137" s="32"/>
+      <c r="AJ137" s="54"/>
+      <c r="AK137" s="54"/>
+      <c r="AL137" s="32"/>
+      <c r="AM137" s="32"/>
+      <c r="AN137" s="32"/>
+      <c r="AO137" s="32"/>
+      <c r="AP137" s="54"/>
+      <c r="AQ137" s="54"/>
+      <c r="AR137" s="32"/>
+      <c r="AS137" s="32"/>
+      <c r="AT137" s="32"/>
+      <c r="AU137" s="32"/>
+      <c r="AV137" s="54"/>
+      <c r="AW137" s="54"/>
+      <c r="AX137" s="32"/>
+      <c r="AY137" s="32"/>
+      <c r="AZ137" s="32"/>
+      <c r="BA137" s="32"/>
+      <c r="BB137" s="35"/>
     </row>
-    <row r="88" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="23" t="s">
+    <row r="138" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE138" s="33"/>
+      <c r="AF138" s="32"/>
+      <c r="AG138" s="32"/>
+      <c r="AH138" s="32"/>
+      <c r="AI138" s="32"/>
+      <c r="AJ138" s="54"/>
+      <c r="AK138" s="54"/>
+      <c r="AL138" s="32"/>
+      <c r="AM138" s="32"/>
+      <c r="AN138" s="32"/>
+      <c r="AO138" s="32"/>
+      <c r="AP138" s="54"/>
+      <c r="AQ138" s="54"/>
+      <c r="AR138" s="32"/>
+      <c r="AS138" s="32"/>
+      <c r="AT138" s="32"/>
+      <c r="AU138" s="32"/>
+      <c r="AV138" s="54"/>
+      <c r="AW138" s="54"/>
+      <c r="AX138" s="32"/>
+      <c r="AY138" s="32"/>
+      <c r="AZ138" s="32"/>
+      <c r="BA138" s="32"/>
+      <c r="BB138" s="35"/>
+    </row>
+    <row r="139" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE139" s="33"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AG88" s="23" t="s">
+      <c r="AH139" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AH88" s="23" t="s">
+      <c r="AI139" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="39"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="23" t="s">
+      <c r="AJ139" s="54"/>
+      <c r="AK139" s="54"/>
+      <c r="AL139" s="24"/>
+      <c r="AM139" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AM88" s="23" t="s">
+      <c r="AN139" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AN88" s="23" t="s">
+      <c r="AO139" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AO88" s="76"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="23" t="s">
+      <c r="AP139" s="54"/>
+      <c r="AQ139" s="54"/>
+      <c r="AR139" s="24"/>
+      <c r="AS139" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AR88" s="23" t="s">
+      <c r="AT139" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AS88" s="23" t="s">
+      <c r="AU139" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AT88" s="39"/>
-      <c r="AU88" s="39"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="23" t="s">
+      <c r="AV139" s="54"/>
+      <c r="AW139" s="54"/>
+      <c r="AX139" s="24"/>
+      <c r="AY139" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AX88" s="23" t="s">
+      <c r="AZ139" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AY88" s="23" t="s">
+      <c r="BA139" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="BB139" s="35"/>
     </row>
-    <row r="89" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE89" s="22" t="s">
+    <row r="140" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE140" s="33"/>
+      <c r="AF140" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AF89" s="19"/>
-      <c r="AG89" s="20"/>
-      <c r="AH89" s="19"/>
-      <c r="AI89" s="39"/>
-      <c r="AJ89" s="39"/>
-      <c r="AK89" s="22" t="s">
+      <c r="AG140" s="27"/>
+      <c r="AH140" s="28"/>
+      <c r="AI140" s="27"/>
+      <c r="AJ140" s="54"/>
+      <c r="AK140" s="54"/>
+      <c r="AL140" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AL89" s="19"/>
-      <c r="AM89" s="20"/>
-      <c r="AN89" s="19"/>
-      <c r="AO89" s="76"/>
-      <c r="AP89" s="22" t="s">
+      <c r="AM140" s="27"/>
+      <c r="AN140" s="28"/>
+      <c r="AO140" s="27"/>
+      <c r="AP140" s="54"/>
+      <c r="AQ140" s="54"/>
+      <c r="AR140" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AQ89" s="19"/>
-      <c r="AR89" s="20"/>
-      <c r="AS89" s="19"/>
-      <c r="AT89" s="39"/>
-      <c r="AU89" s="39"/>
-      <c r="AV89" s="22" t="s">
+      <c r="AS140" s="27"/>
+      <c r="AT140" s="28"/>
+      <c r="AU140" s="27"/>
+      <c r="AV140" s="54"/>
+      <c r="AW140" s="54"/>
+      <c r="AX140" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AW89" s="19"/>
-      <c r="AX89" s="20"/>
-      <c r="AY89" s="19"/>
+      <c r="AY140" s="27"/>
+      <c r="AZ140" s="28"/>
+      <c r="BA140" s="27"/>
+      <c r="BB140" s="35"/>
     </row>
-    <row r="90" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE90" s="22" t="s">
+    <row r="141" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF90" s="19"/>
-      <c r="AG90" s="20"/>
-      <c r="AH90" s="19"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="22" t="s">
+      <c r="AG141" s="27"/>
+      <c r="AH141" s="28"/>
+      <c r="AI141" s="27"/>
+      <c r="AJ141" s="54"/>
+      <c r="AK141" s="54"/>
+      <c r="AL141" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AL90" s="19"/>
-      <c r="AM90" s="20"/>
-      <c r="AN90" s="19"/>
-      <c r="AO90" s="76"/>
-      <c r="AP90" s="22" t="s">
+      <c r="AM141" s="27"/>
+      <c r="AN141" s="28"/>
+      <c r="AO141" s="27"/>
+      <c r="AP141" s="54"/>
+      <c r="AQ141" s="54"/>
+      <c r="AR141" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AQ90" s="19"/>
-      <c r="AR90" s="20"/>
-      <c r="AS90" s="19"/>
-      <c r="AT90" s="39"/>
-      <c r="AU90" s="39"/>
-      <c r="AV90" s="22" t="s">
+      <c r="AS141" s="27"/>
+      <c r="AT141" s="28"/>
+      <c r="AU141" s="27"/>
+      <c r="AV141" s="54"/>
+      <c r="AW141" s="54"/>
+      <c r="AX141" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AW90" s="19"/>
-      <c r="AX90" s="20"/>
-      <c r="AY90" s="19"/>
+      <c r="AY141" s="27"/>
+      <c r="AZ141" s="28"/>
+      <c r="BA141" s="27"/>
+      <c r="BB141" s="35"/>
     </row>
-    <row r="91" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE91" s="22" t="s">
+    <row r="142" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE142" s="33"/>
+      <c r="AF142" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="20"/>
-      <c r="AH91" s="19"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="22" t="s">
+      <c r="AG142" s="27"/>
+      <c r="AH142" s="28"/>
+      <c r="AI142" s="27"/>
+      <c r="AJ142" s="54"/>
+      <c r="AK142" s="54"/>
+      <c r="AL142" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AL91" s="19"/>
-      <c r="AM91" s="20"/>
-      <c r="AN91" s="19"/>
-      <c r="AO91" s="76"/>
-      <c r="AP91" s="22" t="s">
+      <c r="AM142" s="27"/>
+      <c r="AN142" s="28"/>
+      <c r="AO142" s="27"/>
+      <c r="AP142" s="54"/>
+      <c r="AQ142" s="54"/>
+      <c r="AR142" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AQ91" s="19"/>
-      <c r="AR91" s="20"/>
-      <c r="AS91" s="19"/>
-      <c r="AT91" s="39"/>
-      <c r="AU91" s="39"/>
-      <c r="AV91" s="22" t="s">
+      <c r="AS142" s="27"/>
+      <c r="AT142" s="28"/>
+      <c r="AU142" s="27"/>
+      <c r="AV142" s="54"/>
+      <c r="AW142" s="54"/>
+      <c r="AX142" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AW91" s="19"/>
-      <c r="AX91" s="20"/>
-      <c r="AY91" s="19"/>
+      <c r="AY142" s="27"/>
+      <c r="AZ142" s="28"/>
+      <c r="BA142" s="27"/>
+      <c r="BB142" s="35"/>
     </row>
-    <row r="92" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE92" s="22" t="s">
+    <row r="143" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE143" s="33"/>
+      <c r="AF143" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AF92" s="19"/>
-      <c r="AG92" s="20"/>
-      <c r="AH92" s="19"/>
-      <c r="AI92" s="39"/>
-      <c r="AJ92" s="39"/>
-      <c r="AK92" s="22" t="s">
+      <c r="AG143" s="27"/>
+      <c r="AH143" s="28"/>
+      <c r="AI143" s="27"/>
+      <c r="AJ143" s="54"/>
+      <c r="AK143" s="54"/>
+      <c r="AL143" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AL92" s="19"/>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="19"/>
-      <c r="AO92" s="76"/>
-      <c r="AP92" s="22" t="s">
+      <c r="AM143" s="27"/>
+      <c r="AN143" s="28"/>
+      <c r="AO143" s="27"/>
+      <c r="AP143" s="54"/>
+      <c r="AQ143" s="54"/>
+      <c r="AR143" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AQ92" s="19"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="19"/>
-      <c r="AT92" s="39"/>
-      <c r="AU92" s="39"/>
-      <c r="AV92" s="22" t="s">
+      <c r="AS143" s="27"/>
+      <c r="AT143" s="28"/>
+      <c r="AU143" s="27"/>
+      <c r="AV143" s="54"/>
+      <c r="AW143" s="54"/>
+      <c r="AX143" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AW92" s="19"/>
-      <c r="AX92" s="20"/>
-      <c r="AY92" s="19"/>
+      <c r="AY143" s="27"/>
+      <c r="AZ143" s="28"/>
+      <c r="BA143" s="27"/>
+      <c r="BB143" s="35"/>
     </row>
-    <row r="93" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE93" s="22" t="s">
+    <row r="144" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE144" s="33"/>
+      <c r="AF144" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="20"/>
-      <c r="AH93" s="19"/>
-      <c r="AI93" s="39"/>
-      <c r="AJ93" s="39"/>
-      <c r="AK93" s="22" t="s">
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="28"/>
+      <c r="AI144" s="27"/>
+      <c r="AJ144" s="54"/>
+      <c r="AK144" s="54"/>
+      <c r="AL144" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AL93" s="19"/>
-      <c r="AM93" s="20"/>
-      <c r="AN93" s="19"/>
-      <c r="AO93" s="76"/>
-      <c r="AP93" s="22" t="s">
+      <c r="AM144" s="27"/>
+      <c r="AN144" s="28"/>
+      <c r="AO144" s="27"/>
+      <c r="AP144" s="54"/>
+      <c r="AQ144" s="54"/>
+      <c r="AR144" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AQ93" s="19"/>
-      <c r="AR93" s="20"/>
-      <c r="AS93" s="19"/>
-      <c r="AT93" s="39"/>
-      <c r="AU93" s="39"/>
-      <c r="AV93" s="22" t="s">
+      <c r="AS144" s="27"/>
+      <c r="AT144" s="28"/>
+      <c r="AU144" s="27"/>
+      <c r="AV144" s="54"/>
+      <c r="AW144" s="54"/>
+      <c r="AX144" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AW93" s="19"/>
-      <c r="AX93" s="20"/>
-      <c r="AY93" s="19"/>
+      <c r="AY144" s="27"/>
+      <c r="AZ144" s="28"/>
+      <c r="BA144" s="27"/>
+      <c r="BB144" s="35"/>
     </row>
-    <row r="94" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE94" s="22" t="s">
+    <row r="145" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE145" s="33"/>
+      <c r="AF145" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF94" s="19"/>
-      <c r="AG94" s="20"/>
-      <c r="AH94" s="19"/>
-      <c r="AI94" s="39"/>
-      <c r="AJ94" s="39"/>
-      <c r="AK94" s="22" t="s">
+      <c r="AG145" s="27"/>
+      <c r="AH145" s="28"/>
+      <c r="AI145" s="27"/>
+      <c r="AJ145" s="54"/>
+      <c r="AK145" s="54"/>
+      <c r="AL145" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AL94" s="19"/>
-      <c r="AM94" s="20"/>
-      <c r="AN94" s="19"/>
-      <c r="AO94" s="76"/>
-      <c r="AP94" s="22" t="s">
+      <c r="AM145" s="27"/>
+      <c r="AN145" s="28"/>
+      <c r="AO145" s="27"/>
+      <c r="AP145" s="54"/>
+      <c r="AQ145" s="54"/>
+      <c r="AR145" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AQ94" s="19"/>
-      <c r="AR94" s="20"/>
-      <c r="AS94" s="19"/>
-      <c r="AT94" s="39"/>
-      <c r="AU94" s="39"/>
-      <c r="AV94" s="22" t="s">
+      <c r="AS145" s="27"/>
+      <c r="AT145" s="28"/>
+      <c r="AU145" s="27"/>
+      <c r="AV145" s="54"/>
+      <c r="AW145" s="54"/>
+      <c r="AX145" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AW94" s="19"/>
-      <c r="AX94" s="20"/>
-      <c r="AY94" s="19"/>
+      <c r="AY145" s="27"/>
+      <c r="AZ145" s="28"/>
+      <c r="BA145" s="27"/>
+      <c r="BB145" s="35"/>
     </row>
-    <row r="95" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE95" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF95" s="44"/>
-      <c r="AG95" s="44"/>
-      <c r="AH95" s="44"/>
-      <c r="AI95" s="39"/>
-      <c r="AJ95" s="39"/>
-      <c r="AK95" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL95" s="44"/>
-      <c r="AM95" s="44"/>
-      <c r="AN95" s="49"/>
-      <c r="AO95" s="76"/>
-      <c r="AP95" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ95" s="44"/>
-      <c r="AR95" s="44"/>
-      <c r="AS95" s="44"/>
-      <c r="AT95" s="39"/>
-      <c r="AU95" s="39"/>
-      <c r="AV95" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW95" s="44"/>
-      <c r="AX95" s="44"/>
-      <c r="AY95" s="49"/>
-    </row>
-    <row r="96" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE96" s="45"/>
-      <c r="AF96" s="46"/>
-      <c r="AG96" s="46"/>
-      <c r="AH96" s="46"/>
-      <c r="AI96" s="39"/>
-      <c r="AJ96" s="39"/>
-      <c r="AK96" s="46"/>
-      <c r="AL96" s="46"/>
-      <c r="AM96" s="46"/>
-      <c r="AN96" s="50"/>
-      <c r="AO96" s="76"/>
-      <c r="AP96" s="45"/>
-      <c r="AQ96" s="46"/>
-      <c r="AR96" s="46"/>
-      <c r="AS96" s="46"/>
-      <c r="AT96" s="39"/>
-      <c r="AU96" s="39"/>
-      <c r="AV96" s="46"/>
-      <c r="AW96" s="46"/>
-      <c r="AX96" s="46"/>
-      <c r="AY96" s="50"/>
-    </row>
-    <row r="97" spans="31:51" x14ac:dyDescent="0.25">
-      <c r="AE97" s="47"/>
-      <c r="AF97" s="48"/>
-      <c r="AG97" s="48"/>
-      <c r="AH97" s="48"/>
-      <c r="AI97" s="39"/>
-      <c r="AJ97" s="39"/>
-      <c r="AK97" s="48"/>
-      <c r="AL97" s="48"/>
-      <c r="AM97" s="48"/>
-      <c r="AN97" s="51"/>
-      <c r="AO97" s="76"/>
-      <c r="AP97" s="47"/>
-      <c r="AQ97" s="48"/>
-      <c r="AR97" s="48"/>
-      <c r="AS97" s="48"/>
-      <c r="AT97" s="39"/>
-      <c r="AU97" s="39"/>
-      <c r="AV97" s="48"/>
-      <c r="AW97" s="48"/>
-      <c r="AX97" s="48"/>
-      <c r="AY97" s="51"/>
-    </row>
-    <row r="98" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE98" s="26"/>
-      <c r="AF98" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG98" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH98" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI98" s="39"/>
-      <c r="AJ98" s="39"/>
-      <c r="AK98" s="26"/>
-      <c r="AL98" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM98" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN98" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO98" s="76"/>
-      <c r="AP98" s="26"/>
-      <c r="AQ98" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR98" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS98" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT98" s="39"/>
-      <c r="AU98" s="39"/>
-      <c r="AV98" s="26"/>
-      <c r="AW98" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX98" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY98" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE99" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF99" s="30"/>
-      <c r="AG99" s="29"/>
-      <c r="AH99" s="30"/>
-      <c r="AI99" s="39"/>
-      <c r="AJ99" s="39"/>
-      <c r="AK99" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL99" s="30"/>
-      <c r="AM99" s="29"/>
-      <c r="AN99" s="30"/>
-      <c r="AO99" s="76"/>
-      <c r="AP99" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ99" s="30"/>
-      <c r="AR99" s="29"/>
-      <c r="AS99" s="30"/>
-      <c r="AT99" s="39"/>
-      <c r="AU99" s="39"/>
-      <c r="AV99" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW99" s="30"/>
-      <c r="AX99" s="29"/>
-      <c r="AY99" s="30"/>
-    </row>
-    <row r="100" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE100" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF100" s="30"/>
-      <c r="AG100" s="29"/>
-      <c r="AH100" s="30"/>
-      <c r="AI100" s="39"/>
-      <c r="AJ100" s="39"/>
-      <c r="AK100" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL100" s="30"/>
-      <c r="AM100" s="29"/>
-      <c r="AN100" s="30"/>
-      <c r="AO100" s="76"/>
-      <c r="AP100" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ100" s="30"/>
-      <c r="AR100" s="29"/>
-      <c r="AS100" s="30"/>
-      <c r="AT100" s="39"/>
-      <c r="AU100" s="39"/>
-      <c r="AV100" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW100" s="30"/>
-      <c r="AX100" s="29"/>
-      <c r="AY100" s="30"/>
-    </row>
-    <row r="101" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE101" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF101" s="30"/>
-      <c r="AG101" s="29"/>
-      <c r="AH101" s="30"/>
-      <c r="AI101" s="39"/>
-      <c r="AJ101" s="39"/>
-      <c r="AK101" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL101" s="30"/>
-      <c r="AM101" s="29"/>
-      <c r="AN101" s="30"/>
-      <c r="AO101" s="76"/>
-      <c r="AP101" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ101" s="30"/>
-      <c r="AR101" s="29"/>
-      <c r="AS101" s="30"/>
-      <c r="AT101" s="39"/>
-      <c r="AU101" s="39"/>
-      <c r="AV101" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW101" s="30"/>
-      <c r="AX101" s="29"/>
-      <c r="AY101" s="30"/>
-    </row>
-    <row r="102" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE102" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF102" s="30"/>
-      <c r="AG102" s="29"/>
-      <c r="AH102" s="30"/>
-      <c r="AI102" s="39"/>
-      <c r="AJ102" s="39"/>
-      <c r="AK102" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL102" s="30"/>
-      <c r="AM102" s="29"/>
-      <c r="AN102" s="30"/>
-      <c r="AO102" s="76"/>
-      <c r="AP102" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ102" s="30"/>
-      <c r="AR102" s="29"/>
-      <c r="AS102" s="30"/>
-      <c r="AT102" s="39"/>
-      <c r="AU102" s="39"/>
-      <c r="AV102" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW102" s="30"/>
-      <c r="AX102" s="29"/>
-      <c r="AY102" s="30"/>
-    </row>
-    <row r="103" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE103" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="29"/>
-      <c r="AH103" s="30"/>
-      <c r="AI103" s="39"/>
-      <c r="AJ103" s="39"/>
-      <c r="AK103" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL103" s="30"/>
-      <c r="AM103" s="29"/>
-      <c r="AN103" s="30"/>
-      <c r="AO103" s="76"/>
-      <c r="AP103" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ103" s="30"/>
-      <c r="AR103" s="29"/>
-      <c r="AS103" s="30"/>
-      <c r="AT103" s="39"/>
-      <c r="AU103" s="39"/>
-      <c r="AV103" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW103" s="30"/>
-      <c r="AX103" s="29"/>
-      <c r="AY103" s="30"/>
-    </row>
-    <row r="104" spans="31:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE104" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF104" s="30"/>
-      <c r="AG104" s="29"/>
-      <c r="AH104" s="30"/>
-      <c r="AI104" s="40"/>
-      <c r="AJ104" s="40"/>
-      <c r="AK104" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL104" s="30"/>
-      <c r="AM104" s="29"/>
-      <c r="AN104" s="30"/>
-      <c r="AO104" s="76"/>
-      <c r="AP104" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ104" s="30"/>
-      <c r="AR104" s="29"/>
-      <c r="AS104" s="30"/>
-      <c r="AT104" s="40"/>
-      <c r="AU104" s="40"/>
-      <c r="AV104" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW104" s="30"/>
-      <c r="AX104" s="29"/>
-      <c r="AY104" s="30"/>
+    <row r="146" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE146" s="29"/>
+      <c r="AF146" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG146" s="27"/>
+      <c r="AH146" s="28"/>
+      <c r="AI146" s="27"/>
+      <c r="AJ146" s="30"/>
+      <c r="AK146" s="30"/>
+      <c r="AL146" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM146" s="27"/>
+      <c r="AN146" s="28"/>
+      <c r="AO146" s="27"/>
+      <c r="AP146" s="30"/>
+      <c r="AQ146" s="30"/>
+      <c r="AR146" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS146" s="27"/>
+      <c r="AT146" s="28"/>
+      <c r="AU146" s="27"/>
+      <c r="AV146" s="30"/>
+      <c r="AW146" s="30"/>
+      <c r="AX146" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY146" s="27"/>
+      <c r="AZ146" s="28"/>
+      <c r="BA146" s="27"/>
+      <c r="BB146" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="AO1:AO104"/>
-    <mergeCell ref="AP53:AY54"/>
-    <mergeCell ref="AP55:AR64"/>
-    <mergeCell ref="AS55:AV57"/>
-    <mergeCell ref="AW55:AY64"/>
-    <mergeCell ref="AP65:AS67"/>
-    <mergeCell ref="AT65:AU104"/>
-    <mergeCell ref="AV65:AY67"/>
-    <mergeCell ref="AP75:AS77"/>
-    <mergeCell ref="AV75:AY77"/>
-    <mergeCell ref="AP85:AS87"/>
-    <mergeCell ref="AV85:AY87"/>
-    <mergeCell ref="AP95:AS97"/>
-    <mergeCell ref="AV95:AY97"/>
-    <mergeCell ref="AE53:AN54"/>
-    <mergeCell ref="AE55:AG64"/>
-    <mergeCell ref="AH55:AK57"/>
-    <mergeCell ref="AL55:AN64"/>
-    <mergeCell ref="AE65:AH67"/>
-    <mergeCell ref="AI65:AJ104"/>
-    <mergeCell ref="AK65:AN67"/>
-    <mergeCell ref="AE75:AH77"/>
-    <mergeCell ref="AK75:AN77"/>
-    <mergeCell ref="AE85:AH87"/>
-    <mergeCell ref="AK85:AN87"/>
-    <mergeCell ref="AE95:AH97"/>
-    <mergeCell ref="AK95:AN97"/>
+  <mergeCells count="134">
+    <mergeCell ref="AE73:BB74"/>
+    <mergeCell ref="AE123:BB124"/>
+    <mergeCell ref="AE125:AE146"/>
+    <mergeCell ref="AF125:AI127"/>
+    <mergeCell ref="AJ125:AK146"/>
+    <mergeCell ref="AL125:AO127"/>
+    <mergeCell ref="AP125:AQ146"/>
+    <mergeCell ref="AR125:AU127"/>
+    <mergeCell ref="AV125:AW146"/>
+    <mergeCell ref="AX125:BA127"/>
+    <mergeCell ref="BB125:BB146"/>
+    <mergeCell ref="AF136:AI138"/>
+    <mergeCell ref="AL136:AO138"/>
+    <mergeCell ref="AR136:AU138"/>
+    <mergeCell ref="AX136:BA138"/>
+    <mergeCell ref="AE99:BB100"/>
+    <mergeCell ref="AE101:AH103"/>
+    <mergeCell ref="AI101:AI122"/>
+    <mergeCell ref="AJ101:AM103"/>
+    <mergeCell ref="AN101:AS122"/>
+    <mergeCell ref="AT101:AW103"/>
+    <mergeCell ref="AX101:AX122"/>
+    <mergeCell ref="AY101:BB103"/>
+    <mergeCell ref="AE112:AH114"/>
+    <mergeCell ref="AJ112:AM114"/>
+    <mergeCell ref="AT112:AW114"/>
+    <mergeCell ref="AY112:BB114"/>
+    <mergeCell ref="AS77:AS98"/>
+    <mergeCell ref="AT77:AW79"/>
+    <mergeCell ref="AX77:AX98"/>
+    <mergeCell ref="AY77:BB79"/>
+    <mergeCell ref="AE88:AH90"/>
+    <mergeCell ref="AJ88:AM90"/>
+    <mergeCell ref="AO88:AR90"/>
+    <mergeCell ref="AT88:AW90"/>
+    <mergeCell ref="AY88:BB90"/>
+    <mergeCell ref="AE49:BB50"/>
+    <mergeCell ref="AF51:AI53"/>
+    <mergeCell ref="AF62:AI64"/>
+    <mergeCell ref="AR51:AU53"/>
+    <mergeCell ref="AX51:BA53"/>
+    <mergeCell ref="AX62:BA64"/>
+    <mergeCell ref="AE51:AE72"/>
+    <mergeCell ref="AJ51:AK72"/>
+    <mergeCell ref="AV51:AW72"/>
+    <mergeCell ref="BB51:BB72"/>
+    <mergeCell ref="AL51:AO53"/>
+    <mergeCell ref="AL62:AO64"/>
+    <mergeCell ref="AP51:AQ72"/>
+    <mergeCell ref="AR62:AU64"/>
+    <mergeCell ref="AE75:AN76"/>
+    <mergeCell ref="AO75:AR76"/>
+    <mergeCell ref="AS75:BB76"/>
+    <mergeCell ref="AE77:AH79"/>
+    <mergeCell ref="AI77:AI98"/>
+    <mergeCell ref="AJ77:AM79"/>
+    <mergeCell ref="AN77:AN98"/>
+    <mergeCell ref="AO77:AR79"/>
+    <mergeCell ref="AN27:AS48"/>
+    <mergeCell ref="AE25:BB26"/>
+    <mergeCell ref="AT3:AW5"/>
+    <mergeCell ref="AX3:AX24"/>
+    <mergeCell ref="AY3:BB5"/>
+    <mergeCell ref="AT14:AW16"/>
+    <mergeCell ref="AY14:BB16"/>
+    <mergeCell ref="AT27:AW29"/>
+    <mergeCell ref="AX27:AX48"/>
+    <mergeCell ref="AY27:BB29"/>
+    <mergeCell ref="AT38:AW40"/>
+    <mergeCell ref="AY38:BB40"/>
+    <mergeCell ref="AS3:AS24"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F37:I37"/>
@@ -38833,8 +40831,8 @@
     <mergeCell ref="P44:S44"/>
     <mergeCell ref="U60:X60"/>
     <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="BC15:BF15"/>
-    <mergeCell ref="BC5:BF5"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="U53:X53"/>
     <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="U5:X5"/>
@@ -38847,41 +40845,34 @@
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Z12:AC12"/>
     <mergeCell ref="U21:X21"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AJ3:AM5"/>
+    <mergeCell ref="AO3:AR5"/>
+    <mergeCell ref="K1:AC2"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="Z21:AC21"/>
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="P12:S12"/>
+    <mergeCell ref="BH1:BK2"/>
+    <mergeCell ref="BH3:BK4"/>
+    <mergeCell ref="BH13:BK14"/>
     <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="K1:AC2"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="AP1:AY2"/>
-    <mergeCell ref="AP13:AS15"/>
-    <mergeCell ref="AV13:AY15"/>
-    <mergeCell ref="AP3:AR12"/>
-    <mergeCell ref="AS3:AV5"/>
-    <mergeCell ref="AW3:AY12"/>
-    <mergeCell ref="AT13:AU52"/>
-    <mergeCell ref="AP43:AS45"/>
-    <mergeCell ref="AV43:AY45"/>
-    <mergeCell ref="AP23:AS25"/>
-    <mergeCell ref="AV23:AY25"/>
-    <mergeCell ref="AP33:AS35"/>
-    <mergeCell ref="AV33:AY35"/>
-    <mergeCell ref="AH3:AK5"/>
-    <mergeCell ref="AI13:AJ52"/>
-    <mergeCell ref="AE3:AG12"/>
-    <mergeCell ref="AL3:AN12"/>
-    <mergeCell ref="AE43:AH45"/>
-    <mergeCell ref="AK43:AN45"/>
-    <mergeCell ref="AK23:AN25"/>
-    <mergeCell ref="AK33:AN35"/>
-    <mergeCell ref="AE23:AH25"/>
-    <mergeCell ref="AE33:AH35"/>
-    <mergeCell ref="AE13:AH15"/>
-    <mergeCell ref="AK13:AN15"/>
+    <mergeCell ref="AO14:AR16"/>
+    <mergeCell ref="AS1:BB2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="AI3:AI24"/>
+    <mergeCell ref="AN3:AN24"/>
+    <mergeCell ref="AE14:AH16"/>
+    <mergeCell ref="AJ14:AM16"/>
+    <mergeCell ref="AE27:AH29"/>
+    <mergeCell ref="AI27:AI48"/>
+    <mergeCell ref="AJ27:AM29"/>
+    <mergeCell ref="AE38:AH40"/>
+    <mergeCell ref="AJ38:AM40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38892,7 +40883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FD7A86-73DA-44B2-B0E2-52543668D857}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
@@ -38907,7 +40898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122FAC1-14A9-4631-87C8-BC63A01CE8FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="BF1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CY36" sqref="CY36"/>
     </sheetView>
   </sheetViews>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482D19B-9DDB-4E4A-A33A-F1CB55C6AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C4E67-BA55-4AC7-9301-9D17A0850AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="86">
   <si>
     <t>ANN</t>
   </si>
@@ -247,22 +247,10 @@
     <t>Temp Test for 512x512 images</t>
   </si>
   <si>
-    <t>3CF_RANDOM</t>
-  </si>
-  <si>
     <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256</t>
   </si>
   <si>
     <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256</t>
-  </si>
-  <si>
-    <t>3 Features Channel Images - Gen Alg  NONE WEIGHTS Optimisation - 256x256</t>
-  </si>
-  <si>
-    <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256 - 4 CLASSES</t>
-  </si>
-  <si>
-    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256 - 4 CLASSES</t>
   </si>
   <si>
     <t>CNN -RAVDESS</t>
@@ -286,22 +274,28 @@
     <t>RESNET-RAVDESS</t>
   </si>
   <si>
-    <t>VGG -RAVDESS</t>
-  </si>
-  <si>
-    <t>EFFICIENTNET-RAVDESS</t>
-  </si>
-  <si>
     <t>VGG-RAVDESS</t>
   </si>
   <si>
     <t>CNN COMPARISON</t>
   </si>
   <si>
-    <t>CNN COMPARISON - 4 CLASSES</t>
+    <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256 - 4 CLASS</t>
   </si>
   <si>
-    <t>3 Features Channel Images - Gen Alg  NONE WEIGHTS Optimisation - 256x256 - 4 CLASSES</t>
+    <t>3 Features Channel Images - Gen Alg UNFREEZED Optimisation - 256x256 - 4 CLASS</t>
+  </si>
+  <si>
+    <t>DENSENET -RAVDESS</t>
+  </si>
+  <si>
+    <t>CNN COMPARISON - 4 CLASS</t>
+  </si>
+  <si>
+    <t>DEBSENET - EMODB</t>
+  </si>
+  <si>
+    <t>DEBSENET-RAVDESS</t>
   </si>
 </sst>
 </file>
@@ -504,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -657,24 +651,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,7 +729,43 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,28 +774,31 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,13 +819,28 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,58 +852,49 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31343,10 +31369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView tabSelected="1" topLeftCell="AC49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG79" sqref="AG79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31363,133 +31389,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42"/>
-      <c r="AE1" s="36" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AE1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BH1" s="37" t="s">
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BH1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
     </row>
     <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="58"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31521,44 +31547,44 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="32" t="s">
+      <c r="AE3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BH3" s="34"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="34"/>
-      <c r="BK3" s="34"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="46"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -31589,106 +31615,106 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="30"/>
-      <c r="BK4" s="30"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="49"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
     </row>
     <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="K5" s="46" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="K5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="48"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="48"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BH5" s="52" t="s">
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="52"/>
+      <c r="BH5" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
     </row>
     <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31765,7 +31791,7 @@
       <c r="AH6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="64"/>
+      <c r="AI6" s="40"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="26" t="s">
         <v>10</v>
@@ -31776,7 +31802,7 @@
       <c r="AM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="54"/>
+      <c r="AN6" s="40"/>
       <c r="AO6" s="24"/>
       <c r="AP6" s="26" t="s">
         <v>10</v>
@@ -31787,7 +31813,7 @@
       <c r="AR6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AS6" s="64"/>
+      <c r="AS6" s="40"/>
       <c r="AT6" s="24"/>
       <c r="AU6" s="26" t="s">
         <v>10</v>
@@ -31798,7 +31824,7 @@
       <c r="AW6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="64"/>
+      <c r="AX6" s="40"/>
       <c r="AY6" s="24"/>
       <c r="AZ6" s="26" t="s">
         <v>10</v>
@@ -31909,14 +31935,20 @@
       <c r="AH7" s="27">
         <v>0.8</v>
       </c>
-      <c r="AI7" s="64"/>
+      <c r="AI7" s="40"/>
       <c r="AJ7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="54"/>
+      <c r="AK7" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="AM7" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AN7" s="40"/>
       <c r="AO7" s="25" t="s">
         <v>58</v>
       </c>
@@ -31929,20 +31961,32 @@
       <c r="AR7" s="27">
         <v>0.66</v>
       </c>
-      <c r="AS7" s="64"/>
+      <c r="AS7" s="40"/>
       <c r="AT7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="64"/>
+      <c r="AU7" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AV7" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="AW7" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AX7" s="40"/>
       <c r="AY7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="27"/>
+      <c r="AZ7" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="BA7" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="BB7" s="27">
+        <v>0.78</v>
+      </c>
       <c r="BH7" s="22" t="s">
         <v>58</v>
       </c>
@@ -32045,14 +32089,20 @@
       <c r="AH8" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI8" s="64"/>
+      <c r="AI8" s="40"/>
       <c r="AJ8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="54"/>
+      <c r="AK8" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AL8" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AM8" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AN8" s="40"/>
       <c r="AO8" s="25" t="s">
         <v>59</v>
       </c>
@@ -32065,20 +32115,32 @@
       <c r="AR8" s="27">
         <v>0.68</v>
       </c>
-      <c r="AS8" s="64"/>
+      <c r="AS8" s="40"/>
       <c r="AT8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="64"/>
+      <c r="AU8" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AV8" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AW8" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AX8" s="40"/>
       <c r="AY8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="27"/>
+      <c r="AZ8" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="BA8" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="BB8" s="27">
+        <v>0.78</v>
+      </c>
       <c r="BH8" s="22" t="s">
         <v>59</v>
       </c>
@@ -32182,14 +32244,20 @@
       <c r="AH9" s="27">
         <v>0.76</v>
       </c>
-      <c r="AI9" s="64"/>
+      <c r="AI9" s="40"/>
       <c r="AJ9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="54"/>
+      <c r="AK9" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AN9" s="40"/>
       <c r="AO9" s="25" t="s">
         <v>60</v>
       </c>
@@ -32202,20 +32270,32 @@
       <c r="AR9" s="27">
         <v>0.64</v>
       </c>
-      <c r="AS9" s="64"/>
+      <c r="AS9" s="40"/>
       <c r="AT9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="64"/>
+      <c r="AU9" s="27">
+        <v>0.74</v>
+      </c>
+      <c r="AV9" s="28">
+        <v>0.71</v>
+      </c>
+      <c r="AW9" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AX9" s="40"/>
       <c r="AY9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="27"/>
+      <c r="AZ9" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="BA9" s="28">
+        <v>0.73</v>
+      </c>
+      <c r="BB9" s="27">
+        <v>0.78</v>
+      </c>
       <c r="BH9" s="22" t="s">
         <v>60</v>
       </c>
@@ -32318,14 +32398,20 @@
       <c r="AH10" s="27">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="64"/>
+      <c r="AI10" s="40"/>
       <c r="AJ10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="54"/>
+      <c r="AK10" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AL10" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AM10" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AN10" s="40"/>
       <c r="AO10" s="25" t="s">
         <v>61</v>
       </c>
@@ -32338,20 +32424,32 @@
       <c r="AR10" s="27">
         <v>0.63</v>
       </c>
-      <c r="AS10" s="64"/>
+      <c r="AS10" s="40"/>
       <c r="AT10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="64"/>
+      <c r="AU10" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AV10" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="AW10" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AX10" s="40"/>
       <c r="AY10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="28"/>
-      <c r="BB10" s="27"/>
+      <c r="AZ10" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="BA10" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="BB10" s="27">
+        <v>0.79</v>
+      </c>
       <c r="BH10" s="22" t="s">
         <v>61</v>
       </c>
@@ -32454,14 +32552,20 @@
       <c r="AH11" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI11" s="64"/>
+      <c r="AI11" s="40"/>
       <c r="AJ11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="54"/>
+      <c r="AK11" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>0.73</v>
+      </c>
+      <c r="AM11" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AN11" s="40"/>
       <c r="AO11" s="25" t="s">
         <v>62</v>
       </c>
@@ -32474,20 +32578,32 @@
       <c r="AR11" s="27">
         <v>0.61</v>
       </c>
-      <c r="AS11" s="64"/>
+      <c r="AS11" s="40"/>
       <c r="AT11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="64"/>
+      <c r="AU11" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AV11" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AW11" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AX11" s="40"/>
       <c r="AY11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="27"/>
+      <c r="AZ11" s="27">
+        <v>0.78</v>
+      </c>
+      <c r="BA11" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="BB11" s="27">
+        <v>0.77</v>
+      </c>
       <c r="BH11" s="22" t="s">
         <v>62</v>
       </c>
@@ -32527,47 +32643,59 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="49" t="s">
+      <c r="P12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="69"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="49" t="s">
+      <c r="Z12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="51"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
       <c r="AE12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="64"/>
+      <c r="AF12" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AG12" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="AH12" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AI12" s="40"/>
       <c r="AJ12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="54"/>
+      <c r="AK12" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="AL12" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AM12" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="AN12" s="40"/>
       <c r="AO12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32580,20 +32708,32 @@
       <c r="AR12" s="27">
         <v>0.6</v>
       </c>
-      <c r="AS12" s="64"/>
+      <c r="AS12" s="40"/>
       <c r="AT12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="64"/>
+      <c r="AU12" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AV12" s="28">
+        <v>0.66</v>
+      </c>
+      <c r="AW12" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="AX12" s="40"/>
       <c r="AY12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="27"/>
+      <c r="AZ12" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="BA12" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="BB12" s="27">
+        <v>0.78</v>
+      </c>
       <c r="BH12" s="22" t="s">
         <v>63</v>
       </c>
@@ -32676,50 +32816,44 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP13" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="AQ13" s="28">
-        <v>0.49</v>
-      </c>
-      <c r="AR13" s="27">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="27"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="38"/>
-      <c r="BK13" s="38"/>
+      <c r="AE13" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="46"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="76"/>
+      <c r="BK13" s="76"/>
     </row>
     <row r="14" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -32798,44 +32932,34 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ14" s="32"/>
-      <c r="BA14" s="32"/>
-      <c r="BB14" s="32"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="39"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="49"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
+      <c r="BK14" s="77"/>
     </row>
     <row r="15" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -32914,36 +33038,36 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BH15" s="52" t="s">
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="52"/>
+      <c r="BH15" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="74"/>
     </row>
     <row r="16" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -33022,30 +33146,60 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="32"/>
-      <c r="BA16" s="32"/>
-      <c r="BB16" s="32"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB16" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="BH16" s="21"/>
       <c r="BI16" s="23" t="s">
         <v>10</v>
@@ -33118,60 +33272,40 @@
       <c r="AC17" s="9">
         <v>0.48</v>
       </c>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ17" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR17" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX17" s="64"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB17" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="27"/>
       <c r="BH17" s="22" t="s">
         <v>58</v>
       </c>
@@ -33247,35 +33381,35 @@
         <v>0.44</v>
       </c>
       <c r="AE18" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF18" s="27"/>
       <c r="AG18" s="28"/>
       <c r="AH18" s="27"/>
-      <c r="AI18" s="64"/>
+      <c r="AI18" s="40"/>
       <c r="AJ18" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" s="27"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="27"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="64"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="40"/>
       <c r="AT18" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU18" s="27"/>
       <c r="AV18" s="28"/>
       <c r="AW18" s="27"/>
-      <c r="AX18" s="64"/>
+      <c r="AX18" s="40"/>
       <c r="AY18" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ18" s="27"/>
       <c r="BA18" s="28"/>
@@ -33323,35 +33457,35 @@
       <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
       <c r="AE19" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF19" s="27"/>
       <c r="AG19" s="28"/>
       <c r="AH19" s="27"/>
-      <c r="AI19" s="64"/>
+      <c r="AI19" s="40"/>
       <c r="AJ19" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" s="27"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="27"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="64"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="40"/>
       <c r="AT19" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU19" s="27"/>
       <c r="AV19" s="28"/>
       <c r="AW19" s="27"/>
-      <c r="AX19" s="64"/>
+      <c r="AX19" s="40"/>
       <c r="AY19" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AZ19" s="27"/>
       <c r="BA19" s="28"/>
@@ -33369,7 +33503,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -33399,35 +33533,35 @@
       <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
       <c r="AE20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF20" s="27"/>
       <c r="AG20" s="28"/>
       <c r="AH20" s="27"/>
-      <c r="AI20" s="64"/>
+      <c r="AI20" s="40"/>
       <c r="AJ20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" s="27"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="27"/>
-      <c r="AN20" s="54"/>
+      <c r="AN20" s="40"/>
       <c r="AO20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP20" s="27"/>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="27"/>
-      <c r="AS20" s="64"/>
+      <c r="AS20" s="40"/>
       <c r="AT20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU20" s="27"/>
       <c r="AV20" s="28"/>
       <c r="AW20" s="27"/>
-      <c r="AX20" s="64"/>
+      <c r="AX20" s="40"/>
       <c r="AY20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AZ20" s="27"/>
       <c r="BA20" s="28"/>
@@ -33439,77 +33573,77 @@
       <c r="BJ20" s="20"/>
       <c r="BK20" s="19"/>
     </row>
-    <row r="21" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="K21" s="46" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="K21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="48"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="72"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="46" t="s">
+      <c r="Z21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="48"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="72"/>
       <c r="AE21" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF21" s="27"/>
       <c r="AG21" s="28"/>
       <c r="AH21" s="27"/>
-      <c r="AI21" s="64"/>
+      <c r="AI21" s="40"/>
       <c r="AJ21" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" s="27"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="27"/>
-      <c r="AN21" s="54"/>
+      <c r="AN21" s="40"/>
       <c r="AO21" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP21" s="27"/>
       <c r="AQ21" s="28"/>
       <c r="AR21" s="27"/>
-      <c r="AS21" s="64"/>
+      <c r="AS21" s="40"/>
       <c r="AT21" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU21" s="27"/>
       <c r="AV21" s="28"/>
       <c r="AW21" s="27"/>
-      <c r="AX21" s="64"/>
+      <c r="AX21" s="40"/>
       <c r="AY21" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ21" s="27"/>
       <c r="BA21" s="28"/>
@@ -33527,7 +33661,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="22" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -33593,35 +33727,35 @@
         <v>12</v>
       </c>
       <c r="AE22" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="27"/>
       <c r="AG22" s="28"/>
       <c r="AH22" s="27"/>
-      <c r="AI22" s="64"/>
+      <c r="AI22" s="40"/>
       <c r="AJ22" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" s="27"/>
       <c r="AL22" s="28"/>
       <c r="AM22" s="27"/>
-      <c r="AN22" s="54"/>
+      <c r="AN22" s="40"/>
       <c r="AO22" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AP22" s="27"/>
       <c r="AQ22" s="28"/>
       <c r="AR22" s="27"/>
-      <c r="AS22" s="64"/>
+      <c r="AS22" s="40"/>
       <c r="AT22" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU22" s="27"/>
       <c r="AV22" s="28"/>
       <c r="AW22" s="27"/>
-      <c r="AX22" s="64"/>
+      <c r="AX22" s="40"/>
       <c r="AY22" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AZ22" s="27"/>
       <c r="BA22" s="28"/>
@@ -33716,40 +33850,30 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="64"/>
-      <c r="AY23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="27"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="39"/>
     </row>
     <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -33828,40 +33952,30 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="64"/>
-      <c r="AT24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="64"/>
-      <c r="AY24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="27"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="40"/>
+      <c r="AX24" s="40"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="41"/>
     </row>
     <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -33940,30 +34054,30 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
-      <c r="AN25" s="54"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
-      <c r="BB25" s="35"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40"/>
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="41"/>
     </row>
     <row r="26" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -34042,30 +34156,30 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="35"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="42"/>
+      <c r="BB26" s="43"/>
     </row>
     <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -34144,38 +34258,38 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="32" t="s">
+      <c r="AE27" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="32" t="s">
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AZ27" s="32"/>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="32"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="46"/>
     </row>
     <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -34203,57 +34317,57 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="49" t="s">
+      <c r="U28" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="51"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="49" t="s">
+      <c r="Z28" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="51"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="32"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="69"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="48"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="49"/>
     </row>
     <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -34324,30 +34438,30 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
-      <c r="BA29" s="32"/>
-      <c r="BB29" s="32"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="52"/>
     </row>
     <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -34436,7 +34550,7 @@
       <c r="AH30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI30" s="64"/>
+      <c r="AI30" s="40"/>
       <c r="AJ30" s="24"/>
       <c r="AK30" s="26" t="s">
         <v>10</v>
@@ -34447,12 +34561,12 @@
       <c r="AM30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
       <c r="AT30" s="24"/>
       <c r="AU30" s="26" t="s">
         <v>10</v>
@@ -34463,7 +34577,7 @@
       <c r="AW30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX30" s="64"/>
+      <c r="AX30" s="40"/>
       <c r="AY30" s="24"/>
       <c r="AZ30" s="26" t="s">
         <v>10</v>
@@ -34555,29 +34669,35 @@
       <c r="AE31" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="64"/>
+      <c r="AF31" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="AG31" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="AH31" s="27">
+        <v>0.78</v>
+      </c>
+      <c r="AI31" s="40"/>
       <c r="AJ31" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK31" s="27"/>
       <c r="AL31" s="28"/>
       <c r="AM31" s="27"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
       <c r="AT31" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AU31" s="27"/>
       <c r="AV31" s="28"/>
       <c r="AW31" s="27"/>
-      <c r="AX31" s="64"/>
+      <c r="AX31" s="40"/>
       <c r="AY31" s="25" t="s">
         <v>58</v>
       </c>
@@ -34665,29 +34785,35 @@
       <c r="AE32" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="64"/>
+      <c r="AF32" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AG32" s="28">
+        <v>0.71</v>
+      </c>
+      <c r="AH32" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AI32" s="40"/>
       <c r="AJ32" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK32" s="27"/>
       <c r="AL32" s="28"/>
       <c r="AM32" s="27"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="54"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
       <c r="AT32" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AU32" s="27"/>
       <c r="AV32" s="28"/>
       <c r="AW32" s="27"/>
-      <c r="AX32" s="64"/>
+      <c r="AX32" s="40"/>
       <c r="AY32" s="25" t="s">
         <v>59</v>
       </c>
@@ -34759,29 +34885,41 @@
       <c r="AE33" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="64"/>
+      <c r="AF33" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AG33" s="28">
+        <v>0.71</v>
+      </c>
+      <c r="AH33" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="40"/>
       <c r="AJ33" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK33" s="27"/>
       <c r="AL33" s="28"/>
       <c r="AM33" s="27"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54"/>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
       <c r="AT33" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="27"/>
-      <c r="AX33" s="64"/>
+      <c r="AU33" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="AV33" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AW33" s="27">
+        <v>0.74</v>
+      </c>
+      <c r="AX33" s="40"/>
       <c r="AY33" s="25" t="s">
         <v>60</v>
       </c>
@@ -34856,26 +34994,32 @@
       <c r="AF34" s="27"/>
       <c r="AG34" s="28"/>
       <c r="AH34" s="27"/>
-      <c r="AI34" s="64"/>
+      <c r="AI34" s="40"/>
       <c r="AJ34" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK34" s="27"/>
       <c r="AL34" s="28"/>
       <c r="AM34" s="27"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="54"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
       <c r="AT34" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AU34" s="27"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="27"/>
-      <c r="AX34" s="64"/>
+      <c r="AU34" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AV34" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="AW34" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AX34" s="40"/>
       <c r="AY34" s="25" t="s">
         <v>61</v>
       </c>
@@ -34915,29 +35059,41 @@
       <c r="AE35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="64"/>
+      <c r="AF35" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AG35" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="AH35" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="AI35" s="40"/>
       <c r="AJ35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK35" s="27"/>
       <c r="AL35" s="28"/>
       <c r="AM35" s="27"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="54"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
       <c r="AT35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AU35" s="27"/>
-      <c r="AV35" s="28"/>
-      <c r="AW35" s="27"/>
-      <c r="AX35" s="64"/>
+      <c r="AU35" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="AV35" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="AW35" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="AX35" s="40"/>
       <c r="AY35" s="25" t="s">
         <v>62</v>
       </c>
@@ -34977,29 +35133,35 @@
       <c r="AE36" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="64"/>
+      <c r="AF36" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AG36" s="28">
+        <v>0.76</v>
+      </c>
+      <c r="AH36" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AI36" s="40"/>
       <c r="AJ36" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AK36" s="27"/>
       <c r="AL36" s="28"/>
       <c r="AM36" s="27"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="54"/>
-      <c r="AS36" s="54"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
       <c r="AT36" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AU36" s="27"/>
       <c r="AV36" s="28"/>
       <c r="AW36" s="27"/>
-      <c r="AX36" s="64"/>
+      <c r="AX36" s="40"/>
       <c r="AY36" s="25" t="s">
         <v>63</v>
       </c>
@@ -35008,78 +35170,78 @@
       <c r="BB36" s="27"/>
     </row>
     <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="K37" s="46" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="K37" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="46" t="s">
+      <c r="P37" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="72"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="46" t="s">
+      <c r="U37" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="72"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="46" t="s">
+      <c r="Z37" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="48"/>
-      <c r="AE37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="54"/>
-      <c r="AT37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU37" s="27"/>
-      <c r="AV37" s="28"/>
-      <c r="AW37" s="27"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ37" s="27"/>
-      <c r="BA37" s="28"/>
-      <c r="BB37" s="27"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="72"/>
+      <c r="AE37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="40"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="40"/>
+      <c r="AY37" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="46"/>
     </row>
     <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -35146,38 +35308,30 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="54"/>
-      <c r="AO38" s="54"/>
-      <c r="AP38" s="54"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="54"/>
-      <c r="AS38" s="54"/>
-      <c r="AT38" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="32"/>
-      <c r="AW38" s="32"/>
-      <c r="AX38" s="64"/>
-      <c r="AY38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ38" s="32"/>
-      <c r="BA38" s="32"/>
-      <c r="BB38" s="32"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="49"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="49"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="47"/>
+      <c r="AZ38" s="48"/>
+      <c r="BA38" s="48"/>
+      <c r="BB38" s="49"/>
     </row>
     <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -35256,30 +35410,30 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="54"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="54"/>
-      <c r="AS39" s="54"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="32"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="32"/>
-      <c r="BA39" s="32"/>
-      <c r="BB39" s="32"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="40"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="52"/>
     </row>
     <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -35358,30 +35512,54 @@
       <c r="AC40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="54"/>
-      <c r="AS40" s="54"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="32"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="32"/>
-      <c r="BB40" s="32"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH40" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM40" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW40" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB40" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -35460,54 +35638,38 @@
       <c r="AC41" s="10">
         <v>0.54</v>
       </c>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
-      <c r="AT41" s="24"/>
-      <c r="AU41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="24"/>
-      <c r="AZ41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB41" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="40"/>
+      <c r="AO41" s="40"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
+      <c r="AR41" s="40"/>
+      <c r="AS41" s="40"/>
+      <c r="AT41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="40"/>
+      <c r="AY41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ41" s="27"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="27"/>
     </row>
     <row r="42" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -35587,33 +35749,33 @@
         <v>0.66</v>
       </c>
       <c r="AE42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF42" s="27"/>
       <c r="AG42" s="28"/>
       <c r="AH42" s="27"/>
-      <c r="AI42" s="64"/>
+      <c r="AI42" s="40"/>
       <c r="AJ42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" s="27"/>
       <c r="AL42" s="28"/>
       <c r="AM42" s="27"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="54"/>
-      <c r="AS42" s="54"/>
+      <c r="AN42" s="40"/>
+      <c r="AO42" s="40"/>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="40"/>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="40"/>
       <c r="AT42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU42" s="27"/>
       <c r="AV42" s="28"/>
       <c r="AW42" s="27"/>
-      <c r="AX42" s="64"/>
+      <c r="AX42" s="40"/>
       <c r="AY42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AZ42" s="27"/>
       <c r="BA42" s="28"/>
@@ -35697,33 +35859,33 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AE43" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF43" s="27"/>
       <c r="AG43" s="28"/>
       <c r="AH43" s="27"/>
-      <c r="AI43" s="64"/>
+      <c r="AI43" s="40"/>
       <c r="AJ43" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" s="27"/>
       <c r="AL43" s="28"/>
       <c r="AM43" s="27"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
+      <c r="AN43" s="40"/>
+      <c r="AO43" s="40"/>
+      <c r="AP43" s="40"/>
+      <c r="AQ43" s="40"/>
+      <c r="AR43" s="40"/>
+      <c r="AS43" s="40"/>
       <c r="AT43" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU43" s="27"/>
       <c r="AV43" s="28"/>
       <c r="AW43" s="27"/>
-      <c r="AX43" s="64"/>
+      <c r="AX43" s="40"/>
       <c r="AY43" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AZ43" s="27"/>
       <c r="BA43" s="28"/>
@@ -35755,61 +35917,61 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="49" t="s">
+      <c r="K44" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="51"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="69"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="49" t="s">
+      <c r="P44" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="69"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="49" t="s">
+      <c r="U44" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="51"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="69"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="49" t="s">
+      <c r="Z44" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="51"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="69"/>
       <c r="AE44" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF44" s="27"/>
       <c r="AG44" s="28"/>
       <c r="AH44" s="27"/>
-      <c r="AI44" s="64"/>
+      <c r="AI44" s="40"/>
       <c r="AJ44" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" s="27"/>
       <c r="AL44" s="28"/>
       <c r="AM44" s="27"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="40"/>
+      <c r="AP44" s="40"/>
+      <c r="AQ44" s="40"/>
+      <c r="AR44" s="40"/>
+      <c r="AS44" s="40"/>
       <c r="AT44" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU44" s="27"/>
       <c r="AV44" s="28"/>
       <c r="AW44" s="27"/>
-      <c r="AX44" s="64"/>
+      <c r="AX44" s="40"/>
       <c r="AY44" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AZ44" s="27"/>
       <c r="BA44" s="28"/>
@@ -35885,33 +36047,33 @@
         <v>12</v>
       </c>
       <c r="AE45" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF45" s="27"/>
       <c r="AG45" s="28"/>
       <c r="AH45" s="27"/>
-      <c r="AI45" s="64"/>
+      <c r="AI45" s="40"/>
       <c r="AJ45" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" s="27"/>
       <c r="AL45" s="28"/>
       <c r="AM45" s="27"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="40"/>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="40"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
       <c r="AT45" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU45" s="27"/>
       <c r="AV45" s="28"/>
       <c r="AW45" s="27"/>
-      <c r="AX45" s="64"/>
+      <c r="AX45" s="40"/>
       <c r="AY45" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ45" s="27"/>
       <c r="BA45" s="28"/>
@@ -35994,38 +36156,38 @@
       <c r="AC46" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE46" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="64"/>
-      <c r="AJ46" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="28"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU46" s="27"/>
-      <c r="AV46" s="28"/>
-      <c r="AW46" s="27"/>
-      <c r="AX46" s="64"/>
-      <c r="AY46" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ46" s="27"/>
-      <c r="BA46" s="28"/>
-      <c r="BB46" s="27"/>
+      <c r="AE46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="33"/>
+      <c r="AM46" s="32"/>
+      <c r="AN46" s="40"/>
+      <c r="AO46" s="40"/>
+      <c r="AP46" s="40"/>
+      <c r="AQ46" s="40"/>
+      <c r="AR46" s="40"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU46" s="32"/>
+      <c r="AV46" s="33"/>
+      <c r="AW46" s="32"/>
+      <c r="AX46" s="40"/>
+      <c r="AY46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ46" s="32"/>
+      <c r="BA46" s="33"/>
+      <c r="BB46" s="32"/>
     </row>
     <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -36104,38 +36266,36 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="64"/>
-      <c r="AJ47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="28"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="54"/>
-      <c r="AS47" s="54"/>
-      <c r="AT47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="28"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="64"/>
-      <c r="AY47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ47" s="27"/>
-      <c r="BA47" s="28"/>
-      <c r="BB47" s="27"/>
+      <c r="AE47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP47" s="60"/>
+      <c r="AQ47" s="60"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT47" s="54"/>
+      <c r="AU47" s="54"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="54"/>
+      <c r="AX47" s="54"/>
+      <c r="AY47" s="54"/>
+      <c r="AZ47" s="54"/>
+      <c r="BA47" s="54"/>
+      <c r="BB47" s="55"/>
     </row>
     <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -36214,38 +36374,30 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="64"/>
-      <c r="AJ48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="54"/>
-      <c r="AO48" s="54"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="54"/>
-      <c r="AT48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU48" s="27"/>
-      <c r="AV48" s="28"/>
-      <c r="AW48" s="27"/>
-      <c r="AX48" s="64"/>
-      <c r="AY48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ48" s="27"/>
-      <c r="BA48" s="28"/>
-      <c r="BB48" s="27"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="57"/>
+      <c r="AG48" s="57"/>
+      <c r="AH48" s="57"/>
+      <c r="AI48" s="57"/>
+      <c r="AJ48" s="57"/>
+      <c r="AK48" s="57"/>
+      <c r="AL48" s="57"/>
+      <c r="AM48" s="57"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="62"/>
+      <c r="AP48" s="63"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="56"/>
+      <c r="AT48" s="57"/>
+      <c r="AU48" s="57"/>
+      <c r="AV48" s="57"/>
+      <c r="AW48" s="57"/>
+      <c r="AX48" s="57"/>
+      <c r="AY48" s="57"/>
+      <c r="AZ48" s="57"/>
+      <c r="BA48" s="57"/>
+      <c r="BB48" s="58"/>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -36308,32 +36460,40 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
-      <c r="AE49" s="63" t="s">
+      <c r="AE49" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AF49" s="63"/>
-      <c r="AG49" s="63"/>
-      <c r="AH49" s="63"/>
-      <c r="AI49" s="63"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="63"/>
-      <c r="AL49" s="63"/>
-      <c r="AM49" s="63"/>
-      <c r="AN49" s="63"/>
-      <c r="AO49" s="63"/>
-      <c r="AP49" s="63"/>
-      <c r="AQ49" s="63"/>
-      <c r="AR49" s="63"/>
-      <c r="AS49" s="63"/>
-      <c r="AT49" s="63"/>
-      <c r="AU49" s="63"/>
-      <c r="AV49" s="63"/>
-      <c r="AW49" s="63"/>
-      <c r="AX49" s="63"/>
-      <c r="AY49" s="63"/>
-      <c r="AZ49" s="63"/>
-      <c r="BA49" s="63"/>
-      <c r="BB49" s="63"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="45"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="40"/>
+      <c r="AJ49" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK49" s="45"/>
+      <c r="AL49" s="45"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="40"/>
+      <c r="AO49" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP49" s="65"/>
+      <c r="AQ49" s="65"/>
+      <c r="AR49" s="65"/>
+      <c r="AS49" s="40"/>
+      <c r="AT49" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU49" s="45"/>
+      <c r="AV49" s="45"/>
+      <c r="AW49" s="46"/>
+      <c r="AX49" s="40"/>
+      <c r="AY49" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ49" s="45"/>
+      <c r="BA49" s="45"/>
+      <c r="BB49" s="46"/>
     </row>
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -36396,30 +36556,30 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="62"/>
-      <c r="AM50" s="62"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="62"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="62"/>
-      <c r="AX50" s="62"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="62"/>
-      <c r="BA50" s="62"/>
-      <c r="BB50" s="62"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="48"/>
+      <c r="AG50" s="48"/>
+      <c r="AH50" s="49"/>
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="48"/>
+      <c r="AL50" s="48"/>
+      <c r="AM50" s="49"/>
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="65"/>
+      <c r="AP50" s="65"/>
+      <c r="AQ50" s="65"/>
+      <c r="AR50" s="65"/>
+      <c r="AS50" s="40"/>
+      <c r="AT50" s="48"/>
+      <c r="AU50" s="48"/>
+      <c r="AV50" s="48"/>
+      <c r="AW50" s="49"/>
+      <c r="AX50" s="40"/>
+      <c r="AY50" s="47"/>
+      <c r="AZ50" s="48"/>
+      <c r="BA50" s="48"/>
+      <c r="BB50" s="49"/>
     </row>
     <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -36450,38 +36610,30 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-      <c r="AJ51" s="54"/>
-      <c r="AK51" s="54"/>
-      <c r="AL51" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="32"/>
-      <c r="AO51" s="32"/>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS51" s="32"/>
-      <c r="AT51" s="32"/>
-      <c r="AU51" s="32"/>
-      <c r="AV51" s="54"/>
-      <c r="AW51" s="54"/>
-      <c r="AX51" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY51" s="32"/>
-      <c r="AZ51" s="32"/>
-      <c r="BA51" s="32"/>
-      <c r="BB51" s="35"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="65"/>
+      <c r="AP51" s="65"/>
+      <c r="AQ51" s="65"/>
+      <c r="AR51" s="65"/>
+      <c r="AS51" s="40"/>
+      <c r="AT51" s="51"/>
+      <c r="AU51" s="51"/>
+      <c r="AV51" s="51"/>
+      <c r="AW51" s="52"/>
+      <c r="AX51" s="40"/>
+      <c r="AY51" s="50"/>
+      <c r="AZ51" s="51"/>
+      <c r="BA51" s="51"/>
+      <c r="BB51" s="52"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -36512,96 +36664,154 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="14"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="32"/>
-      <c r="AJ52" s="54"/>
-      <c r="AK52" s="54"/>
-      <c r="AL52" s="32"/>
-      <c r="AM52" s="32"/>
-      <c r="AN52" s="32"/>
-      <c r="AO52" s="32"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="32"/>
-      <c r="AS52" s="32"/>
-      <c r="AT52" s="32"/>
-      <c r="AU52" s="32"/>
-      <c r="AV52" s="54"/>
-      <c r="AW52" s="54"/>
-      <c r="AX52" s="32"/>
-      <c r="AY52" s="32"/>
-      <c r="AZ52" s="32"/>
-      <c r="BA52" s="32"/>
-      <c r="BB52" s="35"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS52" s="40"/>
+      <c r="AT52" s="35"/>
+      <c r="AU52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX52" s="40"/>
+      <c r="AY52" s="24"/>
+      <c r="AZ52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB52" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="K53" s="46" t="s">
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="69"/>
+      <c r="K53" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="48"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="46" t="s">
+      <c r="P53" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="72"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="46" t="s">
+      <c r="U53" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="48"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="72"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="46" t="s">
+      <c r="Z53" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="48"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="54"/>
-      <c r="AK53" s="54"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="54"/>
-      <c r="AQ53" s="54"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32"/>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="54"/>
-      <c r="AW53" s="54"/>
-      <c r="AX53" s="32"/>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="32"/>
-      <c r="BB53" s="35"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="72"/>
+      <c r="AE53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF53" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AG53" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="AH53" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AI53" s="40"/>
+      <c r="AJ53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK53" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="AL53" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="AM53" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP53" s="27">
+        <v>0.84</v>
+      </c>
+      <c r="AQ53" s="28">
+        <v>0.81</v>
+      </c>
+      <c r="AR53" s="27">
+        <v>0.84</v>
+      </c>
+      <c r="AS53" s="40"/>
+      <c r="AT53" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="28"/>
+      <c r="AW53" s="27"/>
+      <c r="AX53" s="40"/>
+      <c r="AY53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ53" s="27"/>
+      <c r="BA53" s="28"/>
+      <c r="BB53" s="27"/>
     </row>
     <row r="54" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -36668,54 +36878,58 @@
       <c r="AC54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH54" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ54" s="54"/>
-      <c r="AK54" s="54"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN54" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP54" s="54"/>
-      <c r="AQ54" s="54"/>
-      <c r="AR54" s="24"/>
-      <c r="AS54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT54" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV54" s="54"/>
-      <c r="AW54" s="54"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ54" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB54" s="35"/>
+      <c r="AE54" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF54" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AG54" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="AH54" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK54" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AL54" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="AM54" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP54" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="AQ54" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="AR54" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="28"/>
+      <c r="AW54" s="27"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ54" s="27"/>
+      <c r="BA54" s="28"/>
+      <c r="BB54" s="27"/>
     </row>
     <row r="55" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -36794,38 +37008,58 @@
       <c r="AC55" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG55" s="27"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="54"/>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="28"/>
-      <c r="AO55" s="27"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
-      <c r="AR55" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="27"/>
-      <c r="AT55" s="28"/>
+      <c r="AE55" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF55" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="AG55" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="AH55" s="27">
+        <v>0.86</v>
+      </c>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK55" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AL55" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="AM55" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP55" s="27">
+        <v>0.82</v>
+      </c>
+      <c r="AQ55" s="28">
+        <v>0.74</v>
+      </c>
+      <c r="AR55" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="AS55" s="40"/>
+      <c r="AT55" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="AU55" s="27"/>
-      <c r="AV55" s="54"/>
-      <c r="AW55" s="54"/>
-      <c r="AX55" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY55" s="27"/>
-      <c r="AZ55" s="28"/>
-      <c r="BA55" s="27"/>
-      <c r="BB55" s="35"/>
+      <c r="AV55" s="28"/>
+      <c r="AW55" s="27"/>
+      <c r="AX55" s="40"/>
+      <c r="AY55" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ55" s="27"/>
+      <c r="BA55" s="28"/>
+      <c r="BB55" s="27"/>
     </row>
     <row r="56" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -36904,38 +37138,58 @@
       <c r="AC56" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="54"/>
-      <c r="AK56" s="54"/>
-      <c r="AL56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="28"/>
-      <c r="AO56" s="27"/>
-      <c r="AP56" s="54"/>
-      <c r="AQ56" s="54"/>
-      <c r="AR56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS56" s="27"/>
-      <c r="AT56" s="28"/>
+      <c r="AE56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF56" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="AG56" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="AH56" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="AI56" s="40"/>
+      <c r="AJ56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK56" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="AL56" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="AM56" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="AN56" s="40"/>
+      <c r="AO56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP56" s="27">
+        <v>0.82</v>
+      </c>
+      <c r="AQ56" s="28">
+        <v>0.76</v>
+      </c>
+      <c r="AR56" s="27">
+        <v>0.83</v>
+      </c>
+      <c r="AS56" s="40"/>
+      <c r="AT56" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="AU56" s="27"/>
-      <c r="AV56" s="54"/>
-      <c r="AW56" s="54"/>
-      <c r="AX56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY56" s="27"/>
-      <c r="AZ56" s="28"/>
-      <c r="BA56" s="27"/>
-      <c r="BB56" s="35"/>
+      <c r="AV56" s="28"/>
+      <c r="AW56" s="27"/>
+      <c r="AX56" s="40"/>
+      <c r="AY56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ56" s="27"/>
+      <c r="BA56" s="28"/>
+      <c r="BB56" s="27"/>
     </row>
     <row r="57" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -37014,38 +37268,58 @@
       <c r="AC57" s="10">
         <v>0.43</v>
       </c>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="27"/>
-      <c r="AJ57" s="54"/>
-      <c r="AK57" s="54"/>
-      <c r="AL57" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM57" s="27"/>
-      <c r="AN57" s="28"/>
-      <c r="AO57" s="27"/>
-      <c r="AP57" s="54"/>
-      <c r="AQ57" s="54"/>
-      <c r="AR57" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS57" s="27"/>
-      <c r="AT57" s="28"/>
+      <c r="AE57" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF57" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AG57" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="AH57" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="AI57" s="40"/>
+      <c r="AJ57" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK57" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AL57" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="AM57" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AN57" s="40"/>
+      <c r="AO57" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP57" s="27">
+        <v>0.84</v>
+      </c>
+      <c r="AQ57" s="28">
+        <v>0.79</v>
+      </c>
+      <c r="AR57" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="AS57" s="40"/>
+      <c r="AT57" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="AU57" s="27"/>
-      <c r="AV57" s="54"/>
-      <c r="AW57" s="54"/>
-      <c r="AX57" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY57" s="27"/>
-      <c r="AZ57" s="28"/>
-      <c r="BA57" s="27"/>
-      <c r="BB57" s="35"/>
+      <c r="AV57" s="28"/>
+      <c r="AW57" s="27"/>
+      <c r="AX57" s="40"/>
+      <c r="AY57" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ57" s="27"/>
+      <c r="BA57" s="28"/>
+      <c r="BB57" s="27"/>
     </row>
     <row r="58" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -37124,38 +37398,58 @@
       <c r="AC58" s="10">
         <v>0.53</v>
       </c>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="27"/>
-      <c r="AJ58" s="54"/>
-      <c r="AK58" s="54"/>
-      <c r="AL58" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="28"/>
-      <c r="AO58" s="27"/>
-      <c r="AP58" s="54"/>
-      <c r="AQ58" s="54"/>
-      <c r="AR58" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS58" s="27"/>
-      <c r="AT58" s="28"/>
+      <c r="AE58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF58" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AG58" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="AH58" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK58" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="AL58" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="AM58" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="AN58" s="40"/>
+      <c r="AO58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP58" s="27">
+        <v>0.82</v>
+      </c>
+      <c r="AQ58" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="AR58" s="27">
+        <v>0.83</v>
+      </c>
+      <c r="AS58" s="40"/>
+      <c r="AT58" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="AU58" s="27"/>
-      <c r="AV58" s="54"/>
-      <c r="AW58" s="54"/>
-      <c r="AX58" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY58" s="27"/>
-      <c r="AZ58" s="28"/>
-      <c r="BA58" s="27"/>
-      <c r="BB58" s="35"/>
+      <c r="AV58" s="28"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="40"/>
+      <c r="AY58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ58" s="27"/>
+      <c r="BA58" s="28"/>
+      <c r="BB58" s="27"/>
     </row>
     <row r="59" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -37234,38 +37528,40 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="54"/>
-      <c r="AK59" s="54"/>
-      <c r="AL59" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="28"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="54"/>
-      <c r="AQ59" s="54"/>
-      <c r="AR59" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS59" s="27"/>
-      <c r="AT59" s="28"/>
-      <c r="AU59" s="27"/>
-      <c r="AV59" s="54"/>
-      <c r="AW59" s="54"/>
-      <c r="AX59" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY59" s="27"/>
-      <c r="AZ59" s="28"/>
-      <c r="BA59" s="27"/>
-      <c r="BB59" s="35"/>
+      <c r="AE59" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="45"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK59" s="45"/>
+      <c r="AL59" s="45"/>
+      <c r="AM59" s="46"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP59" s="65"/>
+      <c r="AQ59" s="65"/>
+      <c r="AR59" s="65"/>
+      <c r="AS59" s="40"/>
+      <c r="AT59" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU59" s="45"/>
+      <c r="AV59" s="45"/>
+      <c r="AW59" s="46"/>
+      <c r="AX59" s="40"/>
+      <c r="AY59" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ59" s="45"/>
+      <c r="BA59" s="45"/>
+      <c r="BB59" s="46"/>
     </row>
     <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -37293,65 +37589,57 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="49" t="s">
+      <c r="K60" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="51"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="69"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="49" t="s">
+      <c r="P60" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="51"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="69"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="49" t="s">
+      <c r="U60" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="51"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="69"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="49" t="s">
+      <c r="Z60" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="50"/>
-      <c r="AC60" s="51"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="27"/>
-      <c r="AJ60" s="54"/>
-      <c r="AK60" s="54"/>
-      <c r="AL60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="28"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="54"/>
-      <c r="AQ60" s="54"/>
-      <c r="AR60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS60" s="27"/>
-      <c r="AT60" s="28"/>
-      <c r="AU60" s="27"/>
-      <c r="AV60" s="54"/>
-      <c r="AW60" s="54"/>
-      <c r="AX60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY60" s="27"/>
-      <c r="AZ60" s="28"/>
-      <c r="BA60" s="27"/>
-      <c r="BB60" s="35"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="69"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="48"/>
+      <c r="AG60" s="48"/>
+      <c r="AH60" s="49"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="48"/>
+      <c r="AL60" s="48"/>
+      <c r="AM60" s="49"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="65"/>
+      <c r="AP60" s="65"/>
+      <c r="AQ60" s="65"/>
+      <c r="AR60" s="65"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="84"/>
+      <c r="AU60" s="84"/>
+      <c r="AV60" s="84"/>
+      <c r="AW60" s="49"/>
+      <c r="AX60" s="40"/>
+      <c r="AY60" s="47"/>
+      <c r="AZ60" s="48"/>
+      <c r="BA60" s="48"/>
+      <c r="BB60" s="49"/>
     </row>
     <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -37422,38 +37710,30 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG61" s="27"/>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM61" s="27"/>
-      <c r="AN61" s="28"/>
-      <c r="AO61" s="27"/>
-      <c r="AP61" s="54"/>
-      <c r="AQ61" s="54"/>
-      <c r="AR61" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS61" s="27"/>
-      <c r="AT61" s="28"/>
-      <c r="AU61" s="27"/>
-      <c r="AV61" s="54"/>
-      <c r="AW61" s="54"/>
-      <c r="AX61" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY61" s="27"/>
-      <c r="AZ61" s="28"/>
-      <c r="BA61" s="27"/>
-      <c r="BB61" s="35"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="40"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="40"/>
+      <c r="AO61" s="65"/>
+      <c r="AP61" s="65"/>
+      <c r="AQ61" s="65"/>
+      <c r="AR61" s="65"/>
+      <c r="AS61" s="40"/>
+      <c r="AT61" s="51"/>
+      <c r="AU61" s="51"/>
+      <c r="AV61" s="51"/>
+      <c r="AW61" s="52"/>
+      <c r="AX61" s="40"/>
+      <c r="AY61" s="50"/>
+      <c r="AZ61" s="51"/>
+      <c r="BA61" s="51"/>
+      <c r="BB61" s="52"/>
     </row>
     <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -37532,38 +37812,60 @@
       <c r="AC62" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG62" s="32"/>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="32"/>
-      <c r="AJ62" s="54"/>
-      <c r="AK62" s="54"/>
-      <c r="AL62" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM62" s="32"/>
-      <c r="AN62" s="32"/>
-      <c r="AO62" s="32"/>
-      <c r="AP62" s="54"/>
-      <c r="AQ62" s="54"/>
-      <c r="AR62" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS62" s="32"/>
-      <c r="AT62" s="32"/>
-      <c r="AU62" s="32"/>
-      <c r="AV62" s="54"/>
-      <c r="AW62" s="54"/>
-      <c r="AX62" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY62" s="32"/>
-      <c r="AZ62" s="32"/>
-      <c r="BA62" s="32"/>
-      <c r="BB62" s="35"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH62" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM62" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="34"/>
+      <c r="AP62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR62" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS62" s="40"/>
+      <c r="AT62" s="35"/>
+      <c r="AU62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW62" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX62" s="40"/>
+      <c r="AY62" s="24"/>
+      <c r="AZ62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB62" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -37642,30 +37944,40 @@
       <c r="AC63" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="54"/>
-      <c r="AK63" s="54"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="54"/>
-      <c r="AQ63" s="54"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="54"/>
-      <c r="AW63" s="54"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="32"/>
-      <c r="BA63" s="32"/>
-      <c r="BB63" s="35"/>
+      <c r="AE63" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="28"/>
+      <c r="AH63" s="27"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK63" s="27"/>
+      <c r="AL63" s="28"/>
+      <c r="AM63" s="27"/>
+      <c r="AN63" s="40"/>
+      <c r="AO63" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP63" s="29"/>
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="40"/>
+      <c r="AT63" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU63" s="27"/>
+      <c r="AV63" s="28"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="40"/>
+      <c r="AY63" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ63" s="27"/>
+      <c r="BA63" s="28"/>
+      <c r="BB63" s="27"/>
     </row>
     <row r="64" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -37744,30 +38056,40 @@
       <c r="AC64" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="54"/>
-      <c r="AK64" s="54"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
-      <c r="AO64" s="32"/>
-      <c r="AP64" s="54"/>
-      <c r="AQ64" s="54"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="32"/>
-      <c r="AU64" s="32"/>
-      <c r="AV64" s="54"/>
-      <c r="AW64" s="54"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="32"/>
-      <c r="BB64" s="35"/>
+      <c r="AE64" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF64" s="27"/>
+      <c r="AG64" s="28"/>
+      <c r="AH64" s="27"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK64" s="27"/>
+      <c r="AL64" s="28"/>
+      <c r="AM64" s="27"/>
+      <c r="AN64" s="40"/>
+      <c r="AO64" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="30"/>
+      <c r="AR64" s="29"/>
+      <c r="AS64" s="40"/>
+      <c r="AT64" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU64" s="27"/>
+      <c r="AV64" s="28"/>
+      <c r="AW64" s="27"/>
+      <c r="AX64" s="40"/>
+      <c r="AY64" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ64" s="27"/>
+      <c r="BA64" s="28"/>
+      <c r="BB64" s="27"/>
     </row>
     <row r="65" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
@@ -37830,54 +38152,40 @@
       <c r="AC65" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ65" s="54"/>
-      <c r="AK65" s="54"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP65" s="54"/>
-      <c r="AQ65" s="54"/>
-      <c r="AR65" s="24"/>
-      <c r="AS65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV65" s="54"/>
-      <c r="AW65" s="54"/>
-      <c r="AX65" s="24"/>
-      <c r="AY65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB65" s="35"/>
+      <c r="AE65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="28"/>
+      <c r="AH65" s="27"/>
+      <c r="AI65" s="40"/>
+      <c r="AJ65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK65" s="27"/>
+      <c r="AL65" s="28"/>
+      <c r="AM65" s="27"/>
+      <c r="AN65" s="40"/>
+      <c r="AO65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP65" s="27"/>
+      <c r="AQ65" s="28"/>
+      <c r="AR65" s="27"/>
+      <c r="AS65" s="40"/>
+      <c r="AT65" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU65" s="27"/>
+      <c r="AV65" s="28"/>
+      <c r="AW65" s="27"/>
+      <c r="AX65" s="40"/>
+      <c r="AY65" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ65" s="27"/>
+      <c r="BA65" s="28"/>
+      <c r="BB65" s="27"/>
     </row>
     <row r="66" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
@@ -37940,38 +38248,40 @@
       <c r="AC66" s="9">
         <v>0.41</v>
       </c>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG66" s="27"/>
-      <c r="AH66" s="28"/>
-      <c r="AI66" s="27"/>
-      <c r="AJ66" s="54"/>
-      <c r="AK66" s="54"/>
-      <c r="AL66" s="25" t="s">
-        <v>58</v>
-      </c>
+      <c r="AE66" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="27"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK66" s="27"/>
+      <c r="AL66" s="28"/>
       <c r="AM66" s="27"/>
-      <c r="AN66" s="28"/>
-      <c r="AO66" s="27"/>
-      <c r="AP66" s="54"/>
-      <c r="AQ66" s="54"/>
-      <c r="AR66" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS66" s="27"/>
-      <c r="AT66" s="28"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP66" s="27"/>
+      <c r="AQ66" s="28"/>
+      <c r="AR66" s="27"/>
+      <c r="AS66" s="40"/>
+      <c r="AT66" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="AU66" s="27"/>
-      <c r="AV66" s="54"/>
-      <c r="AW66" s="54"/>
-      <c r="AX66" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY66" s="27"/>
-      <c r="AZ66" s="28"/>
-      <c r="BA66" s="27"/>
-      <c r="BB66" s="35"/>
+      <c r="AV66" s="28"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="40"/>
+      <c r="AY66" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ66" s="27"/>
+      <c r="BA66" s="28"/>
+      <c r="BB66" s="27"/>
     </row>
     <row r="67" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -38002,38 +38312,40 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="14"/>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG67" s="27"/>
-      <c r="AH67" s="28"/>
-      <c r="AI67" s="27"/>
-      <c r="AJ67" s="54"/>
-      <c r="AK67" s="54"/>
-      <c r="AL67" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF67" s="27"/>
+      <c r="AG67" s="28"/>
+      <c r="AH67" s="27"/>
+      <c r="AI67" s="40"/>
+      <c r="AJ67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK67" s="27"/>
+      <c r="AL67" s="28"/>
       <c r="AM67" s="27"/>
-      <c r="AN67" s="28"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="54"/>
-      <c r="AQ67" s="54"/>
-      <c r="AR67" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS67" s="27"/>
-      <c r="AT67" s="28"/>
+      <c r="AN67" s="40"/>
+      <c r="AO67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP67" s="27"/>
+      <c r="AQ67" s="28"/>
+      <c r="AR67" s="27"/>
+      <c r="AS67" s="40"/>
+      <c r="AT67" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="AU67" s="27"/>
-      <c r="AV67" s="54"/>
-      <c r="AW67" s="54"/>
-      <c r="AX67" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY67" s="27"/>
-      <c r="AZ67" s="28"/>
-      <c r="BA67" s="27"/>
-      <c r="BB67" s="35"/>
+      <c r="AV67" s="28"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="40"/>
+      <c r="AY67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ67" s="27"/>
+      <c r="BA67" s="28"/>
+      <c r="BB67" s="27"/>
     </row>
     <row r="68" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
@@ -38064,460 +38376,458 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="18"/>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG68" s="27"/>
-      <c r="AH68" s="28"/>
-      <c r="AI68" s="27"/>
-      <c r="AJ68" s="54"/>
-      <c r="AK68" s="54"/>
-      <c r="AL68" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="AE68" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF68" s="27"/>
+      <c r="AG68" s="28"/>
+      <c r="AH68" s="27"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK68" s="27"/>
+      <c r="AL68" s="28"/>
       <c r="AM68" s="27"/>
-      <c r="AN68" s="28"/>
-      <c r="AO68" s="27"/>
-      <c r="AP68" s="54"/>
-      <c r="AQ68" s="54"/>
-      <c r="AR68" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS68" s="27"/>
-      <c r="AT68" s="28"/>
+      <c r="AN68" s="40"/>
+      <c r="AO68" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP68" s="27"/>
+      <c r="AQ68" s="28"/>
+      <c r="AR68" s="27"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="AU68" s="27"/>
-      <c r="AV68" s="54"/>
-      <c r="AW68" s="54"/>
-      <c r="AX68" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY68" s="27"/>
-      <c r="AZ68" s="28"/>
-      <c r="BA68" s="27"/>
-      <c r="BB68" s="35"/>
+      <c r="AV68" s="28"/>
+      <c r="AW68" s="27"/>
+      <c r="AX68" s="40"/>
+      <c r="AY68" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ68" s="27"/>
+      <c r="BA68" s="28"/>
+      <c r="BB68" s="27"/>
     </row>
     <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG69" s="27"/>
-      <c r="AH69" s="28"/>
-      <c r="AI69" s="27"/>
-      <c r="AJ69" s="54"/>
-      <c r="AK69" s="54"/>
-      <c r="AL69" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM69" s="27"/>
-      <c r="AN69" s="28"/>
-      <c r="AO69" s="27"/>
-      <c r="AP69" s="54"/>
-      <c r="AQ69" s="54"/>
-      <c r="AR69" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS69" s="27"/>
-      <c r="AT69" s="28"/>
-      <c r="AU69" s="27"/>
-      <c r="AV69" s="54"/>
-      <c r="AW69" s="54"/>
-      <c r="AX69" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY69" s="27"/>
-      <c r="AZ69" s="28"/>
-      <c r="BA69" s="27"/>
-      <c r="BB69" s="35"/>
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="40"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="38"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="40"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="40"/>
+      <c r="AT69" s="38"/>
+      <c r="AU69" s="38"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="39"/>
+      <c r="AX69" s="40"/>
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="39"/>
     </row>
     <row r="70" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG70" s="27"/>
-      <c r="AH70" s="28"/>
-      <c r="AI70" s="27"/>
-      <c r="AJ70" s="54"/>
-      <c r="AK70" s="54"/>
-      <c r="AL70" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM70" s="27"/>
-      <c r="AN70" s="28"/>
-      <c r="AO70" s="27"/>
-      <c r="AP70" s="54"/>
-      <c r="AQ70" s="54"/>
-      <c r="AR70" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS70" s="27"/>
-      <c r="AT70" s="28"/>
-      <c r="AU70" s="27"/>
-      <c r="AV70" s="54"/>
-      <c r="AW70" s="54"/>
-      <c r="AX70" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY70" s="27"/>
-      <c r="AZ70" s="28"/>
-      <c r="BA70" s="27"/>
-      <c r="BB70" s="35"/>
+      <c r="AE70" s="40"/>
+      <c r="AF70" s="40"/>
+      <c r="AG70" s="40"/>
+      <c r="AH70" s="41"/>
+      <c r="AI70" s="40"/>
+      <c r="AJ70" s="40"/>
+      <c r="AK70" s="40"/>
+      <c r="AL70" s="40"/>
+      <c r="AM70" s="41"/>
+      <c r="AN70" s="40"/>
+      <c r="AO70" s="40"/>
+      <c r="AP70" s="40"/>
+      <c r="AQ70" s="40"/>
+      <c r="AR70" s="40"/>
+      <c r="AS70" s="40"/>
+      <c r="AT70" s="40"/>
+      <c r="AU70" s="40"/>
+      <c r="AV70" s="40"/>
+      <c r="AW70" s="41"/>
+      <c r="AX70" s="40"/>
+      <c r="AY70" s="40"/>
+      <c r="AZ70" s="40"/>
+      <c r="BA70" s="40"/>
+      <c r="BB70" s="41"/>
     </row>
     <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE71" s="33"/>
-      <c r="AF71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG71" s="27"/>
-      <c r="AH71" s="28"/>
-      <c r="AI71" s="27"/>
-      <c r="AJ71" s="54"/>
-      <c r="AK71" s="54"/>
-      <c r="AL71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM71" s="27"/>
-      <c r="AN71" s="28"/>
-      <c r="AO71" s="27"/>
-      <c r="AP71" s="54"/>
-      <c r="AQ71" s="54"/>
-      <c r="AR71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS71" s="27"/>
-      <c r="AT71" s="28"/>
-      <c r="AU71" s="27"/>
-      <c r="AV71" s="54"/>
-      <c r="AW71" s="54"/>
-      <c r="AX71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY71" s="27"/>
-      <c r="AZ71" s="28"/>
-      <c r="BA71" s="27"/>
-      <c r="BB71" s="35"/>
+      <c r="AE71" s="40"/>
+      <c r="AF71" s="40"/>
+      <c r="AG71" s="40"/>
+      <c r="AH71" s="41"/>
+      <c r="AI71" s="40"/>
+      <c r="AJ71" s="40"/>
+      <c r="AK71" s="40"/>
+      <c r="AL71" s="40"/>
+      <c r="AM71" s="41"/>
+      <c r="AN71" s="40"/>
+      <c r="AO71" s="40"/>
+      <c r="AP71" s="40"/>
+      <c r="AQ71" s="40"/>
+      <c r="AR71" s="40"/>
+      <c r="AS71" s="40"/>
+      <c r="AT71" s="40"/>
+      <c r="AU71" s="40"/>
+      <c r="AV71" s="40"/>
+      <c r="AW71" s="41"/>
+      <c r="AX71" s="40"/>
+      <c r="AY71" s="40"/>
+      <c r="AZ71" s="40"/>
+      <c r="BA71" s="40"/>
+      <c r="BB71" s="41"/>
     </row>
     <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG72" s="27"/>
-      <c r="AH72" s="28"/>
-      <c r="AI72" s="27"/>
-      <c r="AJ72" s="54"/>
-      <c r="AK72" s="54"/>
-      <c r="AL72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM72" s="27"/>
-      <c r="AN72" s="28"/>
-      <c r="AO72" s="27"/>
-      <c r="AP72" s="54"/>
-      <c r="AQ72" s="54"/>
-      <c r="AR72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS72" s="27"/>
-      <c r="AT72" s="28"/>
-      <c r="AU72" s="27"/>
-      <c r="AV72" s="54"/>
-      <c r="AW72" s="54"/>
-      <c r="AX72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY72" s="27"/>
-      <c r="AZ72" s="28"/>
-      <c r="BA72" s="27"/>
-      <c r="BB72" s="35"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="43"/>
+      <c r="AI72" s="40"/>
+      <c r="AJ72" s="42"/>
+      <c r="AK72" s="42"/>
+      <c r="AL72" s="42"/>
+      <c r="AM72" s="43"/>
+      <c r="AN72" s="40"/>
+      <c r="AO72" s="40"/>
+      <c r="AP72" s="40"/>
+      <c r="AQ72" s="40"/>
+      <c r="AR72" s="40"/>
+      <c r="AS72" s="40"/>
+      <c r="AT72" s="42"/>
+      <c r="AU72" s="42"/>
+      <c r="AV72" s="42"/>
+      <c r="AW72" s="43"/>
+      <c r="AX72" s="40"/>
+      <c r="AY72" s="42"/>
+      <c r="AZ72" s="42"/>
+      <c r="BA72" s="42"/>
+      <c r="BB72" s="43"/>
     </row>
     <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE73" s="66"/>
-      <c r="AF73" s="59"/>
-      <c r="AG73" s="59"/>
-      <c r="AH73" s="59"/>
-      <c r="AI73" s="59"/>
-      <c r="AJ73" s="59"/>
-      <c r="AK73" s="59"/>
-      <c r="AL73" s="59"/>
-      <c r="AM73" s="59"/>
-      <c r="AN73" s="59"/>
-      <c r="AO73" s="59"/>
-      <c r="AP73" s="59"/>
-      <c r="AQ73" s="59"/>
-      <c r="AR73" s="59"/>
-      <c r="AS73" s="59"/>
-      <c r="AT73" s="59"/>
-      <c r="AU73" s="59"/>
-      <c r="AV73" s="59"/>
-      <c r="AW73" s="59"/>
-      <c r="AX73" s="59"/>
-      <c r="AY73" s="59"/>
-      <c r="AZ73" s="59"/>
-      <c r="BA73" s="59"/>
-      <c r="BB73" s="67"/>
+      <c r="AE73" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF73" s="45"/>
+      <c r="AG73" s="45"/>
+      <c r="AH73" s="46"/>
+      <c r="AI73" s="40"/>
+      <c r="AJ73" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK73" s="45"/>
+      <c r="AL73" s="45"/>
+      <c r="AM73" s="46"/>
+      <c r="AN73" s="40"/>
+      <c r="AO73" s="40"/>
+      <c r="AP73" s="40"/>
+      <c r="AQ73" s="40"/>
+      <c r="AR73" s="40"/>
+      <c r="AS73" s="40"/>
+      <c r="AT73" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU73" s="45"/>
+      <c r="AV73" s="45"/>
+      <c r="AW73" s="46"/>
+      <c r="AX73" s="40"/>
+      <c r="AY73" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ73" s="45"/>
+      <c r="BA73" s="45"/>
+      <c r="BB73" s="46"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE74" s="68"/>
-      <c r="AF74" s="60"/>
-      <c r="AG74" s="60"/>
-      <c r="AH74" s="60"/>
-      <c r="AI74" s="60"/>
-      <c r="AJ74" s="60"/>
-      <c r="AK74" s="60"/>
-      <c r="AL74" s="60"/>
-      <c r="AM74" s="60"/>
-      <c r="AN74" s="60"/>
-      <c r="AO74" s="60"/>
-      <c r="AP74" s="60"/>
-      <c r="AQ74" s="60"/>
-      <c r="AR74" s="60"/>
-      <c r="AS74" s="60"/>
-      <c r="AT74" s="60"/>
-      <c r="AU74" s="60"/>
-      <c r="AV74" s="60"/>
-      <c r="AW74" s="60"/>
-      <c r="AX74" s="60"/>
-      <c r="AY74" s="60"/>
-      <c r="AZ74" s="60"/>
-      <c r="BA74" s="60"/>
-      <c r="BB74" s="69"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="48"/>
+      <c r="AG74" s="48"/>
+      <c r="AH74" s="49"/>
+      <c r="AI74" s="40"/>
+      <c r="AJ74" s="47"/>
+      <c r="AK74" s="48"/>
+      <c r="AL74" s="48"/>
+      <c r="AM74" s="49"/>
+      <c r="AN74" s="40"/>
+      <c r="AO74" s="40"/>
+      <c r="AP74" s="40"/>
+      <c r="AQ74" s="40"/>
+      <c r="AR74" s="40"/>
+      <c r="AS74" s="40"/>
+      <c r="AT74" s="48"/>
+      <c r="AU74" s="48"/>
+      <c r="AV74" s="48"/>
+      <c r="AW74" s="49"/>
+      <c r="AX74" s="40"/>
+      <c r="AY74" s="47"/>
+      <c r="AZ74" s="48"/>
+      <c r="BA74" s="48"/>
+      <c r="BB74" s="49"/>
     </row>
     <row r="75" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE75" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF75" s="36"/>
-      <c r="AG75" s="36"/>
-      <c r="AH75" s="36"/>
-      <c r="AI75" s="36"/>
-      <c r="AJ75" s="36"/>
-      <c r="AK75" s="36"/>
-      <c r="AL75" s="36"/>
-      <c r="AM75" s="36"/>
-      <c r="AN75" s="36"/>
-      <c r="AO75" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP75" s="58"/>
-      <c r="AQ75" s="58"/>
-      <c r="AR75" s="58"/>
-      <c r="AS75" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT75" s="36"/>
-      <c r="AU75" s="36"/>
-      <c r="AV75" s="36"/>
-      <c r="AW75" s="36"/>
-      <c r="AX75" s="36"/>
-      <c r="AY75" s="36"/>
-      <c r="AZ75" s="36"/>
-      <c r="BA75" s="36"/>
-      <c r="BB75" s="36"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="40"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="51"/>
+      <c r="AM75" s="52"/>
+      <c r="AN75" s="40"/>
+      <c r="AO75" s="40"/>
+      <c r="AP75" s="40"/>
+      <c r="AQ75" s="40"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="51"/>
+      <c r="AV75" s="51"/>
+      <c r="AW75" s="52"/>
+      <c r="AX75" s="40"/>
+      <c r="AY75" s="50"/>
+      <c r="AZ75" s="51"/>
+      <c r="BA75" s="51"/>
+      <c r="BB75" s="52"/>
     </row>
     <row r="76" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE76" s="61"/>
-      <c r="AF76" s="61"/>
-      <c r="AG76" s="61"/>
-      <c r="AH76" s="61"/>
-      <c r="AI76" s="61"/>
-      <c r="AJ76" s="61"/>
-      <c r="AK76" s="61"/>
-      <c r="AL76" s="61"/>
-      <c r="AM76" s="61"/>
-      <c r="AN76" s="61"/>
-      <c r="AO76" s="65"/>
-      <c r="AP76" s="65"/>
-      <c r="AQ76" s="65"/>
-      <c r="AR76" s="65"/>
-      <c r="AS76" s="61"/>
-      <c r="AT76" s="61"/>
-      <c r="AU76" s="61"/>
-      <c r="AV76" s="61"/>
-      <c r="AW76" s="61"/>
-      <c r="AX76" s="61"/>
-      <c r="AY76" s="61"/>
-      <c r="AZ76" s="61"/>
-      <c r="BA76" s="61"/>
-      <c r="BB76" s="61"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI76" s="40"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN76" s="40"/>
+      <c r="AO76" s="40"/>
+      <c r="AP76" s="40"/>
+      <c r="AQ76" s="40"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="35"/>
+      <c r="AU76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX76" s="40"/>
+      <c r="AY76" s="24"/>
+      <c r="AZ76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB76" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="77" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE77" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF77" s="32"/>
-      <c r="AG77" s="32"/>
-      <c r="AH77" s="32"/>
-      <c r="AI77" s="64"/>
-      <c r="AJ77" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK77" s="32"/>
-      <c r="AL77" s="32"/>
-      <c r="AM77" s="32"/>
-      <c r="AN77" s="54"/>
-      <c r="AO77" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP77" s="32"/>
-      <c r="AQ77" s="32"/>
-      <c r="AR77" s="32"/>
-      <c r="AS77" s="64"/>
-      <c r="AT77" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU77" s="32"/>
-      <c r="AV77" s="32"/>
-      <c r="AW77" s="32"/>
-      <c r="AX77" s="64"/>
-      <c r="AY77" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ77" s="32"/>
-      <c r="BA77" s="32"/>
-      <c r="BB77" s="32"/>
+      <c r="AE77" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF77" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AG77" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="AH77" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="AI77" s="40"/>
+      <c r="AJ77" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK77" s="27"/>
+      <c r="AL77" s="28"/>
+      <c r="AM77" s="27"/>
+      <c r="AN77" s="40"/>
+      <c r="AO77" s="40"/>
+      <c r="AP77" s="40"/>
+      <c r="AQ77" s="40"/>
+      <c r="AR77" s="40"/>
+      <c r="AS77" s="40"/>
+      <c r="AT77" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU77" s="27"/>
+      <c r="AV77" s="28"/>
+      <c r="AW77" s="27"/>
+      <c r="AX77" s="40"/>
+      <c r="AY77" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ77" s="27"/>
+      <c r="BA77" s="28"/>
+      <c r="BB77" s="27"/>
     </row>
     <row r="78" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
-      <c r="AG78" s="32"/>
-      <c r="AH78" s="32"/>
-      <c r="AI78" s="64"/>
-      <c r="AJ78" s="32"/>
-      <c r="AK78" s="32"/>
-      <c r="AL78" s="32"/>
-      <c r="AM78" s="32"/>
-      <c r="AN78" s="54"/>
-      <c r="AO78" s="32"/>
-      <c r="AP78" s="32"/>
-      <c r="AQ78" s="32"/>
-      <c r="AR78" s="32"/>
-      <c r="AS78" s="64"/>
-      <c r="AT78" s="32"/>
-      <c r="AU78" s="32"/>
-      <c r="AV78" s="32"/>
-      <c r="AW78" s="32"/>
-      <c r="AX78" s="64"/>
-      <c r="AY78" s="32"/>
-      <c r="AZ78" s="32"/>
-      <c r="BA78" s="32"/>
-      <c r="BB78" s="32"/>
+      <c r="AE78" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF78" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="AG78" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="AH78" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="AI78" s="40"/>
+      <c r="AJ78" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK78" s="27"/>
+      <c r="AL78" s="28"/>
+      <c r="AM78" s="27"/>
+      <c r="AN78" s="40"/>
+      <c r="AO78" s="40"/>
+      <c r="AP78" s="40"/>
+      <c r="AQ78" s="40"/>
+      <c r="AR78" s="40"/>
+      <c r="AS78" s="40"/>
+      <c r="AT78" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU78" s="27"/>
+      <c r="AV78" s="28"/>
+      <c r="AW78" s="27"/>
+      <c r="AX78" s="40"/>
+      <c r="AY78" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ78" s="27"/>
+      <c r="BA78" s="28"/>
+      <c r="BB78" s="27"/>
     </row>
     <row r="79" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
-      <c r="AG79" s="32"/>
-      <c r="AH79" s="32"/>
-      <c r="AI79" s="64"/>
-      <c r="AJ79" s="32"/>
-      <c r="AK79" s="32"/>
-      <c r="AL79" s="32"/>
-      <c r="AM79" s="32"/>
-      <c r="AN79" s="54"/>
-      <c r="AO79" s="32"/>
-      <c r="AP79" s="32"/>
-      <c r="AQ79" s="32"/>
-      <c r="AR79" s="32"/>
-      <c r="AS79" s="64"/>
-      <c r="AT79" s="32"/>
-      <c r="AU79" s="32"/>
-      <c r="AV79" s="32"/>
-      <c r="AW79" s="32"/>
-      <c r="AX79" s="64"/>
-      <c r="AY79" s="32"/>
-      <c r="AZ79" s="32"/>
-      <c r="BA79" s="32"/>
-      <c r="BB79" s="32"/>
+      <c r="AE79" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF79" s="27"/>
+      <c r="AG79" s="28"/>
+      <c r="AH79" s="27"/>
+      <c r="AI79" s="40"/>
+      <c r="AJ79" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK79" s="27"/>
+      <c r="AL79" s="28"/>
+      <c r="AM79" s="27"/>
+      <c r="AN79" s="40"/>
+      <c r="AO79" s="40"/>
+      <c r="AP79" s="40"/>
+      <c r="AQ79" s="40"/>
+      <c r="AR79" s="40"/>
+      <c r="AS79" s="40"/>
+      <c r="AT79" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU79" s="27"/>
+      <c r="AV79" s="28"/>
+      <c r="AW79" s="27"/>
+      <c r="AX79" s="40"/>
+      <c r="AY79" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ79" s="27"/>
+      <c r="BA79" s="28"/>
+      <c r="BB79" s="27"/>
     </row>
     <row r="80" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH80" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI80" s="64"/>
-      <c r="AJ80" s="24"/>
-      <c r="AK80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM80" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN80" s="54"/>
-      <c r="AO80" s="24"/>
-      <c r="AP80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR80" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS80" s="64"/>
-      <c r="AT80" s="24"/>
-      <c r="AU80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW80" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX80" s="64"/>
-      <c r="AY80" s="24"/>
-      <c r="AZ80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB80" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE80" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF80" s="27"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="27"/>
+      <c r="AI80" s="40"/>
+      <c r="AJ80" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK80" s="27"/>
+      <c r="AL80" s="28"/>
+      <c r="AM80" s="27"/>
+      <c r="AN80" s="40"/>
+      <c r="AO80" s="40"/>
+      <c r="AP80" s="40"/>
+      <c r="AQ80" s="40"/>
+      <c r="AR80" s="40"/>
+      <c r="AS80" s="40"/>
+      <c r="AT80" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU80" s="27"/>
+      <c r="AV80" s="28"/>
+      <c r="AW80" s="27"/>
+      <c r="AX80" s="40"/>
+      <c r="AY80" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ80" s="27"/>
+      <c r="BA80" s="28"/>
+      <c r="BB80" s="27"/>
     </row>
     <row r="81" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE81" s="25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF81" s="27"/>
       <c r="AG81" s="28"/>
       <c r="AH81" s="27"/>
-      <c r="AI81" s="64"/>
+      <c r="AI81" s="40"/>
       <c r="AJ81" s="25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AK81" s="27"/>
       <c r="AL81" s="28"/>
       <c r="AM81" s="27"/>
-      <c r="AN81" s="54"/>
-      <c r="AO81" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP81" s="27"/>
-      <c r="AQ81" s="28"/>
-      <c r="AR81" s="27"/>
-      <c r="AS81" s="64"/>
-      <c r="AT81" s="25" t="s">
-        <v>58</v>
+      <c r="AN81" s="40"/>
+      <c r="AO81" s="40"/>
+      <c r="AP81" s="40"/>
+      <c r="AQ81" s="40"/>
+      <c r="AR81" s="40"/>
+      <c r="AS81" s="40"/>
+      <c r="AT81" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="AU81" s="27"/>
       <c r="AV81" s="28"/>
       <c r="AW81" s="27"/>
-      <c r="AX81" s="64"/>
+      <c r="AX81" s="40"/>
       <c r="AY81" s="25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AZ81" s="27"/>
       <c r="BA81" s="28"/>
@@ -38525,2291 +38835,484 @@
     </row>
     <row r="82" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE82" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AF82" s="27"/>
       <c r="AG82" s="28"/>
       <c r="AH82" s="27"/>
-      <c r="AI82" s="64"/>
+      <c r="AI82" s="40"/>
       <c r="AJ82" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AK82" s="27"/>
       <c r="AL82" s="28"/>
       <c r="AM82" s="27"/>
-      <c r="AN82" s="54"/>
-      <c r="AO82" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP82" s="27"/>
-      <c r="AQ82" s="28"/>
-      <c r="AR82" s="27"/>
-      <c r="AS82" s="64"/>
-      <c r="AT82" s="25" t="s">
-        <v>59</v>
+      <c r="AN82" s="40"/>
+      <c r="AO82" s="40"/>
+      <c r="AP82" s="40"/>
+      <c r="AQ82" s="40"/>
+      <c r="AR82" s="40"/>
+      <c r="AS82" s="40"/>
+      <c r="AT82" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="AU82" s="27"/>
       <c r="AV82" s="28"/>
       <c r="AW82" s="27"/>
-      <c r="AX82" s="64"/>
+      <c r="AX82" s="40"/>
       <c r="AY82" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AZ82" s="27"/>
       <c r="BA82" s="28"/>
       <c r="BB82" s="27"/>
     </row>
     <row r="83" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE83" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF83" s="27"/>
-      <c r="AG83" s="28"/>
-      <c r="AH83" s="27"/>
-      <c r="AI83" s="64"/>
-      <c r="AJ83" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK83" s="27"/>
-      <c r="AL83" s="28"/>
-      <c r="AM83" s="27"/>
-      <c r="AN83" s="54"/>
-      <c r="AO83" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP83" s="27"/>
-      <c r="AQ83" s="28"/>
-      <c r="AR83" s="27"/>
-      <c r="AS83" s="64"/>
-      <c r="AT83" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU83" s="27"/>
-      <c r="AV83" s="28"/>
-      <c r="AW83" s="27"/>
-      <c r="AX83" s="64"/>
-      <c r="AY83" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ83" s="27"/>
-      <c r="BA83" s="28"/>
-      <c r="BB83" s="27"/>
+      <c r="AE83" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF83" s="45"/>
+      <c r="AG83" s="45"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="40"/>
+      <c r="AJ83" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK83" s="45"/>
+      <c r="AL83" s="45"/>
+      <c r="AM83" s="46"/>
+      <c r="AN83" s="40"/>
+      <c r="AO83" s="40"/>
+      <c r="AP83" s="40"/>
+      <c r="AQ83" s="40"/>
+      <c r="AR83" s="40"/>
+      <c r="AS83" s="40"/>
+      <c r="AT83" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU83" s="45"/>
+      <c r="AV83" s="45"/>
+      <c r="AW83" s="46"/>
+      <c r="AX83" s="40"/>
+      <c r="AY83" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ83" s="45"/>
+      <c r="BA83" s="45"/>
+      <c r="BB83" s="46"/>
     </row>
     <row r="84" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE84" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="64"/>
-      <c r="AJ84" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="28"/>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="54"/>
-      <c r="AO84" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP84" s="27"/>
-      <c r="AQ84" s="28"/>
-      <c r="AR84" s="27"/>
-      <c r="AS84" s="64"/>
-      <c r="AT84" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU84" s="27"/>
-      <c r="AV84" s="28"/>
-      <c r="AW84" s="27"/>
-      <c r="AX84" s="64"/>
-      <c r="AY84" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ84" s="27"/>
-      <c r="BA84" s="28"/>
-      <c r="BB84" s="27"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="48"/>
+      <c r="AG84" s="48"/>
+      <c r="AH84" s="49"/>
+      <c r="AI84" s="40"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="48"/>
+      <c r="AL84" s="48"/>
+      <c r="AM84" s="49"/>
+      <c r="AN84" s="40"/>
+      <c r="AO84" s="40"/>
+      <c r="AP84" s="40"/>
+      <c r="AQ84" s="40"/>
+      <c r="AR84" s="40"/>
+      <c r="AS84" s="40"/>
+      <c r="AT84" s="48"/>
+      <c r="AU84" s="48"/>
+      <c r="AV84" s="48"/>
+      <c r="AW84" s="49"/>
+      <c r="AX84" s="40"/>
+      <c r="AY84" s="47"/>
+      <c r="AZ84" s="48"/>
+      <c r="BA84" s="48"/>
+      <c r="BB84" s="49"/>
     </row>
     <row r="85" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE85" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF85" s="27"/>
-      <c r="AG85" s="28"/>
-      <c r="AH85" s="27"/>
-      <c r="AI85" s="64"/>
-      <c r="AJ85" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK85" s="27"/>
-      <c r="AL85" s="28"/>
-      <c r="AM85" s="27"/>
-      <c r="AN85" s="54"/>
-      <c r="AO85" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP85" s="27"/>
-      <c r="AQ85" s="28"/>
-      <c r="AR85" s="27"/>
-      <c r="AS85" s="64"/>
-      <c r="AT85" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU85" s="27"/>
-      <c r="AV85" s="28"/>
-      <c r="AW85" s="27"/>
-      <c r="AX85" s="64"/>
-      <c r="AY85" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ85" s="27"/>
-      <c r="BA85" s="28"/>
-      <c r="BB85" s="27"/>
+      <c r="AE85" s="50"/>
+      <c r="AF85" s="51"/>
+      <c r="AG85" s="51"/>
+      <c r="AH85" s="52"/>
+      <c r="AI85" s="40"/>
+      <c r="AJ85" s="50"/>
+      <c r="AK85" s="51"/>
+      <c r="AL85" s="51"/>
+      <c r="AM85" s="52"/>
+      <c r="AN85" s="40"/>
+      <c r="AO85" s="40"/>
+      <c r="AP85" s="40"/>
+      <c r="AQ85" s="40"/>
+      <c r="AR85" s="40"/>
+      <c r="AS85" s="40"/>
+      <c r="AT85" s="51"/>
+      <c r="AU85" s="51"/>
+      <c r="AV85" s="51"/>
+      <c r="AW85" s="52"/>
+      <c r="AX85" s="40"/>
+      <c r="AY85" s="50"/>
+      <c r="AZ85" s="51"/>
+      <c r="BA85" s="51"/>
+      <c r="BB85" s="52"/>
     </row>
     <row r="86" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE86" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="28"/>
-      <c r="AH86" s="27"/>
-      <c r="AI86" s="64"/>
-      <c r="AJ86" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK86" s="27"/>
-      <c r="AL86" s="28"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="54"/>
-      <c r="AO86" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP86" s="27"/>
-      <c r="AQ86" s="28"/>
-      <c r="AR86" s="27"/>
-      <c r="AS86" s="64"/>
-      <c r="AT86" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU86" s="27"/>
-      <c r="AV86" s="28"/>
-      <c r="AW86" s="27"/>
-      <c r="AX86" s="64"/>
-      <c r="AY86" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ86" s="27"/>
-      <c r="BA86" s="28"/>
-      <c r="BB86" s="27"/>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG86" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH86" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI86" s="40"/>
+      <c r="AJ86" s="24"/>
+      <c r="AK86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL86" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM86" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN86" s="40"/>
+      <c r="AO86" s="40"/>
+      <c r="AP86" s="40"/>
+      <c r="AQ86" s="40"/>
+      <c r="AR86" s="40"/>
+      <c r="AS86" s="40"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV86" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW86" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX86" s="40"/>
+      <c r="AY86" s="24"/>
+      <c r="AZ86" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA86" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB86" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE87" s="25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AF87" s="27"/>
       <c r="AG87" s="28"/>
       <c r="AH87" s="27"/>
-      <c r="AI87" s="64"/>
+      <c r="AI87" s="40"/>
       <c r="AJ87" s="25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK87" s="27"/>
       <c r="AL87" s="28"/>
       <c r="AM87" s="27"/>
-      <c r="AN87" s="54"/>
-      <c r="AO87" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP87" s="27"/>
-      <c r="AQ87" s="28"/>
-      <c r="AR87" s="27"/>
-      <c r="AS87" s="64"/>
-      <c r="AT87" s="25" t="s">
-        <v>69</v>
+      <c r="AN87" s="40"/>
+      <c r="AO87" s="40"/>
+      <c r="AP87" s="40"/>
+      <c r="AQ87" s="40"/>
+      <c r="AR87" s="40"/>
+      <c r="AS87" s="40"/>
+      <c r="AT87" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="AU87" s="27"/>
       <c r="AV87" s="28"/>
       <c r="AW87" s="27"/>
-      <c r="AX87" s="64"/>
+      <c r="AX87" s="40"/>
       <c r="AY87" s="25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AZ87" s="27"/>
       <c r="BA87" s="28"/>
       <c r="BB87" s="27"/>
     </row>
     <row r="88" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE88" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="32"/>
-      <c r="AH88" s="32"/>
-      <c r="AI88" s="64"/>
-      <c r="AJ88" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK88" s="32"/>
-      <c r="AL88" s="32"/>
-      <c r="AM88" s="32"/>
-      <c r="AN88" s="54"/>
-      <c r="AO88" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP88" s="32"/>
-      <c r="AQ88" s="32"/>
-      <c r="AR88" s="32"/>
-      <c r="AS88" s="64"/>
-      <c r="AT88" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU88" s="32"/>
-      <c r="AV88" s="32"/>
-      <c r="AW88" s="32"/>
-      <c r="AX88" s="64"/>
-      <c r="AY88" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ88" s="32"/>
-      <c r="BA88" s="32"/>
-      <c r="BB88" s="32"/>
+      <c r="AE88" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="27"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="28"/>
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="40"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="40"/>
+      <c r="AQ88" s="40"/>
+      <c r="AR88" s="40"/>
+      <c r="AS88" s="40"/>
+      <c r="AT88" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU88" s="27"/>
+      <c r="AV88" s="28"/>
+      <c r="AW88" s="27"/>
+      <c r="AX88" s="40"/>
+      <c r="AY88" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ88" s="27"/>
+      <c r="BA88" s="28"/>
+      <c r="BB88" s="27"/>
     </row>
     <row r="89" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
-      <c r="AG89" s="32"/>
-      <c r="AH89" s="32"/>
-      <c r="AI89" s="64"/>
-      <c r="AJ89" s="32"/>
-      <c r="AK89" s="32"/>
-      <c r="AL89" s="32"/>
-      <c r="AM89" s="32"/>
-      <c r="AN89" s="54"/>
-      <c r="AO89" s="32"/>
-      <c r="AP89" s="32"/>
-      <c r="AQ89" s="32"/>
-      <c r="AR89" s="32"/>
-      <c r="AS89" s="64"/>
-      <c r="AT89" s="32"/>
-      <c r="AU89" s="32"/>
-      <c r="AV89" s="32"/>
-      <c r="AW89" s="32"/>
-      <c r="AX89" s="64"/>
-      <c r="AY89" s="32"/>
-      <c r="AZ89" s="32"/>
-      <c r="BA89" s="32"/>
-      <c r="BB89" s="32"/>
+      <c r="AE89" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="27"/>
+      <c r="AI89" s="40"/>
+      <c r="AJ89" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK89" s="27"/>
+      <c r="AL89" s="28"/>
+      <c r="AM89" s="27"/>
+      <c r="AN89" s="40"/>
+      <c r="AO89" s="40"/>
+      <c r="AP89" s="40"/>
+      <c r="AQ89" s="40"/>
+      <c r="AR89" s="40"/>
+      <c r="AS89" s="40"/>
+      <c r="AT89" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU89" s="27"/>
+      <c r="AV89" s="28"/>
+      <c r="AW89" s="27"/>
+      <c r="AX89" s="40"/>
+      <c r="AY89" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ89" s="27"/>
+      <c r="BA89" s="28"/>
+      <c r="BB89" s="27"/>
     </row>
     <row r="90" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="32"/>
-      <c r="AI90" s="64"/>
-      <c r="AJ90" s="32"/>
-      <c r="AK90" s="32"/>
-      <c r="AL90" s="32"/>
-      <c r="AM90" s="32"/>
-      <c r="AN90" s="54"/>
-      <c r="AO90" s="32"/>
-      <c r="AP90" s="32"/>
-      <c r="AQ90" s="32"/>
-      <c r="AR90" s="32"/>
-      <c r="AS90" s="64"/>
-      <c r="AT90" s="32"/>
-      <c r="AU90" s="32"/>
-      <c r="AV90" s="32"/>
-      <c r="AW90" s="32"/>
-      <c r="AX90" s="64"/>
-      <c r="AY90" s="32"/>
-      <c r="AZ90" s="32"/>
-      <c r="BA90" s="32"/>
-      <c r="BB90" s="32"/>
+      <c r="AE90" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF90" s="27"/>
+      <c r="AG90" s="28"/>
+      <c r="AH90" s="27"/>
+      <c r="AI90" s="40"/>
+      <c r="AJ90" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK90" s="27"/>
+      <c r="AL90" s="28"/>
+      <c r="AM90" s="27"/>
+      <c r="AN90" s="40"/>
+      <c r="AO90" s="40"/>
+      <c r="AP90" s="40"/>
+      <c r="AQ90" s="40"/>
+      <c r="AR90" s="40"/>
+      <c r="AS90" s="40"/>
+      <c r="AT90" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU90" s="27"/>
+      <c r="AV90" s="28"/>
+      <c r="AW90" s="27"/>
+      <c r="AX90" s="40"/>
+      <c r="AY90" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ90" s="27"/>
+      <c r="BA90" s="28"/>
+      <c r="BB90" s="27"/>
     </row>
     <row r="91" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE91" s="24"/>
-      <c r="AF91" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG91" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH91" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI91" s="64"/>
-      <c r="AJ91" s="24"/>
-      <c r="AK91" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL91" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM91" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN91" s="54"/>
-      <c r="AO91" s="24"/>
-      <c r="AP91" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ91" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR91" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS91" s="64"/>
-      <c r="AT91" s="24"/>
-      <c r="AU91" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV91" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW91" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX91" s="64"/>
-      <c r="AY91" s="24"/>
-      <c r="AZ91" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA91" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB91" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE91" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF91" s="27"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="27"/>
+      <c r="AI91" s="40"/>
+      <c r="AJ91" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK91" s="27"/>
+      <c r="AL91" s="28"/>
+      <c r="AM91" s="27"/>
+      <c r="AN91" s="40"/>
+      <c r="AO91" s="40"/>
+      <c r="AP91" s="40"/>
+      <c r="AQ91" s="40"/>
+      <c r="AR91" s="40"/>
+      <c r="AS91" s="40"/>
+      <c r="AT91" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU91" s="27"/>
+      <c r="AV91" s="28"/>
+      <c r="AW91" s="27"/>
+      <c r="AX91" s="40"/>
+      <c r="AY91" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ91" s="27"/>
+      <c r="BA91" s="28"/>
+      <c r="BB91" s="27"/>
     </row>
     <row r="92" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE92" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="28"/>
-      <c r="AH92" s="27"/>
-      <c r="AI92" s="64"/>
-      <c r="AJ92" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK92" s="27"/>
-      <c r="AL92" s="28"/>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="54"/>
-      <c r="AO92" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP92" s="56"/>
-      <c r="AQ92" s="57"/>
-      <c r="AR92" s="56"/>
-      <c r="AS92" s="64"/>
-      <c r="AT92" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU92" s="27"/>
-      <c r="AV92" s="28"/>
-      <c r="AW92" s="27"/>
-      <c r="AX92" s="64"/>
-      <c r="AY92" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ92" s="27"/>
-      <c r="BA92" s="28"/>
-      <c r="BB92" s="27"/>
+      <c r="AE92" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="32"/>
+      <c r="AI92" s="40"/>
+      <c r="AJ92" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK92" s="32"/>
+      <c r="AL92" s="33"/>
+      <c r="AM92" s="32"/>
+      <c r="AN92" s="40"/>
+      <c r="AO92" s="40"/>
+      <c r="AP92" s="40"/>
+      <c r="AQ92" s="40"/>
+      <c r="AR92" s="40"/>
+      <c r="AS92" s="40"/>
+      <c r="AT92" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU92" s="32"/>
+      <c r="AV92" s="33"/>
+      <c r="AW92" s="32"/>
+      <c r="AX92" s="40"/>
+      <c r="AY92" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ92" s="32"/>
+      <c r="BA92" s="33"/>
+      <c r="BB92" s="32"/>
     </row>
-    <row r="93" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE93" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF93" s="27"/>
-      <c r="AG93" s="28"/>
-      <c r="AH93" s="27"/>
-      <c r="AI93" s="64"/>
-      <c r="AJ93" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK93" s="27"/>
-      <c r="AL93" s="28"/>
-      <c r="AM93" s="27"/>
-      <c r="AN93" s="54"/>
-      <c r="AO93" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP93" s="56"/>
-      <c r="AQ93" s="57"/>
-      <c r="AR93" s="56"/>
-      <c r="AS93" s="64"/>
-      <c r="AT93" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU93" s="27"/>
-      <c r="AV93" s="28"/>
-      <c r="AW93" s="27"/>
-      <c r="AX93" s="64"/>
-      <c r="AY93" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ93" s="27"/>
-      <c r="BA93" s="28"/>
-      <c r="BB93" s="27"/>
-    </row>
-    <row r="94" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE94" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF94" s="27"/>
-      <c r="AG94" s="28"/>
-      <c r="AH94" s="27"/>
-      <c r="AI94" s="64"/>
-      <c r="AJ94" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK94" s="27"/>
-      <c r="AL94" s="28"/>
-      <c r="AM94" s="27"/>
-      <c r="AN94" s="54"/>
-      <c r="AO94" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP94" s="27"/>
-      <c r="AQ94" s="28"/>
-      <c r="AR94" s="27"/>
-      <c r="AS94" s="64"/>
-      <c r="AT94" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU94" s="27"/>
-      <c r="AV94" s="28"/>
-      <c r="AW94" s="27"/>
-      <c r="AX94" s="64"/>
-      <c r="AY94" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ94" s="27"/>
-      <c r="BA94" s="28"/>
-      <c r="BB94" s="27"/>
-    </row>
-    <row r="95" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE95" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF95" s="27"/>
-      <c r="AG95" s="28"/>
-      <c r="AH95" s="27"/>
-      <c r="AI95" s="64"/>
-      <c r="AJ95" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK95" s="27"/>
-      <c r="AL95" s="28"/>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="54"/>
-      <c r="AO95" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP95" s="27"/>
-      <c r="AQ95" s="28"/>
-      <c r="AR95" s="27"/>
-      <c r="AS95" s="64"/>
-      <c r="AT95" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU95" s="27"/>
-      <c r="AV95" s="28"/>
-      <c r="AW95" s="27"/>
-      <c r="AX95" s="64"/>
-      <c r="AY95" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ95" s="27"/>
-      <c r="BA95" s="28"/>
-      <c r="BB95" s="27"/>
-    </row>
-    <row r="96" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="28"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="64"/>
-      <c r="AJ96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="28"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="54"/>
-      <c r="AO96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP96" s="27"/>
-      <c r="AQ96" s="28"/>
-      <c r="AR96" s="27"/>
-      <c r="AS96" s="64"/>
-      <c r="AT96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU96" s="27"/>
-      <c r="AV96" s="28"/>
-      <c r="AW96" s="27"/>
-      <c r="AX96" s="64"/>
-      <c r="AY96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ96" s="27"/>
-      <c r="BA96" s="28"/>
-      <c r="BB96" s="27"/>
-    </row>
-    <row r="97" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE97" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF97" s="27"/>
-      <c r="AG97" s="28"/>
-      <c r="AH97" s="27"/>
-      <c r="AI97" s="64"/>
-      <c r="AJ97" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK97" s="27"/>
-      <c r="AL97" s="28"/>
-      <c r="AM97" s="27"/>
-      <c r="AN97" s="54"/>
-      <c r="AO97" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP97" s="27"/>
-      <c r="AQ97" s="28"/>
-      <c r="AR97" s="27"/>
-      <c r="AS97" s="64"/>
-      <c r="AT97" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU97" s="27"/>
-      <c r="AV97" s="28"/>
-      <c r="AW97" s="27"/>
-      <c r="AX97" s="64"/>
-      <c r="AY97" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ97" s="27"/>
-      <c r="BA97" s="28"/>
-      <c r="BB97" s="27"/>
-    </row>
-    <row r="98" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF98" s="27"/>
-      <c r="AG98" s="28"/>
-      <c r="AH98" s="27"/>
-      <c r="AI98" s="64"/>
-      <c r="AJ98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK98" s="27"/>
-      <c r="AL98" s="28"/>
-      <c r="AM98" s="27"/>
-      <c r="AN98" s="54"/>
-      <c r="AO98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP98" s="27"/>
-      <c r="AQ98" s="28"/>
-      <c r="AR98" s="27"/>
-      <c r="AS98" s="64"/>
-      <c r="AT98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU98" s="27"/>
-      <c r="AV98" s="28"/>
-      <c r="AW98" s="27"/>
-      <c r="AX98" s="64"/>
-      <c r="AY98" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ98" s="27"/>
-      <c r="BA98" s="28"/>
-      <c r="BB98" s="27"/>
-    </row>
-    <row r="99" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="54"/>
-      <c r="AG99" s="54"/>
-      <c r="AH99" s="54"/>
-      <c r="AI99" s="54"/>
-      <c r="AJ99" s="54"/>
-      <c r="AK99" s="54"/>
-      <c r="AL99" s="54"/>
-      <c r="AM99" s="54"/>
-      <c r="AN99" s="54"/>
-      <c r="AO99" s="54"/>
-      <c r="AP99" s="54"/>
-      <c r="AQ99" s="54"/>
-      <c r="AR99" s="54"/>
-      <c r="AS99" s="54"/>
-      <c r="AT99" s="54"/>
-      <c r="AU99" s="54"/>
-      <c r="AV99" s="54"/>
-      <c r="AW99" s="54"/>
-      <c r="AX99" s="54"/>
-      <c r="AY99" s="54"/>
-      <c r="AZ99" s="54"/>
-      <c r="BA99" s="54"/>
-      <c r="BB99" s="35"/>
-    </row>
-    <row r="100" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="54"/>
-      <c r="AG100" s="54"/>
-      <c r="AH100" s="54"/>
-      <c r="AI100" s="54"/>
-      <c r="AJ100" s="54"/>
-      <c r="AK100" s="54"/>
-      <c r="AL100" s="54"/>
-      <c r="AM100" s="54"/>
-      <c r="AN100" s="54"/>
-      <c r="AO100" s="54"/>
-      <c r="AP100" s="54"/>
-      <c r="AQ100" s="54"/>
-      <c r="AR100" s="54"/>
-      <c r="AS100" s="54"/>
-      <c r="AT100" s="54"/>
-      <c r="AU100" s="54"/>
-      <c r="AV100" s="54"/>
-      <c r="AW100" s="54"/>
-      <c r="AX100" s="54"/>
-      <c r="AY100" s="54"/>
-      <c r="AZ100" s="54"/>
-      <c r="BA100" s="54"/>
-      <c r="BB100" s="35"/>
-    </row>
-    <row r="101" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE101" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="64"/>
-      <c r="AJ101" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK101" s="32"/>
-      <c r="AL101" s="32"/>
-      <c r="AM101" s="32"/>
-      <c r="AN101" s="54"/>
-      <c r="AO101" s="54"/>
-      <c r="AP101" s="54"/>
-      <c r="AQ101" s="54"/>
-      <c r="AR101" s="54"/>
-      <c r="AS101" s="54"/>
-      <c r="AT101" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU101" s="32"/>
-      <c r="AV101" s="32"/>
-      <c r="AW101" s="32"/>
-      <c r="AX101" s="64"/>
-      <c r="AY101" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ101" s="32"/>
-      <c r="BA101" s="32"/>
-      <c r="BB101" s="32"/>
-    </row>
-    <row r="102" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE102" s="32"/>
-      <c r="AF102" s="32"/>
-      <c r="AG102" s="32"/>
-      <c r="AH102" s="32"/>
-      <c r="AI102" s="64"/>
-      <c r="AJ102" s="32"/>
-      <c r="AK102" s="32"/>
-      <c r="AL102" s="32"/>
-      <c r="AM102" s="32"/>
-      <c r="AN102" s="54"/>
-      <c r="AO102" s="54"/>
-      <c r="AP102" s="54"/>
-      <c r="AQ102" s="54"/>
-      <c r="AR102" s="54"/>
-      <c r="AS102" s="54"/>
-      <c r="AT102" s="32"/>
-      <c r="AU102" s="32"/>
-      <c r="AV102" s="32"/>
-      <c r="AW102" s="32"/>
-      <c r="AX102" s="64"/>
-      <c r="AY102" s="32"/>
-      <c r="AZ102" s="32"/>
-      <c r="BA102" s="32"/>
-      <c r="BB102" s="32"/>
-    </row>
-    <row r="103" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-      <c r="AI103" s="64"/>
-      <c r="AJ103" s="32"/>
-      <c r="AK103" s="32"/>
-      <c r="AL103" s="32"/>
-      <c r="AM103" s="32"/>
-      <c r="AN103" s="54"/>
-      <c r="AO103" s="54"/>
-      <c r="AP103" s="54"/>
-      <c r="AQ103" s="54"/>
-      <c r="AR103" s="54"/>
-      <c r="AS103" s="54"/>
-      <c r="AT103" s="32"/>
-      <c r="AU103" s="32"/>
-      <c r="AV103" s="32"/>
-      <c r="AW103" s="32"/>
-      <c r="AX103" s="64"/>
-      <c r="AY103" s="32"/>
-      <c r="AZ103" s="32"/>
-      <c r="BA103" s="32"/>
-      <c r="BB103" s="32"/>
-    </row>
-    <row r="104" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE104" s="24"/>
-      <c r="AF104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG104" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH104" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI104" s="64"/>
-      <c r="AJ104" s="24"/>
-      <c r="AK104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL104" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM104" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN104" s="54"/>
-      <c r="AO104" s="54"/>
-      <c r="AP104" s="54"/>
-      <c r="AQ104" s="54"/>
-      <c r="AR104" s="54"/>
-      <c r="AS104" s="54"/>
-      <c r="AT104" s="24"/>
-      <c r="AU104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV104" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW104" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX104" s="64"/>
-      <c r="AY104" s="24"/>
-      <c r="AZ104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA104" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB104" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE105" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF105" s="27"/>
-      <c r="AG105" s="28"/>
-      <c r="AH105" s="27"/>
-      <c r="AI105" s="64"/>
-      <c r="AJ105" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK105" s="27"/>
-      <c r="AL105" s="28"/>
-      <c r="AM105" s="27"/>
-      <c r="AN105" s="54"/>
-      <c r="AO105" s="54"/>
-      <c r="AP105" s="54"/>
-      <c r="AQ105" s="54"/>
-      <c r="AR105" s="54"/>
-      <c r="AS105" s="54"/>
-      <c r="AT105" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU105" s="27"/>
-      <c r="AV105" s="28"/>
-      <c r="AW105" s="27"/>
-      <c r="AX105" s="64"/>
-      <c r="AY105" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ105" s="27"/>
-      <c r="BA105" s="28"/>
-      <c r="BB105" s="27"/>
-    </row>
-    <row r="106" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE106" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF106" s="27"/>
-      <c r="AG106" s="28"/>
-      <c r="AH106" s="27"/>
-      <c r="AI106" s="64"/>
-      <c r="AJ106" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK106" s="27"/>
-      <c r="AL106" s="28"/>
-      <c r="AM106" s="27"/>
-      <c r="AN106" s="54"/>
-      <c r="AO106" s="54"/>
-      <c r="AP106" s="54"/>
-      <c r="AQ106" s="54"/>
-      <c r="AR106" s="54"/>
-      <c r="AS106" s="54"/>
-      <c r="AT106" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU106" s="27"/>
-      <c r="AV106" s="28"/>
-      <c r="AW106" s="27"/>
-      <c r="AX106" s="64"/>
-      <c r="AY106" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ106" s="27"/>
-      <c r="BA106" s="28"/>
-      <c r="BB106" s="27"/>
-    </row>
-    <row r="107" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE107" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF107" s="27"/>
-      <c r="AG107" s="28"/>
-      <c r="AH107" s="27"/>
-      <c r="AI107" s="64"/>
-      <c r="AJ107" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK107" s="27"/>
-      <c r="AL107" s="28"/>
-      <c r="AM107" s="27"/>
-      <c r="AN107" s="54"/>
-      <c r="AO107" s="54"/>
-      <c r="AP107" s="54"/>
-      <c r="AQ107" s="54"/>
-      <c r="AR107" s="54"/>
-      <c r="AS107" s="54"/>
-      <c r="AT107" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU107" s="27"/>
-      <c r="AV107" s="28"/>
-      <c r="AW107" s="27"/>
-      <c r="AX107" s="64"/>
-      <c r="AY107" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ107" s="27"/>
-      <c r="BA107" s="28"/>
-      <c r="BB107" s="27"/>
-    </row>
-    <row r="108" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE108" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="28"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="64"/>
-      <c r="AJ108" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="28"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="54"/>
-      <c r="AO108" s="54"/>
-      <c r="AP108" s="54"/>
-      <c r="AQ108" s="54"/>
-      <c r="AR108" s="54"/>
-      <c r="AS108" s="54"/>
-      <c r="AT108" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="28"/>
-      <c r="AW108" s="27"/>
-      <c r="AX108" s="64"/>
-      <c r="AY108" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ108" s="27"/>
-      <c r="BA108" s="28"/>
-      <c r="BB108" s="27"/>
-    </row>
-    <row r="109" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE109" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF109" s="27"/>
-      <c r="AG109" s="28"/>
-      <c r="AH109" s="27"/>
-      <c r="AI109" s="64"/>
-      <c r="AJ109" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK109" s="27"/>
-      <c r="AL109" s="28"/>
-      <c r="AM109" s="27"/>
-      <c r="AN109" s="54"/>
-      <c r="AO109" s="54"/>
-      <c r="AP109" s="54"/>
-      <c r="AQ109" s="54"/>
-      <c r="AR109" s="54"/>
-      <c r="AS109" s="54"/>
-      <c r="AT109" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU109" s="27"/>
-      <c r="AV109" s="28"/>
-      <c r="AW109" s="27"/>
-      <c r="AX109" s="64"/>
-      <c r="AY109" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ109" s="27"/>
-      <c r="BA109" s="28"/>
-      <c r="BB109" s="27"/>
-    </row>
-    <row r="110" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE110" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF110" s="27"/>
-      <c r="AG110" s="28"/>
-      <c r="AH110" s="27"/>
-      <c r="AI110" s="64"/>
-      <c r="AJ110" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK110" s="27"/>
-      <c r="AL110" s="28"/>
-      <c r="AM110" s="27"/>
-      <c r="AN110" s="54"/>
-      <c r="AO110" s="54"/>
-      <c r="AP110" s="54"/>
-      <c r="AQ110" s="54"/>
-      <c r="AR110" s="54"/>
-      <c r="AS110" s="54"/>
-      <c r="AT110" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU110" s="27"/>
-      <c r="AV110" s="28"/>
-      <c r="AW110" s="27"/>
-      <c r="AX110" s="64"/>
-      <c r="AY110" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ110" s="27"/>
-      <c r="BA110" s="28"/>
-      <c r="BB110" s="27"/>
-    </row>
-    <row r="111" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF111" s="27"/>
-      <c r="AG111" s="28"/>
-      <c r="AH111" s="27"/>
-      <c r="AI111" s="64"/>
-      <c r="AJ111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK111" s="27"/>
-      <c r="AL111" s="28"/>
-      <c r="AM111" s="27"/>
-      <c r="AN111" s="54"/>
-      <c r="AO111" s="54"/>
-      <c r="AP111" s="54"/>
-      <c r="AQ111" s="54"/>
-      <c r="AR111" s="54"/>
-      <c r="AS111" s="54"/>
-      <c r="AT111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU111" s="27"/>
-      <c r="AV111" s="28"/>
-      <c r="AW111" s="27"/>
-      <c r="AX111" s="64"/>
-      <c r="AY111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ111" s="27"/>
-      <c r="BA111" s="28"/>
-      <c r="BB111" s="27"/>
-    </row>
-    <row r="112" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE112" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF112" s="32"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
-      <c r="AI112" s="64"/>
-      <c r="AJ112" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK112" s="32"/>
-      <c r="AL112" s="32"/>
-      <c r="AM112" s="32"/>
-      <c r="AN112" s="54"/>
-      <c r="AO112" s="54"/>
-      <c r="AP112" s="54"/>
-      <c r="AQ112" s="54"/>
-      <c r="AR112" s="54"/>
-      <c r="AS112" s="54"/>
-      <c r="AT112" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU112" s="32"/>
-      <c r="AV112" s="32"/>
-      <c r="AW112" s="32"/>
-      <c r="AX112" s="64"/>
-      <c r="AY112" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ112" s="32"/>
-      <c r="BA112" s="32"/>
-      <c r="BB112" s="32"/>
-    </row>
-    <row r="113" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE113" s="32"/>
-      <c r="AF113" s="32"/>
-      <c r="AG113" s="32"/>
-      <c r="AH113" s="32"/>
-      <c r="AI113" s="64"/>
-      <c r="AJ113" s="32"/>
-      <c r="AK113" s="32"/>
-      <c r="AL113" s="32"/>
-      <c r="AM113" s="32"/>
-      <c r="AN113" s="54"/>
-      <c r="AO113" s="54"/>
-      <c r="AP113" s="54"/>
-      <c r="AQ113" s="54"/>
-      <c r="AR113" s="54"/>
-      <c r="AS113" s="54"/>
-      <c r="AT113" s="32"/>
-      <c r="AU113" s="32"/>
-      <c r="AV113" s="32"/>
-      <c r="AW113" s="32"/>
-      <c r="AX113" s="64"/>
-      <c r="AY113" s="32"/>
-      <c r="AZ113" s="32"/>
-      <c r="BA113" s="32"/>
-      <c r="BB113" s="32"/>
-    </row>
-    <row r="114" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE114" s="32"/>
-      <c r="AF114" s="32"/>
-      <c r="AG114" s="32"/>
-      <c r="AH114" s="32"/>
-      <c r="AI114" s="64"/>
-      <c r="AJ114" s="32"/>
-      <c r="AK114" s="32"/>
-      <c r="AL114" s="32"/>
-      <c r="AM114" s="32"/>
-      <c r="AN114" s="54"/>
-      <c r="AO114" s="54"/>
-      <c r="AP114" s="54"/>
-      <c r="AQ114" s="54"/>
-      <c r="AR114" s="54"/>
-      <c r="AS114" s="54"/>
-      <c r="AT114" s="32"/>
-      <c r="AU114" s="32"/>
-      <c r="AV114" s="32"/>
-      <c r="AW114" s="32"/>
-      <c r="AX114" s="64"/>
-      <c r="AY114" s="32"/>
-      <c r="AZ114" s="32"/>
-      <c r="BA114" s="32"/>
-      <c r="BB114" s="32"/>
-    </row>
-    <row r="115" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG115" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH115" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI115" s="64"/>
-      <c r="AJ115" s="24"/>
-      <c r="AK115" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL115" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM115" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN115" s="54"/>
-      <c r="AO115" s="54"/>
-      <c r="AP115" s="54"/>
-      <c r="AQ115" s="54"/>
-      <c r="AR115" s="54"/>
-      <c r="AS115" s="54"/>
-      <c r="AT115" s="24"/>
-      <c r="AU115" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV115" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW115" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX115" s="64"/>
-      <c r="AY115" s="24"/>
-      <c r="AZ115" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA115" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB115" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE116" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF116" s="27"/>
-      <c r="AG116" s="28"/>
-      <c r="AH116" s="27"/>
-      <c r="AI116" s="64"/>
-      <c r="AJ116" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK116" s="27"/>
-      <c r="AL116" s="28"/>
-      <c r="AM116" s="27"/>
-      <c r="AN116" s="54"/>
-      <c r="AO116" s="54"/>
-      <c r="AP116" s="54"/>
-      <c r="AQ116" s="54"/>
-      <c r="AR116" s="54"/>
-      <c r="AS116" s="54"/>
-      <c r="AT116" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU116" s="27"/>
-      <c r="AV116" s="28"/>
-      <c r="AW116" s="27"/>
-      <c r="AX116" s="64"/>
-      <c r="AY116" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ116" s="27"/>
-      <c r="BA116" s="28"/>
-      <c r="BB116" s="27"/>
-    </row>
-    <row r="117" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE117" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF117" s="27"/>
-      <c r="AG117" s="28"/>
-      <c r="AH117" s="27"/>
-      <c r="AI117" s="64"/>
-      <c r="AJ117" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK117" s="27"/>
-      <c r="AL117" s="28"/>
-      <c r="AM117" s="27"/>
-      <c r="AN117" s="54"/>
-      <c r="AO117" s="54"/>
-      <c r="AP117" s="54"/>
-      <c r="AQ117" s="54"/>
-      <c r="AR117" s="54"/>
-      <c r="AS117" s="54"/>
-      <c r="AT117" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU117" s="27"/>
-      <c r="AV117" s="28"/>
-      <c r="AW117" s="27"/>
-      <c r="AX117" s="64"/>
-      <c r="AY117" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ117" s="27"/>
-      <c r="BA117" s="28"/>
-      <c r="BB117" s="27"/>
-    </row>
-    <row r="118" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF118" s="27"/>
-      <c r="AG118" s="28"/>
-      <c r="AH118" s="27"/>
-      <c r="AI118" s="64"/>
-      <c r="AJ118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK118" s="27"/>
-      <c r="AL118" s="28"/>
-      <c r="AM118" s="27"/>
-      <c r="AN118" s="54"/>
-      <c r="AO118" s="54"/>
-      <c r="AP118" s="54"/>
-      <c r="AQ118" s="54"/>
-      <c r="AR118" s="54"/>
-      <c r="AS118" s="54"/>
-      <c r="AT118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU118" s="27"/>
-      <c r="AV118" s="28"/>
-      <c r="AW118" s="27"/>
-      <c r="AX118" s="64"/>
-      <c r="AY118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ118" s="27"/>
-      <c r="BA118" s="28"/>
-      <c r="BB118" s="27"/>
-    </row>
-    <row r="119" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE119" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF119" s="27"/>
-      <c r="AG119" s="28"/>
-      <c r="AH119" s="27"/>
-      <c r="AI119" s="64"/>
-      <c r="AJ119" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK119" s="27"/>
-      <c r="AL119" s="28"/>
-      <c r="AM119" s="27"/>
-      <c r="AN119" s="54"/>
-      <c r="AO119" s="54"/>
-      <c r="AP119" s="54"/>
-      <c r="AQ119" s="54"/>
-      <c r="AR119" s="54"/>
-      <c r="AS119" s="54"/>
-      <c r="AT119" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU119" s="27"/>
-      <c r="AV119" s="28"/>
-      <c r="AW119" s="27"/>
-      <c r="AX119" s="64"/>
-      <c r="AY119" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ119" s="27"/>
-      <c r="BA119" s="28"/>
-      <c r="BB119" s="27"/>
-    </row>
-    <row r="120" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE120" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF120" s="27"/>
-      <c r="AG120" s="28"/>
-      <c r="AH120" s="27"/>
-      <c r="AI120" s="64"/>
-      <c r="AJ120" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK120" s="27"/>
-      <c r="AL120" s="28"/>
-      <c r="AM120" s="27"/>
-      <c r="AN120" s="54"/>
-      <c r="AO120" s="54"/>
-      <c r="AP120" s="54"/>
-      <c r="AQ120" s="54"/>
-      <c r="AR120" s="54"/>
-      <c r="AS120" s="54"/>
-      <c r="AT120" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU120" s="27"/>
-      <c r="AV120" s="28"/>
-      <c r="AW120" s="27"/>
-      <c r="AX120" s="64"/>
-      <c r="AY120" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ120" s="27"/>
-      <c r="BA120" s="28"/>
-      <c r="BB120" s="27"/>
-    </row>
-    <row r="121" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE121" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF121" s="27"/>
-      <c r="AG121" s="28"/>
-      <c r="AH121" s="27"/>
-      <c r="AI121" s="64"/>
-      <c r="AJ121" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK121" s="27"/>
-      <c r="AL121" s="28"/>
-      <c r="AM121" s="27"/>
-      <c r="AN121" s="54"/>
-      <c r="AO121" s="54"/>
-      <c r="AP121" s="54"/>
-      <c r="AQ121" s="54"/>
-      <c r="AR121" s="54"/>
-      <c r="AS121" s="54"/>
-      <c r="AT121" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU121" s="27"/>
-      <c r="AV121" s="28"/>
-      <c r="AW121" s="27"/>
-      <c r="AX121" s="64"/>
-      <c r="AY121" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ121" s="27"/>
-      <c r="BA121" s="28"/>
-      <c r="BB121" s="27"/>
-    </row>
-    <row r="122" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE122" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF122" s="27"/>
-      <c r="AG122" s="28"/>
-      <c r="AH122" s="27"/>
-      <c r="AI122" s="64"/>
-      <c r="AJ122" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK122" s="27"/>
-      <c r="AL122" s="28"/>
-      <c r="AM122" s="27"/>
-      <c r="AN122" s="54"/>
-      <c r="AO122" s="54"/>
-      <c r="AP122" s="54"/>
-      <c r="AQ122" s="54"/>
-      <c r="AR122" s="54"/>
-      <c r="AS122" s="54"/>
-      <c r="AT122" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU122" s="27"/>
-      <c r="AV122" s="28"/>
-      <c r="AW122" s="27"/>
-      <c r="AX122" s="64"/>
-      <c r="AY122" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ122" s="27"/>
-      <c r="BA122" s="28"/>
-      <c r="BB122" s="27"/>
-    </row>
-    <row r="123" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE123" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF123" s="63"/>
-      <c r="AG123" s="63"/>
-      <c r="AH123" s="63"/>
-      <c r="AI123" s="63"/>
-      <c r="AJ123" s="63"/>
-      <c r="AK123" s="63"/>
-      <c r="AL123" s="63"/>
-      <c r="AM123" s="63"/>
-      <c r="AN123" s="63"/>
-      <c r="AO123" s="63"/>
-      <c r="AP123" s="63"/>
-      <c r="AQ123" s="63"/>
-      <c r="AR123" s="63"/>
-      <c r="AS123" s="63"/>
-      <c r="AT123" s="63"/>
-      <c r="AU123" s="63"/>
-      <c r="AV123" s="63"/>
-      <c r="AW123" s="63"/>
-      <c r="AX123" s="63"/>
-      <c r="AY123" s="63"/>
-      <c r="AZ123" s="63"/>
-      <c r="BA123" s="63"/>
-      <c r="BB123" s="63"/>
-    </row>
-    <row r="124" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE124" s="62"/>
-      <c r="AF124" s="62"/>
-      <c r="AG124" s="62"/>
-      <c r="AH124" s="62"/>
-      <c r="AI124" s="62"/>
-      <c r="AJ124" s="62"/>
-      <c r="AK124" s="62"/>
-      <c r="AL124" s="62"/>
-      <c r="AM124" s="62"/>
-      <c r="AN124" s="62"/>
-      <c r="AO124" s="62"/>
-      <c r="AP124" s="62"/>
-      <c r="AQ124" s="62"/>
-      <c r="AR124" s="62"/>
-      <c r="AS124" s="62"/>
-      <c r="AT124" s="62"/>
-      <c r="AU124" s="62"/>
-      <c r="AV124" s="62"/>
-      <c r="AW124" s="62"/>
-      <c r="AX124" s="62"/>
-      <c r="AY124" s="62"/>
-      <c r="AZ124" s="62"/>
-      <c r="BA124" s="62"/>
-      <c r="BB124" s="62"/>
-    </row>
-    <row r="125" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE125" s="33"/>
-      <c r="AF125" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG125" s="32"/>
-      <c r="AH125" s="32"/>
-      <c r="AI125" s="32"/>
-      <c r="AJ125" s="54"/>
-      <c r="AK125" s="54"/>
-      <c r="AL125" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM125" s="32"/>
-      <c r="AN125" s="32"/>
-      <c r="AO125" s="32"/>
-      <c r="AP125" s="54"/>
-      <c r="AQ125" s="54"/>
-      <c r="AR125" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS125" s="32"/>
-      <c r="AT125" s="32"/>
-      <c r="AU125" s="32"/>
-      <c r="AV125" s="54"/>
-      <c r="AW125" s="54"/>
-      <c r="AX125" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY125" s="32"/>
-      <c r="AZ125" s="32"/>
-      <c r="BA125" s="32"/>
-      <c r="BB125" s="35"/>
-    </row>
-    <row r="126" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE126" s="33"/>
-      <c r="AF126" s="32"/>
-      <c r="AG126" s="32"/>
-      <c r="AH126" s="32"/>
-      <c r="AI126" s="32"/>
-      <c r="AJ126" s="54"/>
-      <c r="AK126" s="54"/>
-      <c r="AL126" s="32"/>
-      <c r="AM126" s="32"/>
-      <c r="AN126" s="32"/>
-      <c r="AO126" s="32"/>
-      <c r="AP126" s="54"/>
-      <c r="AQ126" s="54"/>
-      <c r="AR126" s="32"/>
-      <c r="AS126" s="32"/>
-      <c r="AT126" s="32"/>
-      <c r="AU126" s="32"/>
-      <c r="AV126" s="54"/>
-      <c r="AW126" s="54"/>
-      <c r="AX126" s="32"/>
-      <c r="AY126" s="32"/>
-      <c r="AZ126" s="32"/>
-      <c r="BA126" s="32"/>
-      <c r="BB126" s="35"/>
-    </row>
-    <row r="127" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE127" s="33"/>
-      <c r="AF127" s="32"/>
-      <c r="AG127" s="32"/>
-      <c r="AH127" s="32"/>
-      <c r="AI127" s="32"/>
-      <c r="AJ127" s="54"/>
-      <c r="AK127" s="54"/>
-      <c r="AL127" s="32"/>
-      <c r="AM127" s="32"/>
-      <c r="AN127" s="32"/>
-      <c r="AO127" s="32"/>
-      <c r="AP127" s="54"/>
-      <c r="AQ127" s="54"/>
-      <c r="AR127" s="32"/>
-      <c r="AS127" s="32"/>
-      <c r="AT127" s="32"/>
-      <c r="AU127" s="32"/>
-      <c r="AV127" s="54"/>
-      <c r="AW127" s="54"/>
-      <c r="AX127" s="32"/>
-      <c r="AY127" s="32"/>
-      <c r="AZ127" s="32"/>
-      <c r="BA127" s="32"/>
-      <c r="BB127" s="35"/>
-    </row>
-    <row r="128" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE128" s="33"/>
-      <c r="AF128" s="24"/>
-      <c r="AG128" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH128" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ128" s="54"/>
-      <c r="AK128" s="54"/>
-      <c r="AL128" s="24"/>
-      <c r="AM128" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN128" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP128" s="54"/>
-      <c r="AQ128" s="54"/>
-      <c r="AR128" s="24"/>
-      <c r="AS128" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT128" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV128" s="54"/>
-      <c r="AW128" s="54"/>
-      <c r="AX128" s="24"/>
-      <c r="AY128" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ128" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB128" s="35"/>
-    </row>
-    <row r="129" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE129" s="33"/>
-      <c r="AF129" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG129" s="27"/>
-      <c r="AH129" s="28"/>
-      <c r="AI129" s="27"/>
-      <c r="AJ129" s="54"/>
-      <c r="AK129" s="54"/>
-      <c r="AL129" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM129" s="27"/>
-      <c r="AN129" s="28"/>
-      <c r="AO129" s="27"/>
-      <c r="AP129" s="54"/>
-      <c r="AQ129" s="54"/>
-      <c r="AR129" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS129" s="27"/>
-      <c r="AT129" s="28"/>
-      <c r="AU129" s="27"/>
-      <c r="AV129" s="54"/>
-      <c r="AW129" s="54"/>
-      <c r="AX129" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY129" s="27"/>
-      <c r="AZ129" s="28"/>
-      <c r="BA129" s="27"/>
-      <c r="BB129" s="35"/>
-    </row>
-    <row r="130" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE130" s="33"/>
-      <c r="AF130" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="28"/>
-      <c r="AI130" s="27"/>
-      <c r="AJ130" s="54"/>
-      <c r="AK130" s="54"/>
-      <c r="AL130" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM130" s="27"/>
-      <c r="AN130" s="28"/>
-      <c r="AO130" s="27"/>
-      <c r="AP130" s="54"/>
-      <c r="AQ130" s="54"/>
-      <c r="AR130" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS130" s="27"/>
-      <c r="AT130" s="28"/>
-      <c r="AU130" s="27"/>
-      <c r="AV130" s="54"/>
-      <c r="AW130" s="54"/>
-      <c r="AX130" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY130" s="27"/>
-      <c r="AZ130" s="28"/>
-      <c r="BA130" s="27"/>
-      <c r="BB130" s="35"/>
-    </row>
-    <row r="131" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE131" s="33"/>
-      <c r="AF131" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG131" s="27"/>
-      <c r="AH131" s="28"/>
-      <c r="AI131" s="27"/>
-      <c r="AJ131" s="54"/>
-      <c r="AK131" s="54"/>
-      <c r="AL131" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM131" s="27"/>
-      <c r="AN131" s="28"/>
-      <c r="AO131" s="27"/>
-      <c r="AP131" s="54"/>
-      <c r="AQ131" s="54"/>
-      <c r="AR131" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS131" s="27"/>
-      <c r="AT131" s="28"/>
-      <c r="AU131" s="27"/>
-      <c r="AV131" s="54"/>
-      <c r="AW131" s="54"/>
-      <c r="AX131" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY131" s="27"/>
-      <c r="AZ131" s="28"/>
-      <c r="BA131" s="27"/>
-      <c r="BB131" s="35"/>
-    </row>
-    <row r="132" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE132" s="33"/>
-      <c r="AF132" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG132" s="27"/>
-      <c r="AH132" s="28"/>
-      <c r="AI132" s="27"/>
-      <c r="AJ132" s="54"/>
-      <c r="AK132" s="54"/>
-      <c r="AL132" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM132" s="27"/>
-      <c r="AN132" s="28"/>
-      <c r="AO132" s="27"/>
-      <c r="AP132" s="54"/>
-      <c r="AQ132" s="54"/>
-      <c r="AR132" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS132" s="27"/>
-      <c r="AT132" s="28"/>
-      <c r="AU132" s="27"/>
-      <c r="AV132" s="54"/>
-      <c r="AW132" s="54"/>
-      <c r="AX132" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY132" s="27"/>
-      <c r="AZ132" s="28"/>
-      <c r="BA132" s="27"/>
-      <c r="BB132" s="35"/>
-    </row>
-    <row r="133" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE133" s="33"/>
-      <c r="AF133" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="28"/>
-      <c r="AI133" s="27"/>
-      <c r="AJ133" s="54"/>
-      <c r="AK133" s="54"/>
-      <c r="AL133" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM133" s="27"/>
-      <c r="AN133" s="28"/>
-      <c r="AO133" s="27"/>
-      <c r="AP133" s="54"/>
-      <c r="AQ133" s="54"/>
-      <c r="AR133" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS133" s="27"/>
-      <c r="AT133" s="28"/>
-      <c r="AU133" s="27"/>
-      <c r="AV133" s="54"/>
-      <c r="AW133" s="54"/>
-      <c r="AX133" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY133" s="27"/>
-      <c r="AZ133" s="28"/>
-      <c r="BA133" s="27"/>
-      <c r="BB133" s="35"/>
-    </row>
-    <row r="134" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE134" s="33"/>
-      <c r="AF134" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG134" s="27"/>
-      <c r="AH134" s="28"/>
-      <c r="AI134" s="27"/>
-      <c r="AJ134" s="54"/>
-      <c r="AK134" s="54"/>
-      <c r="AL134" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM134" s="27"/>
-      <c r="AN134" s="28"/>
-      <c r="AO134" s="27"/>
-      <c r="AP134" s="54"/>
-      <c r="AQ134" s="54"/>
-      <c r="AR134" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS134" s="27"/>
-      <c r="AT134" s="28"/>
-      <c r="AU134" s="27"/>
-      <c r="AV134" s="54"/>
-      <c r="AW134" s="54"/>
-      <c r="AX134" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY134" s="27"/>
-      <c r="AZ134" s="28"/>
-      <c r="BA134" s="27"/>
-      <c r="BB134" s="35"/>
-    </row>
-    <row r="135" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE135" s="33"/>
-      <c r="AF135" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG135" s="27"/>
-      <c r="AH135" s="28"/>
-      <c r="AI135" s="27"/>
-      <c r="AJ135" s="54"/>
-      <c r="AK135" s="54"/>
-      <c r="AL135" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM135" s="27"/>
-      <c r="AN135" s="28"/>
-      <c r="AO135" s="27"/>
-      <c r="AP135" s="54"/>
-      <c r="AQ135" s="54"/>
-      <c r="AR135" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS135" s="27"/>
-      <c r="AT135" s="28"/>
-      <c r="AU135" s="27"/>
-      <c r="AV135" s="54"/>
-      <c r="AW135" s="54"/>
-      <c r="AX135" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY135" s="27"/>
-      <c r="AZ135" s="28"/>
-      <c r="BA135" s="27"/>
-      <c r="BB135" s="35"/>
-    </row>
-    <row r="136" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE136" s="33"/>
-      <c r="AF136" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG136" s="32"/>
-      <c r="AH136" s="32"/>
-      <c r="AI136" s="32"/>
-      <c r="AJ136" s="54"/>
-      <c r="AK136" s="54"/>
-      <c r="AL136" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM136" s="32"/>
-      <c r="AN136" s="32"/>
-      <c r="AO136" s="32"/>
-      <c r="AP136" s="54"/>
-      <c r="AQ136" s="54"/>
-      <c r="AR136" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS136" s="32"/>
-      <c r="AT136" s="32"/>
-      <c r="AU136" s="32"/>
-      <c r="AV136" s="54"/>
-      <c r="AW136" s="54"/>
-      <c r="AX136" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY136" s="32"/>
-      <c r="AZ136" s="32"/>
-      <c r="BA136" s="32"/>
-      <c r="BB136" s="35"/>
-    </row>
-    <row r="137" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE137" s="33"/>
-      <c r="AF137" s="32"/>
-      <c r="AG137" s="32"/>
-      <c r="AH137" s="32"/>
-      <c r="AI137" s="32"/>
-      <c r="AJ137" s="54"/>
-      <c r="AK137" s="54"/>
-      <c r="AL137" s="32"/>
-      <c r="AM137" s="32"/>
-      <c r="AN137" s="32"/>
-      <c r="AO137" s="32"/>
-      <c r="AP137" s="54"/>
-      <c r="AQ137" s="54"/>
-      <c r="AR137" s="32"/>
-      <c r="AS137" s="32"/>
-      <c r="AT137" s="32"/>
-      <c r="AU137" s="32"/>
-      <c r="AV137" s="54"/>
-      <c r="AW137" s="54"/>
-      <c r="AX137" s="32"/>
-      <c r="AY137" s="32"/>
-      <c r="AZ137" s="32"/>
-      <c r="BA137" s="32"/>
-      <c r="BB137" s="35"/>
-    </row>
-    <row r="138" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE138" s="33"/>
-      <c r="AF138" s="32"/>
-      <c r="AG138" s="32"/>
-      <c r="AH138" s="32"/>
-      <c r="AI138" s="32"/>
-      <c r="AJ138" s="54"/>
-      <c r="AK138" s="54"/>
-      <c r="AL138" s="32"/>
-      <c r="AM138" s="32"/>
-      <c r="AN138" s="32"/>
-      <c r="AO138" s="32"/>
-      <c r="AP138" s="54"/>
-      <c r="AQ138" s="54"/>
-      <c r="AR138" s="32"/>
-      <c r="AS138" s="32"/>
-      <c r="AT138" s="32"/>
-      <c r="AU138" s="32"/>
-      <c r="AV138" s="54"/>
-      <c r="AW138" s="54"/>
-      <c r="AX138" s="32"/>
-      <c r="AY138" s="32"/>
-      <c r="AZ138" s="32"/>
-      <c r="BA138" s="32"/>
-      <c r="BB138" s="35"/>
-    </row>
-    <row r="139" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE139" s="33"/>
-      <c r="AF139" s="24"/>
-      <c r="AG139" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH139" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ139" s="54"/>
-      <c r="AK139" s="54"/>
-      <c r="AL139" s="24"/>
-      <c r="AM139" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN139" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP139" s="54"/>
-      <c r="AQ139" s="54"/>
-      <c r="AR139" s="24"/>
-      <c r="AS139" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT139" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV139" s="54"/>
-      <c r="AW139" s="54"/>
-      <c r="AX139" s="24"/>
-      <c r="AY139" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ139" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB139" s="35"/>
-    </row>
-    <row r="140" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE140" s="33"/>
-      <c r="AF140" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG140" s="27"/>
-      <c r="AH140" s="28"/>
-      <c r="AI140" s="27"/>
-      <c r="AJ140" s="54"/>
-      <c r="AK140" s="54"/>
-      <c r="AL140" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM140" s="27"/>
-      <c r="AN140" s="28"/>
-      <c r="AO140" s="27"/>
-      <c r="AP140" s="54"/>
-      <c r="AQ140" s="54"/>
-      <c r="AR140" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS140" s="27"/>
-      <c r="AT140" s="28"/>
-      <c r="AU140" s="27"/>
-      <c r="AV140" s="54"/>
-      <c r="AW140" s="54"/>
-      <c r="AX140" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY140" s="27"/>
-      <c r="AZ140" s="28"/>
-      <c r="BA140" s="27"/>
-      <c r="BB140" s="35"/>
-    </row>
-    <row r="141" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE141" s="33"/>
-      <c r="AF141" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG141" s="27"/>
-      <c r="AH141" s="28"/>
-      <c r="AI141" s="27"/>
-      <c r="AJ141" s="54"/>
-      <c r="AK141" s="54"/>
-      <c r="AL141" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM141" s="27"/>
-      <c r="AN141" s="28"/>
-      <c r="AO141" s="27"/>
-      <c r="AP141" s="54"/>
-      <c r="AQ141" s="54"/>
-      <c r="AR141" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS141" s="27"/>
-      <c r="AT141" s="28"/>
-      <c r="AU141" s="27"/>
-      <c r="AV141" s="54"/>
-      <c r="AW141" s="54"/>
-      <c r="AX141" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY141" s="27"/>
-      <c r="AZ141" s="28"/>
-      <c r="BA141" s="27"/>
-      <c r="BB141" s="35"/>
-    </row>
-    <row r="142" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE142" s="33"/>
-      <c r="AF142" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG142" s="27"/>
-      <c r="AH142" s="28"/>
-      <c r="AI142" s="27"/>
-      <c r="AJ142" s="54"/>
-      <c r="AK142" s="54"/>
-      <c r="AL142" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM142" s="27"/>
-      <c r="AN142" s="28"/>
-      <c r="AO142" s="27"/>
-      <c r="AP142" s="54"/>
-      <c r="AQ142" s="54"/>
-      <c r="AR142" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS142" s="27"/>
-      <c r="AT142" s="28"/>
-      <c r="AU142" s="27"/>
-      <c r="AV142" s="54"/>
-      <c r="AW142" s="54"/>
-      <c r="AX142" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY142" s="27"/>
-      <c r="AZ142" s="28"/>
-      <c r="BA142" s="27"/>
-      <c r="BB142" s="35"/>
-    </row>
-    <row r="143" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE143" s="33"/>
-      <c r="AF143" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG143" s="27"/>
-      <c r="AH143" s="28"/>
-      <c r="AI143" s="27"/>
-      <c r="AJ143" s="54"/>
-      <c r="AK143" s="54"/>
-      <c r="AL143" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM143" s="27"/>
-      <c r="AN143" s="28"/>
-      <c r="AO143" s="27"/>
-      <c r="AP143" s="54"/>
-      <c r="AQ143" s="54"/>
-      <c r="AR143" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS143" s="27"/>
-      <c r="AT143" s="28"/>
-      <c r="AU143" s="27"/>
-      <c r="AV143" s="54"/>
-      <c r="AW143" s="54"/>
-      <c r="AX143" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY143" s="27"/>
-      <c r="AZ143" s="28"/>
-      <c r="BA143" s="27"/>
-      <c r="BB143" s="35"/>
-    </row>
-    <row r="144" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE144" s="33"/>
-      <c r="AF144" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG144" s="27"/>
-      <c r="AH144" s="28"/>
-      <c r="AI144" s="27"/>
-      <c r="AJ144" s="54"/>
-      <c r="AK144" s="54"/>
-      <c r="AL144" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM144" s="27"/>
-      <c r="AN144" s="28"/>
-      <c r="AO144" s="27"/>
-      <c r="AP144" s="54"/>
-      <c r="AQ144" s="54"/>
-      <c r="AR144" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS144" s="27"/>
-      <c r="AT144" s="28"/>
-      <c r="AU144" s="27"/>
-      <c r="AV144" s="54"/>
-      <c r="AW144" s="54"/>
-      <c r="AX144" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY144" s="27"/>
-      <c r="AZ144" s="28"/>
-      <c r="BA144" s="27"/>
-      <c r="BB144" s="35"/>
-    </row>
-    <row r="145" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE145" s="33"/>
-      <c r="AF145" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG145" s="27"/>
-      <c r="AH145" s="28"/>
-      <c r="AI145" s="27"/>
-      <c r="AJ145" s="54"/>
-      <c r="AK145" s="54"/>
-      <c r="AL145" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM145" s="27"/>
-      <c r="AN145" s="28"/>
-      <c r="AO145" s="27"/>
-      <c r="AP145" s="54"/>
-      <c r="AQ145" s="54"/>
-      <c r="AR145" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS145" s="27"/>
-      <c r="AT145" s="28"/>
-      <c r="AU145" s="27"/>
-      <c r="AV145" s="54"/>
-      <c r="AW145" s="54"/>
-      <c r="AX145" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY145" s="27"/>
-      <c r="AZ145" s="28"/>
-      <c r="BA145" s="27"/>
-      <c r="BB145" s="35"/>
-    </row>
-    <row r="146" spans="31:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AE146" s="29"/>
-      <c r="AF146" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG146" s="27"/>
-      <c r="AH146" s="28"/>
-      <c r="AI146" s="27"/>
-      <c r="AJ146" s="30"/>
-      <c r="AK146" s="30"/>
-      <c r="AL146" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM146" s="27"/>
-      <c r="AN146" s="28"/>
-      <c r="AO146" s="27"/>
-      <c r="AP146" s="30"/>
-      <c r="AQ146" s="30"/>
-      <c r="AR146" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS146" s="27"/>
-      <c r="AT146" s="28"/>
-      <c r="AU146" s="27"/>
-      <c r="AV146" s="30"/>
-      <c r="AW146" s="30"/>
-      <c r="AX146" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY146" s="27"/>
-      <c r="AZ146" s="28"/>
-      <c r="BA146" s="27"/>
-      <c r="BB146" s="31"/>
-    </row>
+    <row r="93" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="AE73:BB74"/>
-    <mergeCell ref="AE123:BB124"/>
-    <mergeCell ref="AE125:AE146"/>
-    <mergeCell ref="AF125:AI127"/>
-    <mergeCell ref="AJ125:AK146"/>
-    <mergeCell ref="AL125:AO127"/>
-    <mergeCell ref="AP125:AQ146"/>
-    <mergeCell ref="AR125:AU127"/>
-    <mergeCell ref="AV125:AW146"/>
-    <mergeCell ref="AX125:BA127"/>
-    <mergeCell ref="BB125:BB146"/>
-    <mergeCell ref="AF136:AI138"/>
-    <mergeCell ref="AL136:AO138"/>
-    <mergeCell ref="AR136:AU138"/>
-    <mergeCell ref="AX136:BA138"/>
-    <mergeCell ref="AE99:BB100"/>
-    <mergeCell ref="AE101:AH103"/>
-    <mergeCell ref="AI101:AI122"/>
-    <mergeCell ref="AJ101:AM103"/>
-    <mergeCell ref="AN101:AS122"/>
-    <mergeCell ref="AT101:AW103"/>
-    <mergeCell ref="AX101:AX122"/>
-    <mergeCell ref="AY101:BB103"/>
-    <mergeCell ref="AE112:AH114"/>
-    <mergeCell ref="AJ112:AM114"/>
-    <mergeCell ref="AT112:AW114"/>
-    <mergeCell ref="AY112:BB114"/>
-    <mergeCell ref="AS77:AS98"/>
-    <mergeCell ref="AT77:AW79"/>
-    <mergeCell ref="AX77:AX98"/>
-    <mergeCell ref="AY77:BB79"/>
-    <mergeCell ref="AE88:AH90"/>
-    <mergeCell ref="AJ88:AM90"/>
-    <mergeCell ref="AO88:AR90"/>
-    <mergeCell ref="AT88:AW90"/>
-    <mergeCell ref="AY88:BB90"/>
-    <mergeCell ref="AE49:BB50"/>
-    <mergeCell ref="AF51:AI53"/>
-    <mergeCell ref="AF62:AI64"/>
-    <mergeCell ref="AR51:AU53"/>
-    <mergeCell ref="AX51:BA53"/>
-    <mergeCell ref="AX62:BA64"/>
-    <mergeCell ref="AE51:AE72"/>
-    <mergeCell ref="AJ51:AK72"/>
-    <mergeCell ref="AV51:AW72"/>
-    <mergeCell ref="BB51:BB72"/>
-    <mergeCell ref="AL51:AO53"/>
-    <mergeCell ref="AL62:AO64"/>
-    <mergeCell ref="AP51:AQ72"/>
-    <mergeCell ref="AR62:AU64"/>
-    <mergeCell ref="AE75:AN76"/>
-    <mergeCell ref="AO75:AR76"/>
-    <mergeCell ref="AS75:BB76"/>
-    <mergeCell ref="AE77:AH79"/>
-    <mergeCell ref="AI77:AI98"/>
-    <mergeCell ref="AJ77:AM79"/>
-    <mergeCell ref="AN77:AN98"/>
-    <mergeCell ref="AO77:AR79"/>
-    <mergeCell ref="AN27:AS48"/>
-    <mergeCell ref="AE25:BB26"/>
+  <mergeCells count="109">
+    <mergeCell ref="AO23:AR26"/>
+    <mergeCell ref="AT37:AW39"/>
+    <mergeCell ref="AY37:BB39"/>
+    <mergeCell ref="AJ37:AM39"/>
+    <mergeCell ref="AE73:AH75"/>
+    <mergeCell ref="AJ73:AM75"/>
+    <mergeCell ref="AT73:AW75"/>
+    <mergeCell ref="AY73:BB75"/>
+    <mergeCell ref="AE83:AH85"/>
+    <mergeCell ref="AJ83:AM85"/>
+    <mergeCell ref="AT83:AW85"/>
+    <mergeCell ref="AY83:BB85"/>
+    <mergeCell ref="AT59:AW61"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="BH1:BK2"/>
+    <mergeCell ref="BH3:BK4"/>
+    <mergeCell ref="BH13:BK14"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="AS1:BB2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="AE13:AH15"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="AO13:AR15"/>
+    <mergeCell ref="AT13:AW15"/>
+    <mergeCell ref="AY13:BB15"/>
+    <mergeCell ref="AN3:AN46"/>
+    <mergeCell ref="AS3:AS46"/>
+    <mergeCell ref="AX3:AX46"/>
+    <mergeCell ref="AI3:AI46"/>
+    <mergeCell ref="AE23:AH26"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AJ3:AM5"/>
+    <mergeCell ref="AO3:AR5"/>
+    <mergeCell ref="AE27:AH29"/>
+    <mergeCell ref="AJ27:AM29"/>
     <mergeCell ref="AT3:AW5"/>
-    <mergeCell ref="AX3:AX24"/>
     <mergeCell ref="AY3:BB5"/>
-    <mergeCell ref="AT14:AW16"/>
-    <mergeCell ref="AY14:BB16"/>
     <mergeCell ref="AT27:AW29"/>
-    <mergeCell ref="AX27:AX48"/>
-    <mergeCell ref="AY27:BB29"/>
-    <mergeCell ref="AT38:AW40"/>
-    <mergeCell ref="AY38:BB40"/>
-    <mergeCell ref="AS3:AS24"/>
+    <mergeCell ref="AT23:AW26"/>
+    <mergeCell ref="AJ23:AM26"/>
+    <mergeCell ref="AS49:AS92"/>
+    <mergeCell ref="AX49:AX92"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="F37:I37"/>
@@ -40831,48 +39334,31 @@
     <mergeCell ref="P44:S44"/>
     <mergeCell ref="U60:X60"/>
     <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="AE3:AH5"/>
-    <mergeCell ref="AJ3:AM5"/>
-    <mergeCell ref="AO3:AR5"/>
     <mergeCell ref="K1:AC2"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="BH1:BK2"/>
-    <mergeCell ref="BH3:BK4"/>
-    <mergeCell ref="BH13:BK14"/>
-    <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="AO14:AR16"/>
-    <mergeCell ref="AS1:BB2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="AI3:AI24"/>
-    <mergeCell ref="AN3:AN24"/>
-    <mergeCell ref="AE14:AH16"/>
-    <mergeCell ref="AJ14:AM16"/>
-    <mergeCell ref="AE27:AH29"/>
-    <mergeCell ref="AI27:AI48"/>
-    <mergeCell ref="AJ27:AM29"/>
-    <mergeCell ref="AE38:AH40"/>
-    <mergeCell ref="AJ38:AM40"/>
+    <mergeCell ref="AY69:BB72"/>
+    <mergeCell ref="AT69:AW72"/>
+    <mergeCell ref="AO69:AR72"/>
+    <mergeCell ref="AJ69:AM72"/>
+    <mergeCell ref="AE69:AH72"/>
+    <mergeCell ref="AO73:AR92"/>
+    <mergeCell ref="AY27:BB29"/>
+    <mergeCell ref="AE37:AH39"/>
+    <mergeCell ref="AY23:BB26"/>
+    <mergeCell ref="AO27:AR46"/>
+    <mergeCell ref="AS47:BB48"/>
+    <mergeCell ref="AE47:AN48"/>
+    <mergeCell ref="AO47:AR48"/>
+    <mergeCell ref="AE49:AH51"/>
+    <mergeCell ref="AJ49:AM51"/>
+    <mergeCell ref="AO49:AR51"/>
+    <mergeCell ref="AE59:AH61"/>
+    <mergeCell ref="AJ59:AM61"/>
+    <mergeCell ref="AO59:AR61"/>
+    <mergeCell ref="AT49:AW51"/>
+    <mergeCell ref="AY49:BB51"/>
+    <mergeCell ref="AY59:BB61"/>
+    <mergeCell ref="AI49:AI92"/>
+    <mergeCell ref="AN49:AN92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C4E67-BA55-4AC7-9301-9D17A0850AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF78412-CEF2-4330-8F3A-83F0E630CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -759,19 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +789,63 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +863,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,63 +892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31371,8 +31368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
   <dimension ref="A1:BK138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG79" sqref="AG79"/>
+    <sheetView tabSelected="1" topLeftCell="AC51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK68" sqref="AK68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31389,133 +31386,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="55"/>
-      <c r="AE1" s="66" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="70"/>
+      <c r="AE1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="66" t="s">
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BH1" s="75" t="s">
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BH1" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="75"/>
-      <c r="BK1" s="75"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
     </row>
     <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="58"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="73"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -31547,44 +31544,44 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="44" t="s">
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="44" t="s">
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="44" t="s">
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="46"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="40"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="42"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -31615,106 +31612,106 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="49"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="45"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
     </row>
     <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="K5" s="70" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="K5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="72"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="70" t="s">
+      <c r="Z5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="72"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="52"/>
-      <c r="BH5" s="74" t="s">
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="51"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BH5" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
     </row>
     <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -31791,7 +31788,7 @@
       <c r="AH6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="40"/>
+      <c r="AI6" s="39"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="26" t="s">
         <v>10</v>
@@ -31802,7 +31799,7 @@
       <c r="AM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="40"/>
+      <c r="AN6" s="39"/>
       <c r="AO6" s="24"/>
       <c r="AP6" s="26" t="s">
         <v>10</v>
@@ -31813,7 +31810,7 @@
       <c r="AR6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AS6" s="40"/>
+      <c r="AS6" s="39"/>
       <c r="AT6" s="24"/>
       <c r="AU6" s="26" t="s">
         <v>10</v>
@@ -31824,7 +31821,7 @@
       <c r="AW6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="40"/>
+      <c r="AX6" s="39"/>
       <c r="AY6" s="24"/>
       <c r="AZ6" s="26" t="s">
         <v>10</v>
@@ -31935,7 +31932,7 @@
       <c r="AH7" s="27">
         <v>0.8</v>
       </c>
-      <c r="AI7" s="40"/>
+      <c r="AI7" s="39"/>
       <c r="AJ7" s="25" t="s">
         <v>58</v>
       </c>
@@ -31948,7 +31945,7 @@
       <c r="AM7" s="27">
         <v>0.75</v>
       </c>
-      <c r="AN7" s="40"/>
+      <c r="AN7" s="39"/>
       <c r="AO7" s="25" t="s">
         <v>58</v>
       </c>
@@ -31961,7 +31958,7 @@
       <c r="AR7" s="27">
         <v>0.66</v>
       </c>
-      <c r="AS7" s="40"/>
+      <c r="AS7" s="39"/>
       <c r="AT7" s="25" t="s">
         <v>58</v>
       </c>
@@ -31974,7 +31971,7 @@
       <c r="AW7" s="27">
         <v>0.8</v>
       </c>
-      <c r="AX7" s="40"/>
+      <c r="AX7" s="39"/>
       <c r="AY7" s="25" t="s">
         <v>58</v>
       </c>
@@ -32089,7 +32086,7 @@
       <c r="AH8" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI8" s="40"/>
+      <c r="AI8" s="39"/>
       <c r="AJ8" s="25" t="s">
         <v>59</v>
       </c>
@@ -32102,7 +32099,7 @@
       <c r="AM8" s="27">
         <v>0.8</v>
       </c>
-      <c r="AN8" s="40"/>
+      <c r="AN8" s="39"/>
       <c r="AO8" s="25" t="s">
         <v>59</v>
       </c>
@@ -32115,7 +32112,7 @@
       <c r="AR8" s="27">
         <v>0.68</v>
       </c>
-      <c r="AS8" s="40"/>
+      <c r="AS8" s="39"/>
       <c r="AT8" s="25" t="s">
         <v>59</v>
       </c>
@@ -32128,7 +32125,7 @@
       <c r="AW8" s="27">
         <v>0.76</v>
       </c>
-      <c r="AX8" s="40"/>
+      <c r="AX8" s="39"/>
       <c r="AY8" s="25" t="s">
         <v>59</v>
       </c>
@@ -32244,7 +32241,7 @@
       <c r="AH9" s="27">
         <v>0.76</v>
       </c>
-      <c r="AI9" s="40"/>
+      <c r="AI9" s="39"/>
       <c r="AJ9" s="25" t="s">
         <v>60</v>
       </c>
@@ -32257,7 +32254,7 @@
       <c r="AM9" s="27">
         <v>0.8</v>
       </c>
-      <c r="AN9" s="40"/>
+      <c r="AN9" s="39"/>
       <c r="AO9" s="25" t="s">
         <v>60</v>
       </c>
@@ -32270,7 +32267,7 @@
       <c r="AR9" s="27">
         <v>0.64</v>
       </c>
-      <c r="AS9" s="40"/>
+      <c r="AS9" s="39"/>
       <c r="AT9" s="25" t="s">
         <v>60</v>
       </c>
@@ -32283,7 +32280,7 @@
       <c r="AW9" s="27">
         <v>0.75</v>
       </c>
-      <c r="AX9" s="40"/>
+      <c r="AX9" s="39"/>
       <c r="AY9" s="25" t="s">
         <v>60</v>
       </c>
@@ -32398,7 +32395,7 @@
       <c r="AH10" s="27">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="40"/>
+      <c r="AI10" s="39"/>
       <c r="AJ10" s="25" t="s">
         <v>61</v>
       </c>
@@ -32411,7 +32408,7 @@
       <c r="AM10" s="27">
         <v>0.8</v>
       </c>
-      <c r="AN10" s="40"/>
+      <c r="AN10" s="39"/>
       <c r="AO10" s="25" t="s">
         <v>61</v>
       </c>
@@ -32424,7 +32421,7 @@
       <c r="AR10" s="27">
         <v>0.63</v>
       </c>
-      <c r="AS10" s="40"/>
+      <c r="AS10" s="39"/>
       <c r="AT10" s="25" t="s">
         <v>61</v>
       </c>
@@ -32437,7 +32434,7 @@
       <c r="AW10" s="27">
         <v>0.76</v>
       </c>
-      <c r="AX10" s="40"/>
+      <c r="AX10" s="39"/>
       <c r="AY10" s="25" t="s">
         <v>61</v>
       </c>
@@ -32552,7 +32549,7 @@
       <c r="AH11" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI11" s="40"/>
+      <c r="AI11" s="39"/>
       <c r="AJ11" s="25" t="s">
         <v>62</v>
       </c>
@@ -32565,7 +32562,7 @@
       <c r="AM11" s="27">
         <v>0.77</v>
       </c>
-      <c r="AN11" s="40"/>
+      <c r="AN11" s="39"/>
       <c r="AO11" s="25" t="s">
         <v>62</v>
       </c>
@@ -32578,7 +32575,7 @@
       <c r="AR11" s="27">
         <v>0.61</v>
       </c>
-      <c r="AS11" s="40"/>
+      <c r="AS11" s="39"/>
       <c r="AT11" s="25" t="s">
         <v>62</v>
       </c>
@@ -32591,7 +32588,7 @@
       <c r="AW11" s="27">
         <v>0.75</v>
       </c>
-      <c r="AX11" s="40"/>
+      <c r="AX11" s="39"/>
       <c r="AY11" s="25" t="s">
         <v>62</v>
       </c>
@@ -32643,33 +32640,33 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="54"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="67" t="s">
+      <c r="Z12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="69"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
       <c r="AE12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32682,7 +32679,7 @@
       <c r="AH12" s="27">
         <v>0.76</v>
       </c>
-      <c r="AI12" s="40"/>
+      <c r="AI12" s="39"/>
       <c r="AJ12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32695,7 +32692,7 @@
       <c r="AM12" s="27">
         <v>0.79</v>
       </c>
-      <c r="AN12" s="40"/>
+      <c r="AN12" s="39"/>
       <c r="AO12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32708,7 +32705,7 @@
       <c r="AR12" s="27">
         <v>0.6</v>
       </c>
-      <c r="AS12" s="40"/>
+      <c r="AS12" s="39"/>
       <c r="AT12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32721,7 +32718,7 @@
       <c r="AW12" s="27">
         <v>0.73</v>
       </c>
-      <c r="AX12" s="40"/>
+      <c r="AX12" s="39"/>
       <c r="AY12" s="25" t="s">
         <v>63</v>
       </c>
@@ -32816,44 +32813,44 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="44" t="s">
+      <c r="AE13" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="44" t="s">
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="44" t="s">
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="44" t="s">
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="44" t="s">
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="46"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="76"/>
-      <c r="BJ13" s="76"/>
-      <c r="BK13" s="76"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="42"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BK13" s="57"/>
     </row>
     <row r="14" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -32932,34 +32929,34 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="49"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="77"/>
-      <c r="BK14" s="77"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+      <c r="BB14" s="45"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
     </row>
     <row r="15" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -33038,36 +33035,36 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="52"/>
-      <c r="BH15" s="74" t="s">
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="47"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="48"/>
+      <c r="BH15" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="74"/>
-      <c r="BK15" s="74"/>
+      <c r="BI15" s="66"/>
+      <c r="BJ15" s="66"/>
+      <c r="BK15" s="66"/>
     </row>
     <row r="16" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -33156,7 +33153,7 @@
       <c r="AH16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="40"/>
+      <c r="AI16" s="39"/>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="26" t="s">
         <v>10</v>
@@ -33167,7 +33164,7 @@
       <c r="AM16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN16" s="40"/>
+      <c r="AN16" s="39"/>
       <c r="AO16" s="24"/>
       <c r="AP16" s="26" t="s">
         <v>10</v>
@@ -33178,7 +33175,7 @@
       <c r="AR16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AS16" s="40"/>
+      <c r="AS16" s="39"/>
       <c r="AT16" s="24"/>
       <c r="AU16" s="26" t="s">
         <v>10</v>
@@ -33189,7 +33186,7 @@
       <c r="AW16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX16" s="40"/>
+      <c r="AX16" s="39"/>
       <c r="AY16" s="24"/>
       <c r="AZ16" s="26" t="s">
         <v>10</v>
@@ -33278,28 +33275,28 @@
       <c r="AF17" s="27"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="27"/>
-      <c r="AI17" s="40"/>
+      <c r="AI17" s="39"/>
       <c r="AJ17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK17" s="27"/>
       <c r="AL17" s="28"/>
       <c r="AM17" s="27"/>
-      <c r="AN17" s="40"/>
+      <c r="AN17" s="39"/>
       <c r="AO17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AP17" s="29"/>
       <c r="AQ17" s="30"/>
       <c r="AR17" s="29"/>
-      <c r="AS17" s="40"/>
+      <c r="AS17" s="39"/>
       <c r="AT17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AU17" s="27"/>
       <c r="AV17" s="28"/>
       <c r="AW17" s="27"/>
-      <c r="AX17" s="40"/>
+      <c r="AX17" s="39"/>
       <c r="AY17" s="25" t="s">
         <v>58</v>
       </c>
@@ -33386,28 +33383,28 @@
       <c r="AF18" s="27"/>
       <c r="AG18" s="28"/>
       <c r="AH18" s="27"/>
-      <c r="AI18" s="40"/>
+      <c r="AI18" s="39"/>
       <c r="AJ18" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK18" s="27"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="27"/>
-      <c r="AN18" s="40"/>
+      <c r="AN18" s="39"/>
       <c r="AO18" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AP18" s="29"/>
       <c r="AQ18" s="30"/>
       <c r="AR18" s="29"/>
-      <c r="AS18" s="40"/>
+      <c r="AS18" s="39"/>
       <c r="AT18" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AU18" s="27"/>
       <c r="AV18" s="28"/>
       <c r="AW18" s="27"/>
-      <c r="AX18" s="40"/>
+      <c r="AX18" s="39"/>
       <c r="AY18" s="25" t="s">
         <v>59</v>
       </c>
@@ -33462,28 +33459,28 @@
       <c r="AF19" s="27"/>
       <c r="AG19" s="28"/>
       <c r="AH19" s="27"/>
-      <c r="AI19" s="40"/>
+      <c r="AI19" s="39"/>
       <c r="AJ19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK19" s="27"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="27"/>
-      <c r="AN19" s="40"/>
+      <c r="AN19" s="39"/>
       <c r="AO19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AP19" s="27"/>
       <c r="AQ19" s="28"/>
       <c r="AR19" s="27"/>
-      <c r="AS19" s="40"/>
+      <c r="AS19" s="39"/>
       <c r="AT19" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="27"/>
       <c r="AV19" s="28"/>
       <c r="AW19" s="27"/>
-      <c r="AX19" s="40"/>
+      <c r="AX19" s="39"/>
       <c r="AY19" s="25" t="s">
         <v>60</v>
       </c>
@@ -33538,28 +33535,28 @@
       <c r="AF20" s="27"/>
       <c r="AG20" s="28"/>
       <c r="AH20" s="27"/>
-      <c r="AI20" s="40"/>
+      <c r="AI20" s="39"/>
       <c r="AJ20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK20" s="27"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="27"/>
-      <c r="AN20" s="40"/>
+      <c r="AN20" s="39"/>
       <c r="AO20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AP20" s="27"/>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="27"/>
-      <c r="AS20" s="40"/>
+      <c r="AS20" s="39"/>
       <c r="AT20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AU20" s="27"/>
       <c r="AV20" s="28"/>
       <c r="AW20" s="27"/>
-      <c r="AX20" s="40"/>
+      <c r="AX20" s="39"/>
       <c r="AY20" s="25" t="s">
         <v>61</v>
       </c>
@@ -33574,74 +33571,74 @@
       <c r="BK20" s="19"/>
     </row>
     <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="K21" s="70" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="K21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="70" t="s">
+      <c r="P21" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="70" t="s">
+      <c r="U21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="72"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="51"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="70" t="s">
+      <c r="Z21" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="72"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
       <c r="AE21" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AF21" s="27"/>
       <c r="AG21" s="28"/>
       <c r="AH21" s="27"/>
-      <c r="AI21" s="40"/>
+      <c r="AI21" s="39"/>
       <c r="AJ21" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK21" s="27"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="27"/>
-      <c r="AN21" s="40"/>
+      <c r="AN21" s="39"/>
       <c r="AO21" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AP21" s="27"/>
       <c r="AQ21" s="28"/>
       <c r="AR21" s="27"/>
-      <c r="AS21" s="40"/>
+      <c r="AS21" s="39"/>
       <c r="AT21" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AU21" s="27"/>
       <c r="AV21" s="28"/>
       <c r="AW21" s="27"/>
-      <c r="AX21" s="40"/>
+      <c r="AX21" s="39"/>
       <c r="AY21" s="25" t="s">
         <v>62</v>
       </c>
@@ -33732,28 +33729,28 @@
       <c r="AF22" s="27"/>
       <c r="AG22" s="28"/>
       <c r="AH22" s="27"/>
-      <c r="AI22" s="40"/>
+      <c r="AI22" s="39"/>
       <c r="AJ22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AK22" s="27"/>
       <c r="AL22" s="28"/>
       <c r="AM22" s="27"/>
-      <c r="AN22" s="40"/>
+      <c r="AN22" s="39"/>
       <c r="AO22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AP22" s="27"/>
       <c r="AQ22" s="28"/>
       <c r="AR22" s="27"/>
-      <c r="AS22" s="40"/>
+      <c r="AS22" s="39"/>
       <c r="AT22" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AU22" s="27"/>
       <c r="AV22" s="28"/>
       <c r="AW22" s="27"/>
-      <c r="AX22" s="40"/>
+      <c r="AX22" s="39"/>
       <c r="AY22" s="25" t="s">
         <v>63</v>
       </c>
@@ -33850,30 +33847,30 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE23" s="81"/>
+      <c r="AE23" s="63"/>
       <c r="AF23" s="38"/>
       <c r="AG23" s="38"/>
       <c r="AH23" s="38"/>
-      <c r="AI23" s="40"/>
+      <c r="AI23" s="39"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
       <c r="AL23" s="38"/>
       <c r="AM23" s="38"/>
-      <c r="AN23" s="40"/>
+      <c r="AN23" s="39"/>
       <c r="AO23" s="38"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="38"/>
       <c r="AR23" s="38"/>
-      <c r="AS23" s="40"/>
+      <c r="AS23" s="39"/>
       <c r="AT23" s="38"/>
       <c r="AU23" s="38"/>
       <c r="AV23" s="38"/>
       <c r="AW23" s="38"/>
-      <c r="AX23" s="40"/>
+      <c r="AX23" s="39"/>
       <c r="AY23" s="38"/>
       <c r="AZ23" s="38"/>
       <c r="BA23" s="38"/>
-      <c r="BB23" s="39"/>
+      <c r="BB23" s="74"/>
     </row>
     <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -33952,30 +33949,30 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="40"/>
-      <c r="AV24" s="40"/>
-      <c r="AW24" s="40"/>
-      <c r="AX24" s="40"/>
-      <c r="AY24" s="40"/>
-      <c r="AZ24" s="40"/>
-      <c r="BA24" s="40"/>
-      <c r="BB24" s="41"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="75"/>
     </row>
     <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -34054,30 +34051,30 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
-      <c r="AS25" s="40"/>
-      <c r="AT25" s="40"/>
-      <c r="AU25" s="40"/>
-      <c r="AV25" s="40"/>
-      <c r="AW25" s="40"/>
-      <c r="AX25" s="40"/>
-      <c r="AY25" s="40"/>
-      <c r="AZ25" s="40"/>
-      <c r="BA25" s="40"/>
-      <c r="BB25" s="41"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="75"/>
     </row>
     <row r="26" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -34156,30 +34153,30 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="43"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="76"/>
     </row>
     <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -34258,38 +34255,38 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="44" t="s">
+      <c r="AE27" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="44" t="s">
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="44" t="s">
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="44" t="s">
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="46"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="42"/>
     </row>
     <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -34317,57 +34314,57 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="67" t="s">
+      <c r="P28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="69"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="54"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="67" t="s">
+      <c r="U28" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="54"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="67" t="s">
+      <c r="Z28" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="69"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="47"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="49"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="54"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="45"/>
     </row>
     <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -34438,30 +34435,30 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="40"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="40"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="40"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="52"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="39"/>
+      <c r="AY29" s="46"/>
+      <c r="AZ29" s="47"/>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="48"/>
     </row>
     <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -34550,7 +34547,7 @@
       <c r="AH30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI30" s="40"/>
+      <c r="AI30" s="39"/>
       <c r="AJ30" s="24"/>
       <c r="AK30" s="26" t="s">
         <v>10</v>
@@ -34561,12 +34558,12 @@
       <c r="AM30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN30" s="40"/>
-      <c r="AO30" s="40"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="40"/>
-      <c r="AS30" s="40"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
       <c r="AT30" s="24"/>
       <c r="AU30" s="26" t="s">
         <v>10</v>
@@ -34577,7 +34574,7 @@
       <c r="AW30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX30" s="40"/>
+      <c r="AX30" s="39"/>
       <c r="AY30" s="24"/>
       <c r="AZ30" s="26" t="s">
         <v>10</v>
@@ -34678,26 +34675,26 @@
       <c r="AH31" s="27">
         <v>0.78</v>
       </c>
-      <c r="AI31" s="40"/>
+      <c r="AI31" s="39"/>
       <c r="AJ31" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK31" s="27"/>
       <c r="AL31" s="28"/>
       <c r="AM31" s="27"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
       <c r="AT31" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AU31" s="27"/>
       <c r="AV31" s="28"/>
       <c r="AW31" s="27"/>
-      <c r="AX31" s="40"/>
+      <c r="AX31" s="39"/>
       <c r="AY31" s="25" t="s">
         <v>58</v>
       </c>
@@ -34794,26 +34791,26 @@
       <c r="AH32" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI32" s="40"/>
+      <c r="AI32" s="39"/>
       <c r="AJ32" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK32" s="27"/>
       <c r="AL32" s="28"/>
       <c r="AM32" s="27"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
-      <c r="AS32" s="40"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
       <c r="AT32" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AU32" s="27"/>
       <c r="AV32" s="28"/>
       <c r="AW32" s="27"/>
-      <c r="AX32" s="40"/>
+      <c r="AX32" s="39"/>
       <c r="AY32" s="25" t="s">
         <v>59</v>
       </c>
@@ -34894,19 +34891,19 @@
       <c r="AH33" s="27">
         <v>0.75</v>
       </c>
-      <c r="AI33" s="40"/>
+      <c r="AI33" s="39"/>
       <c r="AJ33" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK33" s="27"/>
       <c r="AL33" s="28"/>
       <c r="AM33" s="27"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
-      <c r="AS33" s="40"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
       <c r="AT33" s="25" t="s">
         <v>60</v>
       </c>
@@ -34919,7 +34916,7 @@
       <c r="AW33" s="27">
         <v>0.74</v>
       </c>
-      <c r="AX33" s="40"/>
+      <c r="AX33" s="39"/>
       <c r="AY33" s="25" t="s">
         <v>60</v>
       </c>
@@ -34994,19 +34991,19 @@
       <c r="AF34" s="27"/>
       <c r="AG34" s="28"/>
       <c r="AH34" s="27"/>
-      <c r="AI34" s="40"/>
+      <c r="AI34" s="39"/>
       <c r="AJ34" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK34" s="27"/>
       <c r="AL34" s="28"/>
       <c r="AM34" s="27"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
       <c r="AT34" s="25" t="s">
         <v>61</v>
       </c>
@@ -35019,7 +35016,7 @@
       <c r="AW34" s="27">
         <v>0.81</v>
       </c>
-      <c r="AX34" s="40"/>
+      <c r="AX34" s="39"/>
       <c r="AY34" s="25" t="s">
         <v>61</v>
       </c>
@@ -35068,19 +35065,19 @@
       <c r="AH35" s="27">
         <v>0.77</v>
       </c>
-      <c r="AI35" s="40"/>
+      <c r="AI35" s="39"/>
       <c r="AJ35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK35" s="27"/>
       <c r="AL35" s="28"/>
       <c r="AM35" s="27"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
-      <c r="AQ35" s="40"/>
-      <c r="AR35" s="40"/>
-      <c r="AS35" s="40"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
       <c r="AT35" s="25" t="s">
         <v>62</v>
       </c>
@@ -35093,7 +35090,7 @@
       <c r="AW35" s="27">
         <v>0.75</v>
       </c>
-      <c r="AX35" s="40"/>
+      <c r="AX35" s="39"/>
       <c r="AY35" s="25" t="s">
         <v>62</v>
       </c>
@@ -35142,26 +35139,26 @@
       <c r="AH36" s="27">
         <v>0.81</v>
       </c>
-      <c r="AI36" s="40"/>
+      <c r="AI36" s="39"/>
       <c r="AJ36" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AK36" s="27"/>
       <c r="AL36" s="28"/>
       <c r="AM36" s="27"/>
-      <c r="AN36" s="40"/>
-      <c r="AO36" s="40"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
       <c r="AT36" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AU36" s="27"/>
       <c r="AV36" s="28"/>
       <c r="AW36" s="27"/>
-      <c r="AX36" s="40"/>
+      <c r="AX36" s="39"/>
       <c r="AY36" s="25" t="s">
         <v>63</v>
       </c>
@@ -35170,78 +35167,78 @@
       <c r="BB36" s="27"/>
     </row>
     <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
-      <c r="K37" s="70" t="s">
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
+      <c r="K37" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="70" t="s">
+      <c r="P37" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="72"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="51"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="70" t="s">
+      <c r="U37" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="72"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="51"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="70" t="s">
+      <c r="Z37" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="72"/>
-      <c r="AE37" s="44" t="s">
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="51"/>
+      <c r="AE37" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="44" t="s">
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="44" t="s">
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="46"/>
-      <c r="AX37" s="40"/>
-      <c r="AY37" s="44" t="s">
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="42"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="46"/>
+      <c r="AZ37" s="41"/>
+      <c r="BA37" s="41"/>
+      <c r="BB37" s="42"/>
     </row>
     <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -35308,30 +35305,30 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="49"/>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="47"/>
-      <c r="AU38" s="48"/>
-      <c r="AV38" s="48"/>
-      <c r="AW38" s="49"/>
-      <c r="AX38" s="40"/>
-      <c r="AY38" s="47"/>
-      <c r="AZ38" s="48"/>
-      <c r="BA38" s="48"/>
-      <c r="BB38" s="49"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="45"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="45"/>
     </row>
     <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -35410,30 +35407,30 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="51"/>
-      <c r="BA39" s="51"/>
-      <c r="BB39" s="52"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="46"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="48"/>
     </row>
     <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -35522,7 +35519,7 @@
       <c r="AH40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI40" s="40"/>
+      <c r="AI40" s="39"/>
       <c r="AJ40" s="24"/>
       <c r="AK40" s="26" t="s">
         <v>10</v>
@@ -35533,12 +35530,12 @@
       <c r="AM40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="39"/>
+      <c r="AR40" s="39"/>
+      <c r="AS40" s="39"/>
       <c r="AT40" s="24"/>
       <c r="AU40" s="26" t="s">
         <v>10</v>
@@ -35549,7 +35546,7 @@
       <c r="AW40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX40" s="40"/>
+      <c r="AX40" s="39"/>
       <c r="AY40" s="24"/>
       <c r="AZ40" s="26" t="s">
         <v>10</v>
@@ -35644,26 +35641,26 @@
       <c r="AF41" s="27"/>
       <c r="AG41" s="28"/>
       <c r="AH41" s="27"/>
-      <c r="AI41" s="40"/>
+      <c r="AI41" s="39"/>
       <c r="AJ41" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK41" s="27"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="27"/>
-      <c r="AN41" s="40"/>
-      <c r="AO41" s="40"/>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39"/>
       <c r="AT41" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AU41" s="27"/>
       <c r="AV41" s="28"/>
       <c r="AW41" s="27"/>
-      <c r="AX41" s="40"/>
+      <c r="AX41" s="39"/>
       <c r="AY41" s="25" t="s">
         <v>58</v>
       </c>
@@ -35754,26 +35751,26 @@
       <c r="AF42" s="27"/>
       <c r="AG42" s="28"/>
       <c r="AH42" s="27"/>
-      <c r="AI42" s="40"/>
+      <c r="AI42" s="39"/>
       <c r="AJ42" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK42" s="27"/>
       <c r="AL42" s="28"/>
       <c r="AM42" s="27"/>
-      <c r="AN42" s="40"/>
-      <c r="AO42" s="40"/>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="40"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="39"/>
+      <c r="AS42" s="39"/>
       <c r="AT42" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AU42" s="27"/>
       <c r="AV42" s="28"/>
       <c r="AW42" s="27"/>
-      <c r="AX42" s="40"/>
+      <c r="AX42" s="39"/>
       <c r="AY42" s="25" t="s">
         <v>59</v>
       </c>
@@ -35864,26 +35861,26 @@
       <c r="AF43" s="27"/>
       <c r="AG43" s="28"/>
       <c r="AH43" s="27"/>
-      <c r="AI43" s="40"/>
+      <c r="AI43" s="39"/>
       <c r="AJ43" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK43" s="27"/>
       <c r="AL43" s="28"/>
       <c r="AM43" s="27"/>
-      <c r="AN43" s="40"/>
-      <c r="AO43" s="40"/>
-      <c r="AP43" s="40"/>
-      <c r="AQ43" s="40"/>
-      <c r="AR43" s="40"/>
-      <c r="AS43" s="40"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="39"/>
       <c r="AT43" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AU43" s="27"/>
       <c r="AV43" s="28"/>
       <c r="AW43" s="27"/>
-      <c r="AX43" s="40"/>
+      <c r="AX43" s="39"/>
       <c r="AY43" s="25" t="s">
         <v>60</v>
       </c>
@@ -35917,59 +35914,59 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="67" t="s">
+      <c r="K44" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="69"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="67" t="s">
+      <c r="P44" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="69"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="67" t="s">
+      <c r="U44" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="69"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="54"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="67" t="s">
+      <c r="Z44" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="69"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="54"/>
       <c r="AE44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AF44" s="27"/>
       <c r="AG44" s="28"/>
       <c r="AH44" s="27"/>
-      <c r="AI44" s="40"/>
+      <c r="AI44" s="39"/>
       <c r="AJ44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK44" s="27"/>
       <c r="AL44" s="28"/>
       <c r="AM44" s="27"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
-      <c r="AQ44" s="40"/>
-      <c r="AR44" s="40"/>
-      <c r="AS44" s="40"/>
+      <c r="AN44" s="39"/>
+      <c r="AO44" s="39"/>
+      <c r="AP44" s="39"/>
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="39"/>
+      <c r="AS44" s="39"/>
       <c r="AT44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AU44" s="27"/>
       <c r="AV44" s="28"/>
       <c r="AW44" s="27"/>
-      <c r="AX44" s="40"/>
+      <c r="AX44" s="39"/>
       <c r="AY44" s="25" t="s">
         <v>61</v>
       </c>
@@ -36052,26 +36049,26 @@
       <c r="AF45" s="27"/>
       <c r="AG45" s="28"/>
       <c r="AH45" s="27"/>
-      <c r="AI45" s="40"/>
+      <c r="AI45" s="39"/>
       <c r="AJ45" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK45" s="27"/>
       <c r="AL45" s="28"/>
       <c r="AM45" s="27"/>
-      <c r="AN45" s="40"/>
-      <c r="AO45" s="40"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="40"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="39"/>
       <c r="AT45" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AU45" s="27"/>
       <c r="AV45" s="28"/>
       <c r="AW45" s="27"/>
-      <c r="AX45" s="40"/>
+      <c r="AX45" s="39"/>
       <c r="AY45" s="25" t="s">
         <v>62</v>
       </c>
@@ -36162,26 +36159,26 @@
       <c r="AF46" s="32"/>
       <c r="AG46" s="33"/>
       <c r="AH46" s="32"/>
-      <c r="AI46" s="40"/>
+      <c r="AI46" s="39"/>
       <c r="AJ46" s="31" t="s">
         <v>63</v>
       </c>
       <c r="AK46" s="32"/>
       <c r="AL46" s="33"/>
       <c r="AM46" s="32"/>
-      <c r="AN46" s="40"/>
-      <c r="AO46" s="40"/>
-      <c r="AP46" s="40"/>
-      <c r="AQ46" s="40"/>
-      <c r="AR46" s="40"/>
-      <c r="AS46" s="40"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="39"/>
+      <c r="AS46" s="39"/>
       <c r="AT46" s="31" t="s">
         <v>63</v>
       </c>
       <c r="AU46" s="32"/>
       <c r="AV46" s="33"/>
       <c r="AW46" s="32"/>
-      <c r="AX46" s="40"/>
+      <c r="AX46" s="39"/>
       <c r="AY46" s="31" t="s">
         <v>63</v>
       </c>
@@ -36266,36 +36263,36 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE47" s="53" t="s">
+      <c r="AE47" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="59" t="s">
+      <c r="AF47" s="69"/>
+      <c r="AG47" s="69"/>
+      <c r="AH47" s="69"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="69"/>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="70"/>
+      <c r="AO47" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="AP47" s="60"/>
-      <c r="AQ47" s="60"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="53" t="s">
+      <c r="AP47" s="78"/>
+      <c r="AQ47" s="78"/>
+      <c r="AR47" s="79"/>
+      <c r="AS47" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="AT47" s="54"/>
-      <c r="AU47" s="54"/>
-      <c r="AV47" s="54"/>
-      <c r="AW47" s="54"/>
-      <c r="AX47" s="54"/>
-      <c r="AY47" s="54"/>
-      <c r="AZ47" s="54"/>
-      <c r="BA47" s="54"/>
-      <c r="BB47" s="55"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="69"/>
+      <c r="BB47" s="70"/>
     </row>
     <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -36374,30 +36371,30 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="57"/>
-      <c r="AN48" s="58"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="63"/>
-      <c r="AQ48" s="63"/>
-      <c r="AR48" s="64"/>
-      <c r="AS48" s="56"/>
-      <c r="AT48" s="57"/>
-      <c r="AU48" s="57"/>
-      <c r="AV48" s="57"/>
-      <c r="AW48" s="57"/>
-      <c r="AX48" s="57"/>
-      <c r="AY48" s="57"/>
-      <c r="AZ48" s="57"/>
-      <c r="BA48" s="57"/>
-      <c r="BB48" s="58"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="73"/>
+      <c r="AO48" s="80"/>
+      <c r="AP48" s="81"/>
+      <c r="AQ48" s="81"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="71"/>
+      <c r="AT48" s="72"/>
+      <c r="AU48" s="72"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="73"/>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -36460,40 +36457,40 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
-      <c r="AE49" s="44" t="s">
+      <c r="AE49" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="40"/>
-      <c r="AJ49" s="44" t="s">
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AK49" s="45"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="46"/>
-      <c r="AN49" s="40"/>
-      <c r="AO49" s="65" t="s">
+      <c r="AK49" s="41"/>
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="AP49" s="65"/>
-      <c r="AQ49" s="65"/>
-      <c r="AR49" s="65"/>
-      <c r="AS49" s="40"/>
-      <c r="AT49" s="45" t="s">
+      <c r="AP49" s="83"/>
+      <c r="AQ49" s="83"/>
+      <c r="AR49" s="83"/>
+      <c r="AS49" s="39"/>
+      <c r="AT49" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AU49" s="45"/>
-      <c r="AV49" s="45"/>
-      <c r="AW49" s="46"/>
-      <c r="AX49" s="40"/>
-      <c r="AY49" s="44" t="s">
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="39"/>
+      <c r="AY49" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="AZ49" s="45"/>
-      <c r="BA49" s="45"/>
-      <c r="BB49" s="46"/>
+      <c r="AZ49" s="41"/>
+      <c r="BA49" s="41"/>
+      <c r="BB49" s="42"/>
     </row>
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -36556,30 +36553,30 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="48"/>
-      <c r="AL50" s="48"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="65"/>
-      <c r="AP50" s="65"/>
-      <c r="AQ50" s="65"/>
-      <c r="AR50" s="65"/>
-      <c r="AS50" s="40"/>
-      <c r="AT50" s="48"/>
-      <c r="AU50" s="48"/>
-      <c r="AV50" s="48"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="40"/>
-      <c r="AY50" s="47"/>
-      <c r="AZ50" s="48"/>
-      <c r="BA50" s="48"/>
-      <c r="BB50" s="49"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="83"/>
+      <c r="AP50" s="83"/>
+      <c r="AQ50" s="83"/>
+      <c r="AR50" s="83"/>
+      <c r="AS50" s="39"/>
+      <c r="AT50" s="44"/>
+      <c r="AU50" s="44"/>
+      <c r="AV50" s="44"/>
+      <c r="AW50" s="45"/>
+      <c r="AX50" s="39"/>
+      <c r="AY50" s="43"/>
+      <c r="AZ50" s="44"/>
+      <c r="BA50" s="44"/>
+      <c r="BB50" s="45"/>
     </row>
     <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -36610,30 +36607,30 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
-      <c r="AE51" s="50"/>
-      <c r="AF51" s="51"/>
-      <c r="AG51" s="51"/>
-      <c r="AH51" s="52"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="50"/>
-      <c r="AK51" s="51"/>
-      <c r="AL51" s="51"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="65"/>
-      <c r="AP51" s="65"/>
-      <c r="AQ51" s="65"/>
-      <c r="AR51" s="65"/>
-      <c r="AS51" s="40"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="51"/>
-      <c r="AV51" s="51"/>
-      <c r="AW51" s="52"/>
-      <c r="AX51" s="40"/>
-      <c r="AY51" s="50"/>
-      <c r="AZ51" s="51"/>
-      <c r="BA51" s="51"/>
-      <c r="BB51" s="52"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="48"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="83"/>
+      <c r="AP51" s="83"/>
+      <c r="AQ51" s="83"/>
+      <c r="AR51" s="83"/>
+      <c r="AS51" s="39"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="48"/>
+      <c r="AX51" s="39"/>
+      <c r="AY51" s="46"/>
+      <c r="AZ51" s="47"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="48"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -36674,7 +36671,7 @@
       <c r="AH52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI52" s="40"/>
+      <c r="AI52" s="39"/>
       <c r="AJ52" s="24"/>
       <c r="AK52" s="26" t="s">
         <v>10</v>
@@ -36685,7 +36682,7 @@
       <c r="AM52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="40"/>
+      <c r="AN52" s="39"/>
       <c r="AO52" s="24"/>
       <c r="AP52" s="26" t="s">
         <v>10</v>
@@ -36696,7 +36693,7 @@
       <c r="AR52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AS52" s="40"/>
+      <c r="AS52" s="39"/>
       <c r="AT52" s="35"/>
       <c r="AU52" s="26" t="s">
         <v>10</v>
@@ -36707,7 +36704,7 @@
       <c r="AW52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX52" s="40"/>
+      <c r="AX52" s="39"/>
       <c r="AY52" s="24"/>
       <c r="AZ52" s="26" t="s">
         <v>10</v>
@@ -36720,46 +36717,46 @@
       </c>
     </row>
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="69"/>
-      <c r="K53" s="70" t="s">
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="54"/>
+      <c r="K53" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="72"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="51"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="70" t="s">
+      <c r="P53" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="72"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="51"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="70" t="s">
+      <c r="U53" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="72"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="51"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="70" t="s">
+      <c r="Z53" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="72"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="51"/>
       <c r="AE53" s="25" t="s">
         <v>58</v>
       </c>
@@ -36772,7 +36769,7 @@
       <c r="AH53" s="27">
         <v>0.96</v>
       </c>
-      <c r="AI53" s="40"/>
+      <c r="AI53" s="39"/>
       <c r="AJ53" s="25" t="s">
         <v>58</v>
       </c>
@@ -36785,7 +36782,7 @@
       <c r="AM53" s="27">
         <v>0.92</v>
       </c>
-      <c r="AN53" s="40"/>
+      <c r="AN53" s="39"/>
       <c r="AO53" s="25" t="s">
         <v>58</v>
       </c>
@@ -36798,14 +36795,14 @@
       <c r="AR53" s="27">
         <v>0.84</v>
       </c>
-      <c r="AS53" s="40"/>
+      <c r="AS53" s="39"/>
       <c r="AT53" s="36" t="s">
         <v>58</v>
       </c>
       <c r="AU53" s="27"/>
       <c r="AV53" s="28"/>
       <c r="AW53" s="27"/>
-      <c r="AX53" s="40"/>
+      <c r="AX53" s="39"/>
       <c r="AY53" s="25" t="s">
         <v>58</v>
       </c>
@@ -36890,7 +36887,7 @@
       <c r="AH54" s="27">
         <v>0.9</v>
       </c>
-      <c r="AI54" s="40"/>
+      <c r="AI54" s="39"/>
       <c r="AJ54" s="25" t="s">
         <v>59</v>
       </c>
@@ -36903,7 +36900,7 @@
       <c r="AM54" s="27">
         <v>0.91</v>
       </c>
-      <c r="AN54" s="40"/>
+      <c r="AN54" s="39"/>
       <c r="AO54" s="25" t="s">
         <v>59</v>
       </c>
@@ -36916,14 +36913,14 @@
       <c r="AR54" s="27">
         <v>0.88</v>
       </c>
-      <c r="AS54" s="40"/>
+      <c r="AS54" s="39"/>
       <c r="AT54" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AU54" s="27"/>
       <c r="AV54" s="28"/>
       <c r="AW54" s="27"/>
-      <c r="AX54" s="40"/>
+      <c r="AX54" s="39"/>
       <c r="AY54" s="25" t="s">
         <v>59</v>
       </c>
@@ -37020,7 +37017,7 @@
       <c r="AH55" s="27">
         <v>0.86</v>
       </c>
-      <c r="AI55" s="40"/>
+      <c r="AI55" s="39"/>
       <c r="AJ55" s="25" t="s">
         <v>60</v>
       </c>
@@ -37033,7 +37030,7 @@
       <c r="AM55" s="27">
         <v>0.9</v>
       </c>
-      <c r="AN55" s="40"/>
+      <c r="AN55" s="39"/>
       <c r="AO55" s="25" t="s">
         <v>60</v>
       </c>
@@ -37046,14 +37043,14 @@
       <c r="AR55" s="27">
         <v>0.81</v>
       </c>
-      <c r="AS55" s="40"/>
+      <c r="AS55" s="39"/>
       <c r="AT55" s="36" t="s">
         <v>60</v>
       </c>
       <c r="AU55" s="27"/>
       <c r="AV55" s="28"/>
       <c r="AW55" s="27"/>
-      <c r="AX55" s="40"/>
+      <c r="AX55" s="39"/>
       <c r="AY55" s="25" t="s">
         <v>60</v>
       </c>
@@ -37150,7 +37147,7 @@
       <c r="AH56" s="27">
         <v>0.93</v>
       </c>
-      <c r="AI56" s="40"/>
+      <c r="AI56" s="39"/>
       <c r="AJ56" s="25" t="s">
         <v>61</v>
       </c>
@@ -37163,7 +37160,7 @@
       <c r="AM56" s="27">
         <v>0.94</v>
       </c>
-      <c r="AN56" s="40"/>
+      <c r="AN56" s="39"/>
       <c r="AO56" s="25" t="s">
         <v>61</v>
       </c>
@@ -37176,14 +37173,14 @@
       <c r="AR56" s="27">
         <v>0.83</v>
       </c>
-      <c r="AS56" s="40"/>
+      <c r="AS56" s="39"/>
       <c r="AT56" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AU56" s="27"/>
       <c r="AV56" s="28"/>
       <c r="AW56" s="27"/>
-      <c r="AX56" s="40"/>
+      <c r="AX56" s="39"/>
       <c r="AY56" s="25" t="s">
         <v>61</v>
       </c>
@@ -37280,7 +37277,7 @@
       <c r="AH57" s="27">
         <v>0.88</v>
       </c>
-      <c r="AI57" s="40"/>
+      <c r="AI57" s="39"/>
       <c r="AJ57" s="25" t="s">
         <v>62</v>
       </c>
@@ -37293,7 +37290,7 @@
       <c r="AM57" s="27">
         <v>0.91</v>
       </c>
-      <c r="AN57" s="40"/>
+      <c r="AN57" s="39"/>
       <c r="AO57" s="25" t="s">
         <v>62</v>
       </c>
@@ -37306,14 +37303,14 @@
       <c r="AR57" s="27">
         <v>0.85</v>
       </c>
-      <c r="AS57" s="40"/>
+      <c r="AS57" s="39"/>
       <c r="AT57" s="36" t="s">
         <v>62</v>
       </c>
       <c r="AU57" s="27"/>
       <c r="AV57" s="28"/>
       <c r="AW57" s="27"/>
-      <c r="AX57" s="40"/>
+      <c r="AX57" s="39"/>
       <c r="AY57" s="25" t="s">
         <v>62</v>
       </c>
@@ -37410,7 +37407,7 @@
       <c r="AH58" s="27">
         <v>0.91</v>
       </c>
-      <c r="AI58" s="40"/>
+      <c r="AI58" s="39"/>
       <c r="AJ58" s="25" t="s">
         <v>63</v>
       </c>
@@ -37423,7 +37420,7 @@
       <c r="AM58" s="27">
         <v>0.9</v>
       </c>
-      <c r="AN58" s="40"/>
+      <c r="AN58" s="39"/>
       <c r="AO58" s="25" t="s">
         <v>63</v>
       </c>
@@ -37436,14 +37433,14 @@
       <c r="AR58" s="27">
         <v>0.83</v>
       </c>
-      <c r="AS58" s="40"/>
+      <c r="AS58" s="39"/>
       <c r="AT58" s="36" t="s">
         <v>63</v>
       </c>
       <c r="AU58" s="27"/>
       <c r="AV58" s="28"/>
       <c r="AW58" s="27"/>
-      <c r="AX58" s="40"/>
+      <c r="AX58" s="39"/>
       <c r="AY58" s="25" t="s">
         <v>63</v>
       </c>
@@ -37528,40 +37525,40 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE59" s="44" t="s">
+      <c r="AE59" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="45"/>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="44" t="s">
+      <c r="AF59" s="41"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="42"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AK59" s="45"/>
-      <c r="AL59" s="45"/>
-      <c r="AM59" s="46"/>
-      <c r="AN59" s="40"/>
-      <c r="AO59" s="65" t="s">
+      <c r="AK59" s="41"/>
+      <c r="AL59" s="41"/>
+      <c r="AM59" s="42"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="AP59" s="65"/>
-      <c r="AQ59" s="65"/>
-      <c r="AR59" s="65"/>
-      <c r="AS59" s="40"/>
-      <c r="AT59" s="45" t="s">
+      <c r="AP59" s="83"/>
+      <c r="AQ59" s="83"/>
+      <c r="AR59" s="83"/>
+      <c r="AS59" s="39"/>
+      <c r="AT59" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AU59" s="45"/>
-      <c r="AV59" s="45"/>
-      <c r="AW59" s="46"/>
-      <c r="AX59" s="40"/>
-      <c r="AY59" s="44" t="s">
+      <c r="AU59" s="41"/>
+      <c r="AV59" s="41"/>
+      <c r="AW59" s="42"/>
+      <c r="AX59" s="39"/>
+      <c r="AY59" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AZ59" s="45"/>
-      <c r="BA59" s="45"/>
-      <c r="BB59" s="46"/>
+      <c r="AZ59" s="41"/>
+      <c r="BA59" s="41"/>
+      <c r="BB59" s="42"/>
     </row>
     <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -37589,57 +37586,57 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="67" t="s">
+      <c r="K60" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="69"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="54"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="67" t="s">
+      <c r="P60" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="69"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="54"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="67" t="s">
+      <c r="U60" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="69"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="54"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="67" t="s">
+      <c r="Z60" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="69"/>
-      <c r="AE60" s="47"/>
-      <c r="AF60" s="48"/>
-      <c r="AG60" s="48"/>
-      <c r="AH60" s="49"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="48"/>
-      <c r="AL60" s="48"/>
-      <c r="AM60" s="49"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="65"/>
-      <c r="AP60" s="65"/>
-      <c r="AQ60" s="65"/>
-      <c r="AR60" s="65"/>
-      <c r="AS60" s="40"/>
-      <c r="AT60" s="84"/>
-      <c r="AU60" s="84"/>
-      <c r="AV60" s="84"/>
-      <c r="AW60" s="49"/>
-      <c r="AX60" s="40"/>
-      <c r="AY60" s="47"/>
-      <c r="AZ60" s="48"/>
-      <c r="BA60" s="48"/>
-      <c r="BB60" s="49"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="54"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="45"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="45"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="83"/>
+      <c r="AP60" s="83"/>
+      <c r="AQ60" s="83"/>
+      <c r="AR60" s="83"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="44"/>
+      <c r="AU60" s="44"/>
+      <c r="AV60" s="44"/>
+      <c r="AW60" s="45"/>
+      <c r="AX60" s="39"/>
+      <c r="AY60" s="43"/>
+      <c r="AZ60" s="44"/>
+      <c r="BA60" s="44"/>
+      <c r="BB60" s="45"/>
     </row>
     <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -37710,30 +37707,30 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE61" s="50"/>
-      <c r="AF61" s="51"/>
-      <c r="AG61" s="51"/>
-      <c r="AH61" s="52"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="50"/>
-      <c r="AK61" s="51"/>
-      <c r="AL61" s="51"/>
-      <c r="AM61" s="52"/>
-      <c r="AN61" s="40"/>
-      <c r="AO61" s="65"/>
-      <c r="AP61" s="65"/>
-      <c r="AQ61" s="65"/>
-      <c r="AR61" s="65"/>
-      <c r="AS61" s="40"/>
-      <c r="AT61" s="51"/>
-      <c r="AU61" s="51"/>
-      <c r="AV61" s="51"/>
-      <c r="AW61" s="52"/>
-      <c r="AX61" s="40"/>
-      <c r="AY61" s="50"/>
-      <c r="AZ61" s="51"/>
-      <c r="BA61" s="51"/>
-      <c r="BB61" s="52"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="39"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="48"/>
+      <c r="AN61" s="39"/>
+      <c r="AO61" s="83"/>
+      <c r="AP61" s="83"/>
+      <c r="AQ61" s="83"/>
+      <c r="AR61" s="83"/>
+      <c r="AS61" s="39"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="48"/>
+      <c r="AX61" s="39"/>
+      <c r="AY61" s="46"/>
+      <c r="AZ61" s="47"/>
+      <c r="BA61" s="47"/>
+      <c r="BB61" s="48"/>
     </row>
     <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -37822,7 +37819,7 @@
       <c r="AH62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI62" s="40"/>
+      <c r="AI62" s="39"/>
       <c r="AJ62" s="24"/>
       <c r="AK62" s="26" t="s">
         <v>10</v>
@@ -37833,7 +37830,7 @@
       <c r="AM62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN62" s="40"/>
+      <c r="AN62" s="39"/>
       <c r="AO62" s="34"/>
       <c r="AP62" s="26" t="s">
         <v>10</v>
@@ -37844,7 +37841,7 @@
       <c r="AR62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AS62" s="40"/>
+      <c r="AS62" s="39"/>
       <c r="AT62" s="35"/>
       <c r="AU62" s="26" t="s">
         <v>10</v>
@@ -37855,7 +37852,7 @@
       <c r="AW62" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX62" s="40"/>
+      <c r="AX62" s="39"/>
       <c r="AY62" s="24"/>
       <c r="AZ62" s="26" t="s">
         <v>10</v>
@@ -37950,28 +37947,28 @@
       <c r="AF63" s="27"/>
       <c r="AG63" s="28"/>
       <c r="AH63" s="27"/>
-      <c r="AI63" s="40"/>
+      <c r="AI63" s="39"/>
       <c r="AJ63" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK63" s="27"/>
       <c r="AL63" s="28"/>
       <c r="AM63" s="27"/>
-      <c r="AN63" s="40"/>
+      <c r="AN63" s="39"/>
       <c r="AO63" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AP63" s="29"/>
       <c r="AQ63" s="30"/>
       <c r="AR63" s="29"/>
-      <c r="AS63" s="40"/>
+      <c r="AS63" s="39"/>
       <c r="AT63" s="36" t="s">
         <v>58</v>
       </c>
       <c r="AU63" s="27"/>
       <c r="AV63" s="28"/>
       <c r="AW63" s="27"/>
-      <c r="AX63" s="40"/>
+      <c r="AX63" s="39"/>
       <c r="AY63" s="25" t="s">
         <v>58</v>
       </c>
@@ -38062,28 +38059,28 @@
       <c r="AF64" s="27"/>
       <c r="AG64" s="28"/>
       <c r="AH64" s="27"/>
-      <c r="AI64" s="40"/>
+      <c r="AI64" s="39"/>
       <c r="AJ64" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK64" s="27"/>
       <c r="AL64" s="28"/>
       <c r="AM64" s="27"/>
-      <c r="AN64" s="40"/>
+      <c r="AN64" s="39"/>
       <c r="AO64" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AP64" s="29"/>
       <c r="AQ64" s="30"/>
       <c r="AR64" s="29"/>
-      <c r="AS64" s="40"/>
+      <c r="AS64" s="39"/>
       <c r="AT64" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AU64" s="27"/>
       <c r="AV64" s="28"/>
       <c r="AW64" s="27"/>
-      <c r="AX64" s="40"/>
+      <c r="AX64" s="39"/>
       <c r="AY64" s="25" t="s">
         <v>59</v>
       </c>
@@ -38158,28 +38155,28 @@
       <c r="AF65" s="27"/>
       <c r="AG65" s="28"/>
       <c r="AH65" s="27"/>
-      <c r="AI65" s="40"/>
+      <c r="AI65" s="39"/>
       <c r="AJ65" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK65" s="27"/>
       <c r="AL65" s="28"/>
       <c r="AM65" s="27"/>
-      <c r="AN65" s="40"/>
+      <c r="AN65" s="39"/>
       <c r="AO65" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AP65" s="27"/>
       <c r="AQ65" s="28"/>
       <c r="AR65" s="27"/>
-      <c r="AS65" s="40"/>
+      <c r="AS65" s="39"/>
       <c r="AT65" s="36" t="s">
         <v>60</v>
       </c>
       <c r="AU65" s="27"/>
       <c r="AV65" s="28"/>
       <c r="AW65" s="27"/>
-      <c r="AX65" s="40"/>
+      <c r="AX65" s="39"/>
       <c r="AY65" s="25" t="s">
         <v>60</v>
       </c>
@@ -38254,28 +38251,28 @@
       <c r="AF66" s="27"/>
       <c r="AG66" s="28"/>
       <c r="AH66" s="27"/>
-      <c r="AI66" s="40"/>
+      <c r="AI66" s="39"/>
       <c r="AJ66" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK66" s="27"/>
       <c r="AL66" s="28"/>
       <c r="AM66" s="27"/>
-      <c r="AN66" s="40"/>
+      <c r="AN66" s="39"/>
       <c r="AO66" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AP66" s="27"/>
       <c r="AQ66" s="28"/>
       <c r="AR66" s="27"/>
-      <c r="AS66" s="40"/>
+      <c r="AS66" s="39"/>
       <c r="AT66" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AU66" s="27"/>
       <c r="AV66" s="28"/>
       <c r="AW66" s="27"/>
-      <c r="AX66" s="40"/>
+      <c r="AX66" s="39"/>
       <c r="AY66" s="25" t="s">
         <v>61</v>
       </c>
@@ -38318,28 +38315,28 @@
       <c r="AF67" s="27"/>
       <c r="AG67" s="28"/>
       <c r="AH67" s="27"/>
-      <c r="AI67" s="40"/>
+      <c r="AI67" s="39"/>
       <c r="AJ67" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK67" s="27"/>
       <c r="AL67" s="28"/>
       <c r="AM67" s="27"/>
-      <c r="AN67" s="40"/>
+      <c r="AN67" s="39"/>
       <c r="AO67" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AP67" s="27"/>
       <c r="AQ67" s="28"/>
       <c r="AR67" s="27"/>
-      <c r="AS67" s="40"/>
+      <c r="AS67" s="39"/>
       <c r="AT67" s="36" t="s">
         <v>62</v>
       </c>
       <c r="AU67" s="27"/>
       <c r="AV67" s="28"/>
       <c r="AW67" s="27"/>
-      <c r="AX67" s="40"/>
+      <c r="AX67" s="39"/>
       <c r="AY67" s="25" t="s">
         <v>62</v>
       </c>
@@ -38382,28 +38379,28 @@
       <c r="AF68" s="27"/>
       <c r="AG68" s="28"/>
       <c r="AH68" s="27"/>
-      <c r="AI68" s="40"/>
+      <c r="AI68" s="39"/>
       <c r="AJ68" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AK68" s="27"/>
       <c r="AL68" s="28"/>
       <c r="AM68" s="27"/>
-      <c r="AN68" s="40"/>
+      <c r="AN68" s="39"/>
       <c r="AO68" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AP68" s="27"/>
       <c r="AQ68" s="28"/>
       <c r="AR68" s="27"/>
-      <c r="AS68" s="40"/>
+      <c r="AS68" s="39"/>
       <c r="AT68" s="36" t="s">
         <v>63</v>
       </c>
       <c r="AU68" s="27"/>
       <c r="AV68" s="28"/>
       <c r="AW68" s="27"/>
-      <c r="AX68" s="40"/>
+      <c r="AX68" s="39"/>
       <c r="AY68" s="25" t="s">
         <v>63</v>
       </c>
@@ -38415,191 +38412,191 @@
       <c r="AE69" s="38"/>
       <c r="AF69" s="38"/>
       <c r="AG69" s="38"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="40"/>
+      <c r="AH69" s="74"/>
+      <c r="AI69" s="39"/>
       <c r="AJ69" s="38"/>
       <c r="AK69" s="38"/>
       <c r="AL69" s="38"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="40"/>
+      <c r="AM69" s="74"/>
+      <c r="AN69" s="39"/>
       <c r="AO69" s="38"/>
       <c r="AP69" s="38"/>
       <c r="AQ69" s="38"/>
       <c r="AR69" s="38"/>
-      <c r="AS69" s="40"/>
+      <c r="AS69" s="39"/>
       <c r="AT69" s="38"/>
       <c r="AU69" s="38"/>
       <c r="AV69" s="38"/>
-      <c r="AW69" s="39"/>
-      <c r="AX69" s="40"/>
+      <c r="AW69" s="74"/>
+      <c r="AX69" s="39"/>
       <c r="AY69" s="38"/>
       <c r="AZ69" s="38"/>
       <c r="BA69" s="38"/>
-      <c r="BB69" s="39"/>
+      <c r="BB69" s="74"/>
     </row>
     <row r="70" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE70" s="40"/>
-      <c r="AF70" s="40"/>
-      <c r="AG70" s="40"/>
-      <c r="AH70" s="41"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
-      <c r="AK70" s="40"/>
-      <c r="AL70" s="40"/>
-      <c r="AM70" s="41"/>
-      <c r="AN70" s="40"/>
-      <c r="AO70" s="40"/>
-      <c r="AP70" s="40"/>
-      <c r="AQ70" s="40"/>
-      <c r="AR70" s="40"/>
-      <c r="AS70" s="40"/>
-      <c r="AT70" s="40"/>
-      <c r="AU70" s="40"/>
-      <c r="AV70" s="40"/>
-      <c r="AW70" s="41"/>
-      <c r="AX70" s="40"/>
-      <c r="AY70" s="40"/>
-      <c r="AZ70" s="40"/>
-      <c r="BA70" s="40"/>
-      <c r="BB70" s="41"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AH70" s="75"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="39"/>
+      <c r="AL70" s="39"/>
+      <c r="AM70" s="75"/>
+      <c r="AN70" s="39"/>
+      <c r="AO70" s="39"/>
+      <c r="AP70" s="39"/>
+      <c r="AQ70" s="39"/>
+      <c r="AR70" s="39"/>
+      <c r="AS70" s="39"/>
+      <c r="AT70" s="39"/>
+      <c r="AU70" s="39"/>
+      <c r="AV70" s="39"/>
+      <c r="AW70" s="75"/>
+      <c r="AX70" s="39"/>
+      <c r="AY70" s="39"/>
+      <c r="AZ70" s="39"/>
+      <c r="BA70" s="39"/>
+      <c r="BB70" s="75"/>
     </row>
     <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="40"/>
-      <c r="AG71" s="40"/>
-      <c r="AH71" s="41"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
-      <c r="AK71" s="40"/>
-      <c r="AL71" s="40"/>
-      <c r="AM71" s="41"/>
-      <c r="AN71" s="40"/>
-      <c r="AO71" s="40"/>
-      <c r="AP71" s="40"/>
-      <c r="AQ71" s="40"/>
-      <c r="AR71" s="40"/>
-      <c r="AS71" s="40"/>
-      <c r="AT71" s="40"/>
-      <c r="AU71" s="40"/>
-      <c r="AV71" s="40"/>
-      <c r="AW71" s="41"/>
-      <c r="AX71" s="40"/>
-      <c r="AY71" s="40"/>
-      <c r="AZ71" s="40"/>
-      <c r="BA71" s="40"/>
-      <c r="BB71" s="41"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="39"/>
+      <c r="AH71" s="75"/>
+      <c r="AI71" s="39"/>
+      <c r="AJ71" s="39"/>
+      <c r="AK71" s="39"/>
+      <c r="AL71" s="39"/>
+      <c r="AM71" s="75"/>
+      <c r="AN71" s="39"/>
+      <c r="AO71" s="39"/>
+      <c r="AP71" s="39"/>
+      <c r="AQ71" s="39"/>
+      <c r="AR71" s="39"/>
+      <c r="AS71" s="39"/>
+      <c r="AT71" s="39"/>
+      <c r="AU71" s="39"/>
+      <c r="AV71" s="39"/>
+      <c r="AW71" s="75"/>
+      <c r="AX71" s="39"/>
+      <c r="AY71" s="39"/>
+      <c r="AZ71" s="39"/>
+      <c r="BA71" s="39"/>
+      <c r="BB71" s="75"/>
     </row>
     <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE72" s="42"/>
-      <c r="AF72" s="42"/>
-      <c r="AG72" s="42"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="40"/>
-      <c r="AJ72" s="42"/>
-      <c r="AK72" s="42"/>
-      <c r="AL72" s="42"/>
-      <c r="AM72" s="43"/>
-      <c r="AN72" s="40"/>
-      <c r="AO72" s="40"/>
-      <c r="AP72" s="40"/>
-      <c r="AQ72" s="40"/>
-      <c r="AR72" s="40"/>
-      <c r="AS72" s="40"/>
-      <c r="AT72" s="42"/>
-      <c r="AU72" s="42"/>
-      <c r="AV72" s="42"/>
-      <c r="AW72" s="43"/>
-      <c r="AX72" s="40"/>
-      <c r="AY72" s="42"/>
-      <c r="AZ72" s="42"/>
-      <c r="BA72" s="42"/>
-      <c r="BB72" s="43"/>
+      <c r="AE72" s="56"/>
+      <c r="AF72" s="56"/>
+      <c r="AG72" s="56"/>
+      <c r="AH72" s="76"/>
+      <c r="AI72" s="39"/>
+      <c r="AJ72" s="56"/>
+      <c r="AK72" s="56"/>
+      <c r="AL72" s="56"/>
+      <c r="AM72" s="76"/>
+      <c r="AN72" s="39"/>
+      <c r="AO72" s="39"/>
+      <c r="AP72" s="39"/>
+      <c r="AQ72" s="39"/>
+      <c r="AR72" s="39"/>
+      <c r="AS72" s="39"/>
+      <c r="AT72" s="56"/>
+      <c r="AU72" s="56"/>
+      <c r="AV72" s="56"/>
+      <c r="AW72" s="76"/>
+      <c r="AX72" s="39"/>
+      <c r="AY72" s="56"/>
+      <c r="AZ72" s="56"/>
+      <c r="BA72" s="56"/>
+      <c r="BB72" s="76"/>
     </row>
     <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE73" s="44" t="s">
+      <c r="AE73" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AF73" s="45"/>
-      <c r="AG73" s="45"/>
-      <c r="AH73" s="46"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="44" t="s">
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="41"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="39"/>
+      <c r="AJ73" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AK73" s="45"/>
-      <c r="AL73" s="45"/>
-      <c r="AM73" s="46"/>
-      <c r="AN73" s="40"/>
-      <c r="AO73" s="40"/>
-      <c r="AP73" s="40"/>
-      <c r="AQ73" s="40"/>
-      <c r="AR73" s="40"/>
-      <c r="AS73" s="40"/>
-      <c r="AT73" s="45" t="s">
+      <c r="AK73" s="41"/>
+      <c r="AL73" s="41"/>
+      <c r="AM73" s="42"/>
+      <c r="AN73" s="39"/>
+      <c r="AO73" s="39"/>
+      <c r="AP73" s="39"/>
+      <c r="AQ73" s="39"/>
+      <c r="AR73" s="39"/>
+      <c r="AS73" s="39"/>
+      <c r="AT73" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AU73" s="45"/>
-      <c r="AV73" s="45"/>
-      <c r="AW73" s="46"/>
-      <c r="AX73" s="40"/>
-      <c r="AY73" s="44" t="s">
+      <c r="AU73" s="41"/>
+      <c r="AV73" s="41"/>
+      <c r="AW73" s="42"/>
+      <c r="AX73" s="39"/>
+      <c r="AY73" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AZ73" s="45"/>
-      <c r="BA73" s="45"/>
-      <c r="BB73" s="46"/>
+      <c r="AZ73" s="41"/>
+      <c r="BA73" s="41"/>
+      <c r="BB73" s="42"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="48"/>
-      <c r="AG74" s="48"/>
-      <c r="AH74" s="49"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="48"/>
-      <c r="AL74" s="48"/>
-      <c r="AM74" s="49"/>
-      <c r="AN74" s="40"/>
-      <c r="AO74" s="40"/>
-      <c r="AP74" s="40"/>
-      <c r="AQ74" s="40"/>
-      <c r="AR74" s="40"/>
-      <c r="AS74" s="40"/>
-      <c r="AT74" s="48"/>
-      <c r="AU74" s="48"/>
-      <c r="AV74" s="48"/>
-      <c r="AW74" s="49"/>
-      <c r="AX74" s="40"/>
-      <c r="AY74" s="47"/>
-      <c r="AZ74" s="48"/>
-      <c r="BA74" s="48"/>
-      <c r="BB74" s="49"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="44"/>
+      <c r="AH74" s="45"/>
+      <c r="AI74" s="39"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="44"/>
+      <c r="AL74" s="44"/>
+      <c r="AM74" s="45"/>
+      <c r="AN74" s="39"/>
+      <c r="AO74" s="39"/>
+      <c r="AP74" s="39"/>
+      <c r="AQ74" s="39"/>
+      <c r="AR74" s="39"/>
+      <c r="AS74" s="39"/>
+      <c r="AT74" s="44"/>
+      <c r="AU74" s="44"/>
+      <c r="AV74" s="44"/>
+      <c r="AW74" s="45"/>
+      <c r="AX74" s="39"/>
+      <c r="AY74" s="43"/>
+      <c r="AZ74" s="44"/>
+      <c r="BA74" s="44"/>
+      <c r="BB74" s="45"/>
     </row>
     <row r="75" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="51"/>
-      <c r="AG75" s="51"/>
-      <c r="AH75" s="52"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="50"/>
-      <c r="AK75" s="51"/>
-      <c r="AL75" s="51"/>
-      <c r="AM75" s="52"/>
-      <c r="AN75" s="40"/>
-      <c r="AO75" s="40"/>
-      <c r="AP75" s="40"/>
-      <c r="AQ75" s="40"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
-      <c r="AT75" s="51"/>
-      <c r="AU75" s="51"/>
-      <c r="AV75" s="51"/>
-      <c r="AW75" s="52"/>
-      <c r="AX75" s="40"/>
-      <c r="AY75" s="50"/>
-      <c r="AZ75" s="51"/>
-      <c r="BA75" s="51"/>
-      <c r="BB75" s="52"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="48"/>
+      <c r="AN75" s="39"/>
+      <c r="AO75" s="39"/>
+      <c r="AP75" s="39"/>
+      <c r="AQ75" s="39"/>
+      <c r="AR75" s="39"/>
+      <c r="AS75" s="39"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="48"/>
+      <c r="AX75" s="39"/>
+      <c r="AY75" s="46"/>
+      <c r="AZ75" s="47"/>
+      <c r="BA75" s="47"/>
+      <c r="BB75" s="48"/>
     </row>
     <row r="76" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE76" s="24"/>
@@ -38612,7 +38609,7 @@
       <c r="AH76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI76" s="40"/>
+      <c r="AI76" s="39"/>
       <c r="AJ76" s="24"/>
       <c r="AK76" s="26" t="s">
         <v>10</v>
@@ -38623,12 +38620,12 @@
       <c r="AM76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN76" s="40"/>
-      <c r="AO76" s="40"/>
-      <c r="AP76" s="40"/>
-      <c r="AQ76" s="40"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="40"/>
+      <c r="AN76" s="39"/>
+      <c r="AO76" s="39"/>
+      <c r="AP76" s="39"/>
+      <c r="AQ76" s="39"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="39"/>
       <c r="AT76" s="35"/>
       <c r="AU76" s="26" t="s">
         <v>10</v>
@@ -38639,7 +38636,7 @@
       <c r="AW76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX76" s="40"/>
+      <c r="AX76" s="39"/>
       <c r="AY76" s="24"/>
       <c r="AZ76" s="26" t="s">
         <v>10</v>
@@ -38664,26 +38661,26 @@
       <c r="AH77" s="27">
         <v>0.96</v>
       </c>
-      <c r="AI77" s="40"/>
+      <c r="AI77" s="39"/>
       <c r="AJ77" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK77" s="27"/>
       <c r="AL77" s="28"/>
       <c r="AM77" s="27"/>
-      <c r="AN77" s="40"/>
-      <c r="AO77" s="40"/>
-      <c r="AP77" s="40"/>
-      <c r="AQ77" s="40"/>
-      <c r="AR77" s="40"/>
-      <c r="AS77" s="40"/>
+      <c r="AN77" s="39"/>
+      <c r="AO77" s="39"/>
+      <c r="AP77" s="39"/>
+      <c r="AQ77" s="39"/>
+      <c r="AR77" s="39"/>
+      <c r="AS77" s="39"/>
       <c r="AT77" s="36" t="s">
         <v>58</v>
       </c>
       <c r="AU77" s="27"/>
       <c r="AV77" s="28"/>
       <c r="AW77" s="27"/>
-      <c r="AX77" s="40"/>
+      <c r="AX77" s="39"/>
       <c r="AY77" s="25" t="s">
         <v>58</v>
       </c>
@@ -38704,26 +38701,26 @@
       <c r="AH78" s="27">
         <v>0.92</v>
       </c>
-      <c r="AI78" s="40"/>
+      <c r="AI78" s="39"/>
       <c r="AJ78" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK78" s="27"/>
       <c r="AL78" s="28"/>
       <c r="AM78" s="27"/>
-      <c r="AN78" s="40"/>
-      <c r="AO78" s="40"/>
-      <c r="AP78" s="40"/>
-      <c r="AQ78" s="40"/>
-      <c r="AR78" s="40"/>
-      <c r="AS78" s="40"/>
+      <c r="AN78" s="39"/>
+      <c r="AO78" s="39"/>
+      <c r="AP78" s="39"/>
+      <c r="AQ78" s="39"/>
+      <c r="AR78" s="39"/>
+      <c r="AS78" s="39"/>
       <c r="AT78" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AU78" s="27"/>
       <c r="AV78" s="28"/>
       <c r="AW78" s="27"/>
-      <c r="AX78" s="40"/>
+      <c r="AX78" s="39"/>
       <c r="AY78" s="25" t="s">
         <v>59</v>
       </c>
@@ -38738,26 +38735,26 @@
       <c r="AF79" s="27"/>
       <c r="AG79" s="28"/>
       <c r="AH79" s="27"/>
-      <c r="AI79" s="40"/>
+      <c r="AI79" s="39"/>
       <c r="AJ79" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK79" s="27"/>
       <c r="AL79" s="28"/>
       <c r="AM79" s="27"/>
-      <c r="AN79" s="40"/>
-      <c r="AO79" s="40"/>
-      <c r="AP79" s="40"/>
-      <c r="AQ79" s="40"/>
-      <c r="AR79" s="40"/>
-      <c r="AS79" s="40"/>
+      <c r="AN79" s="39"/>
+      <c r="AO79" s="39"/>
+      <c r="AP79" s="39"/>
+      <c r="AQ79" s="39"/>
+      <c r="AR79" s="39"/>
+      <c r="AS79" s="39"/>
       <c r="AT79" s="36" t="s">
         <v>60</v>
       </c>
       <c r="AU79" s="27"/>
       <c r="AV79" s="28"/>
       <c r="AW79" s="27"/>
-      <c r="AX79" s="40"/>
+      <c r="AX79" s="39"/>
       <c r="AY79" s="25" t="s">
         <v>60</v>
       </c>
@@ -38772,26 +38769,26 @@
       <c r="AF80" s="27"/>
       <c r="AG80" s="28"/>
       <c r="AH80" s="27"/>
-      <c r="AI80" s="40"/>
+      <c r="AI80" s="39"/>
       <c r="AJ80" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK80" s="27"/>
       <c r="AL80" s="28"/>
       <c r="AM80" s="27"/>
-      <c r="AN80" s="40"/>
-      <c r="AO80" s="40"/>
-      <c r="AP80" s="40"/>
-      <c r="AQ80" s="40"/>
-      <c r="AR80" s="40"/>
-      <c r="AS80" s="40"/>
+      <c r="AN80" s="39"/>
+      <c r="AO80" s="39"/>
+      <c r="AP80" s="39"/>
+      <c r="AQ80" s="39"/>
+      <c r="AR80" s="39"/>
+      <c r="AS80" s="39"/>
       <c r="AT80" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AU80" s="27"/>
       <c r="AV80" s="28"/>
       <c r="AW80" s="27"/>
-      <c r="AX80" s="40"/>
+      <c r="AX80" s="39"/>
       <c r="AY80" s="25" t="s">
         <v>61</v>
       </c>
@@ -38806,26 +38803,26 @@
       <c r="AF81" s="27"/>
       <c r="AG81" s="28"/>
       <c r="AH81" s="27"/>
-      <c r="AI81" s="40"/>
+      <c r="AI81" s="39"/>
       <c r="AJ81" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK81" s="27"/>
       <c r="AL81" s="28"/>
       <c r="AM81" s="27"/>
-      <c r="AN81" s="40"/>
-      <c r="AO81" s="40"/>
-      <c r="AP81" s="40"/>
-      <c r="AQ81" s="40"/>
-      <c r="AR81" s="40"/>
-      <c r="AS81" s="40"/>
+      <c r="AN81" s="39"/>
+      <c r="AO81" s="39"/>
+      <c r="AP81" s="39"/>
+      <c r="AQ81" s="39"/>
+      <c r="AR81" s="39"/>
+      <c r="AS81" s="39"/>
       <c r="AT81" s="36" t="s">
         <v>62</v>
       </c>
       <c r="AU81" s="27"/>
       <c r="AV81" s="28"/>
       <c r="AW81" s="27"/>
-      <c r="AX81" s="40"/>
+      <c r="AX81" s="39"/>
       <c r="AY81" s="25" t="s">
         <v>62</v>
       </c>
@@ -38840,26 +38837,26 @@
       <c r="AF82" s="27"/>
       <c r="AG82" s="28"/>
       <c r="AH82" s="27"/>
-      <c r="AI82" s="40"/>
+      <c r="AI82" s="39"/>
       <c r="AJ82" s="25" t="s">
         <v>63</v>
       </c>
       <c r="AK82" s="27"/>
       <c r="AL82" s="28"/>
       <c r="AM82" s="27"/>
-      <c r="AN82" s="40"/>
-      <c r="AO82" s="40"/>
-      <c r="AP82" s="40"/>
-      <c r="AQ82" s="40"/>
-      <c r="AR82" s="40"/>
-      <c r="AS82" s="40"/>
+      <c r="AN82" s="39"/>
+      <c r="AO82" s="39"/>
+      <c r="AP82" s="39"/>
+      <c r="AQ82" s="39"/>
+      <c r="AR82" s="39"/>
+      <c r="AS82" s="39"/>
       <c r="AT82" s="36" t="s">
         <v>63</v>
       </c>
       <c r="AU82" s="27"/>
       <c r="AV82" s="28"/>
       <c r="AW82" s="27"/>
-      <c r="AX82" s="40"/>
+      <c r="AX82" s="39"/>
       <c r="AY82" s="25" t="s">
         <v>63</v>
       </c>
@@ -38868,90 +38865,90 @@
       <c r="BB82" s="27"/>
     </row>
     <row r="83" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE83" s="44" t="s">
+      <c r="AE83" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AF83" s="45"/>
-      <c r="AG83" s="45"/>
-      <c r="AH83" s="46"/>
-      <c r="AI83" s="40"/>
-      <c r="AJ83" s="44" t="s">
+      <c r="AF83" s="41"/>
+      <c r="AG83" s="41"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="39"/>
+      <c r="AJ83" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AK83" s="45"/>
-      <c r="AL83" s="45"/>
-      <c r="AM83" s="46"/>
-      <c r="AN83" s="40"/>
-      <c r="AO83" s="40"/>
-      <c r="AP83" s="40"/>
-      <c r="AQ83" s="40"/>
-      <c r="AR83" s="40"/>
-      <c r="AS83" s="40"/>
-      <c r="AT83" s="45" t="s">
+      <c r="AK83" s="41"/>
+      <c r="AL83" s="41"/>
+      <c r="AM83" s="42"/>
+      <c r="AN83" s="39"/>
+      <c r="AO83" s="39"/>
+      <c r="AP83" s="39"/>
+      <c r="AQ83" s="39"/>
+      <c r="AR83" s="39"/>
+      <c r="AS83" s="39"/>
+      <c r="AT83" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AU83" s="45"/>
-      <c r="AV83" s="45"/>
-      <c r="AW83" s="46"/>
-      <c r="AX83" s="40"/>
-      <c r="AY83" s="44" t="s">
+      <c r="AU83" s="41"/>
+      <c r="AV83" s="41"/>
+      <c r="AW83" s="42"/>
+      <c r="AX83" s="39"/>
+      <c r="AY83" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AZ83" s="45"/>
-      <c r="BA83" s="45"/>
-      <c r="BB83" s="46"/>
+      <c r="AZ83" s="41"/>
+      <c r="BA83" s="41"/>
+      <c r="BB83" s="42"/>
     </row>
     <row r="84" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE84" s="47"/>
-      <c r="AF84" s="48"/>
-      <c r="AG84" s="48"/>
-      <c r="AH84" s="49"/>
-      <c r="AI84" s="40"/>
-      <c r="AJ84" s="47"/>
-      <c r="AK84" s="48"/>
-      <c r="AL84" s="48"/>
-      <c r="AM84" s="49"/>
-      <c r="AN84" s="40"/>
-      <c r="AO84" s="40"/>
-      <c r="AP84" s="40"/>
-      <c r="AQ84" s="40"/>
-      <c r="AR84" s="40"/>
-      <c r="AS84" s="40"/>
-      <c r="AT84" s="48"/>
-      <c r="AU84" s="48"/>
-      <c r="AV84" s="48"/>
-      <c r="AW84" s="49"/>
-      <c r="AX84" s="40"/>
-      <c r="AY84" s="47"/>
-      <c r="AZ84" s="48"/>
-      <c r="BA84" s="48"/>
-      <c r="BB84" s="49"/>
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="44"/>
+      <c r="AG84" s="44"/>
+      <c r="AH84" s="45"/>
+      <c r="AI84" s="39"/>
+      <c r="AJ84" s="43"/>
+      <c r="AK84" s="44"/>
+      <c r="AL84" s="44"/>
+      <c r="AM84" s="45"/>
+      <c r="AN84" s="39"/>
+      <c r="AO84" s="39"/>
+      <c r="AP84" s="39"/>
+      <c r="AQ84" s="39"/>
+      <c r="AR84" s="39"/>
+      <c r="AS84" s="39"/>
+      <c r="AT84" s="44"/>
+      <c r="AU84" s="44"/>
+      <c r="AV84" s="44"/>
+      <c r="AW84" s="45"/>
+      <c r="AX84" s="39"/>
+      <c r="AY84" s="43"/>
+      <c r="AZ84" s="44"/>
+      <c r="BA84" s="44"/>
+      <c r="BB84" s="45"/>
     </row>
     <row r="85" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE85" s="50"/>
-      <c r="AF85" s="51"/>
-      <c r="AG85" s="51"/>
-      <c r="AH85" s="52"/>
-      <c r="AI85" s="40"/>
-      <c r="AJ85" s="50"/>
-      <c r="AK85" s="51"/>
-      <c r="AL85" s="51"/>
-      <c r="AM85" s="52"/>
-      <c r="AN85" s="40"/>
-      <c r="AO85" s="40"/>
-      <c r="AP85" s="40"/>
-      <c r="AQ85" s="40"/>
-      <c r="AR85" s="40"/>
-      <c r="AS85" s="40"/>
-      <c r="AT85" s="51"/>
-      <c r="AU85" s="51"/>
-      <c r="AV85" s="51"/>
-      <c r="AW85" s="52"/>
-      <c r="AX85" s="40"/>
-      <c r="AY85" s="50"/>
-      <c r="AZ85" s="51"/>
-      <c r="BA85" s="51"/>
-      <c r="BB85" s="52"/>
+      <c r="AE85" s="46"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="48"/>
+      <c r="AI85" s="39"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="47"/>
+      <c r="AL85" s="47"/>
+      <c r="AM85" s="48"/>
+      <c r="AN85" s="39"/>
+      <c r="AO85" s="39"/>
+      <c r="AP85" s="39"/>
+      <c r="AQ85" s="39"/>
+      <c r="AR85" s="39"/>
+      <c r="AS85" s="39"/>
+      <c r="AT85" s="47"/>
+      <c r="AU85" s="47"/>
+      <c r="AV85" s="47"/>
+      <c r="AW85" s="48"/>
+      <c r="AX85" s="39"/>
+      <c r="AY85" s="46"/>
+      <c r="AZ85" s="47"/>
+      <c r="BA85" s="47"/>
+      <c r="BB85" s="48"/>
     </row>
     <row r="86" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE86" s="24"/>
@@ -38964,7 +38961,7 @@
       <c r="AH86" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AI86" s="40"/>
+      <c r="AI86" s="39"/>
       <c r="AJ86" s="24"/>
       <c r="AK86" s="26" t="s">
         <v>10</v>
@@ -38975,12 +38972,12 @@
       <c r="AM86" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AN86" s="40"/>
-      <c r="AO86" s="40"/>
-      <c r="AP86" s="40"/>
-      <c r="AQ86" s="40"/>
-      <c r="AR86" s="40"/>
-      <c r="AS86" s="40"/>
+      <c r="AN86" s="39"/>
+      <c r="AO86" s="39"/>
+      <c r="AP86" s="39"/>
+      <c r="AQ86" s="39"/>
+      <c r="AR86" s="39"/>
+      <c r="AS86" s="39"/>
       <c r="AT86" s="35"/>
       <c r="AU86" s="26" t="s">
         <v>10</v>
@@ -38991,7 +38988,7 @@
       <c r="AW86" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AX86" s="40"/>
+      <c r="AX86" s="39"/>
       <c r="AY86" s="24"/>
       <c r="AZ86" s="26" t="s">
         <v>10</v>
@@ -39010,26 +39007,26 @@
       <c r="AF87" s="27"/>
       <c r="AG87" s="28"/>
       <c r="AH87" s="27"/>
-      <c r="AI87" s="40"/>
+      <c r="AI87" s="39"/>
       <c r="AJ87" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AK87" s="27"/>
       <c r="AL87" s="28"/>
       <c r="AM87" s="27"/>
-      <c r="AN87" s="40"/>
-      <c r="AO87" s="40"/>
-      <c r="AP87" s="40"/>
-      <c r="AQ87" s="40"/>
-      <c r="AR87" s="40"/>
-      <c r="AS87" s="40"/>
+      <c r="AN87" s="39"/>
+      <c r="AO87" s="39"/>
+      <c r="AP87" s="39"/>
+      <c r="AQ87" s="39"/>
+      <c r="AR87" s="39"/>
+      <c r="AS87" s="39"/>
       <c r="AT87" s="36" t="s">
         <v>58</v>
       </c>
       <c r="AU87" s="27"/>
       <c r="AV87" s="28"/>
       <c r="AW87" s="27"/>
-      <c r="AX87" s="40"/>
+      <c r="AX87" s="39"/>
       <c r="AY87" s="25" t="s">
         <v>58</v>
       </c>
@@ -39044,26 +39041,26 @@
       <c r="AF88" s="27"/>
       <c r="AG88" s="28"/>
       <c r="AH88" s="27"/>
-      <c r="AI88" s="40"/>
+      <c r="AI88" s="39"/>
       <c r="AJ88" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AK88" s="27"/>
       <c r="AL88" s="28"/>
       <c r="AM88" s="27"/>
-      <c r="AN88" s="40"/>
-      <c r="AO88" s="40"/>
-      <c r="AP88" s="40"/>
-      <c r="AQ88" s="40"/>
-      <c r="AR88" s="40"/>
-      <c r="AS88" s="40"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="39"/>
+      <c r="AR88" s="39"/>
+      <c r="AS88" s="39"/>
       <c r="AT88" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AU88" s="27"/>
       <c r="AV88" s="28"/>
       <c r="AW88" s="27"/>
-      <c r="AX88" s="40"/>
+      <c r="AX88" s="39"/>
       <c r="AY88" s="25" t="s">
         <v>59</v>
       </c>
@@ -39078,26 +39075,26 @@
       <c r="AF89" s="27"/>
       <c r="AG89" s="28"/>
       <c r="AH89" s="27"/>
-      <c r="AI89" s="40"/>
+      <c r="AI89" s="39"/>
       <c r="AJ89" s="25" t="s">
         <v>60</v>
       </c>
       <c r="AK89" s="27"/>
       <c r="AL89" s="28"/>
       <c r="AM89" s="27"/>
-      <c r="AN89" s="40"/>
-      <c r="AO89" s="40"/>
-      <c r="AP89" s="40"/>
-      <c r="AQ89" s="40"/>
-      <c r="AR89" s="40"/>
-      <c r="AS89" s="40"/>
+      <c r="AN89" s="39"/>
+      <c r="AO89" s="39"/>
+      <c r="AP89" s="39"/>
+      <c r="AQ89" s="39"/>
+      <c r="AR89" s="39"/>
+      <c r="AS89" s="39"/>
       <c r="AT89" s="36" t="s">
         <v>60</v>
       </c>
       <c r="AU89" s="27"/>
       <c r="AV89" s="28"/>
       <c r="AW89" s="27"/>
-      <c r="AX89" s="40"/>
+      <c r="AX89" s="39"/>
       <c r="AY89" s="25" t="s">
         <v>60</v>
       </c>
@@ -39112,26 +39109,26 @@
       <c r="AF90" s="27"/>
       <c r="AG90" s="28"/>
       <c r="AH90" s="27"/>
-      <c r="AI90" s="40"/>
+      <c r="AI90" s="39"/>
       <c r="AJ90" s="25" t="s">
         <v>61</v>
       </c>
       <c r="AK90" s="27"/>
       <c r="AL90" s="28"/>
       <c r="AM90" s="27"/>
-      <c r="AN90" s="40"/>
-      <c r="AO90" s="40"/>
-      <c r="AP90" s="40"/>
-      <c r="AQ90" s="40"/>
-      <c r="AR90" s="40"/>
-      <c r="AS90" s="40"/>
+      <c r="AN90" s="39"/>
+      <c r="AO90" s="39"/>
+      <c r="AP90" s="39"/>
+      <c r="AQ90" s="39"/>
+      <c r="AR90" s="39"/>
+      <c r="AS90" s="39"/>
       <c r="AT90" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AU90" s="27"/>
       <c r="AV90" s="28"/>
       <c r="AW90" s="27"/>
-      <c r="AX90" s="40"/>
+      <c r="AX90" s="39"/>
       <c r="AY90" s="25" t="s">
         <v>61</v>
       </c>
@@ -39146,26 +39143,26 @@
       <c r="AF91" s="27"/>
       <c r="AG91" s="28"/>
       <c r="AH91" s="27"/>
-      <c r="AI91" s="40"/>
+      <c r="AI91" s="39"/>
       <c r="AJ91" s="25" t="s">
         <v>62</v>
       </c>
       <c r="AK91" s="27"/>
       <c r="AL91" s="28"/>
       <c r="AM91" s="27"/>
-      <c r="AN91" s="40"/>
-      <c r="AO91" s="40"/>
-      <c r="AP91" s="40"/>
-      <c r="AQ91" s="40"/>
-      <c r="AR91" s="40"/>
-      <c r="AS91" s="40"/>
+      <c r="AN91" s="39"/>
+      <c r="AO91" s="39"/>
+      <c r="AP91" s="39"/>
+      <c r="AQ91" s="39"/>
+      <c r="AR91" s="39"/>
+      <c r="AS91" s="39"/>
       <c r="AT91" s="36" t="s">
         <v>62</v>
       </c>
       <c r="AU91" s="27"/>
       <c r="AV91" s="28"/>
       <c r="AW91" s="27"/>
-      <c r="AX91" s="40"/>
+      <c r="AX91" s="39"/>
       <c r="AY91" s="25" t="s">
         <v>62</v>
       </c>
@@ -39180,26 +39177,26 @@
       <c r="AF92" s="32"/>
       <c r="AG92" s="33"/>
       <c r="AH92" s="32"/>
-      <c r="AI92" s="40"/>
+      <c r="AI92" s="39"/>
       <c r="AJ92" s="31" t="s">
         <v>63</v>
       </c>
       <c r="AK92" s="32"/>
       <c r="AL92" s="33"/>
       <c r="AM92" s="32"/>
-      <c r="AN92" s="40"/>
-      <c r="AO92" s="40"/>
-      <c r="AP92" s="40"/>
-      <c r="AQ92" s="40"/>
-      <c r="AR92" s="40"/>
-      <c r="AS92" s="40"/>
+      <c r="AN92" s="39"/>
+      <c r="AO92" s="39"/>
+      <c r="AP92" s="39"/>
+      <c r="AQ92" s="39"/>
+      <c r="AR92" s="39"/>
+      <c r="AS92" s="39"/>
       <c r="AT92" s="37" t="s">
         <v>63</v>
       </c>
       <c r="AU92" s="32"/>
       <c r="AV92" s="33"/>
       <c r="AW92" s="32"/>
-      <c r="AX92" s="40"/>
+      <c r="AX92" s="39"/>
       <c r="AY92" s="31" t="s">
         <v>63</v>
       </c>
@@ -39250,19 +39247,73 @@
     <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="AO23:AR26"/>
-    <mergeCell ref="AT37:AW39"/>
-    <mergeCell ref="AY37:BB39"/>
-    <mergeCell ref="AJ37:AM39"/>
-    <mergeCell ref="AE73:AH75"/>
-    <mergeCell ref="AJ73:AM75"/>
-    <mergeCell ref="AT73:AW75"/>
-    <mergeCell ref="AY73:BB75"/>
-    <mergeCell ref="AE83:AH85"/>
-    <mergeCell ref="AJ83:AM85"/>
-    <mergeCell ref="AT83:AW85"/>
-    <mergeCell ref="AY83:BB85"/>
-    <mergeCell ref="AT59:AW61"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="K1:AC2"/>
+    <mergeCell ref="AY69:BB72"/>
+    <mergeCell ref="AT69:AW72"/>
+    <mergeCell ref="AO69:AR72"/>
+    <mergeCell ref="AJ69:AM72"/>
+    <mergeCell ref="AE69:AH72"/>
+    <mergeCell ref="AO73:AR92"/>
+    <mergeCell ref="AY27:BB29"/>
+    <mergeCell ref="AE37:AH39"/>
+    <mergeCell ref="AY23:BB26"/>
+    <mergeCell ref="AO27:AR46"/>
+    <mergeCell ref="AS47:BB48"/>
+    <mergeCell ref="AE47:AN48"/>
+    <mergeCell ref="AO47:AR48"/>
+    <mergeCell ref="AE49:AH51"/>
+    <mergeCell ref="AJ49:AM51"/>
+    <mergeCell ref="AO49:AR51"/>
+    <mergeCell ref="AE59:AH61"/>
+    <mergeCell ref="AJ59:AM61"/>
+    <mergeCell ref="AO59:AR61"/>
+    <mergeCell ref="AT49:AW51"/>
+    <mergeCell ref="AY49:BB51"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AJ3:AM5"/>
+    <mergeCell ref="AO3:AR5"/>
+    <mergeCell ref="AE27:AH29"/>
+    <mergeCell ref="AJ27:AM29"/>
+    <mergeCell ref="AT3:AW5"/>
+    <mergeCell ref="AY3:BB5"/>
+    <mergeCell ref="AT27:AW29"/>
+    <mergeCell ref="AT23:AW26"/>
+    <mergeCell ref="AJ23:AM26"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="K21:N21"/>
@@ -39287,75 +39338,21 @@
     <mergeCell ref="AX3:AX46"/>
     <mergeCell ref="AI3:AI46"/>
     <mergeCell ref="AE23:AH26"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="AE3:AH5"/>
-    <mergeCell ref="AJ3:AM5"/>
-    <mergeCell ref="AO3:AR5"/>
-    <mergeCell ref="AE27:AH29"/>
-    <mergeCell ref="AJ27:AM29"/>
-    <mergeCell ref="AT3:AW5"/>
-    <mergeCell ref="AY3:BB5"/>
-    <mergeCell ref="AT27:AW29"/>
-    <mergeCell ref="AT23:AW26"/>
-    <mergeCell ref="AJ23:AM26"/>
+    <mergeCell ref="AO23:AR26"/>
+    <mergeCell ref="AT37:AW39"/>
+    <mergeCell ref="AY37:BB39"/>
+    <mergeCell ref="AJ37:AM39"/>
+    <mergeCell ref="AE73:AH75"/>
+    <mergeCell ref="AJ73:AM75"/>
+    <mergeCell ref="AT73:AW75"/>
+    <mergeCell ref="AY73:BB75"/>
+    <mergeCell ref="AE83:AH85"/>
+    <mergeCell ref="AJ83:AM85"/>
+    <mergeCell ref="AT83:AW85"/>
+    <mergeCell ref="AY83:BB85"/>
+    <mergeCell ref="AT59:AW61"/>
     <mergeCell ref="AS49:AS92"/>
     <mergeCell ref="AX49:AX92"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="K1:AC2"/>
-    <mergeCell ref="AY69:BB72"/>
-    <mergeCell ref="AT69:AW72"/>
-    <mergeCell ref="AO69:AR72"/>
-    <mergeCell ref="AJ69:AM72"/>
-    <mergeCell ref="AE69:AH72"/>
-    <mergeCell ref="AO73:AR92"/>
-    <mergeCell ref="AY27:BB29"/>
-    <mergeCell ref="AE37:AH39"/>
-    <mergeCell ref="AY23:BB26"/>
-    <mergeCell ref="AO27:AR46"/>
-    <mergeCell ref="AS47:BB48"/>
-    <mergeCell ref="AE47:AN48"/>
-    <mergeCell ref="AO47:AR48"/>
-    <mergeCell ref="AE49:AH51"/>
-    <mergeCell ref="AJ49:AM51"/>
-    <mergeCell ref="AO49:AR51"/>
-    <mergeCell ref="AE59:AH61"/>
-    <mergeCell ref="AJ59:AM61"/>
-    <mergeCell ref="AO59:AR61"/>
-    <mergeCell ref="AT49:AW51"/>
-    <mergeCell ref="AY49:BB51"/>
     <mergeCell ref="AY59:BB61"/>
     <mergeCell ref="AI49:AI92"/>
     <mergeCell ref="AN49:AN92"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF78412-CEF2-4330-8F3A-83F0E630CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4049B-31DF-4E28-BEA2-7530117B036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="91">
   <si>
     <t>ANN</t>
   </si>
@@ -232,19 +232,10 @@
     <t>ME_MF_CH</t>
   </si>
   <si>
-    <t>3 Channel Feature EMODB Dataset 512x512</t>
-  </si>
-  <si>
-    <t>3 Channel Feature RAVDESS Dataset 512x512</t>
-  </si>
-  <si>
     <t>CNN - EMODB</t>
   </si>
   <si>
     <t>VGG - EMODB</t>
-  </si>
-  <si>
-    <t>Temp Test for 512x512 images</t>
   </si>
   <si>
     <t>3 Features Channel Images - Gen Alg  FREEZED Optimisation - 256x256</t>
@@ -292,10 +283,34 @@
     <t>CNN COMPARISON - 4 CLASS</t>
   </si>
   <si>
-    <t>DEBSENET - EMODB</t>
+    <t>FREEZE</t>
   </si>
   <si>
-    <t>DEBSENET-RAVDESS</t>
+    <t>UNFREEZE</t>
+  </si>
+  <si>
+    <t>DENSENET</t>
+  </si>
+  <si>
+    <t>EFFICIENTNET</t>
+  </si>
+  <si>
+    <t>RESNET</t>
+  </si>
+  <si>
+    <t>FREEZE - 4 CLASS</t>
+  </si>
+  <si>
+    <t>UNFREEZE - 4 CLASS</t>
+  </si>
+  <si>
+    <t>EMODB BEST</t>
+  </si>
+  <si>
+    <t>RAVDESS BEST</t>
+  </si>
+  <si>
+    <t>DATASET</t>
   </si>
 </sst>
 </file>
@@ -350,21 +365,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="22"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <i/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +455,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9393"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,18 +497,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -651,11 +679,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,9 +745,6 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,88 +754,49 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,45 +806,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,34 +826,142 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,13 +972,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5757"/>
+      <color rgb="FFFF9393"/>
       <color rgb="FFFFDDAB"/>
       <color rgb="FFFFCA7D"/>
       <color rgb="FFFFBD5B"/>
       <color rgb="FFFFB547"/>
       <color rgb="FFEC7014"/>
-      <color rgb="FFFF5757"/>
-      <color rgb="FFFF9393"/>
       <color rgb="FFFF8989"/>
       <color rgb="FFFFD3D3"/>
       <color rgb="FFFF7979"/>
@@ -946,7 +1016,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -958,22 +1028,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200"/>
+              <a:rPr lang="en-GB" sz="2400"/>
               <a:t>VECTOR -</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200"/>
+              <a:rPr lang="en-GB" sz="2400"/>
               <a:t>ALL DATASETS +</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t> ALL MODELS - F1 Score: Mel-Spectrogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -990,7 +1060,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1525,7 +1595,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1623,7 +1693,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -2231,23 +2301,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>DEEP LEARNING </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t>- </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>ALL</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> DATASETS - VECTOR FEATURES</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>:    Mel-Spectrogram vs MFCC</a:t>
             </a:r>
           </a:p>
@@ -3001,7 +3071,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -3101,7 +3171,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -3246,7 +3316,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18477431922742157"/>
+          <c:y val="0.20838583333333333"/>
+          <c:w val="0.45172010283605002"/>
+          <c:h val="0.71005805555555557"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -3957,7 +4037,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -4057,7 +4137,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -4140,7 +4220,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -4152,7 +4232,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -4164,14 +4244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27093563012275224"/>
-          <c:y val="0.89135185185185184"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4185,7 +4257,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -4586,7 +4658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -4687,7 +4759,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -4770,7 +4842,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -4782,7 +4854,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -4794,14 +4866,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31924666487698206"/>
-          <c:y val="0.88664814814814819"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4815,7 +4879,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5216,7 +5280,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -5317,7 +5381,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5400,7 +5464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -5412,7 +5476,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -5424,14 +5488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27296633333333331"/>
-          <c:y val="0.89605555555555561"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5445,7 +5501,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5846,7 +5902,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -5946,7 +6002,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -6029,7 +6085,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -6048,22 +6104,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200"/>
-              <a:t>32X32 IMAGE - ALL</a:t>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>32X32 IMAGES - ALL</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> DATASETS</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> Mel-Spectrogram vs MFCC</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6080,7 +6136,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -6815,7 +6871,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -6874,7 +6930,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -6902,6 +6958,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66817548804244209"/>
+          <c:y val="0.10922694444444445"/>
+          <c:w val="0.32129688730467942"/>
+          <c:h val="0.86255083333333338"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6915,7 +6981,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -6998,7 +7064,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -7010,7 +7076,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -7022,14 +7088,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2802733620766597"/>
-          <c:y val="0.89135185185185184"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7043,7 +7101,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -7444,7 +7502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -7544,7 +7602,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -7627,7 +7685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -7639,7 +7697,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -7651,14 +7709,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32633101477029486"/>
-          <c:y val="0.88900000000000001"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7672,7 +7722,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -8073,7 +8123,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -8173,7 +8223,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -9042,7 +9092,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -9101,7 +9151,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -9129,6 +9179,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67613254859700755"/>
+          <c:y val="0.11784361111111109"/>
+          <c:w val="0.31333982675011396"/>
+          <c:h val="0.86497777777777773"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9142,7 +9202,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -9225,7 +9285,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -9237,7 +9297,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -9246,7 +9306,7 @@
               </a:rPr>
               <a:t>VECTOR - ALL DATASETS + ALL MODELS - F1 Score: MFCC</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9263,7 +9323,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -9798,7 +9858,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -9896,7 +9956,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -9979,7 +10039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -9991,7 +10051,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -10003,14 +10063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31895088888888889"/>
-          <c:y val="0.88194444444444442"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10024,7 +10076,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -10425,7 +10477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -10525,7 +10577,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -11394,7 +11446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -11453,7 +11505,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -11481,6 +11533,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66817548804244209"/>
+          <c:y val="0.12842694444444444"/>
+          <c:w val="0.32129688730467942"/>
+          <c:h val="0.84381111111111107"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11494,7 +11556,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -11577,7 +11639,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -11589,7 +11651,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -11598,18 +11660,9 @@
               </a:rPr>
               <a:t>ALL RESOLUTION IMAGES  - SAVEE: Mel-Spectrogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2829587285985859"/>
-          <c:y val="0.89135185185185184"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11623,7 +11676,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -12024,7 +12077,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -12124,7 +12177,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -12207,7 +12260,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -12219,7 +12272,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
@@ -12228,18 +12281,9 @@
               </a:rPr>
               <a:t>ALL RESOLUTION IMAGES - SAVEE: MFCC</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33080421441177121"/>
-          <c:y val="0.89605555555555561"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12253,7 +12297,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -12654,7 +12698,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -12754,7 +12798,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -13623,7 +13667,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -13682,7 +13726,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -13710,6 +13754,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66817548804244209"/>
+          <c:y val="0.11431583333333331"/>
+          <c:w val="0.32129688730467942"/>
+          <c:h val="0.87157305555555553"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13723,7 +13777,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -31366,10 +31420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BQ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK68" sqref="AK68"/>
+    <sheetView tabSelected="1" topLeftCell="AK35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BC71" sqref="BC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31380,141 +31434,151 @@
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
     <col min="16" max="29" width="18.5703125" customWidth="1"/>
     <col min="30" max="30" width="25.5703125" customWidth="1"/>
-    <col min="31" max="54" width="18.5703125" customWidth="1"/>
-    <col min="55" max="58" width="9.140625" customWidth="1"/>
-    <col min="60" max="63" width="18.5703125" customWidth="1"/>
+    <col min="31" max="69" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="70"/>
-      <c r="AE1" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BH1" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AE1" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BH1" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="88"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="88"/>
     </row>
-    <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
+    <row r="2" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -31544,46 +31608,56 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="40" t="s">
+      <c r="AE3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="40" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="42"/>
-      <c r="BH3" s="39"/>
-      <c r="BI3" s="39"/>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="39"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="55"/>
+      <c r="BH3" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI3" s="91"/>
+      <c r="BJ3" s="91"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
+      <c r="BM3" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN3" s="91"/>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
     </row>
-    <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -31612,108 +31686,118 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="45"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="58"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="91"/>
+      <c r="BM4" s="91"/>
+      <c r="BN4" s="91"/>
+      <c r="BO4" s="91"/>
+      <c r="BP4" s="91"/>
+      <c r="BQ4" s="91"/>
     </row>
-    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="K5" s="49" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="K5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="81"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="51"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="81"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="49" t="s">
+      <c r="Z5" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="51"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="48"/>
-      <c r="BH5" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI5" s="66"/>
-      <c r="BJ5" s="66"/>
-      <c r="BK5" s="66"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="81"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="61"/>
+      <c r="BH5" s="91"/>
+      <c r="BI5" s="91"/>
+      <c r="BJ5" s="91"/>
+      <c r="BK5" s="91"/>
+      <c r="BL5" s="91"/>
+      <c r="BM5" s="91"/>
+      <c r="BN5" s="91"/>
+      <c r="BO5" s="91"/>
+      <c r="BP5" s="91"/>
+      <c r="BQ5" s="91"/>
     </row>
-    <row r="6" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -31778,72 +31862,88 @@
       <c r="AC6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="26" t="s">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="26" t="s">
+      <c r="AH6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="26" t="s">
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" s="26" t="s">
+      <c r="AL6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" s="26" t="s">
+      <c r="AM6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="26" t="s">
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="26" t="s">
+      <c r="AQ6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AR6" s="26" t="s">
+      <c r="AR6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="26" t="s">
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="26" t="s">
+      <c r="AV6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AW6" s="26" t="s">
+      <c r="AW6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="26" t="s">
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BA6" s="26" t="s">
+      <c r="BA6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB6" s="26" t="s">
+      <c r="BB6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="23" t="s">
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="BJ6" s="23" t="s">
+      <c r="BK6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="23" t="s">
+      <c r="BL6" s="34" t="s">
         <v>12</v>
       </c>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ6" s="34" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -31920,84 +32020,102 @@
       <c r="AC7" s="10">
         <v>0.51</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AF7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AG7" s="28">
+      <c r="AG7" s="24">
         <v>0.76</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AH7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="25" t="s">
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AK7" s="23">
         <v>0.77</v>
       </c>
-      <c r="AL7" s="28">
+      <c r="AL7" s="24">
         <v>0.68</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="AM7" s="23">
         <v>0.75</v>
       </c>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="25" t="s">
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="23">
         <v>0.68</v>
       </c>
-      <c r="AQ7" s="28">
+      <c r="AQ7" s="24">
         <v>0.59</v>
       </c>
-      <c r="AR7" s="27">
+      <c r="AR7" s="23">
         <v>0.66</v>
       </c>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="25" t="s">
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AU7" s="27">
+      <c r="AU7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AV7" s="28">
+      <c r="AV7" s="24">
         <v>0.77</v>
       </c>
-      <c r="AW7" s="27">
+      <c r="AW7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="25" t="s">
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AZ7" s="27">
+      <c r="AZ7" s="23">
         <v>0.79</v>
       </c>
-      <c r="BA7" s="28">
+      <c r="BA7" s="24">
         <v>0.72</v>
       </c>
-      <c r="BB7" s="27">
+      <c r="BB7" s="23">
         <v>0.78</v>
       </c>
-      <c r="BH7" s="22" t="s">
+      <c r="BH7" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="BI7" s="19">
-        <v>0.79</v>
-      </c>
-      <c r="BJ7" s="20">
-        <v>0.73</v>
-      </c>
-      <c r="BK7" s="19">
-        <v>0.79</v>
+      <c r="BJ7" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BK7" s="36">
+        <v>0.76</v>
+      </c>
+      <c r="BL7" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BM7" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO7" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="BP7" s="36">
+        <v>0.95</v>
+      </c>
+      <c r="BQ7" s="37">
+        <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -32074,84 +32192,102 @@
       <c r="AC8" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="25" t="s">
+      <c r="AE8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="23">
         <v>0.76</v>
       </c>
-      <c r="AG8" s="28">
+      <c r="AG8" s="24">
         <v>0.68</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="25" t="s">
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="23">
         <v>0.81</v>
       </c>
-      <c r="AL8" s="28">
+      <c r="AL8" s="24">
         <v>0.75</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="25" t="s">
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="23">
         <v>0.68</v>
       </c>
-      <c r="AQ8" s="28">
+      <c r="AQ8" s="24">
         <v>0.62</v>
       </c>
-      <c r="AR8" s="27">
+      <c r="AR8" s="23">
         <v>0.68</v>
       </c>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="25" t="s">
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AU8" s="27">
+      <c r="AU8" s="23">
         <v>0.77</v>
       </c>
-      <c r="AV8" s="28">
+      <c r="AV8" s="24">
         <v>0.7</v>
       </c>
-      <c r="AW8" s="27">
+      <c r="AW8" s="23">
         <v>0.76</v>
       </c>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="25" t="s">
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AZ8" s="27">
+      <c r="AZ8" s="23">
         <v>0.79</v>
       </c>
-      <c r="BA8" s="28">
+      <c r="BA8" s="24">
         <v>0.74</v>
       </c>
-      <c r="BB8" s="27">
+      <c r="BB8" s="23">
         <v>0.78</v>
       </c>
-      <c r="BH8" s="22" t="s">
+      <c r="BH8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="BI8" s="19">
-        <v>0.78</v>
-      </c>
-      <c r="BJ8" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="BK8" s="19">
-        <v>0.77</v>
+      <c r="BJ8" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="BK8" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="BL8" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BM8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO8" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="BP8" s="36">
+        <v>0.93</v>
+      </c>
+      <c r="BQ8" s="37">
+        <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -32229,84 +32365,102 @@
       <c r="AC9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="AF9" s="23">
         <v>0.78</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="24">
         <v>0.69</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="23">
         <v>0.76</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="25" t="s">
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="23">
         <v>0.8</v>
       </c>
-      <c r="AL9" s="28">
+      <c r="AL9" s="24">
         <v>0.75</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="AM9" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="25" t="s">
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="23">
         <v>0.66</v>
       </c>
-      <c r="AQ9" s="28">
+      <c r="AQ9" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AR9" s="27">
+      <c r="AR9" s="23">
         <v>0.64</v>
       </c>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="25" t="s">
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AU9" s="27">
+      <c r="AU9" s="23">
         <v>0.74</v>
       </c>
-      <c r="AV9" s="28">
+      <c r="AV9" s="24">
         <v>0.71</v>
       </c>
-      <c r="AW9" s="27">
+      <c r="AW9" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="25" t="s">
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AZ9" s="27">
+      <c r="AZ9" s="23">
         <v>0.79</v>
       </c>
-      <c r="BA9" s="28">
+      <c r="BA9" s="24">
         <v>0.73</v>
       </c>
-      <c r="BB9" s="27">
+      <c r="BB9" s="23">
         <v>0.78</v>
       </c>
-      <c r="BH9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI9" s="19">
+      <c r="BH9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ9" s="37">
         <v>0.81</v>
       </c>
-      <c r="BJ9" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="BK9" s="19">
+      <c r="BK9" s="36">
+        <v>0.76</v>
+      </c>
+      <c r="BL9" s="37">
         <v>0.81</v>
       </c>
+      <c r="BM9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO9" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="BP9" s="36">
+        <v>0.95</v>
+      </c>
+      <c r="BQ9" s="37">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -32383,84 +32537,102 @@
       <c r="AC10" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AE10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AF10" s="23">
         <v>0.78</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="24">
         <v>0.72</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AH10" s="23">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="25" t="s">
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AK10" s="23">
         <v>0.8</v>
       </c>
-      <c r="AL10" s="28">
+      <c r="AL10" s="24">
         <v>0.75</v>
       </c>
-      <c r="AM10" s="27">
+      <c r="AM10" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="25" t="s">
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="23">
         <v>0.65</v>
       </c>
-      <c r="AQ10" s="28">
+      <c r="AQ10" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AR10" s="27">
+      <c r="AR10" s="23">
         <v>0.63</v>
       </c>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="25" t="s">
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AU10" s="27">
+      <c r="AU10" s="23">
         <v>0.76</v>
       </c>
-      <c r="AV10" s="28">
+      <c r="AV10" s="24">
         <v>0.72</v>
       </c>
-      <c r="AW10" s="27">
+      <c r="AW10" s="23">
         <v>0.76</v>
       </c>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="25" t="s">
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AZ10" s="27">
+      <c r="AZ10" s="23">
         <v>0.8</v>
       </c>
-      <c r="BA10" s="28">
+      <c r="BA10" s="24">
         <v>0.74</v>
       </c>
-      <c r="BB10" s="27">
+      <c r="BB10" s="23">
         <v>0.79</v>
       </c>
-      <c r="BH10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI10" s="19">
-        <v>0.79</v>
-      </c>
-      <c r="BJ10" s="20">
-        <v>0.69</v>
-      </c>
-      <c r="BK10" s="19">
-        <v>0.77</v>
+      <c r="BH10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ10" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="BK10" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="BL10" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="BM10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO10" s="37">
+        <v>0.97</v>
+      </c>
+      <c r="BP10" s="36">
+        <v>0.97</v>
+      </c>
+      <c r="BQ10" s="37">
+        <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -32537,84 +32709,86 @@
       <c r="AC11" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AF11" s="23">
         <v>0.76</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AG11" s="24">
         <v>0.7</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="25" t="s">
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AK11" s="23">
         <v>0.77</v>
       </c>
-      <c r="AL11" s="28">
+      <c r="AL11" s="24">
         <v>0.73</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AM11" s="23">
         <v>0.77</v>
       </c>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="25" t="s">
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="23">
         <v>0.64</v>
       </c>
-      <c r="AQ11" s="28">
+      <c r="AQ11" s="24">
         <v>0.54</v>
       </c>
-      <c r="AR11" s="27">
+      <c r="AR11" s="23">
         <v>0.61</v>
       </c>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="25" t="s">
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AU11" s="27">
+      <c r="AU11" s="23">
         <v>0.77</v>
       </c>
-      <c r="AV11" s="28">
+      <c r="AV11" s="24">
         <v>0.7</v>
       </c>
-      <c r="AW11" s="27">
+      <c r="AW11" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="25" t="s">
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11" s="27">
+      <c r="AZ11" s="23">
         <v>0.78</v>
       </c>
-      <c r="BA11" s="28">
+      <c r="BA11" s="24">
         <v>0.72</v>
       </c>
-      <c r="BB11" s="27">
+      <c r="BB11" s="23">
         <v>0.77</v>
       </c>
-      <c r="BH11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI11" s="19">
-        <v>0.74</v>
-      </c>
-      <c r="BJ11" s="20">
-        <v>0.66</v>
-      </c>
-      <c r="BK11" s="19">
-        <v>0.73</v>
-      </c>
+      <c r="BH11" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="91"/>
+      <c r="BP11" s="91"/>
+      <c r="BQ11" s="91"/>
     </row>
-    <row r="12" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -32640,111 +32814,109 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="54"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="52" t="s">
+      <c r="Z12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="54"/>
-      <c r="AE12" s="25" t="s">
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AE12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="AF12" s="23">
         <v>0.77</v>
       </c>
-      <c r="AG12" s="28">
+      <c r="AG12" s="24">
         <v>0.72</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AH12" s="23">
         <v>0.76</v>
       </c>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="25" t="s">
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="AK12" s="23">
         <v>0.79</v>
       </c>
-      <c r="AL12" s="28">
+      <c r="AL12" s="24">
         <v>0.75</v>
       </c>
-      <c r="AM12" s="27">
+      <c r="AM12" s="23">
         <v>0.79</v>
       </c>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="25" t="s">
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="23">
         <v>0.62</v>
       </c>
-      <c r="AQ12" s="28">
+      <c r="AQ12" s="24">
         <v>0.53</v>
       </c>
-      <c r="AR12" s="27">
+      <c r="AR12" s="23">
         <v>0.6</v>
       </c>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="25" t="s">
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AU12" s="27">
+      <c r="AU12" s="23">
         <v>0.76</v>
       </c>
-      <c r="AV12" s="28">
+      <c r="AV12" s="24">
         <v>0.66</v>
       </c>
-      <c r="AW12" s="27">
+      <c r="AW12" s="23">
         <v>0.73</v>
       </c>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="25" t="s">
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ12" s="27">
+      <c r="AZ12" s="23">
         <v>0.79</v>
       </c>
-      <c r="BA12" s="28">
+      <c r="BA12" s="24">
         <v>0.74</v>
       </c>
-      <c r="BB12" s="27">
+      <c r="BB12" s="23">
         <v>0.78</v>
       </c>
-      <c r="BH12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI12" s="19">
-        <v>0.81</v>
-      </c>
-      <c r="BJ12" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="BK12" s="19">
-        <v>0.8</v>
-      </c>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="91"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="91"/>
+      <c r="BN12" s="91"/>
+      <c r="BO12" s="91"/>
+      <c r="BP12" s="91"/>
+      <c r="BQ12" s="91"/>
     </row>
-    <row r="13" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -32813,46 +32985,52 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="40" t="s">
+      <c r="AE13" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="42"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="57"/>
-      <c r="BK13" s="57"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="64"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91"/>
+      <c r="BQ13" s="91"/>
     </row>
-    <row r="14" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -32929,36 +33107,58 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="45"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="67"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ14" s="34" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -33035,38 +33235,62 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="47"/>
-      <c r="AQ15" s="47"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="47"/>
-      <c r="AV15" s="47"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="46"/>
-      <c r="AZ15" s="47"/>
-      <c r="BA15" s="47"/>
-      <c r="BB15" s="48"/>
-      <c r="BH15" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="70"/>
+      <c r="BH15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI15" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ15" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BK15" s="36">
+        <v>0.77</v>
+      </c>
+      <c r="BL15" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BM15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN15" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO15" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="BP15" s="36">
+        <v>0.93</v>
+      </c>
+      <c r="BQ15" s="37">
+        <v>0.94</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -33143,72 +33367,84 @@
       <c r="AC16" s="9">
         <v>0.4</v>
       </c>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="26" t="s">
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG16" s="26" t="s">
+      <c r="AG16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AH16" s="26" t="s">
+      <c r="AH16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="26" t="s">
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AL16" s="26" t="s">
+      <c r="AL16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM16" s="26" t="s">
+      <c r="AM16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="26" t="s">
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AQ16" s="26" t="s">
+      <c r="AQ16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AR16" s="26" t="s">
+      <c r="AR16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="26" t="s">
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AV16" s="26" t="s">
+      <c r="AV16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW16" s="26" t="s">
+      <c r="AW16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="26" t="s">
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BA16" s="26" t="s">
+      <c r="BA16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BB16" s="26" t="s">
+      <c r="BB16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK16" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="BH16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ16" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="BK16" s="36">
+        <v>0.74</v>
+      </c>
+      <c r="BL16" s="37">
+        <v>0.79</v>
+      </c>
+      <c r="BM16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="37"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="37"/>
     </row>
-    <row r="17" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -33269,54 +33505,64 @@
       <c r="AC17" s="9">
         <v>0.48</v>
       </c>
-      <c r="AE17" s="25" t="s">
+      <c r="AE17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="25" t="s">
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="25" t="s">
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="25" t="s">
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="25" t="s">
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="27"/>
-      <c r="BH17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI17" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BJ17" s="20">
-        <v>0.54</v>
-      </c>
-      <c r="BK17" s="19">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="19"/>
+      <c r="BH17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ17" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="BK17" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="BL17" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="BM17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="37"/>
     </row>
-    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -33377,54 +33623,64 @@
       <c r="AC18" s="9">
         <v>0.44</v>
       </c>
-      <c r="AE18" s="25" t="s">
+      <c r="AE18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="25" t="s">
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="25" t="s">
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="25" t="s">
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="25" t="s">
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="27"/>
-      <c r="BH18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI18" s="19">
-        <v>0.59</v>
-      </c>
-      <c r="BJ18" s="20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BK18" s="19">
-        <v>0.59</v>
-      </c>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="19"/>
+      <c r="BH18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ18" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="BK18" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="BL18" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="BM18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="37"/>
     </row>
-    <row r="19" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -33453,54 +33709,54 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
-      <c r="AE19" s="25" t="s">
+      <c r="AE19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="25" t="s">
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="25" t="s">
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="25" t="s">
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="25" t="s">
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AZ19" s="27"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="27"/>
-      <c r="BH19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI19" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BJ19" s="20">
-        <v>0.54</v>
-      </c>
-      <c r="BK19" s="19">
-        <v>0.56000000000000005</v>
-      </c>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="19"/>
+      <c r="BH19" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="92"/>
+      <c r="BK19" s="92"/>
+      <c r="BL19" s="92"/>
+      <c r="BM19" s="92"/>
+      <c r="BN19" s="92"/>
+      <c r="BO19" s="92"/>
+      <c r="BP19" s="92"/>
+      <c r="BQ19" s="92"/>
     </row>
-    <row r="20" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -33529,136 +33785,142 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
-      <c r="AE20" s="25" t="s">
+      <c r="AE20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="25" t="s">
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="25" t="s">
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="25" t="s">
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="25" t="s">
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="27"/>
-      <c r="BH20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="20"/>
-      <c r="BK20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="19"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
+      <c r="BP20" s="92"/>
+      <c r="BQ20" s="92"/>
     </row>
-    <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="K21" s="49" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="81"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="81"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="49" t="s">
+      <c r="Z21" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="51"/>
-      <c r="AE21" s="25" t="s">
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="81"/>
+      <c r="AE21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="25" t="s">
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="25" t="s">
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="25" t="s">
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="25" t="s">
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="27"/>
-      <c r="BH21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI21" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BJ21" s="20">
-        <v>0.53</v>
-      </c>
-      <c r="BK21" s="19">
-        <v>0.54</v>
-      </c>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="19"/>
+      <c r="BH21" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="91"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN21" s="91"/>
+      <c r="BO21" s="91"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="91"/>
     </row>
-    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -33723,54 +33985,52 @@
       <c r="AC22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE22" s="25" t="s">
+      <c r="AE22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="25" t="s">
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="25" t="s">
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="25" t="s">
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="27"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="25" t="s">
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="27"/>
-      <c r="BH22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI22" s="19">
-        <v>0.62</v>
-      </c>
-      <c r="BJ22" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="BK22" s="19">
-        <v>0.62</v>
-      </c>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="30"/>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="91"/>
+      <c r="BJ22" s="91"/>
+      <c r="BK22" s="91"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="91"/>
+      <c r="BN22" s="91"/>
+      <c r="BO22" s="91"/>
+      <c r="BP22" s="91"/>
+      <c r="BQ22" s="91"/>
     </row>
-    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -33847,32 +34107,42 @@
       <c r="AC23" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="74"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="48"/>
+      <c r="BH23" s="91"/>
+      <c r="BI23" s="91"/>
+      <c r="BJ23" s="91"/>
+      <c r="BK23" s="91"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="91"/>
+      <c r="BN23" s="91"/>
+      <c r="BO23" s="91"/>
+      <c r="BP23" s="91"/>
+      <c r="BQ23" s="91"/>
     </row>
-    <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -33949,32 +34219,58 @@
       <c r="AC24" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="75"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="50"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ24" s="34" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
@@ -34051,32 +34347,46 @@
       <c r="AC25" s="10">
         <v>0.71</v>
       </c>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="39"/>
-      <c r="BB25" s="75"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="50"/>
+      <c r="BH25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="37"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="37"/>
     </row>
-    <row r="26" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -34153,32 +34463,46 @@
       <c r="AC26" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="76"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="52"/>
+      <c r="BH26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="37"/>
+      <c r="BP26" s="36"/>
+      <c r="BQ26" s="37"/>
     </row>
-    <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -34255,40 +34579,54 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="42"/>
+      <c r="AE27" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ27" s="54"/>
+      <c r="BA27" s="54"/>
+      <c r="BB27" s="55"/>
+      <c r="BH27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="37"/>
     </row>
-    <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -34314,59 +34652,73 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="52" t="s">
+      <c r="P28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="54"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="52" t="s">
+      <c r="U28" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="54"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="52" t="s">
+      <c r="Z28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="54"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="39"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="45"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="58"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="58"/>
+      <c r="BH28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="37"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="37"/>
     </row>
-    <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -34435,32 +34787,46 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="47"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="39"/>
-      <c r="AY29" s="46"/>
-      <c r="AZ29" s="47"/>
-      <c r="BA29" s="47"/>
-      <c r="BB29" s="48"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="60"/>
+      <c r="AV29" s="60"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="60"/>
+      <c r="BB29" s="61"/>
+      <c r="BH29" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN29" s="91"/>
+      <c r="BO29" s="91"/>
+      <c r="BP29" s="91"/>
+      <c r="BQ29" s="91"/>
     </row>
-    <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -34537,56 +34903,66 @@
       <c r="AC30" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="26" t="s">
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG30" s="26" t="s">
+      <c r="AG30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AH30" s="26" t="s">
+      <c r="AH30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="26" t="s">
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AL30" s="26" t="s">
+      <c r="AL30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM30" s="26" t="s">
+      <c r="AM30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="26" t="s">
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AV30" s="26" t="s">
+      <c r="AV30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AW30" s="26" t="s">
+      <c r="AW30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="24"/>
-      <c r="AZ30" s="26" t="s">
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BA30" s="26" t="s">
+      <c r="BA30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB30" s="26" t="s">
+      <c r="BB30" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="BH30" s="91"/>
+      <c r="BI30" s="91"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="91"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="91"/>
+      <c r="BN30" s="91"/>
+      <c r="BO30" s="91"/>
+      <c r="BP30" s="91"/>
+      <c r="BQ30" s="91"/>
     </row>
-    <row r="31" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -34663,46 +35039,74 @@
       <c r="AC31" s="9">
         <v>0.74</v>
       </c>
-      <c r="AE31" s="25" t="s">
+      <c r="AE31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="27">
+      <c r="AF31" s="23">
         <v>0.79</v>
       </c>
-      <c r="AG31" s="28">
+      <c r="AG31" s="24">
         <v>0.72</v>
       </c>
-      <c r="AH31" s="27">
+      <c r="AH31" s="23">
         <v>0.78</v>
       </c>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="25" t="s">
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="25" t="s">
+      <c r="AK31" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AL31" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="AM31" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="27"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="25" t="s">
+      <c r="AU31" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="AV31" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="AW31" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AZ31" s="27"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="27"/>
+      <c r="AZ31" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="BA31" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="BB31" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="91"/>
+      <c r="BM31" s="91"/>
+      <c r="BN31" s="91"/>
+      <c r="BO31" s="91"/>
+      <c r="BP31" s="91"/>
+      <c r="BQ31" s="91"/>
     </row>
-    <row r="32" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -34779,46 +35183,90 @@
       <c r="AC32" s="9">
         <v>0.6</v>
       </c>
-      <c r="AE32" s="25" t="s">
+      <c r="AE32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AF32" s="27">
+      <c r="AF32" s="23">
         <v>0.75</v>
       </c>
-      <c r="AG32" s="28">
+      <c r="AG32" s="24">
         <v>0.71</v>
       </c>
-      <c r="AH32" s="27">
+      <c r="AH32" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="25" t="s">
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="25" t="s">
+      <c r="AK32" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AL32" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="AM32" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AU32" s="27"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="27"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="25" t="s">
+      <c r="AU32" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AV32" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="AW32" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AZ32" s="27"/>
-      <c r="BA32" s="28"/>
-      <c r="BB32" s="27"/>
+      <c r="AZ32" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="BA32" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="BB32" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ32" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL32" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM32" s="33"/>
+      <c r="BN32" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO32" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ32" s="34" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="33" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -34879,52 +35327,78 @@
       <c r="AC33" s="9">
         <v>0.61</v>
       </c>
-      <c r="AE33" s="25" t="s">
+      <c r="AE33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AF33" s="27">
+      <c r="AF33" s="23">
         <v>0.75</v>
       </c>
-      <c r="AG33" s="28">
+      <c r="AG33" s="24">
         <v>0.71</v>
       </c>
-      <c r="AH33" s="27">
+      <c r="AH33" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="25" t="s">
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="25" t="s">
+      <c r="AK33" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AL33" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="AM33" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AU33" s="27">
+      <c r="AU33" s="23">
         <v>0.73</v>
       </c>
-      <c r="AV33" s="28">
+      <c r="AV33" s="24">
         <v>0.7</v>
       </c>
-      <c r="AW33" s="27">
+      <c r="AW33" s="23">
         <v>0.74</v>
       </c>
-      <c r="AX33" s="39"/>
-      <c r="AY33" s="25" t="s">
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AZ33" s="27"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="27"/>
+      <c r="AZ33" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="BA33" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="BB33" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="BH33" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI33" s="36"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="36"/>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN33" s="36"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="36"/>
+      <c r="BQ33" s="37"/>
     </row>
-    <row r="34" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -34985,46 +35459,78 @@
       <c r="AC34" s="9">
         <v>0.69</v>
       </c>
-      <c r="AE34" s="25" t="s">
+      <c r="AE34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="25" t="s">
+      <c r="AF34" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="AG34" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="AH34" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="39"/>
-      <c r="AO34" s="39"/>
-      <c r="AP34" s="39"/>
-      <c r="AQ34" s="39"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="25" t="s">
+      <c r="AK34" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="AL34" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AM34" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AU34" s="27">
+      <c r="AU34" s="23">
         <v>0.81</v>
       </c>
-      <c r="AV34" s="28">
+      <c r="AV34" s="24">
         <v>0.78</v>
       </c>
-      <c r="AW34" s="27">
+      <c r="AW34" s="23">
         <v>0.81</v>
       </c>
-      <c r="AX34" s="39"/>
-      <c r="AY34" s="25" t="s">
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AZ34" s="27"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="27"/>
+      <c r="AZ34" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="BA34" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="BB34" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="BH34" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN34" s="36"/>
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="37"/>
     </row>
-    <row r="35" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -35053,52 +35559,78 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="14"/>
-      <c r="AE35" s="25" t="s">
+      <c r="AE35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF35" s="27">
+      <c r="AF35" s="23">
         <v>0.77</v>
       </c>
-      <c r="AG35" s="28">
+      <c r="AG35" s="24">
         <v>0.74</v>
       </c>
-      <c r="AH35" s="27">
+      <c r="AH35" s="23">
         <v>0.77</v>
       </c>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="25" t="s">
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39"/>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="25" t="s">
+      <c r="AK35" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AL35" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="AM35" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AU35" s="27">
+      <c r="AU35" s="23">
         <v>0.76</v>
       </c>
-      <c r="AV35" s="28">
+      <c r="AV35" s="24">
         <v>0.68</v>
       </c>
-      <c r="AW35" s="27">
+      <c r="AW35" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="25" t="s">
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ35" s="27"/>
-      <c r="BA35" s="28"/>
-      <c r="BB35" s="27"/>
+      <c r="AZ35" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="BA35" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="BB35" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="BH35" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI35" s="36"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="36"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN35" s="36"/>
+      <c r="BO35" s="37"/>
+      <c r="BP35" s="36"/>
+      <c r="BQ35" s="37"/>
     </row>
-    <row r="36" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -35127,120 +35659,152 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="14"/>
-      <c r="AE36" s="25" t="s">
+      <c r="AE36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AF36" s="27">
+      <c r="AF36" s="23">
         <v>0.81</v>
       </c>
-      <c r="AG36" s="28">
+      <c r="AG36" s="24">
         <v>0.76</v>
       </c>
-      <c r="AH36" s="27">
+      <c r="AH36" s="23">
         <v>0.81</v>
       </c>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="25" t="s">
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="25" t="s">
+      <c r="AK36" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="AL36" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="AM36" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="28"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="25" t="s">
+      <c r="AU36" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AV36" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="AW36" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ36" s="27"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="27"/>
+      <c r="AZ36" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="BA36" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="BB36" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="BH36" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="36"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN36" s="36"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="36"/>
+      <c r="BQ36" s="37"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:69" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="49" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="K37" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="81"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="51"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="81"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="49" t="s">
+      <c r="U37" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="51"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="81"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="49" t="s">
+      <c r="Z37" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="51"/>
-      <c r="AE37" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="42"/>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="42"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="81"/>
+      <c r="AE37" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU37" s="63"/>
+      <c r="AV37" s="63"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ37" s="63"/>
+      <c r="BA37" s="63"/>
+      <c r="BB37" s="64"/>
     </row>
-    <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -35305,32 +35869,32 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="39"/>
-      <c r="AP38" s="39"/>
-      <c r="AQ38" s="39"/>
-      <c r="AR38" s="39"/>
-      <c r="AS38" s="39"/>
-      <c r="AT38" s="43"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="45"/>
-      <c r="AX38" s="39"/>
-      <c r="AY38" s="43"/>
-      <c r="AZ38" s="44"/>
-      <c r="BA38" s="44"/>
-      <c r="BB38" s="45"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="67"/>
+      <c r="AX38" s="49"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="67"/>
     </row>
-    <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -35407,32 +35971,32 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39"/>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39"/>
-      <c r="AT39" s="46"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="46"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="48"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="69"/>
+      <c r="AL39" s="69"/>
+      <c r="AM39" s="70"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="68"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
+      <c r="AW39" s="70"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="69"/>
+      <c r="BA39" s="69"/>
+      <c r="BB39" s="70"/>
     </row>
-    <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -35509,56 +36073,56 @@
       <c r="AC40" s="10">
         <v>0.6</v>
       </c>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="26" t="s">
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG40" s="26" t="s">
+      <c r="AG40" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AH40" s="26" t="s">
+      <c r="AH40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="26" t="s">
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AL40" s="26" t="s">
+      <c r="AL40" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM40" s="26" t="s">
+      <c r="AM40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN40" s="39"/>
-      <c r="AO40" s="39"/>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="39"/>
-      <c r="AR40" s="39"/>
-      <c r="AS40" s="39"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="26" t="s">
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AV40" s="26" t="s">
+      <c r="AV40" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW40" s="26" t="s">
+      <c r="AW40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX40" s="39"/>
-      <c r="AY40" s="24"/>
-      <c r="AZ40" s="26" t="s">
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="28"/>
+      <c r="AZ40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BA40" s="26" t="s">
+      <c r="BA40" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BB40" s="26" t="s">
+      <c r="BB40" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
@@ -35635,40 +36199,40 @@
       <c r="AC41" s="10">
         <v>0.54</v>
       </c>
-      <c r="AE41" s="25" t="s">
+      <c r="AE41" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="25" t="s">
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39"/>
-      <c r="AT41" s="25" t="s">
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
+      <c r="AT41" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU41" s="27"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="27"/>
-      <c r="AX41" s="39"/>
-      <c r="AY41" s="25" t="s">
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="49"/>
+      <c r="AY41" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AZ41" s="27"/>
-      <c r="BA41" s="28"/>
-      <c r="BB41" s="27"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="31"/>
+      <c r="BB41" s="19"/>
     </row>
-    <row r="42" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -35745,40 +36309,40 @@
       <c r="AC42" s="10">
         <v>0.66</v>
       </c>
-      <c r="AE42" s="25" t="s">
+      <c r="AE42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="25" t="s">
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="39"/>
-      <c r="AS42" s="39"/>
-      <c r="AT42" s="25" t="s">
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
+      <c r="AS42" s="49"/>
+      <c r="AT42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AU42" s="27"/>
-      <c r="AV42" s="28"/>
-      <c r="AW42" s="27"/>
-      <c r="AX42" s="39"/>
-      <c r="AY42" s="25" t="s">
+      <c r="AU42" s="19"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="49"/>
+      <c r="AY42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AZ42" s="27"/>
-      <c r="BA42" s="28"/>
-      <c r="BB42" s="27"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="19"/>
     </row>
-    <row r="43" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -35855,40 +36419,40 @@
       <c r="AC43" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE43" s="25" t="s">
+      <c r="AE43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="28"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="25" t="s">
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="39"/>
-      <c r="AO43" s="39"/>
-      <c r="AP43" s="39"/>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="39"/>
-      <c r="AS43" s="39"/>
-      <c r="AT43" s="25" t="s">
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="31"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AU43" s="27"/>
-      <c r="AV43" s="28"/>
-      <c r="AW43" s="27"/>
-      <c r="AX43" s="39"/>
-      <c r="AY43" s="25" t="s">
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="31"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AZ43" s="27"/>
-      <c r="BA43" s="28"/>
-      <c r="BB43" s="27"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="31"/>
+      <c r="BB43" s="19"/>
     </row>
-    <row r="44" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -35914,67 +36478,67 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="54"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="52" t="s">
+      <c r="P44" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="40"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="52" t="s">
+      <c r="U44" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="54"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="52" t="s">
+      <c r="Z44" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="54"/>
-      <c r="AE44" s="25" t="s">
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="40"/>
+      <c r="AE44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="25" t="s">
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="39"/>
-      <c r="AO44" s="39"/>
-      <c r="AP44" s="39"/>
-      <c r="AQ44" s="39"/>
-      <c r="AR44" s="39"/>
-      <c r="AS44" s="39"/>
-      <c r="AT44" s="25" t="s">
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="49"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="49"/>
+      <c r="AS44" s="49"/>
+      <c r="AT44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="39"/>
-      <c r="AY44" s="25" t="s">
+      <c r="AU44" s="19"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AZ44" s="27"/>
-      <c r="BA44" s="28"/>
-      <c r="BB44" s="27"/>
+      <c r="AZ44" s="19"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -36043,40 +36607,40 @@
       <c r="AC45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE45" s="25" t="s">
+      <c r="AE45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="28"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="25" t="s">
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="49"/>
+      <c r="AJ45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="39"/>
-      <c r="AO45" s="39"/>
-      <c r="AP45" s="39"/>
-      <c r="AQ45" s="39"/>
-      <c r="AR45" s="39"/>
-      <c r="AS45" s="39"/>
-      <c r="AT45" s="25" t="s">
+      <c r="AK45" s="19"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="49"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
+      <c r="AS45" s="49"/>
+      <c r="AT45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AU45" s="27"/>
-      <c r="AV45" s="28"/>
-      <c r="AW45" s="27"/>
-      <c r="AX45" s="39"/>
-      <c r="AY45" s="25" t="s">
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="31"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AZ45" s="27"/>
-      <c r="BA45" s="28"/>
-      <c r="BB45" s="27"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="19"/>
     </row>
-    <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -36153,40 +36717,40 @@
       <c r="AC46" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE46" s="31" t="s">
+      <c r="AE46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="31" t="s">
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AK46" s="32"/>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
-      <c r="AP46" s="39"/>
-      <c r="AQ46" s="39"/>
-      <c r="AR46" s="39"/>
-      <c r="AS46" s="39"/>
-      <c r="AT46" s="31" t="s">
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="49"/>
+      <c r="AO46" s="49"/>
+      <c r="AP46" s="49"/>
+      <c r="AQ46" s="49"/>
+      <c r="AR46" s="49"/>
+      <c r="AS46" s="49"/>
+      <c r="AT46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AU46" s="32"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="32"/>
-      <c r="AX46" s="39"/>
-      <c r="AY46" s="31" t="s">
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="32"/>
+      <c r="AW46" s="30"/>
+      <c r="AX46" s="49"/>
+      <c r="AY46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ46" s="32"/>
-      <c r="BA46" s="33"/>
-      <c r="BB46" s="32"/>
+      <c r="AZ46" s="30"/>
+      <c r="BA46" s="32"/>
+      <c r="BB46" s="30"/>
     </row>
-    <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -36263,38 +36827,38 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE47" s="68" t="s">
+      <c r="AE47" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="70"/>
-      <c r="AO47" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP47" s="78"/>
-      <c r="AQ47" s="78"/>
-      <c r="AR47" s="79"/>
-      <c r="AS47" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="69"/>
-      <c r="AV47" s="69"/>
-      <c r="AW47" s="69"/>
-      <c r="AX47" s="69"/>
-      <c r="AY47" s="69"/>
-      <c r="AZ47" s="69"/>
-      <c r="BA47" s="69"/>
-      <c r="BB47" s="70"/>
+      <c r="AP47" s="72"/>
+      <c r="AQ47" s="72"/>
+      <c r="AR47" s="73"/>
+      <c r="AS47" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT47" s="42"/>
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42"/>
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="43"/>
     </row>
-    <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -36371,30 +36935,30 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="72"/>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="72"/>
-      <c r="AL48" s="72"/>
-      <c r="AM48" s="72"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="80"/>
-      <c r="AP48" s="81"/>
-      <c r="AQ48" s="81"/>
-      <c r="AR48" s="82"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="72"/>
-      <c r="AU48" s="72"/>
-      <c r="AV48" s="72"/>
-      <c r="AW48" s="72"/>
-      <c r="AX48" s="72"/>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="73"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="76"/>
+      <c r="AS48" s="44"/>
+      <c r="AT48" s="45"/>
+      <c r="AU48" s="45"/>
+      <c r="AV48" s="45"/>
+      <c r="AW48" s="45"/>
+      <c r="AX48" s="45"/>
+      <c r="AY48" s="45"/>
+      <c r="AZ48" s="45"/>
+      <c r="BA48" s="45"/>
+      <c r="BB48" s="46"/>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -36457,40 +37021,40 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
-      <c r="AE49" s="40" t="s">
+      <c r="AE49" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="49"/>
+      <c r="AJ49" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP49" s="83"/>
-      <c r="AQ49" s="83"/>
-      <c r="AR49" s="83"/>
-      <c r="AS49" s="39"/>
-      <c r="AT49" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="39"/>
-      <c r="AY49" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ49" s="41"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="42"/>
+      <c r="AK49" s="54"/>
+      <c r="AL49" s="54"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="49"/>
+      <c r="AO49" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP49" s="77"/>
+      <c r="AQ49" s="77"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="49"/>
+      <c r="AT49" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU49" s="54"/>
+      <c r="AV49" s="54"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="49"/>
+      <c r="AY49" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ49" s="54"/>
+      <c r="BA49" s="54"/>
+      <c r="BB49" s="55"/>
     </row>
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -36553,30 +37117,30 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
-      <c r="AE50" s="43"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="83"/>
-      <c r="AP50" s="83"/>
-      <c r="AQ50" s="83"/>
-      <c r="AR50" s="83"/>
-      <c r="AS50" s="39"/>
-      <c r="AT50" s="44"/>
-      <c r="AU50" s="44"/>
-      <c r="AV50" s="44"/>
-      <c r="AW50" s="45"/>
-      <c r="AX50" s="39"/>
-      <c r="AY50" s="43"/>
-      <c r="AZ50" s="44"/>
-      <c r="BA50" s="44"/>
-      <c r="BB50" s="45"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="57"/>
+      <c r="AG50" s="57"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="49"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="57"/>
+      <c r="AL50" s="57"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="77"/>
+      <c r="AP50" s="77"/>
+      <c r="AQ50" s="77"/>
+      <c r="AR50" s="77"/>
+      <c r="AS50" s="49"/>
+      <c r="AT50" s="57"/>
+      <c r="AU50" s="57"/>
+      <c r="AV50" s="57"/>
+      <c r="AW50" s="58"/>
+      <c r="AX50" s="49"/>
+      <c r="AY50" s="56"/>
+      <c r="AZ50" s="57"/>
+      <c r="BA50" s="57"/>
+      <c r="BB50" s="58"/>
     </row>
     <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -36607,30 +37171,30 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="47"/>
-      <c r="AG51" s="47"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="47"/>
-      <c r="AL51" s="47"/>
-      <c r="AM51" s="48"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="83"/>
-      <c r="AP51" s="83"/>
-      <c r="AQ51" s="83"/>
-      <c r="AR51" s="83"/>
-      <c r="AS51" s="39"/>
-      <c r="AT51" s="47"/>
-      <c r="AU51" s="47"/>
-      <c r="AV51" s="47"/>
-      <c r="AW51" s="48"/>
-      <c r="AX51" s="39"/>
-      <c r="AY51" s="46"/>
-      <c r="AZ51" s="47"/>
-      <c r="BA51" s="47"/>
-      <c r="BB51" s="48"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="60"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="49"/>
+      <c r="AJ51" s="59"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="49"/>
+      <c r="AO51" s="77"/>
+      <c r="AP51" s="77"/>
+      <c r="AQ51" s="77"/>
+      <c r="AR51" s="77"/>
+      <c r="AS51" s="49"/>
+      <c r="AT51" s="60"/>
+      <c r="AU51" s="60"/>
+      <c r="AV51" s="60"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="49"/>
+      <c r="AY51" s="59"/>
+      <c r="AZ51" s="60"/>
+      <c r="BA51" s="60"/>
+      <c r="BB51" s="61"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -36661,154 +37225,166 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
       <c r="AC52" s="14"/>
-      <c r="AE52" s="24"/>
-      <c r="AF52" s="26" t="s">
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG52" s="26" t="s">
+      <c r="AG52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AH52" s="26" t="s">
+      <c r="AH52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="26" t="s">
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AL52" s="26" t="s">
+      <c r="AL52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM52" s="26" t="s">
+      <c r="AM52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="24"/>
-      <c r="AP52" s="26" t="s">
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AQ52" s="26" t="s">
+      <c r="AQ52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AR52" s="26" t="s">
+      <c r="AR52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AS52" s="39"/>
-      <c r="AT52" s="35"/>
-      <c r="AU52" s="26" t="s">
+      <c r="AS52" s="49"/>
+      <c r="AT52" s="25"/>
+      <c r="AU52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AV52" s="26" t="s">
+      <c r="AV52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AW52" s="26" t="s">
+      <c r="AW52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX52" s="39"/>
-      <c r="AY52" s="24"/>
-      <c r="AZ52" s="26" t="s">
+      <c r="AX52" s="49"/>
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BA52" s="26" t="s">
+      <c r="BA52" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB52" s="26" t="s">
+      <c r="BB52" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="54"/>
-      <c r="K53" s="49" t="s">
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+      <c r="K53" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="51"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="81"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="49" t="s">
+      <c r="P53" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="51"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="81"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="49" t="s">
+      <c r="U53" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="51"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="81"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="49" t="s">
+      <c r="Z53" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="51"/>
-      <c r="AE53" s="25" t="s">
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="81"/>
+      <c r="AE53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AF53" s="27">
+      <c r="AF53" s="23">
         <v>0.96</v>
       </c>
-      <c r="AG53" s="28">
+      <c r="AG53" s="24">
         <v>0.95</v>
       </c>
-      <c r="AH53" s="27">
+      <c r="AH53" s="23">
         <v>0.96</v>
       </c>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="25" t="s">
+      <c r="AI53" s="49"/>
+      <c r="AJ53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AK53" s="27">
+      <c r="AK53" s="23">
         <v>0.93</v>
       </c>
-      <c r="AL53" s="28">
+      <c r="AL53" s="24">
         <v>0.9</v>
       </c>
-      <c r="AM53" s="27">
+      <c r="AM53" s="23">
         <v>0.92</v>
       </c>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="25" t="s">
+      <c r="AN53" s="49"/>
+      <c r="AO53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="27">
+      <c r="AP53" s="23">
         <v>0.84</v>
       </c>
-      <c r="AQ53" s="28">
+      <c r="AQ53" s="24">
         <v>0.81</v>
       </c>
-      <c r="AR53" s="27">
+      <c r="AR53" s="23">
         <v>0.84</v>
       </c>
-      <c r="AS53" s="39"/>
-      <c r="AT53" s="36" t="s">
+      <c r="AS53" s="49"/>
+      <c r="AT53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="27"/>
-      <c r="AV53" s="28"/>
-      <c r="AW53" s="27"/>
-      <c r="AX53" s="39"/>
-      <c r="AY53" s="25" t="s">
+      <c r="AU53" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AV53" s="24">
+        <v>0.94</v>
+      </c>
+      <c r="AW53" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AX53" s="49"/>
+      <c r="AY53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AZ53" s="27"/>
-      <c r="BA53" s="28"/>
-      <c r="BB53" s="27"/>
+      <c r="AZ53" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="BA53" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="BB53" s="23">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="54" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -36875,58 +37451,70 @@
       <c r="AC54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE54" s="25" t="s">
+      <c r="AE54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AF54" s="27">
+      <c r="AF54" s="23">
         <v>0.9</v>
       </c>
-      <c r="AG54" s="28">
+      <c r="AG54" s="24">
         <v>0.86</v>
       </c>
-      <c r="AH54" s="27">
+      <c r="AH54" s="23">
         <v>0.9</v>
       </c>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="25" t="s">
+      <c r="AI54" s="49"/>
+      <c r="AJ54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AK54" s="27">
+      <c r="AK54" s="23">
         <v>0.91</v>
       </c>
-      <c r="AL54" s="28">
+      <c r="AL54" s="24">
         <v>0.9</v>
       </c>
-      <c r="AM54" s="27">
+      <c r="AM54" s="23">
         <v>0.91</v>
       </c>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="25" t="s">
+      <c r="AN54" s="49"/>
+      <c r="AO54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AP54" s="27">
+      <c r="AP54" s="23">
         <v>0.88</v>
       </c>
-      <c r="AQ54" s="28">
+      <c r="AQ54" s="24">
         <v>0.84</v>
       </c>
-      <c r="AR54" s="27">
+      <c r="AR54" s="23">
         <v>0.88</v>
       </c>
-      <c r="AS54" s="39"/>
-      <c r="AT54" s="36" t="s">
+      <c r="AS54" s="49"/>
+      <c r="AT54" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AU54" s="27"/>
-      <c r="AV54" s="28"/>
-      <c r="AW54" s="27"/>
-      <c r="AX54" s="39"/>
-      <c r="AY54" s="25" t="s">
+      <c r="AU54" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AV54" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="AW54" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AX54" s="49"/>
+      <c r="AY54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AZ54" s="27"/>
-      <c r="BA54" s="28"/>
-      <c r="BB54" s="27"/>
+      <c r="AZ54" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="BA54" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="BB54" s="23">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="55" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -37005,58 +37593,70 @@
       <c r="AC55" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE55" s="25" t="s">
+      <c r="AE55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AF55" s="27">
+      <c r="AF55" s="23">
         <v>0.88</v>
       </c>
-      <c r="AG55" s="28">
+      <c r="AG55" s="24">
         <v>0.82</v>
       </c>
-      <c r="AH55" s="27">
+      <c r="AH55" s="23">
         <v>0.86</v>
       </c>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="25" t="s">
+      <c r="AI55" s="49"/>
+      <c r="AJ55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AK55" s="27">
+      <c r="AK55" s="23">
         <v>0.9</v>
       </c>
-      <c r="AL55" s="28">
+      <c r="AL55" s="24">
         <v>0.88</v>
       </c>
-      <c r="AM55" s="27">
+      <c r="AM55" s="23">
         <v>0.9</v>
       </c>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="25" t="s">
+      <c r="AN55" s="49"/>
+      <c r="AO55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AP55" s="27">
+      <c r="AP55" s="23">
         <v>0.82</v>
       </c>
-      <c r="AQ55" s="28">
+      <c r="AQ55" s="24">
         <v>0.74</v>
       </c>
-      <c r="AR55" s="27">
+      <c r="AR55" s="23">
         <v>0.81</v>
       </c>
-      <c r="AS55" s="39"/>
-      <c r="AT55" s="36" t="s">
+      <c r="AS55" s="49"/>
+      <c r="AT55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AU55" s="27"/>
-      <c r="AV55" s="28"/>
-      <c r="AW55" s="27"/>
-      <c r="AX55" s="39"/>
-      <c r="AY55" s="25" t="s">
+      <c r="AU55" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AV55" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="AW55" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="AX55" s="49"/>
+      <c r="AY55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AZ55" s="27"/>
-      <c r="BA55" s="28"/>
-      <c r="BB55" s="27"/>
+      <c r="AZ55" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="BA55" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="BB55" s="23">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="56" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -37135,58 +37735,70 @@
       <c r="AC56" s="10">
         <v>0.5</v>
       </c>
-      <c r="AE56" s="25" t="s">
+      <c r="AE56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AF56" s="27">
+      <c r="AF56" s="23">
         <v>0.93</v>
       </c>
-      <c r="AG56" s="28">
+      <c r="AG56" s="24">
         <v>0.92</v>
       </c>
-      <c r="AH56" s="27">
+      <c r="AH56" s="23">
         <v>0.93</v>
       </c>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="25" t="s">
+      <c r="AI56" s="49"/>
+      <c r="AJ56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AK56" s="27">
+      <c r="AK56" s="23">
         <v>0.94</v>
       </c>
-      <c r="AL56" s="28">
+      <c r="AL56" s="24">
         <v>0.93</v>
       </c>
-      <c r="AM56" s="27">
+      <c r="AM56" s="23">
         <v>0.94</v>
       </c>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="25" t="s">
+      <c r="AN56" s="49"/>
+      <c r="AO56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AP56" s="27">
+      <c r="AP56" s="23">
         <v>0.82</v>
       </c>
-      <c r="AQ56" s="28">
+      <c r="AQ56" s="24">
         <v>0.76</v>
       </c>
-      <c r="AR56" s="27">
+      <c r="AR56" s="23">
         <v>0.83</v>
       </c>
-      <c r="AS56" s="39"/>
-      <c r="AT56" s="36" t="s">
+      <c r="AS56" s="49"/>
+      <c r="AT56" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AU56" s="27"/>
-      <c r="AV56" s="28"/>
-      <c r="AW56" s="27"/>
-      <c r="AX56" s="39"/>
-      <c r="AY56" s="25" t="s">
+      <c r="AU56" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AV56" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="AW56" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AX56" s="49"/>
+      <c r="AY56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AZ56" s="27"/>
-      <c r="BA56" s="28"/>
-      <c r="BB56" s="27"/>
+      <c r="AZ56" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="BA56" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="BB56" s="23">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="57" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -37265,58 +37877,70 @@
       <c r="AC57" s="10">
         <v>0.43</v>
       </c>
-      <c r="AE57" s="25" t="s">
+      <c r="AE57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF57" s="27">
+      <c r="AF57" s="23">
         <v>0.9</v>
       </c>
-      <c r="AG57" s="28">
+      <c r="AG57" s="24">
         <v>0.84</v>
       </c>
-      <c r="AH57" s="27">
+      <c r="AH57" s="23">
         <v>0.88</v>
       </c>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="25" t="s">
+      <c r="AI57" s="49"/>
+      <c r="AJ57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AK57" s="27">
+      <c r="AK57" s="23">
         <v>0.91</v>
       </c>
-      <c r="AL57" s="28">
+      <c r="AL57" s="24">
         <v>0.88</v>
       </c>
-      <c r="AM57" s="27">
+      <c r="AM57" s="23">
         <v>0.91</v>
       </c>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="25" t="s">
+      <c r="AN57" s="49"/>
+      <c r="AO57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AP57" s="27">
+      <c r="AP57" s="23">
         <v>0.84</v>
       </c>
-      <c r="AQ57" s="28">
+      <c r="AQ57" s="24">
         <v>0.79</v>
       </c>
-      <c r="AR57" s="27">
+      <c r="AR57" s="23">
         <v>0.85</v>
       </c>
-      <c r="AS57" s="39"/>
-      <c r="AT57" s="36" t="s">
+      <c r="AS57" s="49"/>
+      <c r="AT57" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AU57" s="27"/>
-      <c r="AV57" s="28"/>
-      <c r="AW57" s="27"/>
-      <c r="AX57" s="39"/>
-      <c r="AY57" s="25" t="s">
+      <c r="AU57" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="AV57" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="AW57" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="AX57" s="49"/>
+      <c r="AY57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ57" s="27"/>
-      <c r="BA57" s="28"/>
-      <c r="BB57" s="27"/>
+      <c r="AZ57" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="BA57" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="BB57" s="23">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="58" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -37395,58 +38019,70 @@
       <c r="AC58" s="10">
         <v>0.53</v>
       </c>
-      <c r="AE58" s="25" t="s">
+      <c r="AE58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AF58" s="27">
+      <c r="AF58" s="23">
         <v>0.91</v>
       </c>
-      <c r="AG58" s="28">
+      <c r="AG58" s="24">
         <v>0.89</v>
       </c>
-      <c r="AH58" s="27">
+      <c r="AH58" s="23">
         <v>0.91</v>
       </c>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="25" t="s">
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AK58" s="27">
+      <c r="AK58" s="23">
         <v>0.91</v>
       </c>
-      <c r="AL58" s="28">
+      <c r="AL58" s="24">
         <v>0.89</v>
       </c>
-      <c r="AM58" s="27">
+      <c r="AM58" s="23">
         <v>0.9</v>
       </c>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="25" t="s">
+      <c r="AN58" s="49"/>
+      <c r="AO58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AP58" s="27">
+      <c r="AP58" s="23">
         <v>0.82</v>
       </c>
-      <c r="AQ58" s="28">
+      <c r="AQ58" s="24">
         <v>0.78</v>
       </c>
-      <c r="AR58" s="27">
+      <c r="AR58" s="23">
         <v>0.83</v>
       </c>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="36" t="s">
+      <c r="AS58" s="49"/>
+      <c r="AT58" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AU58" s="27"/>
-      <c r="AV58" s="28"/>
-      <c r="AW58" s="27"/>
-      <c r="AX58" s="39"/>
-      <c r="AY58" s="25" t="s">
+      <c r="AU58" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AV58" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AW58" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AX58" s="49"/>
+      <c r="AY58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ58" s="27"/>
-      <c r="BA58" s="28"/>
-      <c r="BB58" s="27"/>
+      <c r="AZ58" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="BA58" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="BB58" s="23">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -37525,40 +38161,40 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE59" s="40" t="s">
+      <c r="AE59" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF59" s="63"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="64"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK59" s="41"/>
-      <c r="AL59" s="41"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP59" s="83"/>
-      <c r="AQ59" s="83"/>
-      <c r="AR59" s="83"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU59" s="41"/>
-      <c r="AV59" s="41"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ59" s="41"/>
-      <c r="BA59" s="41"/>
-      <c r="BB59" s="42"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="64"/>
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP59" s="78"/>
+      <c r="AQ59" s="78"/>
+      <c r="AR59" s="78"/>
+      <c r="AS59" s="49"/>
+      <c r="AT59" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU59" s="63"/>
+      <c r="AV59" s="63"/>
+      <c r="AW59" s="64"/>
+      <c r="AX59" s="49"/>
+      <c r="AY59" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ59" s="63"/>
+      <c r="BA59" s="63"/>
+      <c r="BB59" s="64"/>
     </row>
     <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -37586,57 +38222,57 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="52" t="s">
+      <c r="K60" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="54"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="52" t="s">
+      <c r="P60" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="54"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="52" t="s">
+      <c r="U60" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="54"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="40"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="52" t="s">
+      <c r="Z60" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="54"/>
-      <c r="AE60" s="43"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="43"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="44"/>
-      <c r="AM60" s="45"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="83"/>
-      <c r="AP60" s="83"/>
-      <c r="AQ60" s="83"/>
-      <c r="AR60" s="83"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="44"/>
-      <c r="AU60" s="44"/>
-      <c r="AV60" s="44"/>
-      <c r="AW60" s="45"/>
-      <c r="AX60" s="39"/>
-      <c r="AY60" s="43"/>
-      <c r="AZ60" s="44"/>
-      <c r="BA60" s="44"/>
-      <c r="BB60" s="45"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="40"/>
+      <c r="AE60" s="65"/>
+      <c r="AF60" s="66"/>
+      <c r="AG60" s="66"/>
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="65"/>
+      <c r="AK60" s="66"/>
+      <c r="AL60" s="66"/>
+      <c r="AM60" s="67"/>
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="78"/>
+      <c r="AP60" s="78"/>
+      <c r="AQ60" s="78"/>
+      <c r="AR60" s="78"/>
+      <c r="AS60" s="49"/>
+      <c r="AT60" s="66"/>
+      <c r="AU60" s="66"/>
+      <c r="AV60" s="66"/>
+      <c r="AW60" s="67"/>
+      <c r="AX60" s="49"/>
+      <c r="AY60" s="65"/>
+      <c r="AZ60" s="66"/>
+      <c r="BA60" s="66"/>
+      <c r="BB60" s="67"/>
     </row>
     <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -37707,30 +38343,30 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE61" s="46"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="47"/>
-      <c r="AH61" s="48"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="46"/>
-      <c r="AK61" s="47"/>
-      <c r="AL61" s="47"/>
-      <c r="AM61" s="48"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="83"/>
-      <c r="AP61" s="83"/>
-      <c r="AQ61" s="83"/>
-      <c r="AR61" s="83"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="47"/>
-      <c r="AU61" s="47"/>
-      <c r="AV61" s="47"/>
-      <c r="AW61" s="48"/>
-      <c r="AX61" s="39"/>
-      <c r="AY61" s="46"/>
-      <c r="AZ61" s="47"/>
-      <c r="BA61" s="47"/>
-      <c r="BB61" s="48"/>
+      <c r="AE61" s="68"/>
+      <c r="AF61" s="69"/>
+      <c r="AG61" s="69"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="68"/>
+      <c r="AK61" s="69"/>
+      <c r="AL61" s="69"/>
+      <c r="AM61" s="70"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="78"/>
+      <c r="AP61" s="78"/>
+      <c r="AQ61" s="78"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="69"/>
+      <c r="AU61" s="69"/>
+      <c r="AV61" s="69"/>
+      <c r="AW61" s="70"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="68"/>
+      <c r="AZ61" s="69"/>
+      <c r="BA61" s="69"/>
+      <c r="BB61" s="70"/>
     </row>
     <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -37809,58 +38445,58 @@
       <c r="AC62" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="26" t="s">
+      <c r="AE62" s="28"/>
+      <c r="AF62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG62" s="26" t="s">
+      <c r="AG62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AH62" s="26" t="s">
+      <c r="AH62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="26" t="s">
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AL62" s="26" t="s">
+      <c r="AL62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM62" s="26" t="s">
+      <c r="AM62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN62" s="39"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="26" t="s">
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="28"/>
+      <c r="AP62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AQ62" s="26" t="s">
+      <c r="AQ62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AR62" s="26" t="s">
+      <c r="AR62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AS62" s="39"/>
-      <c r="AT62" s="35"/>
-      <c r="AU62" s="26" t="s">
+      <c r="AS62" s="49"/>
+      <c r="AT62" s="28"/>
+      <c r="AU62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AV62" s="26" t="s">
+      <c r="AV62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW62" s="26" t="s">
+      <c r="AW62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX62" s="39"/>
-      <c r="AY62" s="24"/>
-      <c r="AZ62" s="26" t="s">
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="28"/>
+      <c r="AZ62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BA62" s="26" t="s">
+      <c r="BA62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BB62" s="26" t="s">
+      <c r="BB62" s="27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -37941,40 +38577,40 @@
       <c r="AC63" s="9">
         <v>0.46</v>
       </c>
-      <c r="AE63" s="25" t="s">
+      <c r="AE63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="28"/>
-      <c r="AH63" s="27"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="25" t="s">
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="31"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AK63" s="27"/>
-      <c r="AL63" s="28"/>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="25" t="s">
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="31"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="49"/>
+      <c r="AO63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AP63" s="29"/>
-      <c r="AQ63" s="30"/>
-      <c r="AR63" s="29"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="36" t="s">
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="49"/>
+      <c r="AT63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU63" s="27"/>
-      <c r="AV63" s="28"/>
-      <c r="AW63" s="27"/>
-      <c r="AX63" s="39"/>
-      <c r="AY63" s="25" t="s">
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="31"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AZ63" s="27"/>
-      <c r="BA63" s="28"/>
-      <c r="BB63" s="27"/>
+      <c r="AZ63" s="19"/>
+      <c r="BA63" s="31"/>
+      <c r="BB63" s="19"/>
     </row>
     <row r="64" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -38053,40 +38689,40 @@
       <c r="AC64" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE64" s="25" t="s">
+      <c r="AE64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="27"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="25" t="s">
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="31"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AK64" s="27"/>
-      <c r="AL64" s="28"/>
-      <c r="AM64" s="27"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="25" t="s">
+      <c r="AK64" s="19"/>
+      <c r="AL64" s="31"/>
+      <c r="AM64" s="19"/>
+      <c r="AN64" s="49"/>
+      <c r="AO64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AP64" s="29"/>
-      <c r="AQ64" s="30"/>
-      <c r="AR64" s="29"/>
-      <c r="AS64" s="39"/>
-      <c r="AT64" s="36" t="s">
+      <c r="AP64" s="19"/>
+      <c r="AQ64" s="31"/>
+      <c r="AR64" s="19"/>
+      <c r="AS64" s="49"/>
+      <c r="AT64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AU64" s="27"/>
-      <c r="AV64" s="28"/>
-      <c r="AW64" s="27"/>
-      <c r="AX64" s="39"/>
-      <c r="AY64" s="25" t="s">
+      <c r="AU64" s="19"/>
+      <c r="AV64" s="31"/>
+      <c r="AW64" s="19"/>
+      <c r="AX64" s="49"/>
+      <c r="AY64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AZ64" s="27"/>
-      <c r="BA64" s="28"/>
-      <c r="BB64" s="27"/>
+      <c r="AZ64" s="19"/>
+      <c r="BA64" s="31"/>
+      <c r="BB64" s="19"/>
     </row>
     <row r="65" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
@@ -38149,40 +38785,40 @@
       <c r="AC65" s="9">
         <v>0.39</v>
       </c>
-      <c r="AE65" s="25" t="s">
+      <c r="AE65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="27"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="25" t="s">
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="31"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="28"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="39"/>
-      <c r="AO65" s="25" t="s">
+      <c r="AK65" s="19"/>
+      <c r="AL65" s="31"/>
+      <c r="AM65" s="19"/>
+      <c r="AN65" s="49"/>
+      <c r="AO65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AP65" s="27"/>
-      <c r="AQ65" s="28"/>
-      <c r="AR65" s="27"/>
-      <c r="AS65" s="39"/>
-      <c r="AT65" s="36" t="s">
+      <c r="AP65" s="19"/>
+      <c r="AQ65" s="31"/>
+      <c r="AR65" s="19"/>
+      <c r="AS65" s="49"/>
+      <c r="AT65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AU65" s="27"/>
-      <c r="AV65" s="28"/>
-      <c r="AW65" s="27"/>
-      <c r="AX65" s="39"/>
-      <c r="AY65" s="25" t="s">
+      <c r="AU65" s="19"/>
+      <c r="AV65" s="31"/>
+      <c r="AW65" s="19"/>
+      <c r="AX65" s="49"/>
+      <c r="AY65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AZ65" s="27"/>
-      <c r="BA65" s="28"/>
-      <c r="BB65" s="27"/>
+      <c r="AZ65" s="19"/>
+      <c r="BA65" s="31"/>
+      <c r="BB65" s="19"/>
     </row>
     <row r="66" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
@@ -38245,40 +38881,40 @@
       <c r="AC66" s="9">
         <v>0.41</v>
       </c>
-      <c r="AE66" s="25" t="s">
+      <c r="AE66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="27"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="25" t="s">
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AK66" s="27"/>
-      <c r="AL66" s="28"/>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="39"/>
-      <c r="AO66" s="25" t="s">
+      <c r="AK66" s="19"/>
+      <c r="AL66" s="31"/>
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP66" s="27"/>
-      <c r="AQ66" s="28"/>
-      <c r="AR66" s="27"/>
-      <c r="AS66" s="39"/>
-      <c r="AT66" s="36" t="s">
+      <c r="AP66" s="19"/>
+      <c r="AQ66" s="31"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="49"/>
+      <c r="AT66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AU66" s="27"/>
-      <c r="AV66" s="28"/>
-      <c r="AW66" s="27"/>
-      <c r="AX66" s="39"/>
-      <c r="AY66" s="25" t="s">
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="31"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AZ66" s="27"/>
-      <c r="BA66" s="28"/>
-      <c r="BB66" s="27"/>
+      <c r="AZ66" s="19"/>
+      <c r="BA66" s="31"/>
+      <c r="BB66" s="19"/>
     </row>
     <row r="67" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -38309,40 +38945,40 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="14"/>
-      <c r="AE67" s="25" t="s">
+      <c r="AE67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="28"/>
-      <c r="AH67" s="27"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="25" t="s">
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="31"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AK67" s="27"/>
-      <c r="AL67" s="28"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="39"/>
-      <c r="AO67" s="25" t="s">
+      <c r="AK67" s="19"/>
+      <c r="AL67" s="31"/>
+      <c r="AM67" s="19"/>
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AP67" s="27"/>
-      <c r="AQ67" s="28"/>
-      <c r="AR67" s="27"/>
-      <c r="AS67" s="39"/>
-      <c r="AT67" s="36" t="s">
+      <c r="AP67" s="19"/>
+      <c r="AQ67" s="31"/>
+      <c r="AR67" s="19"/>
+      <c r="AS67" s="49"/>
+      <c r="AT67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AU67" s="27"/>
-      <c r="AV67" s="28"/>
-      <c r="AW67" s="27"/>
-      <c r="AX67" s="39"/>
-      <c r="AY67" s="25" t="s">
+      <c r="AU67" s="19"/>
+      <c r="AV67" s="31"/>
+      <c r="AW67" s="19"/>
+      <c r="AX67" s="49"/>
+      <c r="AY67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AZ67" s="27"/>
-      <c r="BA67" s="28"/>
-      <c r="BB67" s="27"/>
+      <c r="AZ67" s="19"/>
+      <c r="BA67" s="31"/>
+      <c r="BB67" s="19"/>
     </row>
     <row r="68" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
@@ -38373,836 +39009,896 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="18"/>
-      <c r="AE68" s="25" t="s">
+      <c r="AE68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF68" s="27"/>
-      <c r="AG68" s="28"/>
-      <c r="AH68" s="27"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="25" t="s">
+      <c r="AF68" s="30"/>
+      <c r="AG68" s="32"/>
+      <c r="AH68" s="30"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AK68" s="27"/>
-      <c r="AL68" s="28"/>
-      <c r="AM68" s="27"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="25" t="s">
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="32"/>
+      <c r="AM68" s="30"/>
+      <c r="AN68" s="49"/>
+      <c r="AO68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AP68" s="27"/>
-      <c r="AQ68" s="28"/>
-      <c r="AR68" s="27"/>
-      <c r="AS68" s="39"/>
-      <c r="AT68" s="36" t="s">
+      <c r="AP68" s="30"/>
+      <c r="AQ68" s="32"/>
+      <c r="AR68" s="30"/>
+      <c r="AS68" s="49"/>
+      <c r="AT68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AU68" s="27"/>
-      <c r="AV68" s="28"/>
-      <c r="AW68" s="27"/>
-      <c r="AX68" s="39"/>
-      <c r="AY68" s="25" t="s">
+      <c r="AU68" s="30"/>
+      <c r="AV68" s="32"/>
+      <c r="AW68" s="30"/>
+      <c r="AX68" s="49"/>
+      <c r="AY68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ68" s="27"/>
-      <c r="BA68" s="28"/>
-      <c r="BB68" s="27"/>
+      <c r="AZ68" s="30"/>
+      <c r="BA68" s="32"/>
+      <c r="BB68" s="30"/>
     </row>
     <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="74"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="74"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="39"/>
-      <c r="AT69" s="38"/>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="74"/>
-      <c r="AX69" s="39"/>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="74"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="48"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
+      <c r="AQ69" s="47"/>
+      <c r="AR69" s="47"/>
+      <c r="AS69" s="49"/>
+      <c r="AT69" s="47"/>
+      <c r="AU69" s="47"/>
+      <c r="AV69" s="47"/>
+      <c r="AW69" s="48"/>
+      <c r="AX69" s="49"/>
+      <c r="AY69" s="47"/>
+      <c r="AZ69" s="47"/>
+      <c r="BA69" s="47"/>
+      <c r="BB69" s="48"/>
     </row>
     <row r="70" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="75"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
-      <c r="AK70" s="39"/>
-      <c r="AL70" s="39"/>
-      <c r="AM70" s="75"/>
-      <c r="AN70" s="39"/>
-      <c r="AO70" s="39"/>
-      <c r="AP70" s="39"/>
-      <c r="AQ70" s="39"/>
-      <c r="AR70" s="39"/>
-      <c r="AS70" s="39"/>
-      <c r="AT70" s="39"/>
-      <c r="AU70" s="39"/>
-      <c r="AV70" s="39"/>
-      <c r="AW70" s="75"/>
-      <c r="AX70" s="39"/>
-      <c r="AY70" s="39"/>
-      <c r="AZ70" s="39"/>
-      <c r="BA70" s="39"/>
-      <c r="BB70" s="75"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="49"/>
+      <c r="AL70" s="49"/>
+      <c r="AM70" s="50"/>
+      <c r="AN70" s="49"/>
+      <c r="AO70" s="49"/>
+      <c r="AP70" s="49"/>
+      <c r="AQ70" s="49"/>
+      <c r="AR70" s="49"/>
+      <c r="AS70" s="49"/>
+      <c r="AT70" s="49"/>
+      <c r="AU70" s="49"/>
+      <c r="AV70" s="49"/>
+      <c r="AW70" s="50"/>
+      <c r="AX70" s="49"/>
+      <c r="AY70" s="49"/>
+      <c r="AZ70" s="49"/>
+      <c r="BA70" s="49"/>
+      <c r="BB70" s="50"/>
     </row>
     <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="75"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="39"/>
-      <c r="AK71" s="39"/>
-      <c r="AL71" s="39"/>
-      <c r="AM71" s="75"/>
-      <c r="AN71" s="39"/>
-      <c r="AO71" s="39"/>
-      <c r="AP71" s="39"/>
-      <c r="AQ71" s="39"/>
-      <c r="AR71" s="39"/>
-      <c r="AS71" s="39"/>
-      <c r="AT71" s="39"/>
-      <c r="AU71" s="39"/>
-      <c r="AV71" s="39"/>
-      <c r="AW71" s="75"/>
-      <c r="AX71" s="39"/>
-      <c r="AY71" s="39"/>
-      <c r="AZ71" s="39"/>
-      <c r="BA71" s="39"/>
-      <c r="BB71" s="75"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="50"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="49"/>
+      <c r="AK71" s="49"/>
+      <c r="AL71" s="49"/>
+      <c r="AM71" s="50"/>
+      <c r="AN71" s="49"/>
+      <c r="AO71" s="49"/>
+      <c r="AP71" s="49"/>
+      <c r="AQ71" s="49"/>
+      <c r="AR71" s="49"/>
+      <c r="AS71" s="49"/>
+      <c r="AT71" s="49"/>
+      <c r="AU71" s="49"/>
+      <c r="AV71" s="49"/>
+      <c r="AW71" s="50"/>
+      <c r="AX71" s="49"/>
+      <c r="AY71" s="49"/>
+      <c r="AZ71" s="49"/>
+      <c r="BA71" s="49"/>
+      <c r="BB71" s="50"/>
     </row>
     <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE72" s="56"/>
-      <c r="AF72" s="56"/>
-      <c r="AG72" s="56"/>
-      <c r="AH72" s="76"/>
-      <c r="AI72" s="39"/>
-      <c r="AJ72" s="56"/>
-      <c r="AK72" s="56"/>
-      <c r="AL72" s="56"/>
-      <c r="AM72" s="76"/>
-      <c r="AN72" s="39"/>
-      <c r="AO72" s="39"/>
-      <c r="AP72" s="39"/>
-      <c r="AQ72" s="39"/>
-      <c r="AR72" s="39"/>
-      <c r="AS72" s="39"/>
-      <c r="AT72" s="56"/>
-      <c r="AU72" s="56"/>
-      <c r="AV72" s="56"/>
-      <c r="AW72" s="76"/>
-      <c r="AX72" s="39"/>
-      <c r="AY72" s="56"/>
-      <c r="AZ72" s="56"/>
-      <c r="BA72" s="56"/>
-      <c r="BB72" s="76"/>
+      <c r="AE72" s="51"/>
+      <c r="AF72" s="51"/>
+      <c r="AG72" s="51"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="51"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="52"/>
+      <c r="AN72" s="49"/>
+      <c r="AO72" s="49"/>
+      <c r="AP72" s="49"/>
+      <c r="AQ72" s="49"/>
+      <c r="AR72" s="49"/>
+      <c r="AS72" s="49"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
+      <c r="AV72" s="51"/>
+      <c r="AW72" s="52"/>
+      <c r="AX72" s="49"/>
+      <c r="AY72" s="51"/>
+      <c r="AZ72" s="51"/>
+      <c r="BA72" s="51"/>
+      <c r="BB72" s="52"/>
     </row>
     <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE73" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="41"/>
-      <c r="AH73" s="42"/>
-      <c r="AI73" s="39"/>
-      <c r="AJ73" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK73" s="41"/>
-      <c r="AL73" s="41"/>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="39"/>
-      <c r="AO73" s="39"/>
-      <c r="AP73" s="39"/>
-      <c r="AQ73" s="39"/>
-      <c r="AR73" s="39"/>
-      <c r="AS73" s="39"/>
-      <c r="AT73" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU73" s="41"/>
-      <c r="AV73" s="41"/>
-      <c r="AW73" s="42"/>
-      <c r="AX73" s="39"/>
-      <c r="AY73" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ73" s="41"/>
-      <c r="BA73" s="41"/>
-      <c r="BB73" s="42"/>
+      <c r="AE73" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF73" s="54"/>
+      <c r="AG73" s="54"/>
+      <c r="AH73" s="55"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK73" s="54"/>
+      <c r="AL73" s="54"/>
+      <c r="AM73" s="55"/>
+      <c r="AN73" s="49"/>
+      <c r="AO73" s="49"/>
+      <c r="AP73" s="49"/>
+      <c r="AQ73" s="49"/>
+      <c r="AR73" s="49"/>
+      <c r="AS73" s="49"/>
+      <c r="AT73" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU73" s="54"/>
+      <c r="AV73" s="54"/>
+      <c r="AW73" s="55"/>
+      <c r="AX73" s="49"/>
+      <c r="AY73" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ73" s="54"/>
+      <c r="BA73" s="54"/>
+      <c r="BB73" s="55"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="44"/>
-      <c r="AG74" s="44"/>
-      <c r="AH74" s="45"/>
-      <c r="AI74" s="39"/>
-      <c r="AJ74" s="43"/>
-      <c r="AK74" s="44"/>
-      <c r="AL74" s="44"/>
-      <c r="AM74" s="45"/>
-      <c r="AN74" s="39"/>
-      <c r="AO74" s="39"/>
-      <c r="AP74" s="39"/>
-      <c r="AQ74" s="39"/>
-      <c r="AR74" s="39"/>
-      <c r="AS74" s="39"/>
-      <c r="AT74" s="44"/>
-      <c r="AU74" s="44"/>
-      <c r="AV74" s="44"/>
-      <c r="AW74" s="45"/>
-      <c r="AX74" s="39"/>
-      <c r="AY74" s="43"/>
-      <c r="AZ74" s="44"/>
-      <c r="BA74" s="44"/>
-      <c r="BB74" s="45"/>
+      <c r="AE74" s="56"/>
+      <c r="AF74" s="57"/>
+      <c r="AG74" s="57"/>
+      <c r="AH74" s="58"/>
+      <c r="AI74" s="49"/>
+      <c r="AJ74" s="56"/>
+      <c r="AK74" s="57"/>
+      <c r="AL74" s="57"/>
+      <c r="AM74" s="58"/>
+      <c r="AN74" s="49"/>
+      <c r="AO74" s="49"/>
+      <c r="AP74" s="49"/>
+      <c r="AQ74" s="49"/>
+      <c r="AR74" s="49"/>
+      <c r="AS74" s="49"/>
+      <c r="AT74" s="57"/>
+      <c r="AU74" s="57"/>
+      <c r="AV74" s="57"/>
+      <c r="AW74" s="58"/>
+      <c r="AX74" s="49"/>
+      <c r="AY74" s="56"/>
+      <c r="AZ74" s="57"/>
+      <c r="BA74" s="57"/>
+      <c r="BB74" s="58"/>
     </row>
     <row r="75" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE75" s="46"/>
-      <c r="AF75" s="47"/>
-      <c r="AG75" s="47"/>
-      <c r="AH75" s="48"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="47"/>
-      <c r="AL75" s="47"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="39"/>
-      <c r="AO75" s="39"/>
-      <c r="AP75" s="39"/>
-      <c r="AQ75" s="39"/>
-      <c r="AR75" s="39"/>
-      <c r="AS75" s="39"/>
-      <c r="AT75" s="47"/>
-      <c r="AU75" s="47"/>
-      <c r="AV75" s="47"/>
-      <c r="AW75" s="48"/>
-      <c r="AX75" s="39"/>
-      <c r="AY75" s="46"/>
-      <c r="AZ75" s="47"/>
-      <c r="BA75" s="47"/>
-      <c r="BB75" s="48"/>
+      <c r="AE75" s="59"/>
+      <c r="AF75" s="60"/>
+      <c r="AG75" s="60"/>
+      <c r="AH75" s="61"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="59"/>
+      <c r="AK75" s="60"/>
+      <c r="AL75" s="60"/>
+      <c r="AM75" s="61"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="49"/>
+      <c r="AP75" s="49"/>
+      <c r="AQ75" s="49"/>
+      <c r="AR75" s="49"/>
+      <c r="AS75" s="49"/>
+      <c r="AT75" s="60"/>
+      <c r="AU75" s="60"/>
+      <c r="AV75" s="60"/>
+      <c r="AW75" s="61"/>
+      <c r="AX75" s="49"/>
+      <c r="AY75" s="59"/>
+      <c r="AZ75" s="60"/>
+      <c r="BA75" s="60"/>
+      <c r="BB75" s="61"/>
     </row>
     <row r="76" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="26" t="s">
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG76" s="26" t="s">
+      <c r="AG76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AH76" s="26" t="s">
+      <c r="AH76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="24"/>
-      <c r="AK76" s="26" t="s">
+      <c r="AI76" s="49"/>
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AL76" s="26" t="s">
+      <c r="AL76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM76" s="26" t="s">
+      <c r="AM76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="35"/>
-      <c r="AU76" s="26" t="s">
+      <c r="AN76" s="49"/>
+      <c r="AO76" s="49"/>
+      <c r="AP76" s="49"/>
+      <c r="AQ76" s="49"/>
+      <c r="AR76" s="49"/>
+      <c r="AS76" s="49"/>
+      <c r="AT76" s="25"/>
+      <c r="AU76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AV76" s="26" t="s">
+      <c r="AV76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AW76" s="26" t="s">
+      <c r="AW76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX76" s="39"/>
-      <c r="AY76" s="24"/>
-      <c r="AZ76" s="26" t="s">
+      <c r="AX76" s="49"/>
+      <c r="AY76" s="20"/>
+      <c r="AZ76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BA76" s="26" t="s">
+      <c r="BA76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BB76" s="26" t="s">
+      <c r="BB76" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE77" s="25" t="s">
+      <c r="AE77" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AF77" s="27">
+      <c r="AF77" s="23">
         <v>0.96</v>
       </c>
-      <c r="AG77" s="28">
+      <c r="AG77" s="24">
         <v>0.95</v>
       </c>
-      <c r="AH77" s="27">
+      <c r="AH77" s="23">
         <v>0.96</v>
       </c>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="25" t="s">
+      <c r="AI77" s="49"/>
+      <c r="AJ77" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AK77" s="27"/>
-      <c r="AL77" s="28"/>
-      <c r="AM77" s="27"/>
-      <c r="AN77" s="39"/>
-      <c r="AO77" s="39"/>
-      <c r="AP77" s="39"/>
-      <c r="AQ77" s="39"/>
-      <c r="AR77" s="39"/>
-      <c r="AS77" s="39"/>
-      <c r="AT77" s="36" t="s">
+      <c r="AK77" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AL77" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="AM77" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AN77" s="49"/>
+      <c r="AO77" s="49"/>
+      <c r="AP77" s="49"/>
+      <c r="AQ77" s="49"/>
+      <c r="AR77" s="49"/>
+      <c r="AS77" s="49"/>
+      <c r="AT77" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="27"/>
-      <c r="AV77" s="28"/>
-      <c r="AW77" s="27"/>
-      <c r="AX77" s="39"/>
-      <c r="AY77" s="25" t="s">
+      <c r="AU77" s="23"/>
+      <c r="AV77" s="24"/>
+      <c r="AW77" s="23"/>
+      <c r="AX77" s="49"/>
+      <c r="AY77" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AZ77" s="27"/>
-      <c r="BA77" s="28"/>
-      <c r="BB77" s="27"/>
+      <c r="AZ77" s="23"/>
+      <c r="BA77" s="24"/>
+      <c r="BB77" s="23"/>
     </row>
     <row r="78" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE78" s="25" t="s">
+      <c r="AE78" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AF78" s="27">
+      <c r="AF78" s="23">
         <v>0.93</v>
       </c>
-      <c r="AG78" s="28">
+      <c r="AG78" s="24">
         <v>0.91</v>
       </c>
-      <c r="AH78" s="27">
+      <c r="AH78" s="23">
         <v>0.92</v>
       </c>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="25" t="s">
+      <c r="AI78" s="49"/>
+      <c r="AJ78" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AK78" s="27"/>
-      <c r="AL78" s="28"/>
-      <c r="AM78" s="27"/>
-      <c r="AN78" s="39"/>
-      <c r="AO78" s="39"/>
-      <c r="AP78" s="39"/>
-      <c r="AQ78" s="39"/>
-      <c r="AR78" s="39"/>
-      <c r="AS78" s="39"/>
-      <c r="AT78" s="36" t="s">
+      <c r="AK78" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AL78" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="AM78" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AN78" s="49"/>
+      <c r="AO78" s="49"/>
+      <c r="AP78" s="49"/>
+      <c r="AQ78" s="49"/>
+      <c r="AR78" s="49"/>
+      <c r="AS78" s="49"/>
+      <c r="AT78" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AU78" s="27"/>
-      <c r="AV78" s="28"/>
-      <c r="AW78" s="27"/>
-      <c r="AX78" s="39"/>
-      <c r="AY78" s="25" t="s">
+      <c r="AU78" s="23"/>
+      <c r="AV78" s="24"/>
+      <c r="AW78" s="23"/>
+      <c r="AX78" s="49"/>
+      <c r="AY78" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AZ78" s="27"/>
-      <c r="BA78" s="28"/>
-      <c r="BB78" s="27"/>
+      <c r="AZ78" s="23"/>
+      <c r="BA78" s="24"/>
+      <c r="BB78" s="23"/>
     </row>
     <row r="79" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE79" s="25" t="s">
+      <c r="AE79" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="28"/>
-      <c r="AH79" s="27"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="25" t="s">
+      <c r="AF79" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AG79" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AH79" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AI79" s="49"/>
+      <c r="AJ79" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AK79" s="27"/>
-      <c r="AL79" s="28"/>
-      <c r="AM79" s="27"/>
-      <c r="AN79" s="39"/>
-      <c r="AO79" s="39"/>
-      <c r="AP79" s="39"/>
-      <c r="AQ79" s="39"/>
-      <c r="AR79" s="39"/>
-      <c r="AS79" s="39"/>
-      <c r="AT79" s="36" t="s">
+      <c r="AK79" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AL79" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AM79" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AN79" s="49"/>
+      <c r="AO79" s="49"/>
+      <c r="AP79" s="49"/>
+      <c r="AQ79" s="49"/>
+      <c r="AR79" s="49"/>
+      <c r="AS79" s="49"/>
+      <c r="AT79" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AU79" s="27"/>
-      <c r="AV79" s="28"/>
-      <c r="AW79" s="27"/>
-      <c r="AX79" s="39"/>
-      <c r="AY79" s="25" t="s">
+      <c r="AU79" s="23"/>
+      <c r="AV79" s="24"/>
+      <c r="AW79" s="23"/>
+      <c r="AX79" s="49"/>
+      <c r="AY79" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AZ79" s="27"/>
-      <c r="BA79" s="28"/>
-      <c r="BB79" s="27"/>
+      <c r="AZ79" s="23"/>
+      <c r="BA79" s="24"/>
+      <c r="BB79" s="23"/>
     </row>
     <row r="80" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE80" s="25" t="s">
+      <c r="AE80" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AF80" s="27"/>
-      <c r="AG80" s="28"/>
-      <c r="AH80" s="27"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="25" t="s">
+      <c r="AF80" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AG80" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AH80" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AI80" s="49"/>
+      <c r="AJ80" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AK80" s="27"/>
-      <c r="AL80" s="28"/>
-      <c r="AM80" s="27"/>
-      <c r="AN80" s="39"/>
-      <c r="AO80" s="39"/>
-      <c r="AP80" s="39"/>
-      <c r="AQ80" s="39"/>
-      <c r="AR80" s="39"/>
-      <c r="AS80" s="39"/>
-      <c r="AT80" s="36" t="s">
+      <c r="AK80" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="AL80" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="AM80" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="AN80" s="49"/>
+      <c r="AO80" s="49"/>
+      <c r="AP80" s="49"/>
+      <c r="AQ80" s="49"/>
+      <c r="AR80" s="49"/>
+      <c r="AS80" s="49"/>
+      <c r="AT80" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AU80" s="27"/>
-      <c r="AV80" s="28"/>
-      <c r="AW80" s="27"/>
-      <c r="AX80" s="39"/>
-      <c r="AY80" s="25" t="s">
+      <c r="AU80" s="23"/>
+      <c r="AV80" s="24"/>
+      <c r="AW80" s="23"/>
+      <c r="AX80" s="49"/>
+      <c r="AY80" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AZ80" s="27"/>
-      <c r="BA80" s="28"/>
-      <c r="BB80" s="27"/>
+      <c r="AZ80" s="23"/>
+      <c r="BA80" s="24"/>
+      <c r="BB80" s="23"/>
     </row>
     <row r="81" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE81" s="25" t="s">
+      <c r="AE81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AF81" s="27"/>
-      <c r="AG81" s="28"/>
-      <c r="AH81" s="27"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="25" t="s">
+      <c r="AF81" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AG81" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="AH81" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="AI81" s="49"/>
+      <c r="AJ81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AK81" s="27"/>
-      <c r="AL81" s="28"/>
-      <c r="AM81" s="27"/>
-      <c r="AN81" s="39"/>
-      <c r="AO81" s="39"/>
-      <c r="AP81" s="39"/>
-      <c r="AQ81" s="39"/>
-      <c r="AR81" s="39"/>
-      <c r="AS81" s="39"/>
-      <c r="AT81" s="36" t="s">
+      <c r="AK81" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="AL81" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="AM81" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="AN81" s="49"/>
+      <c r="AO81" s="49"/>
+      <c r="AP81" s="49"/>
+      <c r="AQ81" s="49"/>
+      <c r="AR81" s="49"/>
+      <c r="AS81" s="49"/>
+      <c r="AT81" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AU81" s="27"/>
-      <c r="AV81" s="28"/>
-      <c r="AW81" s="27"/>
-      <c r="AX81" s="39"/>
-      <c r="AY81" s="25" t="s">
+      <c r="AU81" s="23"/>
+      <c r="AV81" s="24"/>
+      <c r="AW81" s="23"/>
+      <c r="AX81" s="49"/>
+      <c r="AY81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ81" s="27"/>
-      <c r="BA81" s="28"/>
-      <c r="BB81" s="27"/>
+      <c r="AZ81" s="23"/>
+      <c r="BA81" s="24"/>
+      <c r="BB81" s="23"/>
     </row>
     <row r="82" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE82" s="25" t="s">
+      <c r="AE82" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AF82" s="27"/>
-      <c r="AG82" s="28"/>
-      <c r="AH82" s="27"/>
-      <c r="AI82" s="39"/>
-      <c r="AJ82" s="25" t="s">
+      <c r="AF82" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AG82" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="AH82" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AI82" s="49"/>
+      <c r="AJ82" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AK82" s="27"/>
-      <c r="AL82" s="28"/>
-      <c r="AM82" s="27"/>
-      <c r="AN82" s="39"/>
-      <c r="AO82" s="39"/>
-      <c r="AP82" s="39"/>
-      <c r="AQ82" s="39"/>
-      <c r="AR82" s="39"/>
-      <c r="AS82" s="39"/>
-      <c r="AT82" s="36" t="s">
+      <c r="AK82" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AL82" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="AM82" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="AN82" s="49"/>
+      <c r="AO82" s="49"/>
+      <c r="AP82" s="49"/>
+      <c r="AQ82" s="49"/>
+      <c r="AR82" s="49"/>
+      <c r="AS82" s="49"/>
+      <c r="AT82" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AU82" s="27"/>
-      <c r="AV82" s="28"/>
-      <c r="AW82" s="27"/>
-      <c r="AX82" s="39"/>
-      <c r="AY82" s="25" t="s">
+      <c r="AU82" s="23"/>
+      <c r="AV82" s="24"/>
+      <c r="AW82" s="23"/>
+      <c r="AX82" s="49"/>
+      <c r="AY82" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ82" s="27"/>
-      <c r="BA82" s="28"/>
-      <c r="BB82" s="27"/>
+      <c r="AZ82" s="23"/>
+      <c r="BA82" s="24"/>
+      <c r="BB82" s="23"/>
     </row>
     <row r="83" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE83" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF83" s="41"/>
-      <c r="AG83" s="41"/>
-      <c r="AH83" s="42"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK83" s="41"/>
-      <c r="AL83" s="41"/>
-      <c r="AM83" s="42"/>
-      <c r="AN83" s="39"/>
-      <c r="AO83" s="39"/>
-      <c r="AP83" s="39"/>
-      <c r="AQ83" s="39"/>
-      <c r="AR83" s="39"/>
-      <c r="AS83" s="39"/>
-      <c r="AT83" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU83" s="41"/>
-      <c r="AV83" s="41"/>
-      <c r="AW83" s="42"/>
-      <c r="AX83" s="39"/>
-      <c r="AY83" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ83" s="41"/>
-      <c r="BA83" s="41"/>
-      <c r="BB83" s="42"/>
+      <c r="AE83" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63"/>
+      <c r="AH83" s="64"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK83" s="63"/>
+      <c r="AL83" s="63"/>
+      <c r="AM83" s="64"/>
+      <c r="AN83" s="49"/>
+      <c r="AO83" s="49"/>
+      <c r="AP83" s="49"/>
+      <c r="AQ83" s="49"/>
+      <c r="AR83" s="49"/>
+      <c r="AS83" s="49"/>
+      <c r="AT83" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU83" s="63"/>
+      <c r="AV83" s="63"/>
+      <c r="AW83" s="64"/>
+      <c r="AX83" s="49"/>
+      <c r="AY83" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ83" s="63"/>
+      <c r="BA83" s="63"/>
+      <c r="BB83" s="64"/>
     </row>
     <row r="84" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE84" s="43"/>
-      <c r="AF84" s="44"/>
-      <c r="AG84" s="44"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="39"/>
-      <c r="AJ84" s="43"/>
-      <c r="AK84" s="44"/>
-      <c r="AL84" s="44"/>
-      <c r="AM84" s="45"/>
-      <c r="AN84" s="39"/>
-      <c r="AO84" s="39"/>
-      <c r="AP84" s="39"/>
-      <c r="AQ84" s="39"/>
-      <c r="AR84" s="39"/>
-      <c r="AS84" s="39"/>
-      <c r="AT84" s="44"/>
-      <c r="AU84" s="44"/>
-      <c r="AV84" s="44"/>
-      <c r="AW84" s="45"/>
-      <c r="AX84" s="39"/>
-      <c r="AY84" s="43"/>
-      <c r="AZ84" s="44"/>
-      <c r="BA84" s="44"/>
-      <c r="BB84" s="45"/>
+      <c r="AE84" s="65"/>
+      <c r="AF84" s="66"/>
+      <c r="AG84" s="66"/>
+      <c r="AH84" s="67"/>
+      <c r="AI84" s="49"/>
+      <c r="AJ84" s="65"/>
+      <c r="AK84" s="66"/>
+      <c r="AL84" s="66"/>
+      <c r="AM84" s="67"/>
+      <c r="AN84" s="49"/>
+      <c r="AO84" s="49"/>
+      <c r="AP84" s="49"/>
+      <c r="AQ84" s="49"/>
+      <c r="AR84" s="49"/>
+      <c r="AS84" s="49"/>
+      <c r="AT84" s="66"/>
+      <c r="AU84" s="66"/>
+      <c r="AV84" s="66"/>
+      <c r="AW84" s="67"/>
+      <c r="AX84" s="49"/>
+      <c r="AY84" s="65"/>
+      <c r="AZ84" s="66"/>
+      <c r="BA84" s="66"/>
+      <c r="BB84" s="67"/>
     </row>
     <row r="85" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE85" s="46"/>
-      <c r="AF85" s="47"/>
-      <c r="AG85" s="47"/>
-      <c r="AH85" s="48"/>
-      <c r="AI85" s="39"/>
-      <c r="AJ85" s="46"/>
-      <c r="AK85" s="47"/>
-      <c r="AL85" s="47"/>
-      <c r="AM85" s="48"/>
-      <c r="AN85" s="39"/>
-      <c r="AO85" s="39"/>
-      <c r="AP85" s="39"/>
-      <c r="AQ85" s="39"/>
-      <c r="AR85" s="39"/>
-      <c r="AS85" s="39"/>
-      <c r="AT85" s="47"/>
-      <c r="AU85" s="47"/>
-      <c r="AV85" s="47"/>
-      <c r="AW85" s="48"/>
-      <c r="AX85" s="39"/>
-      <c r="AY85" s="46"/>
-      <c r="AZ85" s="47"/>
-      <c r="BA85" s="47"/>
-      <c r="BB85" s="48"/>
+      <c r="AE85" s="68"/>
+      <c r="AF85" s="69"/>
+      <c r="AG85" s="69"/>
+      <c r="AH85" s="70"/>
+      <c r="AI85" s="49"/>
+      <c r="AJ85" s="68"/>
+      <c r="AK85" s="69"/>
+      <c r="AL85" s="69"/>
+      <c r="AM85" s="70"/>
+      <c r="AN85" s="49"/>
+      <c r="AO85" s="49"/>
+      <c r="AP85" s="49"/>
+      <c r="AQ85" s="49"/>
+      <c r="AR85" s="49"/>
+      <c r="AS85" s="49"/>
+      <c r="AT85" s="69"/>
+      <c r="AU85" s="69"/>
+      <c r="AV85" s="69"/>
+      <c r="AW85" s="70"/>
+      <c r="AX85" s="49"/>
+      <c r="AY85" s="68"/>
+      <c r="AZ85" s="69"/>
+      <c r="BA85" s="69"/>
+      <c r="BB85" s="70"/>
     </row>
     <row r="86" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="26" t="s">
+      <c r="AE86" s="28"/>
+      <c r="AF86" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG86" s="26" t="s">
+      <c r="AG86" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AH86" s="26" t="s">
+      <c r="AH86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI86" s="39"/>
-      <c r="AJ86" s="24"/>
-      <c r="AK86" s="26" t="s">
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AL86" s="26" t="s">
+      <c r="AL86" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM86" s="26" t="s">
+      <c r="AM86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN86" s="39"/>
-      <c r="AO86" s="39"/>
-      <c r="AP86" s="39"/>
-      <c r="AQ86" s="39"/>
-      <c r="AR86" s="39"/>
-      <c r="AS86" s="39"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="26" t="s">
+      <c r="AN86" s="49"/>
+      <c r="AO86" s="49"/>
+      <c r="AP86" s="49"/>
+      <c r="AQ86" s="49"/>
+      <c r="AR86" s="49"/>
+      <c r="AS86" s="49"/>
+      <c r="AT86" s="28"/>
+      <c r="AU86" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AV86" s="26" t="s">
+      <c r="AV86" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AW86" s="26" t="s">
+      <c r="AW86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX86" s="39"/>
-      <c r="AY86" s="24"/>
-      <c r="AZ86" s="26" t="s">
+      <c r="AX86" s="49"/>
+      <c r="AY86" s="28"/>
+      <c r="AZ86" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BA86" s="26" t="s">
+      <c r="BA86" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BB86" s="26" t="s">
+      <c r="BB86" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE87" s="25" t="s">
+      <c r="AE87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="28"/>
-      <c r="AH87" s="27"/>
-      <c r="AI87" s="39"/>
-      <c r="AJ87" s="25" t="s">
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="31"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="49"/>
+      <c r="AJ87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AK87" s="27"/>
-      <c r="AL87" s="28"/>
-      <c r="AM87" s="27"/>
-      <c r="AN87" s="39"/>
-      <c r="AO87" s="39"/>
-      <c r="AP87" s="39"/>
-      <c r="AQ87" s="39"/>
-      <c r="AR87" s="39"/>
-      <c r="AS87" s="39"/>
-      <c r="AT87" s="36" t="s">
+      <c r="AK87" s="19"/>
+      <c r="AL87" s="31"/>
+      <c r="AM87" s="19"/>
+      <c r="AN87" s="49"/>
+      <c r="AO87" s="49"/>
+      <c r="AP87" s="49"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="49"/>
+      <c r="AT87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU87" s="27"/>
-      <c r="AV87" s="28"/>
-      <c r="AW87" s="27"/>
-      <c r="AX87" s="39"/>
-      <c r="AY87" s="25" t="s">
+      <c r="AU87" s="19"/>
+      <c r="AV87" s="31"/>
+      <c r="AW87" s="19"/>
+      <c r="AX87" s="49"/>
+      <c r="AY87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AZ87" s="27"/>
-      <c r="BA87" s="28"/>
-      <c r="BB87" s="27"/>
+      <c r="AZ87" s="19"/>
+      <c r="BA87" s="31"/>
+      <c r="BB87" s="19"/>
     </row>
     <row r="88" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE88" s="25" t="s">
+      <c r="AE88" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="27"/>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="25" t="s">
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="49"/>
+      <c r="AJ88" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="28"/>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="39"/>
-      <c r="AO88" s="39"/>
-      <c r="AP88" s="39"/>
-      <c r="AQ88" s="39"/>
-      <c r="AR88" s="39"/>
-      <c r="AS88" s="39"/>
-      <c r="AT88" s="36" t="s">
+      <c r="AK88" s="19"/>
+      <c r="AL88" s="31"/>
+      <c r="AM88" s="19"/>
+      <c r="AN88" s="49"/>
+      <c r="AO88" s="49"/>
+      <c r="AP88" s="49"/>
+      <c r="AQ88" s="49"/>
+      <c r="AR88" s="49"/>
+      <c r="AS88" s="49"/>
+      <c r="AT88" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AU88" s="27"/>
-      <c r="AV88" s="28"/>
-      <c r="AW88" s="27"/>
-      <c r="AX88" s="39"/>
-      <c r="AY88" s="25" t="s">
+      <c r="AU88" s="19"/>
+      <c r="AV88" s="31"/>
+      <c r="AW88" s="19"/>
+      <c r="AX88" s="49"/>
+      <c r="AY88" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AZ88" s="27"/>
-      <c r="BA88" s="28"/>
-      <c r="BB88" s="27"/>
+      <c r="AZ88" s="19"/>
+      <c r="BA88" s="31"/>
+      <c r="BB88" s="19"/>
     </row>
     <row r="89" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE89" s="25" t="s">
+      <c r="AE89" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="28"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="39"/>
-      <c r="AJ89" s="25" t="s">
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="31"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="49"/>
+      <c r="AJ89" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AK89" s="27"/>
-      <c r="AL89" s="28"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="39"/>
-      <c r="AO89" s="39"/>
-      <c r="AP89" s="39"/>
-      <c r="AQ89" s="39"/>
-      <c r="AR89" s="39"/>
-      <c r="AS89" s="39"/>
-      <c r="AT89" s="36" t="s">
+      <c r="AK89" s="19"/>
+      <c r="AL89" s="31"/>
+      <c r="AM89" s="19"/>
+      <c r="AN89" s="49"/>
+      <c r="AO89" s="49"/>
+      <c r="AP89" s="49"/>
+      <c r="AQ89" s="49"/>
+      <c r="AR89" s="49"/>
+      <c r="AS89" s="49"/>
+      <c r="AT89" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AU89" s="27"/>
-      <c r="AV89" s="28"/>
-      <c r="AW89" s="27"/>
-      <c r="AX89" s="39"/>
-      <c r="AY89" s="25" t="s">
+      <c r="AU89" s="19"/>
+      <c r="AV89" s="31"/>
+      <c r="AW89" s="19"/>
+      <c r="AX89" s="49"/>
+      <c r="AY89" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AZ89" s="27"/>
-      <c r="BA89" s="28"/>
-      <c r="BB89" s="27"/>
+      <c r="AZ89" s="19"/>
+      <c r="BA89" s="31"/>
+      <c r="BB89" s="19"/>
     </row>
     <row r="90" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE90" s="25" t="s">
+      <c r="AE90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF90" s="27"/>
-      <c r="AG90" s="28"/>
-      <c r="AH90" s="27"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="25" t="s">
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="31"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="49"/>
+      <c r="AJ90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AK90" s="27"/>
-      <c r="AL90" s="28"/>
-      <c r="AM90" s="27"/>
-      <c r="AN90" s="39"/>
-      <c r="AO90" s="39"/>
-      <c r="AP90" s="39"/>
-      <c r="AQ90" s="39"/>
-      <c r="AR90" s="39"/>
-      <c r="AS90" s="39"/>
-      <c r="AT90" s="36" t="s">
+      <c r="AK90" s="19"/>
+      <c r="AL90" s="31"/>
+      <c r="AM90" s="19"/>
+      <c r="AN90" s="49"/>
+      <c r="AO90" s="49"/>
+      <c r="AP90" s="49"/>
+      <c r="AQ90" s="49"/>
+      <c r="AR90" s="49"/>
+      <c r="AS90" s="49"/>
+      <c r="AT90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AU90" s="27"/>
-      <c r="AV90" s="28"/>
-      <c r="AW90" s="27"/>
-      <c r="AX90" s="39"/>
-      <c r="AY90" s="25" t="s">
+      <c r="AU90" s="19"/>
+      <c r="AV90" s="31"/>
+      <c r="AW90" s="19"/>
+      <c r="AX90" s="49"/>
+      <c r="AY90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AZ90" s="27"/>
-      <c r="BA90" s="28"/>
-      <c r="BB90" s="27"/>
+      <c r="AZ90" s="19"/>
+      <c r="BA90" s="31"/>
+      <c r="BB90" s="19"/>
     </row>
     <row r="91" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE91" s="25" t="s">
+      <c r="AE91" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="28"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="25" t="s">
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="31"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="49"/>
+      <c r="AJ91" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="28"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="39"/>
-      <c r="AO91" s="39"/>
-      <c r="AP91" s="39"/>
-      <c r="AQ91" s="39"/>
-      <c r="AR91" s="39"/>
-      <c r="AS91" s="39"/>
-      <c r="AT91" s="36" t="s">
+      <c r="AK91" s="19"/>
+      <c r="AL91" s="31"/>
+      <c r="AM91" s="19"/>
+      <c r="AN91" s="49"/>
+      <c r="AO91" s="49"/>
+      <c r="AP91" s="49"/>
+      <c r="AQ91" s="49"/>
+      <c r="AR91" s="49"/>
+      <c r="AS91" s="49"/>
+      <c r="AT91" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AU91" s="27"/>
-      <c r="AV91" s="28"/>
-      <c r="AW91" s="27"/>
-      <c r="AX91" s="39"/>
-      <c r="AY91" s="25" t="s">
+      <c r="AU91" s="19"/>
+      <c r="AV91" s="31"/>
+      <c r="AW91" s="19"/>
+      <c r="AX91" s="49"/>
+      <c r="AY91" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AZ91" s="27"/>
-      <c r="BA91" s="28"/>
-      <c r="BB91" s="27"/>
+      <c r="AZ91" s="19"/>
+      <c r="BA91" s="31"/>
+      <c r="BB91" s="19"/>
     </row>
     <row r="92" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE92" s="31" t="s">
+      <c r="AE92" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF92" s="32"/>
-      <c r="AG92" s="33"/>
-      <c r="AH92" s="32"/>
-      <c r="AI92" s="39"/>
-      <c r="AJ92" s="31" t="s">
+      <c r="AF92" s="30"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="49"/>
+      <c r="AJ92" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AK92" s="32"/>
-      <c r="AL92" s="33"/>
-      <c r="AM92" s="32"/>
-      <c r="AN92" s="39"/>
-      <c r="AO92" s="39"/>
-      <c r="AP92" s="39"/>
-      <c r="AQ92" s="39"/>
-      <c r="AR92" s="39"/>
-      <c r="AS92" s="39"/>
-      <c r="AT92" s="37" t="s">
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="32"/>
+      <c r="AM92" s="30"/>
+      <c r="AN92" s="49"/>
+      <c r="AO92" s="49"/>
+      <c r="AP92" s="49"/>
+      <c r="AQ92" s="49"/>
+      <c r="AR92" s="49"/>
+      <c r="AS92" s="49"/>
+      <c r="AT92" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AU92" s="32"/>
-      <c r="AV92" s="33"/>
-      <c r="AW92" s="32"/>
-      <c r="AX92" s="39"/>
-      <c r="AY92" s="31" t="s">
+      <c r="AU92" s="30"/>
+      <c r="AV92" s="32"/>
+      <c r="AW92" s="30"/>
+      <c r="AX92" s="49"/>
+      <c r="AY92" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ92" s="32"/>
-      <c r="BA92" s="33"/>
-      <c r="BB92" s="32"/>
+      <c r="AZ92" s="30"/>
+      <c r="BA92" s="32"/>
+      <c r="BB92" s="30"/>
     </row>
     <row r="93" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39246,8 +39942,97 @@
     <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="114">
+    <mergeCell ref="BM11:BQ13"/>
+    <mergeCell ref="BH21:BL23"/>
+    <mergeCell ref="BM21:BQ23"/>
+    <mergeCell ref="BH29:BL31"/>
+    <mergeCell ref="BM29:BQ31"/>
+    <mergeCell ref="BH19:BQ20"/>
+    <mergeCell ref="BH1:BQ2"/>
+    <mergeCell ref="AO23:AR26"/>
+    <mergeCell ref="AT37:AW39"/>
+    <mergeCell ref="AY37:BB39"/>
+    <mergeCell ref="AJ37:AM39"/>
+    <mergeCell ref="AE73:AH75"/>
+    <mergeCell ref="AJ73:AM75"/>
+    <mergeCell ref="AT73:AW75"/>
+    <mergeCell ref="AY73:BB75"/>
+    <mergeCell ref="AS1:BB2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="AO13:AR15"/>
+    <mergeCell ref="AT13:AW15"/>
+    <mergeCell ref="AY13:BB15"/>
+    <mergeCell ref="AS3:AS46"/>
+    <mergeCell ref="AX3:AX46"/>
+    <mergeCell ref="AO3:AR5"/>
+    <mergeCell ref="AT3:AW5"/>
+    <mergeCell ref="AY3:BB5"/>
+    <mergeCell ref="AT27:AW29"/>
+    <mergeCell ref="AT23:AW26"/>
+    <mergeCell ref="BH3:BL5"/>
+    <mergeCell ref="BH11:BL13"/>
+    <mergeCell ref="BM3:BQ5"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="AE83:AH85"/>
+    <mergeCell ref="AJ83:AM85"/>
+    <mergeCell ref="AT83:AW85"/>
+    <mergeCell ref="AY83:BB85"/>
+    <mergeCell ref="AT59:AW61"/>
+    <mergeCell ref="AS49:AS92"/>
+    <mergeCell ref="AX49:AX92"/>
+    <mergeCell ref="AY59:BB61"/>
+    <mergeCell ref="AI49:AI92"/>
+    <mergeCell ref="AN49:AN92"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="AE13:AH15"/>
+    <mergeCell ref="AJ13:AM15"/>
+    <mergeCell ref="AN3:AN46"/>
+    <mergeCell ref="AI3:AI46"/>
+    <mergeCell ref="AE23:AH26"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AJ3:AM5"/>
+    <mergeCell ref="AE27:AH29"/>
+    <mergeCell ref="AJ27:AM29"/>
+    <mergeCell ref="AJ23:AM26"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Z44:AC44"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="P44:S44"/>
     <mergeCell ref="U60:X60"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:S12"/>
     <mergeCell ref="Z60:AC60"/>
     <mergeCell ref="K1:AC2"/>
     <mergeCell ref="AY69:BB72"/>
@@ -39271,91 +40056,7 @@
     <mergeCell ref="AO59:AR61"/>
     <mergeCell ref="AT49:AW51"/>
     <mergeCell ref="AY49:BB51"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="P37:S37"/>
     <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Z44:AC44"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="AE3:AH5"/>
-    <mergeCell ref="AJ3:AM5"/>
-    <mergeCell ref="AO3:AR5"/>
-    <mergeCell ref="AE27:AH29"/>
-    <mergeCell ref="AJ27:AM29"/>
-    <mergeCell ref="AT3:AW5"/>
-    <mergeCell ref="AY3:BB5"/>
-    <mergeCell ref="AT27:AW29"/>
-    <mergeCell ref="AT23:AW26"/>
-    <mergeCell ref="AJ23:AM26"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="BH1:BK2"/>
-    <mergeCell ref="BH3:BK4"/>
-    <mergeCell ref="BH13:BK14"/>
-    <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="AS1:BB2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="AE13:AH15"/>
-    <mergeCell ref="AJ13:AM15"/>
-    <mergeCell ref="AO13:AR15"/>
-    <mergeCell ref="AT13:AW15"/>
-    <mergeCell ref="AY13:BB15"/>
-    <mergeCell ref="AN3:AN46"/>
-    <mergeCell ref="AS3:AS46"/>
-    <mergeCell ref="AX3:AX46"/>
-    <mergeCell ref="AI3:AI46"/>
-    <mergeCell ref="AE23:AH26"/>
-    <mergeCell ref="AO23:AR26"/>
-    <mergeCell ref="AT37:AW39"/>
-    <mergeCell ref="AY37:BB39"/>
-    <mergeCell ref="AJ37:AM39"/>
-    <mergeCell ref="AE73:AH75"/>
-    <mergeCell ref="AJ73:AM75"/>
-    <mergeCell ref="AT73:AW75"/>
-    <mergeCell ref="AY73:BB75"/>
-    <mergeCell ref="AE83:AH85"/>
-    <mergeCell ref="AJ83:AM85"/>
-    <mergeCell ref="AT83:AW85"/>
-    <mergeCell ref="AY83:BB85"/>
-    <mergeCell ref="AT59:AW61"/>
-    <mergeCell ref="AS49:AS92"/>
-    <mergeCell ref="AX49:AX92"/>
-    <mergeCell ref="AY59:BB61"/>
-    <mergeCell ref="AI49:AI92"/>
-    <mergeCell ref="AN49:AN92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39366,8 +40067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FD7A86-73DA-44B2-B0E2-52543668D857}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39381,8 +40082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122FAC1-14A9-4631-87C8-BC63A01CE8FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="CY36" sqref="CY36"/>
+    <sheetView topLeftCell="CI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DB45" sqref="DB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/preformance logs/Vectors/features/Performance Logs.xlsx
+++ b/preformance logs/Vectors/features/Performance Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pana\Desktop\Northumbria\Final Year\Individual Computing Project KV6003BNN01\Speech-Emotion-Recognition---Audio-Dataset\preformance logs\Vectors\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4049B-31DF-4E28-BEA2-7530117B036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82566E5E-E361-491C-AF91-04823A9E95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{61528B2F-A6A9-4B14-924A-8C83E0EA857F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="91">
   <si>
     <t>ANN</t>
   </si>
@@ -380,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,6 +803,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,9 +946,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +968,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31422,8 +31431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E156107A-CEDE-4609-AC71-C70C41097B85}">
   <dimension ref="A1:BQ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BC71" sqref="BC71"/>
+    <sheetView tabSelected="1" topLeftCell="AB13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO69" sqref="AO69:AR72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31438,145 +31447,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AE1" s="82" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AE1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
       <c r="AO1" s="89" t="s">
         <v>76</v>
       </c>
       <c r="AP1" s="89"/>
       <c r="AQ1" s="89"/>
       <c r="AR1" s="89"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AS1" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
-      <c r="BH1" s="88" t="s">
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BH1" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
-      <c r="BK1" s="88"/>
-      <c r="BL1" s="88"/>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="88"/>
-      <c r="BO1" s="88"/>
-      <c r="BP1" s="88"/>
-      <c r="BQ1" s="88"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="93"/>
+      <c r="BP1" s="93"/>
+      <c r="BQ1" s="93"/>
     </row>
     <row r="2" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="46"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
       <c r="AO2" s="90"/>
       <c r="AP2" s="90"/>
       <c r="AQ2" s="90"/>
       <c r="AR2" s="90"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="93"/>
+      <c r="BO2" s="93"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="93"/>
     </row>
     <row r="3" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -31608,40 +31617,40 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="14"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="53" t="s">
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="53" t="s">
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="53" t="s">
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="56"/>
       <c r="BH3" s="91" t="s">
         <v>81</v>
       </c>
@@ -31686,30 +31695,30 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="58"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="59"/>
       <c r="BH4" s="91"/>
       <c r="BI4" s="91"/>
       <c r="BJ4" s="91"/>
@@ -31722,70 +31731,70 @@
       <c r="BQ4" s="91"/>
     </row>
     <row r="5" spans="1:69" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="K5" s="79" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="K5" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="79" t="s">
+      <c r="U5" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="82"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="79" t="s">
+      <c r="Z5" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="60"/>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="61"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="82"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="62"/>
       <c r="BH5" s="91"/>
       <c r="BI5" s="91"/>
       <c r="BJ5" s="91"/>
@@ -31872,7 +31881,7 @@
       <c r="AH6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="50"/>
       <c r="AJ6" s="20"/>
       <c r="AK6" s="22" t="s">
         <v>10</v>
@@ -31883,7 +31892,7 @@
       <c r="AM6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN6" s="49"/>
+      <c r="AN6" s="50"/>
       <c r="AO6" s="20"/>
       <c r="AP6" s="22" t="s">
         <v>10</v>
@@ -31894,7 +31903,7 @@
       <c r="AR6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AS6" s="49"/>
+      <c r="AS6" s="50"/>
       <c r="AT6" s="20"/>
       <c r="AU6" s="22" t="s">
         <v>10</v>
@@ -31905,7 +31914,7 @@
       <c r="AW6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="49"/>
+      <c r="AX6" s="50"/>
       <c r="AY6" s="20"/>
       <c r="AZ6" s="22" t="s">
         <v>10</v>
@@ -32032,7 +32041,7 @@
       <c r="AH7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AI7" s="49"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="21" t="s">
         <v>58</v>
       </c>
@@ -32045,7 +32054,7 @@
       <c r="AM7" s="23">
         <v>0.75</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="50"/>
       <c r="AO7" s="21" t="s">
         <v>58</v>
       </c>
@@ -32058,7 +32067,7 @@
       <c r="AR7" s="23">
         <v>0.66</v>
       </c>
-      <c r="AS7" s="49"/>
+      <c r="AS7" s="50"/>
       <c r="AT7" s="21" t="s">
         <v>58</v>
       </c>
@@ -32071,7 +32080,7 @@
       <c r="AW7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AX7" s="49"/>
+      <c r="AX7" s="50"/>
       <c r="AY7" s="21" t="s">
         <v>58</v>
       </c>
@@ -32204,7 +32213,7 @@
       <c r="AH8" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI8" s="49"/>
+      <c r="AI8" s="50"/>
       <c r="AJ8" s="21" t="s">
         <v>59</v>
       </c>
@@ -32217,7 +32226,7 @@
       <c r="AM8" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN8" s="49"/>
+      <c r="AN8" s="50"/>
       <c r="AO8" s="21" t="s">
         <v>59</v>
       </c>
@@ -32230,7 +32239,7 @@
       <c r="AR8" s="23">
         <v>0.68</v>
       </c>
-      <c r="AS8" s="49"/>
+      <c r="AS8" s="50"/>
       <c r="AT8" s="21" t="s">
         <v>59</v>
       </c>
@@ -32243,7 +32252,7 @@
       <c r="AW8" s="23">
         <v>0.76</v>
       </c>
-      <c r="AX8" s="49"/>
+      <c r="AX8" s="50"/>
       <c r="AY8" s="21" t="s">
         <v>59</v>
       </c>
@@ -32377,7 +32386,7 @@
       <c r="AH9" s="23">
         <v>0.76</v>
       </c>
-      <c r="AI9" s="49"/>
+      <c r="AI9" s="50"/>
       <c r="AJ9" s="21" t="s">
         <v>60</v>
       </c>
@@ -32390,7 +32399,7 @@
       <c r="AM9" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN9" s="49"/>
+      <c r="AN9" s="50"/>
       <c r="AO9" s="21" t="s">
         <v>60</v>
       </c>
@@ -32403,7 +32412,7 @@
       <c r="AR9" s="23">
         <v>0.64</v>
       </c>
-      <c r="AS9" s="49"/>
+      <c r="AS9" s="50"/>
       <c r="AT9" s="21" t="s">
         <v>60</v>
       </c>
@@ -32416,7 +32425,7 @@
       <c r="AW9" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX9" s="49"/>
+      <c r="AX9" s="50"/>
       <c r="AY9" s="21" t="s">
         <v>60</v>
       </c>
@@ -32549,7 +32558,7 @@
       <c r="AH10" s="23">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="49"/>
+      <c r="AI10" s="50"/>
       <c r="AJ10" s="21" t="s">
         <v>61</v>
       </c>
@@ -32562,7 +32571,7 @@
       <c r="AM10" s="23">
         <v>0.8</v>
       </c>
-      <c r="AN10" s="49"/>
+      <c r="AN10" s="50"/>
       <c r="AO10" s="21" t="s">
         <v>61</v>
       </c>
@@ -32575,7 +32584,7 @@
       <c r="AR10" s="23">
         <v>0.63</v>
       </c>
-      <c r="AS10" s="49"/>
+      <c r="AS10" s="50"/>
       <c r="AT10" s="21" t="s">
         <v>61</v>
       </c>
@@ -32588,7 +32597,7 @@
       <c r="AW10" s="23">
         <v>0.76</v>
       </c>
-      <c r="AX10" s="49"/>
+      <c r="AX10" s="50"/>
       <c r="AY10" s="21" t="s">
         <v>61</v>
       </c>
@@ -32604,31 +32613,31 @@
       <c r="BH10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BI10" s="36" t="s">
+      <c r="BI10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="BJ10" s="37">
+      <c r="BJ10" s="38">
         <v>0.82</v>
       </c>
-      <c r="BK10" s="36">
+      <c r="BK10" s="38">
         <v>0.8</v>
       </c>
-      <c r="BL10" s="37">
+      <c r="BL10" s="38">
         <v>0.82</v>
       </c>
       <c r="BM10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BN10" s="36" t="s">
+      <c r="BN10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="BO10" s="37">
+      <c r="BO10" s="38">
         <v>0.97</v>
       </c>
-      <c r="BP10" s="36">
+      <c r="BP10" s="38">
         <v>0.97</v>
       </c>
-      <c r="BQ10" s="37">
+      <c r="BQ10" s="38">
         <v>0.97</v>
       </c>
     </row>
@@ -32721,7 +32730,7 @@
       <c r="AH11" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI11" s="49"/>
+      <c r="AI11" s="50"/>
       <c r="AJ11" s="21" t="s">
         <v>62</v>
       </c>
@@ -32734,7 +32743,7 @@
       <c r="AM11" s="23">
         <v>0.77</v>
       </c>
-      <c r="AN11" s="49"/>
+      <c r="AN11" s="50"/>
       <c r="AO11" s="21" t="s">
         <v>62</v>
       </c>
@@ -32747,7 +32756,7 @@
       <c r="AR11" s="23">
         <v>0.61</v>
       </c>
-      <c r="AS11" s="49"/>
+      <c r="AS11" s="50"/>
       <c r="AT11" s="21" t="s">
         <v>62</v>
       </c>
@@ -32760,7 +32769,7 @@
       <c r="AW11" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX11" s="49"/>
+      <c r="AX11" s="50"/>
       <c r="AY11" s="21" t="s">
         <v>62</v>
       </c>
@@ -32814,33 +32823,33 @@
       <c r="I12" s="9">
         <v>0.37</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="41"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="38" t="s">
+      <c r="Z12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="41"/>
       <c r="AE12" s="21" t="s">
         <v>63</v>
       </c>
@@ -32853,7 +32862,7 @@
       <c r="AH12" s="23">
         <v>0.76</v>
       </c>
-      <c r="AI12" s="49"/>
+      <c r="AI12" s="50"/>
       <c r="AJ12" s="21" t="s">
         <v>63</v>
       </c>
@@ -32866,7 +32875,7 @@
       <c r="AM12" s="23">
         <v>0.79</v>
       </c>
-      <c r="AN12" s="49"/>
+      <c r="AN12" s="50"/>
       <c r="AO12" s="21" t="s">
         <v>63</v>
       </c>
@@ -32879,7 +32888,7 @@
       <c r="AR12" s="23">
         <v>0.6</v>
       </c>
-      <c r="AS12" s="49"/>
+      <c r="AS12" s="50"/>
       <c r="AT12" s="21" t="s">
         <v>63</v>
       </c>
@@ -32892,7 +32901,7 @@
       <c r="AW12" s="23">
         <v>0.73</v>
       </c>
-      <c r="AX12" s="49"/>
+      <c r="AX12" s="50"/>
       <c r="AY12" s="21" t="s">
         <v>63</v>
       </c>
@@ -32985,40 +32994,40 @@
       <c r="AC13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="62" t="s">
+      <c r="AE13" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="62" t="s">
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="62" t="s">
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="63"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="62" t="s">
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="AU13" s="63"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="62" t="s">
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="65"/>
       <c r="BH13" s="91"/>
       <c r="BI13" s="91"/>
       <c r="BJ13" s="91"/>
@@ -33107,30 +33116,30 @@
       <c r="AC14" s="9">
         <v>0.04</v>
       </c>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="67"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="68"/>
       <c r="BH14" s="33"/>
       <c r="BI14" s="34" t="s">
         <v>90</v>
@@ -33235,30 +33244,30 @@
       <c r="AC15" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="70"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="71"/>
       <c r="BH15" s="35" t="s">
         <v>83</v>
       </c>
@@ -33377,7 +33386,7 @@
       <c r="AH16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI16" s="49"/>
+      <c r="AI16" s="50"/>
       <c r="AJ16" s="28"/>
       <c r="AK16" s="27" t="s">
         <v>10</v>
@@ -33388,7 +33397,7 @@
       <c r="AM16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN16" s="49"/>
+      <c r="AN16" s="50"/>
       <c r="AO16" s="28"/>
       <c r="AP16" s="27" t="s">
         <v>10</v>
@@ -33399,7 +33408,7 @@
       <c r="AR16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AS16" s="49"/>
+      <c r="AS16" s="50"/>
       <c r="AT16" s="28"/>
       <c r="AU16" s="27" t="s">
         <v>10</v>
@@ -33410,7 +33419,7 @@
       <c r="AW16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX16" s="49"/>
+      <c r="AX16" s="50"/>
       <c r="AY16" s="28"/>
       <c r="AZ16" s="27" t="s">
         <v>10</v>
@@ -33439,10 +33448,18 @@
       <c r="BM16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="37"/>
-      <c r="BP16" s="36"/>
-      <c r="BQ16" s="37"/>
+      <c r="BN16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO16" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="BP16" s="36">
+        <v>0.92</v>
+      </c>
+      <c r="BQ16" s="37">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="17" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
@@ -33508,31 +33525,43 @@
       <c r="AE17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="49"/>
+      <c r="AF17" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="AG17" s="31">
+        <v>0.61</v>
+      </c>
+      <c r="AH17" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="AI17" s="50"/>
       <c r="AJ17" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AK17" s="19"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="19"/>
-      <c r="AN17" s="49"/>
+      <c r="AN17" s="50"/>
       <c r="AO17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="49"/>
+      <c r="AP17" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="AQ17" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AR17" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="AS17" s="50"/>
       <c r="AT17" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AU17" s="19"/>
       <c r="AV17" s="31"/>
       <c r="AW17" s="19"/>
-      <c r="AX17" s="49"/>
+      <c r="AX17" s="50"/>
       <c r="AY17" s="29" t="s">
         <v>58</v>
       </c>
@@ -33542,25 +33571,33 @@
       <c r="BH17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="BI17" s="36" t="s">
+      <c r="BI17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="BJ17" s="37">
+      <c r="BJ17" s="38">
         <v>0.81</v>
       </c>
-      <c r="BK17" s="36">
+      <c r="BK17" s="38">
         <v>0.78</v>
       </c>
-      <c r="BL17" s="37">
+      <c r="BL17" s="38">
         <v>0.81</v>
       </c>
       <c r="BM17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="37"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="37"/>
+      <c r="BN17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO17" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="BP17" s="36">
+        <v>0.93</v>
+      </c>
+      <c r="BQ17" s="37">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="18" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -33626,31 +33663,43 @@
       <c r="AE18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="49"/>
+      <c r="AF18" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="AG18" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AH18" s="19">
+        <v>0.61</v>
+      </c>
+      <c r="AI18" s="50"/>
       <c r="AJ18" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AK18" s="19"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="19"/>
-      <c r="AN18" s="49"/>
+      <c r="AN18" s="50"/>
       <c r="AO18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="49"/>
+      <c r="AP18" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="AQ18" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AR18" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS18" s="50"/>
       <c r="AT18" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AU18" s="19"/>
       <c r="AV18" s="31"/>
       <c r="AW18" s="19"/>
-      <c r="AX18" s="49"/>
+      <c r="AX18" s="50"/>
       <c r="AY18" s="29" t="s">
         <v>59</v>
       </c>
@@ -33660,25 +33709,33 @@
       <c r="BH18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BI18" s="36" t="s">
+      <c r="BI18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="BJ18" s="37">
+      <c r="BJ18" s="38">
         <v>0.81</v>
       </c>
-      <c r="BK18" s="36">
+      <c r="BK18" s="38">
         <v>0.78</v>
       </c>
-      <c r="BL18" s="37">
+      <c r="BL18" s="38">
         <v>0.81</v>
       </c>
       <c r="BM18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="37"/>
+      <c r="BN18" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO18" s="38">
+        <v>0.97</v>
+      </c>
+      <c r="BP18" s="38">
+        <v>0.97</v>
+      </c>
+      <c r="BQ18" s="38">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="19" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
@@ -33712,31 +33769,43 @@
       <c r="AE19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="49"/>
+      <c r="AF19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="AG19" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AH19" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="AI19" s="50"/>
       <c r="AJ19" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AK19" s="19"/>
       <c r="AL19" s="31"/>
       <c r="AM19" s="19"/>
-      <c r="AN19" s="49"/>
+      <c r="AN19" s="50"/>
       <c r="AO19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="49"/>
+      <c r="AP19" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ19" s="31">
+        <v>0.53</v>
+      </c>
+      <c r="AR19" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AS19" s="50"/>
       <c r="AT19" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="19"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="19"/>
-      <c r="AX19" s="49"/>
+      <c r="AX19" s="50"/>
       <c r="AY19" s="29" t="s">
         <v>60</v>
       </c>
@@ -33788,31 +33857,43 @@
       <c r="AE20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="49"/>
+      <c r="AF20" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="AG20" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="AH20" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="AI20" s="50"/>
       <c r="AJ20" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AK20" s="19"/>
       <c r="AL20" s="31"/>
       <c r="AM20" s="19"/>
-      <c r="AN20" s="49"/>
+      <c r="AN20" s="50"/>
       <c r="AO20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="49"/>
+      <c r="AP20" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="AQ20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AR20" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="AS20" s="50"/>
       <c r="AT20" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AU20" s="19"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="19"/>
-      <c r="AX20" s="49"/>
+      <c r="AX20" s="50"/>
       <c r="AY20" s="29" t="s">
         <v>61</v>
       </c>
@@ -33831,74 +33912,86 @@
       <c r="BQ20" s="92"/>
     </row>
     <row r="21" spans="1:69" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="79" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="K21" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="79" t="s">
+      <c r="P21" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="79" t="s">
+      <c r="U21" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="82"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="79" t="s">
+      <c r="Z21" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="82"/>
       <c r="AE21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="49"/>
+      <c r="AF21" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>0.54</v>
+      </c>
+      <c r="AH21" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI21" s="50"/>
       <c r="AJ21" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AK21" s="19"/>
       <c r="AL21" s="31"/>
       <c r="AM21" s="19"/>
-      <c r="AN21" s="49"/>
+      <c r="AN21" s="50"/>
       <c r="AO21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="49"/>
+      <c r="AP21" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="AQ21" s="31">
+        <v>0.62</v>
+      </c>
+      <c r="AR21" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="AS21" s="50"/>
       <c r="AT21" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AU21" s="19"/>
       <c r="AV21" s="31"/>
       <c r="AW21" s="19"/>
-      <c r="AX21" s="49"/>
+      <c r="AX21" s="50"/>
       <c r="AY21" s="29" t="s">
         <v>62</v>
       </c>
@@ -33988,31 +34081,43 @@
       <c r="AE22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="49"/>
+      <c r="AF22" s="30">
+        <v>0.61</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="AH22" s="30">
+        <v>0.61</v>
+      </c>
+      <c r="AI22" s="50"/>
       <c r="AJ22" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AK22" s="30"/>
       <c r="AL22" s="32"/>
       <c r="AM22" s="30"/>
-      <c r="AN22" s="49"/>
+      <c r="AN22" s="50"/>
       <c r="AO22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="49"/>
+      <c r="AP22" s="30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AQ22" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR22" s="30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS22" s="50"/>
       <c r="AT22" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AU22" s="30"/>
       <c r="AV22" s="32"/>
       <c r="AW22" s="30"/>
-      <c r="AX22" s="49"/>
+      <c r="AX22" s="50"/>
       <c r="AY22" s="29" t="s">
         <v>63</v>
       </c>
@@ -34108,29 +34213,29 @@
         <v>0.61</v>
       </c>
       <c r="AE23" s="85"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="49"/>
       <c r="BH23" s="91"/>
       <c r="BI23" s="91"/>
       <c r="BJ23" s="91"/>
@@ -34220,29 +34325,29 @@
         <v>0.74</v>
       </c>
       <c r="AE24" s="86"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="51"/>
       <c r="BH24" s="33"/>
       <c r="BI24" s="34" t="s">
         <v>90</v>
@@ -34348,43 +34453,59 @@
         <v>0.71</v>
       </c>
       <c r="AE25" s="86"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="51"/>
       <c r="BH25" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="37"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="37"/>
+      <c r="BI25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ25" s="37">
+        <v>0.63</v>
+      </c>
+      <c r="BK25" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="BL25" s="37">
+        <v>0.63</v>
+      </c>
       <c r="BM25" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="37"/>
-      <c r="BP25" s="36"/>
-      <c r="BQ25" s="37"/>
+      <c r="BN25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO25" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="BP25" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="BQ25" s="37">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="26" spans="1:69" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -34464,29 +34585,29 @@
         <v>0.66</v>
       </c>
       <c r="AE26" s="87"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="53"/>
       <c r="BH26" s="35" t="s">
         <v>84</v>
       </c>
@@ -34579,38 +34700,38 @@
       <c r="AC27" s="10">
         <v>0.74</v>
       </c>
-      <c r="AE27" s="53" t="s">
+      <c r="AE27" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="53" t="s">
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="53" t="s">
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AU27" s="54"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="55"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="53" t="s">
+      <c r="AU27" s="55"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AZ27" s="54"/>
-      <c r="BA27" s="54"/>
-      <c r="BB27" s="55"/>
+      <c r="AZ27" s="55"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="56"/>
       <c r="BH27" s="35" t="s">
         <v>85</v>
       </c>
@@ -34652,57 +34773,57 @@
       <c r="I28" s="9">
         <v>0.24</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="38" t="s">
+      <c r="U28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="41"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="38" t="s">
+      <c r="Z28" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="40"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="58"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="41"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="58"/>
+      <c r="AV28" s="58"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="58"/>
+      <c r="BA28" s="58"/>
+      <c r="BB28" s="59"/>
       <c r="BH28" s="35" t="s">
         <v>24</v>
       </c>
@@ -34787,30 +34908,30 @@
       <c r="AC29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="61"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="60"/>
-      <c r="AW29" s="61"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="60"/>
-      <c r="BB29" s="61"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="60"/>
+      <c r="AU29" s="61"/>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="60"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="62"/>
       <c r="BH29" s="91" t="s">
         <v>82</v>
       </c>
@@ -34913,7 +35034,7 @@
       <c r="AH30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI30" s="49"/>
+      <c r="AI30" s="50"/>
       <c r="AJ30" s="20"/>
       <c r="AK30" s="22" t="s">
         <v>10</v>
@@ -34924,12 +35045,12 @@
       <c r="AM30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AT30" s="20"/>
       <c r="AU30" s="22" t="s">
         <v>10</v>
@@ -34940,7 +35061,7 @@
       <c r="AW30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX30" s="49"/>
+      <c r="AX30" s="50"/>
       <c r="AY30" s="20"/>
       <c r="AZ30" s="22" t="s">
         <v>10</v>
@@ -35051,7 +35172,7 @@
       <c r="AH31" s="23">
         <v>0.78</v>
       </c>
-      <c r="AI31" s="49"/>
+      <c r="AI31" s="50"/>
       <c r="AJ31" s="21" t="s">
         <v>58</v>
       </c>
@@ -35064,12 +35185,12 @@
       <c r="AM31" s="23">
         <v>0.78</v>
       </c>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
       <c r="AT31" s="21" t="s">
         <v>58</v>
       </c>
@@ -35082,7 +35203,7 @@
       <c r="AW31" s="23">
         <v>0.77</v>
       </c>
-      <c r="AX31" s="49"/>
+      <c r="AX31" s="50"/>
       <c r="AY31" s="21" t="s">
         <v>58</v>
       </c>
@@ -35195,7 +35316,7 @@
       <c r="AH32" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI32" s="49"/>
+      <c r="AI32" s="50"/>
       <c r="AJ32" s="21" t="s">
         <v>59</v>
       </c>
@@ -35208,12 +35329,12 @@
       <c r="AM32" s="23">
         <v>0.75</v>
       </c>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="50"/>
       <c r="AT32" s="21" t="s">
         <v>59</v>
       </c>
@@ -35226,7 +35347,7 @@
       <c r="AW32" s="23">
         <v>0.73</v>
       </c>
-      <c r="AX32" s="49"/>
+      <c r="AX32" s="50"/>
       <c r="AY32" s="21" t="s">
         <v>59</v>
       </c>
@@ -35339,7 +35460,7 @@
       <c r="AH33" s="23">
         <v>0.75</v>
       </c>
-      <c r="AI33" s="49"/>
+      <c r="AI33" s="50"/>
       <c r="AJ33" s="21" t="s">
         <v>60</v>
       </c>
@@ -35352,12 +35473,12 @@
       <c r="AM33" s="23">
         <v>0.74</v>
       </c>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="50"/>
       <c r="AT33" s="21" t="s">
         <v>60</v>
       </c>
@@ -35370,7 +35491,7 @@
       <c r="AW33" s="23">
         <v>0.74</v>
       </c>
-      <c r="AX33" s="49"/>
+      <c r="AX33" s="50"/>
       <c r="AY33" s="21" t="s">
         <v>60</v>
       </c>
@@ -35386,10 +35507,18 @@
       <c r="BH33" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="BI33" s="36"/>
-      <c r="BJ33" s="37"/>
-      <c r="BK33" s="36"/>
-      <c r="BL33" s="37"/>
+      <c r="BI33" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ33" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="BK33" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="BL33" s="37">
+        <v>0.76</v>
+      </c>
       <c r="BM33" s="35" t="s">
         <v>83</v>
       </c>
@@ -35471,7 +35600,7 @@
       <c r="AH34" s="23">
         <v>0.8</v>
       </c>
-      <c r="AI34" s="49"/>
+      <c r="AI34" s="50"/>
       <c r="AJ34" s="21" t="s">
         <v>61</v>
       </c>
@@ -35484,12 +35613,12 @@
       <c r="AM34" s="23">
         <v>0.76</v>
       </c>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
       <c r="AT34" s="21" t="s">
         <v>61</v>
       </c>
@@ -35502,7 +35631,7 @@
       <c r="AW34" s="23">
         <v>0.81</v>
       </c>
-      <c r="AX34" s="49"/>
+      <c r="AX34" s="50"/>
       <c r="AY34" s="21" t="s">
         <v>61</v>
       </c>
@@ -35571,7 +35700,7 @@
       <c r="AH35" s="23">
         <v>0.77</v>
       </c>
-      <c r="AI35" s="49"/>
+      <c r="AI35" s="50"/>
       <c r="AJ35" s="21" t="s">
         <v>62</v>
       </c>
@@ -35584,12 +35713,12 @@
       <c r="AM35" s="23">
         <v>0.78</v>
       </c>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50"/>
       <c r="AT35" s="21" t="s">
         <v>62</v>
       </c>
@@ -35602,7 +35731,7 @@
       <c r="AW35" s="23">
         <v>0.75</v>
       </c>
-      <c r="AX35" s="49"/>
+      <c r="AX35" s="50"/>
       <c r="AY35" s="21" t="s">
         <v>62</v>
       </c>
@@ -35671,7 +35800,7 @@
       <c r="AH36" s="23">
         <v>0.81</v>
       </c>
-      <c r="AI36" s="49"/>
+      <c r="AI36" s="50"/>
       <c r="AJ36" s="21" t="s">
         <v>63</v>
       </c>
@@ -35684,12 +35813,12 @@
       <c r="AM36" s="23">
         <v>0.82</v>
       </c>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="50"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
       <c r="AT36" s="21" t="s">
         <v>63</v>
       </c>
@@ -35702,7 +35831,7 @@
       <c r="AW36" s="23">
         <v>0.79</v>
       </c>
-      <c r="AX36" s="49"/>
+      <c r="AX36" s="50"/>
       <c r="AY36" s="21" t="s">
         <v>63</v>
       </c>
@@ -35731,78 +35860,78 @@
       <c r="BQ36" s="37"/>
     </row>
     <row r="37" spans="1:69" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="K37" s="79" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="K37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="82"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="82"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="79" t="s">
+      <c r="U37" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="82"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="79" t="s">
+      <c r="Z37" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="81"/>
-      <c r="AE37" s="62" t="s">
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="82"/>
+      <c r="AE37" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="62" t="s">
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AK37" s="63"/>
-      <c r="AL37" s="63"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="62" t="s">
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="50"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="50"/>
+      <c r="AQ37" s="50"/>
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AU37" s="63"/>
-      <c r="AV37" s="63"/>
-      <c r="AW37" s="64"/>
-      <c r="AX37" s="49"/>
-      <c r="AY37" s="62" t="s">
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="50"/>
+      <c r="AY37" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AZ37" s="63"/>
-      <c r="BA37" s="63"/>
-      <c r="BB37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="65"/>
     </row>
     <row r="38" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -35869,30 +35998,30 @@
       <c r="AC38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="65"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="49"/>
-      <c r="AO38" s="49"/>
-      <c r="AP38" s="49"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="49"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="66"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="49"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="66"/>
-      <c r="BA38" s="66"/>
-      <c r="BB38" s="67"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="67"/>
+      <c r="AV38" s="67"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="67"/>
+      <c r="BA38" s="67"/>
+      <c r="BB38" s="68"/>
     </row>
     <row r="39" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -35971,30 +36100,30 @@
       <c r="AC39" s="10">
         <v>0.61</v>
       </c>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="69"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="49"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="49"/>
-      <c r="AT39" s="68"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="49"/>
-      <c r="AY39" s="68"/>
-      <c r="AZ39" s="69"/>
-      <c r="BA39" s="69"/>
-      <c r="BB39" s="70"/>
+      <c r="AE39" s="69"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="70"/>
+      <c r="AL39" s="70"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="69"/>
+      <c r="AU39" s="70"/>
+      <c r="AV39" s="70"/>
+      <c r="AW39" s="71"/>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="69"/>
+      <c r="AZ39" s="70"/>
+      <c r="BA39" s="70"/>
+      <c r="BB39" s="71"/>
     </row>
     <row r="40" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -36083,7 +36212,7 @@
       <c r="AH40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI40" s="49"/>
+      <c r="AI40" s="50"/>
       <c r="AJ40" s="28"/>
       <c r="AK40" s="27" t="s">
         <v>10</v>
@@ -36094,12 +36223,12 @@
       <c r="AM40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN40" s="49"/>
-      <c r="AO40" s="49"/>
-      <c r="AP40" s="49"/>
-      <c r="AQ40" s="49"/>
-      <c r="AR40" s="49"/>
-      <c r="AS40" s="49"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
       <c r="AT40" s="28"/>
       <c r="AU40" s="27" t="s">
         <v>10</v>
@@ -36110,7 +36239,7 @@
       <c r="AW40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX40" s="49"/>
+      <c r="AX40" s="50"/>
       <c r="AY40" s="28"/>
       <c r="AZ40" s="27" t="s">
         <v>10</v>
@@ -36205,26 +36334,26 @@
       <c r="AF41" s="19"/>
       <c r="AG41" s="31"/>
       <c r="AH41" s="19"/>
-      <c r="AI41" s="49"/>
+      <c r="AI41" s="50"/>
       <c r="AJ41" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AK41" s="19"/>
       <c r="AL41" s="31"/>
       <c r="AM41" s="19"/>
-      <c r="AN41" s="49"/>
-      <c r="AO41" s="49"/>
-      <c r="AP41" s="49"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="49"/>
-      <c r="AS41" s="49"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="50"/>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AT41" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AU41" s="19"/>
       <c r="AV41" s="31"/>
       <c r="AW41" s="19"/>
-      <c r="AX41" s="49"/>
+      <c r="AX41" s="50"/>
       <c r="AY41" s="29" t="s">
         <v>58</v>
       </c>
@@ -36315,26 +36444,26 @@
       <c r="AF42" s="19"/>
       <c r="AG42" s="31"/>
       <c r="AH42" s="19"/>
-      <c r="AI42" s="49"/>
+      <c r="AI42" s="50"/>
       <c r="AJ42" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AK42" s="19"/>
       <c r="AL42" s="31"/>
       <c r="AM42" s="19"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
-      <c r="AS42" s="49"/>
+      <c r="AN42" s="50"/>
+      <c r="AO42" s="50"/>
+      <c r="AP42" s="50"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="50"/>
+      <c r="AS42" s="50"/>
       <c r="AT42" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AU42" s="19"/>
       <c r="AV42" s="31"/>
       <c r="AW42" s="19"/>
-      <c r="AX42" s="49"/>
+      <c r="AX42" s="50"/>
       <c r="AY42" s="29" t="s">
         <v>59</v>
       </c>
@@ -36425,26 +36554,26 @@
       <c r="AF43" s="19"/>
       <c r="AG43" s="31"/>
       <c r="AH43" s="19"/>
-      <c r="AI43" s="49"/>
+      <c r="AI43" s="50"/>
       <c r="AJ43" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AK43" s="19"/>
       <c r="AL43" s="31"/>
       <c r="AM43" s="19"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="49"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
       <c r="AT43" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AU43" s="19"/>
       <c r="AV43" s="31"/>
       <c r="AW43" s="19"/>
-      <c r="AX43" s="49"/>
+      <c r="AX43" s="50"/>
       <c r="AY43" s="29" t="s">
         <v>60</v>
       </c>
@@ -36478,59 +36607,59 @@
       <c r="I44" s="9">
         <v>0.21</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="K44" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="41"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="38" t="s">
+      <c r="P44" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="41"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="38" t="s">
+      <c r="U44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="41"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="38" t="s">
+      <c r="Z44" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="41"/>
       <c r="AE44" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AF44" s="19"/>
       <c r="AG44" s="31"/>
       <c r="AH44" s="19"/>
-      <c r="AI44" s="49"/>
+      <c r="AI44" s="50"/>
       <c r="AJ44" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AK44" s="19"/>
       <c r="AL44" s="31"/>
       <c r="AM44" s="19"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
+      <c r="AQ44" s="50"/>
+      <c r="AR44" s="50"/>
+      <c r="AS44" s="50"/>
       <c r="AT44" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AU44" s="19"/>
       <c r="AV44" s="31"/>
       <c r="AW44" s="19"/>
-      <c r="AX44" s="49"/>
+      <c r="AX44" s="50"/>
       <c r="AY44" s="29" t="s">
         <v>61</v>
       </c>
@@ -36613,26 +36742,26 @@
       <c r="AF45" s="19"/>
       <c r="AG45" s="31"/>
       <c r="AH45" s="19"/>
-      <c r="AI45" s="49"/>
+      <c r="AI45" s="50"/>
       <c r="AJ45" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AK45" s="19"/>
       <c r="AL45" s="31"/>
       <c r="AM45" s="19"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
-      <c r="AQ45" s="49"/>
-      <c r="AR45" s="49"/>
-      <c r="AS45" s="49"/>
+      <c r="AN45" s="50"/>
+      <c r="AO45" s="50"/>
+      <c r="AP45" s="50"/>
+      <c r="AQ45" s="50"/>
+      <c r="AR45" s="50"/>
+      <c r="AS45" s="50"/>
       <c r="AT45" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AU45" s="19"/>
       <c r="AV45" s="31"/>
       <c r="AW45" s="19"/>
-      <c r="AX45" s="49"/>
+      <c r="AX45" s="50"/>
       <c r="AY45" s="29" t="s">
         <v>62</v>
       </c>
@@ -36723,26 +36852,26 @@
       <c r="AF46" s="30"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="30"/>
-      <c r="AI46" s="49"/>
+      <c r="AI46" s="50"/>
       <c r="AJ46" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AK46" s="30"/>
       <c r="AL46" s="32"/>
       <c r="AM46" s="30"/>
-      <c r="AN46" s="49"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="49"/>
-      <c r="AQ46" s="49"/>
-      <c r="AR46" s="49"/>
-      <c r="AS46" s="49"/>
+      <c r="AN46" s="50"/>
+      <c r="AO46" s="50"/>
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50"/>
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50"/>
       <c r="AT46" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AU46" s="30"/>
       <c r="AV46" s="32"/>
       <c r="AW46" s="30"/>
-      <c r="AX46" s="49"/>
+      <c r="AX46" s="50"/>
       <c r="AY46" s="29" t="s">
         <v>63</v>
       </c>
@@ -36827,36 +36956,36 @@
       <c r="AC47" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE47" s="41" t="s">
+      <c r="AE47" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="43"/>
-      <c r="AO47" s="71" t="s">
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="43"/>
+      <c r="AJ47" s="43"/>
+      <c r="AK47" s="43"/>
+      <c r="AL47" s="43"/>
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AP47" s="72"/>
-      <c r="AQ47" s="72"/>
-      <c r="AR47" s="73"/>
-      <c r="AS47" s="41" t="s">
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="73"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="43"/>
+      <c r="AT47" s="43"/>
+      <c r="AU47" s="43"/>
+      <c r="AV47" s="43"/>
+      <c r="AW47" s="43"/>
+      <c r="AX47" s="43"/>
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="43"/>
+      <c r="BA47" s="43"/>
+      <c r="BB47" s="44"/>
     </row>
     <row r="48" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -36935,30 +37064,30 @@
       <c r="AC48" s="9">
         <v>0.43</v>
       </c>
-      <c r="AE48" s="44"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="45"/>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="75"/>
-      <c r="AQ48" s="75"/>
-      <c r="AR48" s="76"/>
-      <c r="AS48" s="44"/>
-      <c r="AT48" s="45"/>
-      <c r="AU48" s="45"/>
-      <c r="AV48" s="45"/>
-      <c r="AW48" s="45"/>
-      <c r="AX48" s="45"/>
-      <c r="AY48" s="45"/>
-      <c r="AZ48" s="45"/>
-      <c r="BA48" s="45"/>
-      <c r="BB48" s="46"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="76"/>
+      <c r="AQ48" s="76"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="46"/>
+      <c r="AU48" s="46"/>
+      <c r="AV48" s="46"/>
+      <c r="AW48" s="46"/>
+      <c r="AX48" s="46"/>
+      <c r="AY48" s="46"/>
+      <c r="AZ48" s="46"/>
+      <c r="BA48" s="46"/>
+      <c r="BB48" s="47"/>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -37021,40 +37150,40 @@
       <c r="AC49" s="9">
         <v>0.53</v>
       </c>
-      <c r="AE49" s="53" t="s">
+      <c r="AE49" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="AF49" s="54"/>
-      <c r="AG49" s="54"/>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="49"/>
-      <c r="AJ49" s="53" t="s">
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AK49" s="54"/>
-      <c r="AL49" s="54"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="77" t="s">
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="AP49" s="77"/>
-      <c r="AQ49" s="77"/>
-      <c r="AR49" s="77"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="54" t="s">
+      <c r="AP49" s="78"/>
+      <c r="AQ49" s="78"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="50"/>
+      <c r="AT49" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AU49" s="54"/>
-      <c r="AV49" s="54"/>
-      <c r="AW49" s="55"/>
-      <c r="AX49" s="49"/>
-      <c r="AY49" s="53" t="s">
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="56"/>
+      <c r="AX49" s="50"/>
+      <c r="AY49" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AZ49" s="54"/>
-      <c r="BA49" s="54"/>
-      <c r="BB49" s="55"/>
+      <c r="AZ49" s="55"/>
+      <c r="BA49" s="55"/>
+      <c r="BB49" s="56"/>
     </row>
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -37117,30 +37246,30 @@
       <c r="AC50" s="9">
         <v>0.42</v>
       </c>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="49"/>
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="57"/>
-      <c r="AL50" s="57"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="77"/>
-      <c r="AP50" s="77"/>
-      <c r="AQ50" s="77"/>
-      <c r="AR50" s="77"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="57"/>
-      <c r="AU50" s="57"/>
-      <c r="AV50" s="57"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="49"/>
-      <c r="AY50" s="56"/>
-      <c r="AZ50" s="57"/>
-      <c r="BA50" s="57"/>
-      <c r="BB50" s="58"/>
+      <c r="AE50" s="57"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="59"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="57"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="78"/>
+      <c r="AP50" s="78"/>
+      <c r="AQ50" s="78"/>
+      <c r="AR50" s="78"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="58"/>
+      <c r="AU50" s="58"/>
+      <c r="AV50" s="58"/>
+      <c r="AW50" s="59"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="57"/>
+      <c r="AZ50" s="58"/>
+      <c r="BA50" s="58"/>
+      <c r="BB50" s="59"/>
     </row>
     <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -37171,30 +37300,30 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
       <c r="AC51" s="14"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="60"/>
-      <c r="AH51" s="61"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="59"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="61"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="77"/>
-      <c r="AQ51" s="77"/>
-      <c r="AR51" s="77"/>
-      <c r="AS51" s="49"/>
-      <c r="AT51" s="60"/>
-      <c r="AU51" s="60"/>
-      <c r="AV51" s="60"/>
-      <c r="AW51" s="61"/>
-      <c r="AX51" s="49"/>
-      <c r="AY51" s="59"/>
-      <c r="AZ51" s="60"/>
-      <c r="BA51" s="60"/>
-      <c r="BB51" s="61"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="62"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="62"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="78"/>
+      <c r="AP51" s="78"/>
+      <c r="AQ51" s="78"/>
+      <c r="AR51" s="78"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="62"/>
+      <c r="AX51" s="50"/>
+      <c r="AY51" s="60"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="62"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -37235,7 +37364,7 @@
       <c r="AH52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI52" s="49"/>
+      <c r="AI52" s="50"/>
       <c r="AJ52" s="20"/>
       <c r="AK52" s="22" t="s">
         <v>10</v>
@@ -37246,7 +37375,7 @@
       <c r="AM52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="49"/>
+      <c r="AN52" s="50"/>
       <c r="AO52" s="20"/>
       <c r="AP52" s="22" t="s">
         <v>10</v>
@@ -37257,7 +37386,7 @@
       <c r="AR52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AS52" s="49"/>
+      <c r="AS52" s="50"/>
       <c r="AT52" s="25"/>
       <c r="AU52" s="22" t="s">
         <v>10</v>
@@ -37268,7 +37397,7 @@
       <c r="AW52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX52" s="49"/>
+      <c r="AX52" s="50"/>
       <c r="AY52" s="20"/>
       <c r="AZ52" s="22" t="s">
         <v>10</v>
@@ -37281,46 +37410,46 @@
       </c>
     </row>
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
-      <c r="K53" s="79" t="s">
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+      <c r="K53" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="82"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="79" t="s">
+      <c r="P53" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="82"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="79" t="s">
+      <c r="U53" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="81"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="81"/>
+      <c r="X53" s="82"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="79" t="s">
+      <c r="Z53" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="AA53" s="80"/>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="81"/>
+      <c r="AA53" s="81"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="82"/>
       <c r="AE53" s="21" t="s">
         <v>58</v>
       </c>
@@ -37333,7 +37462,7 @@
       <c r="AH53" s="23">
         <v>0.96</v>
       </c>
-      <c r="AI53" s="49"/>
+      <c r="AI53" s="50"/>
       <c r="AJ53" s="21" t="s">
         <v>58</v>
       </c>
@@ -37346,7 +37475,7 @@
       <c r="AM53" s="23">
         <v>0.92</v>
       </c>
-      <c r="AN53" s="49"/>
+      <c r="AN53" s="50"/>
       <c r="AO53" s="21" t="s">
         <v>58</v>
       </c>
@@ -37359,7 +37488,7 @@
       <c r="AR53" s="23">
         <v>0.84</v>
       </c>
-      <c r="AS53" s="49"/>
+      <c r="AS53" s="50"/>
       <c r="AT53" s="26" t="s">
         <v>58</v>
       </c>
@@ -37372,7 +37501,7 @@
       <c r="AW53" s="23">
         <v>0.96</v>
       </c>
-      <c r="AX53" s="49"/>
+      <c r="AX53" s="50"/>
       <c r="AY53" s="21" t="s">
         <v>58</v>
       </c>
@@ -37463,7 +37592,7 @@
       <c r="AH54" s="23">
         <v>0.9</v>
       </c>
-      <c r="AI54" s="49"/>
+      <c r="AI54" s="50"/>
       <c r="AJ54" s="21" t="s">
         <v>59</v>
       </c>
@@ -37476,7 +37605,7 @@
       <c r="AM54" s="23">
         <v>0.91</v>
       </c>
-      <c r="AN54" s="49"/>
+      <c r="AN54" s="50"/>
       <c r="AO54" s="21" t="s">
         <v>59</v>
       </c>
@@ -37489,7 +37618,7 @@
       <c r="AR54" s="23">
         <v>0.88</v>
       </c>
-      <c r="AS54" s="49"/>
+      <c r="AS54" s="50"/>
       <c r="AT54" s="26" t="s">
         <v>59</v>
       </c>
@@ -37502,7 +37631,7 @@
       <c r="AW54" s="23">
         <v>0.91</v>
       </c>
-      <c r="AX54" s="49"/>
+      <c r="AX54" s="50"/>
       <c r="AY54" s="21" t="s">
         <v>59</v>
       </c>
@@ -37605,7 +37734,7 @@
       <c r="AH55" s="23">
         <v>0.86</v>
       </c>
-      <c r="AI55" s="49"/>
+      <c r="AI55" s="50"/>
       <c r="AJ55" s="21" t="s">
         <v>60</v>
       </c>
@@ -37618,7 +37747,7 @@
       <c r="AM55" s="23">
         <v>0.9</v>
       </c>
-      <c r="AN55" s="49"/>
+      <c r="AN55" s="50"/>
       <c r="AO55" s="21" t="s">
         <v>60</v>
       </c>
@@ -37631,7 +37760,7 @@
       <c r="AR55" s="23">
         <v>0.81</v>
       </c>
-      <c r="AS55" s="49"/>
+      <c r="AS55" s="50"/>
       <c r="AT55" s="26" t="s">
         <v>60</v>
       </c>
@@ -37644,7 +37773,7 @@
       <c r="AW55" s="23">
         <v>0.89</v>
       </c>
-      <c r="AX55" s="49"/>
+      <c r="AX55" s="50"/>
       <c r="AY55" s="21" t="s">
         <v>60</v>
       </c>
@@ -37747,7 +37876,7 @@
       <c r="AH56" s="23">
         <v>0.93</v>
       </c>
-      <c r="AI56" s="49"/>
+      <c r="AI56" s="50"/>
       <c r="AJ56" s="21" t="s">
         <v>61</v>
       </c>
@@ -37760,7 +37889,7 @@
       <c r="AM56" s="23">
         <v>0.94</v>
       </c>
-      <c r="AN56" s="49"/>
+      <c r="AN56" s="50"/>
       <c r="AO56" s="21" t="s">
         <v>61</v>
       </c>
@@ -37773,7 +37902,7 @@
       <c r="AR56" s="23">
         <v>0.83</v>
       </c>
-      <c r="AS56" s="49"/>
+      <c r="AS56" s="50"/>
       <c r="AT56" s="26" t="s">
         <v>61</v>
       </c>
@@ -37786,7 +37915,7 @@
       <c r="AW56" s="23">
         <v>0.91</v>
       </c>
-      <c r="AX56" s="49"/>
+      <c r="AX56" s="50"/>
       <c r="AY56" s="21" t="s">
         <v>61</v>
       </c>
@@ -37889,7 +38018,7 @@
       <c r="AH57" s="23">
         <v>0.88</v>
       </c>
-      <c r="AI57" s="49"/>
+      <c r="AI57" s="50"/>
       <c r="AJ57" s="21" t="s">
         <v>62</v>
       </c>
@@ -37902,7 +38031,7 @@
       <c r="AM57" s="23">
         <v>0.91</v>
       </c>
-      <c r="AN57" s="49"/>
+      <c r="AN57" s="50"/>
       <c r="AO57" s="21" t="s">
         <v>62</v>
       </c>
@@ -37915,7 +38044,7 @@
       <c r="AR57" s="23">
         <v>0.85</v>
       </c>
-      <c r="AS57" s="49"/>
+      <c r="AS57" s="50"/>
       <c r="AT57" s="26" t="s">
         <v>62</v>
       </c>
@@ -37928,7 +38057,7 @@
       <c r="AW57" s="23">
         <v>0.88</v>
       </c>
-      <c r="AX57" s="49"/>
+      <c r="AX57" s="50"/>
       <c r="AY57" s="21" t="s">
         <v>62</v>
       </c>
@@ -38031,7 +38160,7 @@
       <c r="AH58" s="23">
         <v>0.91</v>
       </c>
-      <c r="AI58" s="49"/>
+      <c r="AI58" s="50"/>
       <c r="AJ58" s="21" t="s">
         <v>63</v>
       </c>
@@ -38044,7 +38173,7 @@
       <c r="AM58" s="23">
         <v>0.9</v>
       </c>
-      <c r="AN58" s="49"/>
+      <c r="AN58" s="50"/>
       <c r="AO58" s="21" t="s">
         <v>63</v>
       </c>
@@ -38057,7 +38186,7 @@
       <c r="AR58" s="23">
         <v>0.83</v>
       </c>
-      <c r="AS58" s="49"/>
+      <c r="AS58" s="50"/>
       <c r="AT58" s="26" t="s">
         <v>63</v>
       </c>
@@ -38070,7 +38199,7 @@
       <c r="AW58" s="23">
         <v>0.93</v>
       </c>
-      <c r="AX58" s="49"/>
+      <c r="AX58" s="50"/>
       <c r="AY58" s="21" t="s">
         <v>63</v>
       </c>
@@ -38161,40 +38290,40 @@
       <c r="AC59" s="10">
         <v>0.49</v>
       </c>
-      <c r="AE59" s="62" t="s">
+      <c r="AE59" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AF59" s="63"/>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="64"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="62" t="s">
+      <c r="AF59" s="64"/>
+      <c r="AG59" s="64"/>
+      <c r="AH59" s="65"/>
+      <c r="AI59" s="50"/>
+      <c r="AJ59" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="63"/>
-      <c r="AM59" s="64"/>
-      <c r="AN59" s="49"/>
-      <c r="AO59" s="78" t="s">
+      <c r="AK59" s="64"/>
+      <c r="AL59" s="64"/>
+      <c r="AM59" s="65"/>
+      <c r="AN59" s="50"/>
+      <c r="AO59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="AP59" s="78"/>
-      <c r="AQ59" s="78"/>
-      <c r="AR59" s="78"/>
-      <c r="AS59" s="49"/>
-      <c r="AT59" s="63" t="s">
+      <c r="AP59" s="79"/>
+      <c r="AQ59" s="79"/>
+      <c r="AR59" s="79"/>
+      <c r="AS59" s="50"/>
+      <c r="AT59" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="AU59" s="63"/>
-      <c r="AV59" s="63"/>
-      <c r="AW59" s="64"/>
-      <c r="AX59" s="49"/>
-      <c r="AY59" s="62" t="s">
+      <c r="AU59" s="64"/>
+      <c r="AV59" s="64"/>
+      <c r="AW59" s="65"/>
+      <c r="AX59" s="50"/>
+      <c r="AY59" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AZ59" s="63"/>
-      <c r="BA59" s="63"/>
-      <c r="BB59" s="64"/>
+      <c r="AZ59" s="64"/>
+      <c r="BA59" s="64"/>
+      <c r="BB59" s="65"/>
     </row>
     <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -38222,57 +38351,57 @@
       <c r="I60" s="9">
         <v>0.26</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="41"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="38" t="s">
+      <c r="P60" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="41"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="38" t="s">
+      <c r="U60" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="41"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="38" t="s">
+      <c r="Z60" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="40"/>
-      <c r="AE60" s="65"/>
-      <c r="AF60" s="66"/>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="49"/>
-      <c r="AJ60" s="65"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="66"/>
-      <c r="AM60" s="67"/>
-      <c r="AN60" s="49"/>
-      <c r="AO60" s="78"/>
-      <c r="AP60" s="78"/>
-      <c r="AQ60" s="78"/>
-      <c r="AR60" s="78"/>
-      <c r="AS60" s="49"/>
-      <c r="AT60" s="66"/>
-      <c r="AU60" s="66"/>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="67"/>
-      <c r="AX60" s="49"/>
-      <c r="AY60" s="65"/>
-      <c r="AZ60" s="66"/>
-      <c r="BA60" s="66"/>
-      <c r="BB60" s="67"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="41"/>
+      <c r="AE60" s="66"/>
+      <c r="AF60" s="67"/>
+      <c r="AG60" s="67"/>
+      <c r="AH60" s="68"/>
+      <c r="AI60" s="50"/>
+      <c r="AJ60" s="66"/>
+      <c r="AK60" s="67"/>
+      <c r="AL60" s="67"/>
+      <c r="AM60" s="68"/>
+      <c r="AN60" s="50"/>
+      <c r="AO60" s="79"/>
+      <c r="AP60" s="79"/>
+      <c r="AQ60" s="79"/>
+      <c r="AR60" s="79"/>
+      <c r="AS60" s="50"/>
+      <c r="AT60" s="67"/>
+      <c r="AU60" s="67"/>
+      <c r="AV60" s="67"/>
+      <c r="AW60" s="68"/>
+      <c r="AX60" s="50"/>
+      <c r="AY60" s="66"/>
+      <c r="AZ60" s="67"/>
+      <c r="BA60" s="67"/>
+      <c r="BB60" s="68"/>
     </row>
     <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -38343,30 +38472,30 @@
       <c r="AC61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE61" s="68"/>
-      <c r="AF61" s="69"/>
-      <c r="AG61" s="69"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="49"/>
-      <c r="AJ61" s="68"/>
-      <c r="AK61" s="69"/>
-      <c r="AL61" s="69"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="49"/>
-      <c r="AO61" s="78"/>
-      <c r="AP61" s="78"/>
-      <c r="AQ61" s="78"/>
-      <c r="AR61" s="78"/>
-      <c r="AS61" s="49"/>
-      <c r="AT61" s="69"/>
-      <c r="AU61" s="69"/>
-      <c r="AV61" s="69"/>
-      <c r="AW61" s="70"/>
-      <c r="AX61" s="49"/>
-      <c r="AY61" s="68"/>
-      <c r="AZ61" s="69"/>
-      <c r="BA61" s="69"/>
-      <c r="BB61" s="70"/>
+      <c r="AE61" s="69"/>
+      <c r="AF61" s="70"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="69"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="70"/>
+      <c r="AM61" s="71"/>
+      <c r="AN61" s="50"/>
+      <c r="AO61" s="79"/>
+      <c r="AP61" s="79"/>
+      <c r="AQ61" s="79"/>
+      <c r="AR61" s="79"/>
+      <c r="AS61" s="50"/>
+      <c r="AT61" s="70"/>
+      <c r="AU61" s="70"/>
+      <c r="AV61" s="70"/>
+      <c r="AW61" s="71"/>
+      <c r="AX61" s="50"/>
+      <c r="AY61" s="69"/>
+      <c r="AZ61" s="70"/>
+      <c r="BA61" s="70"/>
+      <c r="BB61" s="71"/>
     </row>
     <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -38455,7 +38584,7 @@
       <c r="AH62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI62" s="49"/>
+      <c r="AI62" s="50"/>
       <c r="AJ62" s="28"/>
       <c r="AK62" s="27" t="s">
         <v>10</v>
@@ -38466,7 +38595,7 @@
       <c r="AM62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN62" s="49"/>
+      <c r="AN62" s="50"/>
       <c r="AO62" s="28"/>
       <c r="AP62" s="27" t="s">
         <v>10</v>
@@ -38477,7 +38606,7 @@
       <c r="AR62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AS62" s="49"/>
+      <c r="AS62" s="50"/>
       <c r="AT62" s="28"/>
       <c r="AU62" s="27" t="s">
         <v>10</v>
@@ -38488,7 +38617,7 @@
       <c r="AW62" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX62" s="49"/>
+      <c r="AX62" s="50"/>
       <c r="AY62" s="28"/>
       <c r="AZ62" s="27" t="s">
         <v>10</v>
@@ -38580,31 +38709,43 @@
       <c r="AE63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="31"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="49"/>
+      <c r="AF63" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="AG63" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="AH63" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="AI63" s="50"/>
       <c r="AJ63" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AK63" s="19"/>
       <c r="AL63" s="31"/>
       <c r="AM63" s="19"/>
-      <c r="AN63" s="49"/>
+      <c r="AN63" s="50"/>
       <c r="AO63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AP63" s="19"/>
-      <c r="AQ63" s="31"/>
-      <c r="AR63" s="19"/>
-      <c r="AS63" s="49"/>
+      <c r="AP63" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="AQ63" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="AR63" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="AS63" s="50"/>
       <c r="AT63" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AU63" s="19"/>
       <c r="AV63" s="31"/>
       <c r="AW63" s="19"/>
-      <c r="AX63" s="49"/>
+      <c r="AX63" s="50"/>
       <c r="AY63" s="29" t="s">
         <v>58</v>
       </c>
@@ -38692,31 +38833,43 @@
       <c r="AE64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="31"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="49"/>
+      <c r="AF64" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="AG64" s="31">
+        <v>0.69</v>
+      </c>
+      <c r="AH64" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="AI64" s="50"/>
       <c r="AJ64" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AK64" s="19"/>
       <c r="AL64" s="31"/>
       <c r="AM64" s="19"/>
-      <c r="AN64" s="49"/>
+      <c r="AN64" s="50"/>
       <c r="AO64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="31"/>
-      <c r="AR64" s="19"/>
-      <c r="AS64" s="49"/>
+      <c r="AP64" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="AQ64" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="AR64" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="AS64" s="50"/>
       <c r="AT64" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AU64" s="19"/>
       <c r="AV64" s="31"/>
       <c r="AW64" s="19"/>
-      <c r="AX64" s="49"/>
+      <c r="AX64" s="50"/>
       <c r="AY64" s="29" t="s">
         <v>59</v>
       </c>
@@ -38788,31 +38941,43 @@
       <c r="AE65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="31"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="49"/>
+      <c r="AF65" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AG65" s="31">
+        <v>0.71</v>
+      </c>
+      <c r="AH65" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AI65" s="50"/>
       <c r="AJ65" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AK65" s="19"/>
       <c r="AL65" s="31"/>
       <c r="AM65" s="19"/>
-      <c r="AN65" s="49"/>
+      <c r="AN65" s="50"/>
       <c r="AO65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AP65" s="19"/>
-      <c r="AQ65" s="31"/>
-      <c r="AR65" s="19"/>
-      <c r="AS65" s="49"/>
+      <c r="AP65" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AQ65" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="AR65" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AS65" s="50"/>
       <c r="AT65" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AU65" s="19"/>
       <c r="AV65" s="31"/>
       <c r="AW65" s="19"/>
-      <c r="AX65" s="49"/>
+      <c r="AX65" s="50"/>
       <c r="AY65" s="29" t="s">
         <v>60</v>
       </c>
@@ -38884,31 +39049,43 @@
       <c r="AE66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="31"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="49"/>
+      <c r="AF66" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="AG66" s="31">
+        <v>0.72</v>
+      </c>
+      <c r="AH66" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="AI66" s="50"/>
       <c r="AJ66" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AK66" s="19"/>
       <c r="AL66" s="31"/>
       <c r="AM66" s="19"/>
-      <c r="AN66" s="49"/>
+      <c r="AN66" s="50"/>
       <c r="AO66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP66" s="19"/>
-      <c r="AQ66" s="31"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="49"/>
+      <c r="AP66" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="AQ66" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="AR66" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="AS66" s="50"/>
       <c r="AT66" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AU66" s="19"/>
       <c r="AV66" s="31"/>
       <c r="AW66" s="19"/>
-      <c r="AX66" s="49"/>
+      <c r="AX66" s="50"/>
       <c r="AY66" s="29" t="s">
         <v>61</v>
       </c>
@@ -38948,31 +39125,43 @@
       <c r="AE67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="31"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="49"/>
+      <c r="AF67" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AG67" s="31">
+        <v>0.68</v>
+      </c>
+      <c r="AH67" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="AI67" s="50"/>
       <c r="AJ67" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AK67" s="19"/>
       <c r="AL67" s="31"/>
       <c r="AM67" s="19"/>
-      <c r="AN67" s="49"/>
+      <c r="AN67" s="50"/>
       <c r="AO67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AP67" s="19"/>
-      <c r="AQ67" s="31"/>
-      <c r="AR67" s="19"/>
-      <c r="AS67" s="49"/>
+      <c r="AP67" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="AQ67" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="AR67" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="AS67" s="50"/>
       <c r="AT67" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AU67" s="19"/>
       <c r="AV67" s="31"/>
       <c r="AW67" s="19"/>
-      <c r="AX67" s="49"/>
+      <c r="AX67" s="50"/>
       <c r="AY67" s="29" t="s">
         <v>62</v>
       </c>
@@ -39012,31 +39201,43 @@
       <c r="AE68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AF68" s="30"/>
-      <c r="AG68" s="32"/>
-      <c r="AH68" s="30"/>
-      <c r="AI68" s="49"/>
+      <c r="AF68" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="AG68" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="AH68" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="AI68" s="50"/>
       <c r="AJ68" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AK68" s="30"/>
       <c r="AL68" s="32"/>
       <c r="AM68" s="30"/>
-      <c r="AN68" s="49"/>
+      <c r="AN68" s="50"/>
       <c r="AO68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AP68" s="30"/>
-      <c r="AQ68" s="32"/>
-      <c r="AR68" s="30"/>
-      <c r="AS68" s="49"/>
+      <c r="AP68" s="30">
+        <v>0.66</v>
+      </c>
+      <c r="AQ68" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="AR68" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="AS68" s="50"/>
       <c r="AT68" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AU68" s="30"/>
       <c r="AV68" s="32"/>
       <c r="AW68" s="30"/>
-      <c r="AX68" s="49"/>
+      <c r="AX68" s="50"/>
       <c r="AY68" s="29" t="s">
         <v>63</v>
       </c>
@@ -39045,194 +39246,194 @@
       <c r="BB68" s="30"/>
     </row>
     <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="47"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="47"/>
-      <c r="AL69" s="47"/>
-      <c r="AM69" s="48"/>
-      <c r="AN69" s="49"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
-      <c r="AQ69" s="47"/>
-      <c r="AR69" s="47"/>
-      <c r="AS69" s="49"/>
-      <c r="AT69" s="47"/>
-      <c r="AU69" s="47"/>
-      <c r="AV69" s="47"/>
-      <c r="AW69" s="48"/>
-      <c r="AX69" s="49"/>
-      <c r="AY69" s="47"/>
-      <c r="AZ69" s="47"/>
-      <c r="BA69" s="47"/>
-      <c r="BB69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="50"/>
+      <c r="AO69" s="48"/>
+      <c r="AP69" s="48"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="48"/>
+      <c r="AS69" s="50"/>
+      <c r="AT69" s="48"/>
+      <c r="AU69" s="48"/>
+      <c r="AV69" s="48"/>
+      <c r="AW69" s="49"/>
+      <c r="AX69" s="50"/>
+      <c r="AY69" s="48"/>
+      <c r="AZ69" s="48"/>
+      <c r="BA69" s="48"/>
+      <c r="BB69" s="49"/>
     </row>
     <row r="70" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="50"/>
-      <c r="AI70" s="49"/>
-      <c r="AJ70" s="49"/>
-      <c r="AK70" s="49"/>
-      <c r="AL70" s="49"/>
-      <c r="AM70" s="50"/>
-      <c r="AN70" s="49"/>
-      <c r="AO70" s="49"/>
-      <c r="AP70" s="49"/>
-      <c r="AQ70" s="49"/>
-      <c r="AR70" s="49"/>
-      <c r="AS70" s="49"/>
-      <c r="AT70" s="49"/>
-      <c r="AU70" s="49"/>
-      <c r="AV70" s="49"/>
-      <c r="AW70" s="50"/>
-      <c r="AX70" s="49"/>
-      <c r="AY70" s="49"/>
-      <c r="AZ70" s="49"/>
-      <c r="BA70" s="49"/>
-      <c r="BB70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="51"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="50"/>
+      <c r="AL70" s="50"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="50"/>
+      <c r="AO70" s="50"/>
+      <c r="AP70" s="50"/>
+      <c r="AQ70" s="50"/>
+      <c r="AR70" s="50"/>
+      <c r="AS70" s="50"/>
+      <c r="AT70" s="50"/>
+      <c r="AU70" s="50"/>
+      <c r="AV70" s="50"/>
+      <c r="AW70" s="51"/>
+      <c r="AX70" s="50"/>
+      <c r="AY70" s="50"/>
+      <c r="AZ70" s="50"/>
+      <c r="BA70" s="50"/>
+      <c r="BB70" s="51"/>
     </row>
     <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="50"/>
-      <c r="AI71" s="49"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="49"/>
-      <c r="AL71" s="49"/>
-      <c r="AM71" s="50"/>
-      <c r="AN71" s="49"/>
-      <c r="AO71" s="49"/>
-      <c r="AP71" s="49"/>
-      <c r="AQ71" s="49"/>
-      <c r="AR71" s="49"/>
-      <c r="AS71" s="49"/>
-      <c r="AT71" s="49"/>
-      <c r="AU71" s="49"/>
-      <c r="AV71" s="49"/>
-      <c r="AW71" s="50"/>
-      <c r="AX71" s="49"/>
-      <c r="AY71" s="49"/>
-      <c r="AZ71" s="49"/>
-      <c r="BA71" s="49"/>
-      <c r="BB71" s="50"/>
+      <c r="AE71" s="50"/>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="51"/>
+      <c r="AI71" s="50"/>
+      <c r="AJ71" s="50"/>
+      <c r="AK71" s="50"/>
+      <c r="AL71" s="50"/>
+      <c r="AM71" s="51"/>
+      <c r="AN71" s="50"/>
+      <c r="AO71" s="50"/>
+      <c r="AP71" s="50"/>
+      <c r="AQ71" s="50"/>
+      <c r="AR71" s="50"/>
+      <c r="AS71" s="50"/>
+      <c r="AT71" s="50"/>
+      <c r="AU71" s="50"/>
+      <c r="AV71" s="50"/>
+      <c r="AW71" s="51"/>
+      <c r="AX71" s="50"/>
+      <c r="AY71" s="50"/>
+      <c r="AZ71" s="50"/>
+      <c r="BA71" s="50"/>
+      <c r="BB71" s="51"/>
     </row>
     <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE72" s="51"/>
-      <c r="AF72" s="51"/>
-      <c r="AG72" s="51"/>
-      <c r="AH72" s="52"/>
-      <c r="AI72" s="49"/>
-      <c r="AJ72" s="51"/>
-      <c r="AK72" s="51"/>
-      <c r="AL72" s="51"/>
-      <c r="AM72" s="52"/>
-      <c r="AN72" s="49"/>
-      <c r="AO72" s="49"/>
-      <c r="AP72" s="49"/>
-      <c r="AQ72" s="49"/>
-      <c r="AR72" s="49"/>
-      <c r="AS72" s="49"/>
-      <c r="AT72" s="51"/>
-      <c r="AU72" s="51"/>
-      <c r="AV72" s="51"/>
-      <c r="AW72" s="52"/>
-      <c r="AX72" s="49"/>
-      <c r="AY72" s="51"/>
-      <c r="AZ72" s="51"/>
-      <c r="BA72" s="51"/>
-      <c r="BB72" s="52"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="52"/>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="53"/>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="53"/>
+      <c r="AN72" s="50"/>
+      <c r="AO72" s="50"/>
+      <c r="AP72" s="50"/>
+      <c r="AQ72" s="50"/>
+      <c r="AR72" s="50"/>
+      <c r="AS72" s="50"/>
+      <c r="AT72" s="52"/>
+      <c r="AU72" s="52"/>
+      <c r="AV72" s="52"/>
+      <c r="AW72" s="53"/>
+      <c r="AX72" s="50"/>
+      <c r="AY72" s="52"/>
+      <c r="AZ72" s="52"/>
+      <c r="BA72" s="52"/>
+      <c r="BB72" s="53"/>
     </row>
     <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE73" s="53" t="s">
+      <c r="AE73" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AF73" s="54"/>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="55"/>
-      <c r="AI73" s="49"/>
-      <c r="AJ73" s="53" t="s">
+      <c r="AF73" s="55"/>
+      <c r="AG73" s="55"/>
+      <c r="AH73" s="56"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AK73" s="54"/>
-      <c r="AL73" s="54"/>
-      <c r="AM73" s="55"/>
-      <c r="AN73" s="49"/>
-      <c r="AO73" s="49"/>
-      <c r="AP73" s="49"/>
-      <c r="AQ73" s="49"/>
-      <c r="AR73" s="49"/>
-      <c r="AS73" s="49"/>
-      <c r="AT73" s="54" t="s">
+      <c r="AK73" s="55"/>
+      <c r="AL73" s="55"/>
+      <c r="AM73" s="56"/>
+      <c r="AN73" s="50"/>
+      <c r="AO73" s="50"/>
+      <c r="AP73" s="50"/>
+      <c r="AQ73" s="50"/>
+      <c r="AR73" s="50"/>
+      <c r="AS73" s="50"/>
+      <c r="AT73" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AU73" s="54"/>
-      <c r="AV73" s="54"/>
-      <c r="AW73" s="55"/>
-      <c r="AX73" s="49"/>
-      <c r="AY73" s="53" t="s">
+      <c r="AU73" s="55"/>
+      <c r="AV73" s="55"/>
+      <c r="AW73" s="56"/>
+      <c r="AX73" s="50"/>
+      <c r="AY73" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AZ73" s="54"/>
-      <c r="BA73" s="54"/>
-      <c r="BB73" s="55"/>
+      <c r="AZ73" s="55"/>
+      <c r="BA73" s="55"/>
+      <c r="BB73" s="56"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE74" s="56"/>
-      <c r="AF74" s="57"/>
-      <c r="AG74" s="57"/>
-      <c r="AH74" s="58"/>
-      <c r="AI74" s="49"/>
-      <c r="AJ74" s="56"/>
-      <c r="AK74" s="57"/>
-      <c r="AL74" s="57"/>
-      <c r="AM74" s="58"/>
-      <c r="AN74" s="49"/>
-      <c r="AO74" s="49"/>
-      <c r="AP74" s="49"/>
-      <c r="AQ74" s="49"/>
-      <c r="AR74" s="49"/>
-      <c r="AS74" s="49"/>
-      <c r="AT74" s="57"/>
-      <c r="AU74" s="57"/>
-      <c r="AV74" s="57"/>
-      <c r="AW74" s="58"/>
-      <c r="AX74" s="49"/>
-      <c r="AY74" s="56"/>
-      <c r="AZ74" s="57"/>
-      <c r="BA74" s="57"/>
-      <c r="BB74" s="58"/>
+      <c r="AE74" s="57"/>
+      <c r="AF74" s="58"/>
+      <c r="AG74" s="58"/>
+      <c r="AH74" s="59"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="57"/>
+      <c r="AK74" s="58"/>
+      <c r="AL74" s="58"/>
+      <c r="AM74" s="59"/>
+      <c r="AN74" s="50"/>
+      <c r="AO74" s="50"/>
+      <c r="AP74" s="50"/>
+      <c r="AQ74" s="50"/>
+      <c r="AR74" s="50"/>
+      <c r="AS74" s="50"/>
+      <c r="AT74" s="58"/>
+      <c r="AU74" s="58"/>
+      <c r="AV74" s="58"/>
+      <c r="AW74" s="59"/>
+      <c r="AX74" s="50"/>
+      <c r="AY74" s="57"/>
+      <c r="AZ74" s="58"/>
+      <c r="BA74" s="58"/>
+      <c r="BB74" s="59"/>
     </row>
     <row r="75" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE75" s="59"/>
-      <c r="AF75" s="60"/>
-      <c r="AG75" s="60"/>
-      <c r="AH75" s="61"/>
-      <c r="AI75" s="49"/>
-      <c r="AJ75" s="59"/>
-      <c r="AK75" s="60"/>
-      <c r="AL75" s="60"/>
-      <c r="AM75" s="61"/>
-      <c r="AN75" s="49"/>
-      <c r="AO75" s="49"/>
-      <c r="AP75" s="49"/>
-      <c r="AQ75" s="49"/>
-      <c r="AR75" s="49"/>
-      <c r="AS75" s="49"/>
-      <c r="AT75" s="60"/>
-      <c r="AU75" s="60"/>
-      <c r="AV75" s="60"/>
-      <c r="AW75" s="61"/>
-      <c r="AX75" s="49"/>
-      <c r="AY75" s="59"/>
-      <c r="AZ75" s="60"/>
-      <c r="BA75" s="60"/>
-      <c r="BB75" s="61"/>
+      <c r="AE75" s="60"/>
+      <c r="AF75" s="61"/>
+      <c r="AG75" s="61"/>
+      <c r="AH75" s="62"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="60"/>
+      <c r="AK75" s="61"/>
+      <c r="AL75" s="61"/>
+      <c r="AM75" s="62"/>
+      <c r="AN75" s="50"/>
+      <c r="AO75" s="50"/>
+      <c r="AP75" s="50"/>
+      <c r="AQ75" s="50"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="50"/>
+      <c r="AT75" s="61"/>
+      <c r="AU75" s="61"/>
+      <c r="AV75" s="61"/>
+      <c r="AW75" s="62"/>
+      <c r="AX75" s="50"/>
+      <c r="AY75" s="60"/>
+      <c r="AZ75" s="61"/>
+      <c r="BA75" s="61"/>
+      <c r="BB75" s="62"/>
     </row>
     <row r="76" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE76" s="20"/>
@@ -39245,7 +39446,7 @@
       <c r="AH76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AI76" s="49"/>
+      <c r="AI76" s="50"/>
       <c r="AJ76" s="20"/>
       <c r="AK76" s="22" t="s">
         <v>10</v>
@@ -39256,12 +39457,12 @@
       <c r="AM76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AN76" s="49"/>
-      <c r="AO76" s="49"/>
-      <c r="AP76" s="49"/>
-      <c r="AQ76" s="49"/>
-      <c r="AR76" s="49"/>
-      <c r="AS76" s="49"/>
+      <c r="AN76" s="50"/>
+      <c r="AO76" s="50"/>
+      <c r="AP76" s="50"/>
+      <c r="AQ76" s="50"/>
+      <c r="AR76" s="50"/>
+      <c r="AS76" s="50"/>
       <c r="AT76" s="25"/>
       <c r="AU76" s="22" t="s">
         <v>10</v>
@@ -39272,7 +39473,7 @@
       <c r="AW76" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX76" s="49"/>
+      <c r="AX76" s="50"/>
       <c r="AY76" s="20"/>
       <c r="AZ76" s="22" t="s">
         <v>10</v>
@@ -39297,7 +39498,7 @@
       <c r="AH77" s="23">
         <v>0.96</v>
       </c>
-      <c r="AI77" s="49"/>
+      <c r="AI77" s="50"/>
       <c r="AJ77" s="21" t="s">
         <v>58</v>
       </c>
@@ -39310,25 +39511,37 @@
       <c r="AM77" s="23">
         <v>0.96</v>
       </c>
-      <c r="AN77" s="49"/>
-      <c r="AO77" s="49"/>
-      <c r="AP77" s="49"/>
-      <c r="AQ77" s="49"/>
-      <c r="AR77" s="49"/>
-      <c r="AS77" s="49"/>
+      <c r="AN77" s="50"/>
+      <c r="AO77" s="50"/>
+      <c r="AP77" s="50"/>
+      <c r="AQ77" s="50"/>
+      <c r="AR77" s="50"/>
+      <c r="AS77" s="50"/>
       <c r="AT77" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="23"/>
-      <c r="AV77" s="24"/>
-      <c r="AW77" s="23"/>
-      <c r="AX77" s="49"/>
+      <c r="AU77" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AV77" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="AW77" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AX77" s="50"/>
       <c r="AY77" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AZ77" s="23"/>
-      <c r="BA77" s="24"/>
-      <c r="BB77" s="23"/>
+      <c r="AZ77" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="BA77" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="BB77" s="23">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="78" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE78" s="21" t="s">
@@ -39343,7 +39556,7 @@
       <c r="AH78" s="23">
         <v>0.92</v>
       </c>
-      <c r="AI78" s="49"/>
+      <c r="AI78" s="50"/>
       <c r="AJ78" s="21" t="s">
         <v>59</v>
       </c>
@@ -39356,25 +39569,37 @@
       <c r="AM78" s="23">
         <v>0.94</v>
       </c>
-      <c r="AN78" s="49"/>
-      <c r="AO78" s="49"/>
-      <c r="AP78" s="49"/>
-      <c r="AQ78" s="49"/>
-      <c r="AR78" s="49"/>
-      <c r="AS78" s="49"/>
+      <c r="AN78" s="50"/>
+      <c r="AO78" s="50"/>
+      <c r="AP78" s="50"/>
+      <c r="AQ78" s="50"/>
+      <c r="AR78" s="50"/>
+      <c r="AS78" s="50"/>
       <c r="AT78" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AU78" s="23"/>
-      <c r="AV78" s="24"/>
-      <c r="AW78" s="23"/>
-      <c r="AX78" s="49"/>
+      <c r="AU78" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AV78" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="AW78" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="AX78" s="50"/>
       <c r="AY78" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AZ78" s="23"/>
-      <c r="BA78" s="24"/>
-      <c r="BB78" s="23"/>
+      <c r="AZ78" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="BA78" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="BB78" s="23">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="79" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE79" s="21" t="s">
@@ -39389,7 +39614,7 @@
       <c r="AH79" s="23">
         <v>0.92</v>
       </c>
-      <c r="AI79" s="49"/>
+      <c r="AI79" s="50"/>
       <c r="AJ79" s="21" t="s">
         <v>60</v>
       </c>
@@ -39402,25 +39627,37 @@
       <c r="AM79" s="23">
         <v>0.91</v>
       </c>
-      <c r="AN79" s="49"/>
-      <c r="AO79" s="49"/>
-      <c r="AP79" s="49"/>
-      <c r="AQ79" s="49"/>
-      <c r="AR79" s="49"/>
-      <c r="AS79" s="49"/>
+      <c r="AN79" s="50"/>
+      <c r="AO79" s="50"/>
+      <c r="AP79" s="50"/>
+      <c r="AQ79" s="50"/>
+      <c r="AR79" s="50"/>
+      <c r="AS79" s="50"/>
       <c r="AT79" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AU79" s="23"/>
-      <c r="AV79" s="24"/>
-      <c r="AW79" s="23"/>
-      <c r="AX79" s="49"/>
+      <c r="AU79" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AV79" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AW79" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AX79" s="50"/>
       <c r="AY79" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AZ79" s="23"/>
-      <c r="BA79" s="24"/>
-      <c r="BB79" s="23"/>
+      <c r="AZ79" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="BA79" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="BB79" s="23">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="80" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE80" s="21" t="s">
@@ -39435,7 +39672,7 @@
       <c r="AH80" s="23">
         <v>0.93</v>
       </c>
-      <c r="AI80" s="49"/>
+      <c r="AI80" s="50"/>
       <c r="AJ80" s="21" t="s">
         <v>61</v>
       </c>
@@ -39448,25 +39685,37 @@
       <c r="AM80" s="23">
         <v>0.97</v>
       </c>
-      <c r="AN80" s="49"/>
-      <c r="AO80" s="49"/>
-      <c r="AP80" s="49"/>
-      <c r="AQ80" s="49"/>
-      <c r="AR80" s="49"/>
-      <c r="AS80" s="49"/>
+      <c r="AN80" s="50"/>
+      <c r="AO80" s="50"/>
+      <c r="AP80" s="50"/>
+      <c r="AQ80" s="50"/>
+      <c r="AR80" s="50"/>
+      <c r="AS80" s="50"/>
       <c r="AT80" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AU80" s="23"/>
-      <c r="AV80" s="24"/>
-      <c r="AW80" s="23"/>
-      <c r="AX80" s="49"/>
+      <c r="AU80" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AV80" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AW80" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AX80" s="50"/>
       <c r="AY80" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AZ80" s="23"/>
-      <c r="BA80" s="24"/>
-      <c r="BB80" s="23"/>
+      <c r="AZ80" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="BA80" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="BB80" s="23">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="81" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE81" s="21" t="s">
@@ -39481,7 +39730,7 @@
       <c r="AH81" s="23">
         <v>0.89</v>
       </c>
-      <c r="AI81" s="49"/>
+      <c r="AI81" s="50"/>
       <c r="AJ81" s="21" t="s">
         <v>62</v>
       </c>
@@ -39494,25 +39743,37 @@
       <c r="AM81" s="23">
         <v>0.97</v>
       </c>
-      <c r="AN81" s="49"/>
-      <c r="AO81" s="49"/>
-      <c r="AP81" s="49"/>
-      <c r="AQ81" s="49"/>
-      <c r="AR81" s="49"/>
-      <c r="AS81" s="49"/>
+      <c r="AN81" s="50"/>
+      <c r="AO81" s="50"/>
+      <c r="AP81" s="50"/>
+      <c r="AQ81" s="50"/>
+      <c r="AR81" s="50"/>
+      <c r="AS81" s="50"/>
       <c r="AT81" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AU81" s="23"/>
-      <c r="AV81" s="24"/>
-      <c r="AW81" s="23"/>
-      <c r="AX81" s="49"/>
+      <c r="AU81" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AV81" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="AW81" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="AX81" s="50"/>
       <c r="AY81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AZ81" s="23"/>
-      <c r="BA81" s="24"/>
-      <c r="BB81" s="23"/>
+      <c r="AZ81" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="BA81" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="BB81" s="23">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="82" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE82" s="21" t="s">
@@ -39527,7 +39788,7 @@
       <c r="AH82" s="23">
         <v>0.96</v>
       </c>
-      <c r="AI82" s="49"/>
+      <c r="AI82" s="50"/>
       <c r="AJ82" s="21" t="s">
         <v>63</v>
       </c>
@@ -39540,111 +39801,123 @@
       <c r="AM82" s="23">
         <v>0.96</v>
       </c>
-      <c r="AN82" s="49"/>
-      <c r="AO82" s="49"/>
-      <c r="AP82" s="49"/>
-      <c r="AQ82" s="49"/>
-      <c r="AR82" s="49"/>
-      <c r="AS82" s="49"/>
+      <c r="AN82" s="50"/>
+      <c r="AO82" s="50"/>
+      <c r="AP82" s="50"/>
+      <c r="AQ82" s="50"/>
+      <c r="AR82" s="50"/>
+      <c r="AS82" s="50"/>
       <c r="AT82" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AU82" s="23"/>
-      <c r="AV82" s="24"/>
-      <c r="AW82" s="23"/>
-      <c r="AX82" s="49"/>
+      <c r="AU82" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="AV82" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="AW82" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AX82" s="50"/>
       <c r="AY82" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ82" s="23"/>
-      <c r="BA82" s="24"/>
-      <c r="BB82" s="23"/>
+      <c r="AZ82" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="BA82" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="BB82" s="23">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="83" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE83" s="62" t="s">
+      <c r="AE83" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AF83" s="63"/>
-      <c r="AG83" s="63"/>
-      <c r="AH83" s="64"/>
-      <c r="AI83" s="49"/>
-      <c r="AJ83" s="62" t="s">
+      <c r="AF83" s="64"/>
+      <c r="AG83" s="64"/>
+      <c r="AH83" s="65"/>
+      <c r="AI83" s="50"/>
+      <c r="AJ83" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AK83" s="63"/>
-      <c r="AL83" s="63"/>
-      <c r="AM83" s="64"/>
-      <c r="AN83" s="49"/>
-      <c r="AO83" s="49"/>
-      <c r="AP83" s="49"/>
-      <c r="AQ83" s="49"/>
-      <c r="AR83" s="49"/>
-      <c r="AS83" s="49"/>
-      <c r="AT83" s="63" t="s">
+      <c r="AK83" s="64"/>
+      <c r="AL83" s="64"/>
+      <c r="AM83" s="65"/>
+      <c r="AN83" s="50"/>
+      <c r="AO83" s="50"/>
+      <c r="AP83" s="50"/>
+      <c r="AQ83" s="50"/>
+      <c r="AR83" s="50"/>
+      <c r="AS83" s="50"/>
+      <c r="AT83" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="AU83" s="63"/>
-      <c r="AV83" s="63"/>
-      <c r="AW83" s="64"/>
-      <c r="AX83" s="49"/>
-      <c r="AY83" s="62" t="s">
+      <c r="AU83" s="64"/>
+      <c r="AV83" s="64"/>
+      <c r="AW83" s="65"/>
+      <c r="AX83" s="50"/>
+      <c r="AY83" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AZ83" s="63"/>
-      <c r="BA83" s="63"/>
-      <c r="BB83" s="64"/>
+      <c r="AZ83" s="64"/>
+      <c r="BA83" s="64"/>
+      <c r="BB83" s="65"/>
     </row>
     <row r="84" spans="31:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE84" s="65"/>
-      <c r="AF84" s="66"/>
-      <c r="AG84" s="66"/>
-      <c r="AH84" s="67"/>
-      <c r="AI84" s="49"/>
-      <c r="AJ84" s="65"/>
-      <c r="AK84" s="66"/>
-      <c r="AL84" s="66"/>
-      <c r="AM84" s="67"/>
-      <c r="AN84" s="49"/>
-      <c r="AO84" s="49"/>
-      <c r="AP84" s="49"/>
-      <c r="AQ84" s="49"/>
-      <c r="AR84" s="49"/>
-      <c r="AS84" s="49"/>
-      <c r="AT84" s="66"/>
-      <c r="AU84" s="66"/>
-      <c r="AV84" s="66"/>
-      <c r="AW84" s="67"/>
-      <c r="AX84" s="49"/>
-      <c r="AY84" s="65"/>
-      <c r="AZ84" s="66"/>
-      <c r="BA84" s="66"/>
-      <c r="BB84" s="67"/>
+      <c r="AE84" s="66"/>
+      <c r="AF84" s="67"/>
+      <c r="AG84" s="67"/>
+      <c r="AH84" s="68"/>
+      <c r="AI84" s="50"/>
+      <c r="AJ84" s="66"/>
+      <c r="AK84" s="67"/>
+      <c r="AL84" s="67"/>
+      <c r="AM84" s="68"/>
+      <c r="AN84" s="50"/>
+      <c r="AO84" s="50"/>
+      <c r="AP84" s="50"/>
+      <c r="AQ84" s="50"/>
+      <c r="AR84" s="50"/>
+      <c r="AS84" s="50"/>
+      <c r="AT84" s="67"/>
+      <c r="AU84" s="67"/>
+      <c r="AV84" s="67"/>
+      <c r="AW84" s="68"/>
+      <c r="AX84" s="50"/>
+      <c r="AY84" s="66"/>
+      <c r="AZ84" s="67"/>
+      <c r="BA84" s="67"/>
+      <c r="BB84" s="68"/>
     </row>
     <row r="85" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE85" s="68"/>
-      <c r="AF85" s="69"/>
-      <c r="AG85" s="69"/>
-      <c r="AH85" s="70"/>
-      <c r="AI85" s="49"/>
-      <c r="AJ85" s="68"/>
-      <c r="AK85" s="69"/>
-      <c r="AL85" s="69"/>
-      <c r="AM85" s="70"/>
-      <c r="AN85" s="49"/>
-      <c r="AO85" s="49"/>
-      <c r="AP85" s="49"/>
-      <c r="AQ85" s="49"/>
-      <c r="AR85" s="49"/>
-      <c r="AS85" s="49"/>
-      <c r="AT85" s="69"/>
-      <c r="AU85" s="69"/>
-      <c r="AV85" s="69"/>
-      <c r="AW85" s="70"/>
-      <c r="AX85" s="49"/>
-      <c r="AY85" s="68"/>
-      <c r="AZ85" s="69"/>
-      <c r="BA85" s="69"/>
-      <c r="BB85" s="70"/>
+      <c r="AE85" s="69"/>
+      <c r="AF85" s="70"/>
+      <c r="AG85" s="70"/>
+      <c r="AH85" s="71"/>
+      <c r="AI85" s="50"/>
+      <c r="AJ85" s="69"/>
+      <c r="AK85" s="70"/>
+      <c r="AL85" s="70"/>
+      <c r="AM85" s="71"/>
+      <c r="AN85" s="50"/>
+      <c r="AO85" s="50"/>
+      <c r="AP85" s="50"/>
+      <c r="AQ85" s="50"/>
+      <c r="AR85" s="50"/>
+      <c r="AS85" s="50"/>
+      <c r="AT85" s="70"/>
+      <c r="AU85" s="70"/>
+      <c r="AV85" s="70"/>
+      <c r="AW85" s="71"/>
+      <c r="AX85" s="50"/>
+      <c r="AY85" s="69"/>
+      <c r="AZ85" s="70"/>
+      <c r="BA85" s="70"/>
+      <c r="BB85" s="71"/>
     </row>
     <row r="86" spans="31:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE86" s="28"/>
@@ -39657,7 +39930,7 @@
       <c r="AH86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI86" s="49"/>
+      <c r="AI86" s="50"/>
       <c r="AJ86" s="28"/>
       <c r="AK86" s="27" t="s">
         <v>10</v>
@@ -39668,12 +39941,12 @@
       <c r="AM86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AN86" s="49"/>
-      <c r="AO86" s="49"/>
-      <c r="AP86" s="49"/>
-      <c r="AQ86" s="49"/>
-      <c r="AR86" s="49"/>
-      <c r="AS86" s="49"/>
+      <c r="AN86" s="50"/>
+      <c r="AO86" s="50"/>
+      <c r="AP86" s="50"/>
+      <c r="AQ86" s="50"/>
+      <c r="AR86" s="50"/>
+      <c r="AS86" s="50"/>
       <c r="AT86" s="28"/>
       <c r="AU86" s="27" t="s">
         <v>10</v>
@@ -39684,7 +39957,7 @@
       <c r="AW86" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AX86" s="49"/>
+      <c r="AX86" s="50"/>
       <c r="AY86" s="28"/>
       <c r="AZ86" s="27" t="s">
         <v>10</v>
@@ -39703,26 +39976,26 @@
       <c r="AF87" s="19"/>
       <c r="AG87" s="31"/>
       <c r="AH87" s="19"/>
-      <c r="AI87" s="49"/>
+      <c r="AI87" s="50"/>
       <c r="AJ87" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AK87" s="19"/>
       <c r="AL87" s="31"/>
       <c r="AM87" s="19"/>
-      <c r="AN87" s="49"/>
-      <c r="AO87" s="49"/>
-      <c r="AP87" s="49"/>
-      <c r="AQ87" s="49"/>
-      <c r="AR87" s="49"/>
-      <c r="AS87" s="49"/>
+      <c r="AN87" s="50"/>
+      <c r="AO87" s="50"/>
+      <c r="AP87" s="50"/>
+      <c r="AQ87" s="50"/>
+      <c r="AR87" s="50"/>
+      <c r="AS87" s="50"/>
       <c r="AT87" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AU87" s="19"/>
       <c r="AV87" s="31"/>
       <c r="AW87" s="19"/>
-      <c r="AX87" s="49"/>
+      <c r="AX87" s="50"/>
       <c r="AY87" s="29" t="s">
         <v>58</v>
       </c>
@@ -39737,26 +40010,26 @@
       <c r="AF88" s="19"/>
       <c r="AG88" s="31"/>
       <c r="AH88" s="19"/>
-      <c r="AI88" s="49"/>
+      <c r="AI88" s="50"/>
       <c r="AJ88" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AK88" s="19"/>
       <c r="AL88" s="31"/>
       <c r="AM88" s="19"/>
-      <c r="AN88" s="49"/>
-      <c r="AO88" s="49"/>
-      <c r="AP88" s="49"/>
-      <c r="AQ88" s="49"/>
-      <c r="AR88" s="49"/>
-      <c r="AS88" s="49"/>
+      <c r="AN88" s="50"/>
+      <c r="AO88" s="50"/>
+      <c r="AP88" s="50"/>
+      <c r="AQ88" s="50"/>
+      <c r="AR88" s="50"/>
+      <c r="AS88" s="50"/>
       <c r="AT88" s="29" t="s">
         <v>59</v>
       </c>
       <c r="AU88" s="19"/>
       <c r="AV88" s="31"/>
       <c r="AW88" s="19"/>
-      <c r="AX88" s="49"/>
+      <c r="AX88" s="50"/>
       <c r="AY88" s="29" t="s">
         <v>59</v>
       </c>
@@ -39771,26 +40044,26 @@
       <c r="AF89" s="19"/>
       <c r="AG89" s="31"/>
       <c r="AH89" s="19"/>
-      <c r="AI89" s="49"/>
+      <c r="AI89" s="50"/>
       <c r="AJ89" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AK89" s="19"/>
       <c r="AL89" s="31"/>
       <c r="AM89" s="19"/>
-      <c r="AN89" s="49"/>
-      <c r="AO89" s="49"/>
-      <c r="AP89" s="49"/>
-      <c r="AQ89" s="49"/>
-      <c r="AR89" s="49"/>
-      <c r="AS89" s="49"/>
+      <c r="AN89" s="50"/>
+      <c r="AO89" s="50"/>
+      <c r="AP89" s="50"/>
+      <c r="AQ89" s="50"/>
+      <c r="AR89" s="50"/>
+      <c r="AS89" s="50"/>
       <c r="AT89" s="29" t="s">
         <v>60</v>
       </c>
       <c r="AU89" s="19"/>
       <c r="AV89" s="31"/>
       <c r="AW89" s="19"/>
-      <c r="AX89" s="49"/>
+      <c r="AX89" s="50"/>
       <c r="AY89" s="29" t="s">
         <v>60</v>
       </c>
@@ -39805,26 +40078,26 @@
       <c r="AF90" s="19"/>
       <c r="AG90" s="31"/>
       <c r="AH90" s="19"/>
-      <c r="AI90" s="49"/>
+      <c r="AI90" s="50"/>
       <c r="AJ90" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AK90" s="19"/>
       <c r="AL90" s="31"/>
       <c r="AM90" s="19"/>
-      <c r="AN90" s="49"/>
-      <c r="AO90" s="49"/>
-      <c r="AP90" s="49"/>
-      <c r="AQ90" s="49"/>
-      <c r="AR90" s="49"/>
-      <c r="AS90" s="49"/>
+      <c r="AN90" s="50"/>
+      <c r="AO90" s="50"/>
+      <c r="AP90" s="50"/>
+      <c r="AQ90" s="50"/>
+      <c r="AR90" s="50"/>
+      <c r="AS90" s="50"/>
       <c r="AT90" s="29" t="s">
         <v>61</v>
       </c>
       <c r="AU90" s="19"/>
       <c r="AV90" s="31"/>
       <c r="AW90" s="19"/>
-      <c r="AX90" s="49"/>
+      <c r="AX90" s="50"/>
       <c r="AY90" s="29" t="s">
         <v>61</v>
       </c>
@@ -39839,26 +40112,26 @@
       <c r="AF91" s="19"/>
       <c r="AG91" s="31"/>
       <c r="AH91" s="19"/>
-      <c r="AI91" s="49"/>
+      <c r="AI91" s="50"/>
       <c r="AJ91" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AK91" s="19"/>
       <c r="AL91" s="31"/>
       <c r="AM91" s="19"/>
-      <c r="AN91" s="49"/>
-      <c r="AO91" s="49"/>
-      <c r="AP91" s="49"/>
-      <c r="AQ91" s="49"/>
-      <c r="AR91" s="49"/>
-      <c r="AS91" s="49"/>
+      <c r="AN91" s="50"/>
+      <c r="AO91" s="50"/>
+      <c r="AP91" s="50"/>
+      <c r="AQ91" s="50"/>
+      <c r="AR91" s="50"/>
+      <c r="AS91" s="50"/>
       <c r="AT91" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AU91" s="19"/>
       <c r="AV91" s="31"/>
       <c r="AW91" s="19"/>
-      <c r="AX91" s="49"/>
+      <c r="AX91" s="50"/>
       <c r="AY91" s="29" t="s">
         <v>62</v>
       </c>
@@ -39873,26 +40146,26 @@
       <c r="AF92" s="30"/>
       <c r="AG92" s="32"/>
       <c r="AH92" s="30"/>
-      <c r="AI92" s="49"/>
+      <c r="AI92" s="50"/>
       <c r="AJ92" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AK92" s="30"/>
       <c r="AL92" s="32"/>
       <c r="AM92" s="30"/>
-      <c r="AN92" s="49"/>
-      <c r="AO92" s="49"/>
-      <c r="AP92" s="49"/>
-      <c r="AQ92" s="49"/>
-      <c r="AR92" s="49"/>
-      <c r="AS92" s="49"/>
+      <c r="AN92" s="50"/>
+      <c r="AO92" s="50"/>
+      <c r="AP92" s="50"/>
+      <c r="AQ92" s="50"/>
+      <c r="AR92" s="50"/>
+      <c r="AS92" s="50"/>
       <c r="AT92" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AU92" s="30"/>
       <c r="AV92" s="32"/>
       <c r="AW92" s="30"/>
-      <c r="AX92" s="49"/>
+      <c r="AX92" s="50"/>
       <c r="AY92" s="29" t="s">
         <v>63</v>
       </c>
@@ -39953,6 +40226,9 @@
     <mergeCell ref="AO23:AR26"/>
     <mergeCell ref="AT37:AW39"/>
     <mergeCell ref="AY37:BB39"/>
+    <mergeCell ref="BH3:BL5"/>
+    <mergeCell ref="BH11:BL13"/>
+    <mergeCell ref="BM3:BQ5"/>
     <mergeCell ref="AJ37:AM39"/>
     <mergeCell ref="AE73:AH75"/>
     <mergeCell ref="AJ73:AM75"/>
@@ -39970,9 +40246,9 @@
     <mergeCell ref="AY3:BB5"/>
     <mergeCell ref="AT27:AW29"/>
     <mergeCell ref="AT23:AW26"/>
-    <mergeCell ref="BH3:BL5"/>
-    <mergeCell ref="BH11:BL13"/>
-    <mergeCell ref="BM3:BQ5"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="AE13:AH15"/>
+    <mergeCell ref="AJ13:AM15"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="P37:S37"/>
     <mergeCell ref="AE83:AH85"/>
@@ -39985,9 +40261,6 @@
     <mergeCell ref="AY59:BB61"/>
     <mergeCell ref="AI49:AI92"/>
     <mergeCell ref="AN49:AN92"/>
-    <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="AE13:AH15"/>
-    <mergeCell ref="AJ13:AM15"/>
     <mergeCell ref="AN3:AN46"/>
     <mergeCell ref="AI3:AI46"/>
     <mergeCell ref="AE23:AH26"/>
@@ -40082,7 +40355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122FAC1-14A9-4631-87C8-BC63A01CE8FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="DB45" sqref="DB45"/>
     </sheetView>
   </sheetViews>
